--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anbe642/zScience/Circadian_rhythm_runs_seasonal_timing/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27FEC6EA-1062-6246-86FF-B9F36B8F3B7C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A483C033-B043-4E42-B15B-1E143C494C52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52800" yWindow="1080" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -194,14 +194,33 @@
   </si>
   <si>
     <t>Day15_respirometry_date</t>
+  </si>
+  <si>
+    <t>DH</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>Ferris</t>
+  </si>
+  <si>
+    <t>Apple</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -238,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -262,6 +281,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,15 +597,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -625,8 +646,597 @@
         <v>55</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>43328</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>43328</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43332</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>43332</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" s="10">
+        <v>43333</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10">
+        <v>43333</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10">
+        <v>43334</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10">
+        <v>43334</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10">
+        <v>43335</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10">
+        <v>43335</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12" s="10">
+        <v>43336</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10">
+        <v>43336</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43337</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10">
+        <v>43337</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="10">
+        <v>43337</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17" s="10">
+        <v>43338</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18" s="10">
+        <v>43338</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19" s="10">
+        <v>43338</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20" s="10">
+        <v>43339</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21" s="10">
+        <v>43339</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22" s="10">
+        <v>43339</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -638,12 +1248,12 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A483C033-B043-4E42-B15B-1E143C494C52}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA148132-FAAB-4A78-BDC5-B9A47FAF61CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52800" yWindow="1080" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -220,7 +220,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -282,7 +282,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1199,22 +1199,160 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="10"/>
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23" s="10">
+        <v>43340</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>210</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="10"/>
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+      <c r="F24" s="10">
+        <v>43340</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>149</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="10"/>
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25" s="10">
+        <v>43340</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>121</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="10"/>
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26" s="10">
+        <v>43341</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>264</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="10"/>
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+      <c r="F27" s="10">
+        <v>43341</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>101</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F28" s="10"/>
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
+      <c r="F28" s="10">
+        <v>43341</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>119</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" s="10"/>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA148132-FAAB-4A78-BDC5-B9A47FAF61CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7EA99C-A5BF-4D37-9478-CC6EEEAD9C05}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52800" yWindow="1080" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1355,21 +1355,136 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="10"/>
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29" s="10">
+        <v>43342</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>208</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="10"/>
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30" s="10">
+        <v>43342</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>152</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F31" s="10"/>
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31" s="10">
+        <v>43342</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>105</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32" s="10">
+        <v>43343</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="9">
+        <v>43328</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+      <c r="F33" s="10">
+        <v>43343</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F34" s="10"/>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anbe642/zScience/Circadian_rhythm_runs_seasonal_timing/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7EA99C-A5BF-4D37-9478-CC6EEEAD9C05}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CFB3D5-BC38-424D-98E6-BA84D36866A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52800" yWindow="1080" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="84">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -212,6 +212,72 @@
   </si>
   <si>
     <t>Apple</t>
+  </si>
+  <si>
+    <t>Day19_weight</t>
+  </si>
+  <si>
+    <t>Day20_respirometry</t>
+  </si>
+  <si>
+    <t>2018-09-01</t>
+  </si>
+  <si>
+    <t>2018-09-02</t>
+  </si>
+  <si>
+    <t>2018-09-03</t>
+  </si>
+  <si>
+    <t>2018-09-04</t>
+  </si>
+  <si>
+    <t>2018-09-05</t>
+  </si>
+  <si>
+    <t>2018-09-06</t>
+  </si>
+  <si>
+    <t>2018-09-07</t>
+  </si>
+  <si>
+    <t>2018-09-08</t>
+  </si>
+  <si>
+    <t>2018-09-09</t>
+  </si>
+  <si>
+    <t>2018-09-10</t>
+  </si>
+  <si>
+    <t>2018-09-11</t>
+  </si>
+  <si>
+    <t>2018-09-12</t>
+  </si>
+  <si>
+    <t>2018-09-13</t>
+  </si>
+  <si>
+    <t>2018-09-14</t>
+  </si>
+  <si>
+    <t>2018-09-15</t>
+  </si>
+  <si>
+    <t>2018-09-16</t>
+  </si>
+  <si>
+    <t>2018-09-17</t>
+  </si>
+  <si>
+    <t>2018-09-18</t>
+  </si>
+  <si>
+    <t>2018-09-19</t>
+  </si>
+  <si>
+    <t>2018-09-20</t>
   </si>
 </sst>
 </file>
@@ -231,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +307,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -283,6 +355,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,15 +673,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -645,8 +724,14 @@
       <c r="M1" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -674,8 +759,19 @@
       <c r="I2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -703,8 +799,19 @@
       <c r="I3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -729,8 +836,19 @@
       <c r="I4">
         <v>241</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -755,8 +873,19 @@
       <c r="I5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -781,8 +910,19 @@
       <c r="I6">
         <v>232</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -807,8 +947,19 @@
       <c r="I7">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -833,8 +984,31 @@
       <c r="I8">
         <v>298</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -859,60 +1033,129 @@
       <c r="I9">
         <v>153</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="J9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="12">
         <v>43328</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="11">
         <v>8</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="13">
         <v>43335</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="11">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="11">
         <v>316</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="J10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="12">
         <v>43328</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="11">
         <v>8</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="13">
         <v>43335</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="11">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="11">
         <v>152</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -937,8 +1180,31 @@
       <c r="I12">
         <v>302</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -963,86 +1229,178 @@
       <c r="I13">
         <v>142</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="J13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="12">
         <v>43328</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="11">
         <v>10</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="13">
         <v>43337</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="11">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="11">
         <v>357</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="J14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="12">
         <v>43328</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="11">
         <v>10</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="13">
         <v>43337</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="11">
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="11">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="J15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+    </row>
+    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="12">
         <v>43328</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="11">
         <v>10</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="13">
         <v>43337</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="11">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="11">
         <v>177</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1067,8 +1425,31 @@
       <c r="I17">
         <v>313</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1093,8 +1474,31 @@
       <c r="I18">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1119,86 +1523,178 @@
       <c r="I19">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="J19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="12">
         <v>43328</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="11">
         <v>12</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="13">
         <v>43339</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="11">
         <v>1</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="11">
         <v>220</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="J20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+    </row>
+    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="12">
         <v>43328</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="11">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="13">
         <v>43339</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="11">
         <v>2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="11">
         <v>180</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="J21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+    </row>
+    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="12">
         <v>43328</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="11">
         <v>12</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="13">
         <v>43339</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="11">
         <v>1</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="11">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1223,8 +1719,31 @@
       <c r="I23">
         <v>210</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1249,8 +1768,31 @@
       <c r="I24">
         <v>149</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1275,86 +1817,178 @@
       <c r="I25">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="J25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="12">
         <v>43328</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="11">
         <v>14</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="13">
         <v>43341</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="11">
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="11">
         <v>264</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="J26" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+    </row>
+    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="12">
         <v>43328</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="11">
         <v>14</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="13">
         <v>43341</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="11">
         <v>2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="11">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="J27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+    </row>
+    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="12">
         <v>43328</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="11">
         <v>14</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="13">
         <v>43341</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="11">
         <v>1</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="11">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -1379,8 +2013,31 @@
       <c r="I29">
         <v>208</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1405,8 +2062,31 @@
       <c r="I30">
         <v>152</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1431,61 +2111,2005 @@
       <c r="I31">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="J31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="12">
         <v>43328</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <v>16</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="13">
         <v>43343</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="11">
         <v>1</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="11">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="J32" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+    </row>
+    <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="12">
         <v>43328</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="11">
         <v>16</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="13">
         <v>43343</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="11">
         <v>1</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="11">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F34" s="10"/>
+      <c r="J33" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1501,12 +4125,12 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anbe642/zScience/Circadian_rhythm_runs_seasonal_timing/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CFB3D5-BC38-424D-98E6-BA84D36866A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6451F0B9-7CDD-4EAB-84C7-719D188144A7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52800" yWindow="1080" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="85">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>2018-09-20</t>
+  </si>
+  <si>
+    <t>drshfggffd</t>
   </si>
 </sst>
 </file>
@@ -676,15 +679,15 @@
   <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -731,7 +734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -771,7 +774,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -811,7 +814,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -848,7 +851,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -875,7 +878,9 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -885,7 +890,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -922,7 +927,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -959,7 +964,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1008,7 +1013,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1057,7 +1062,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -1106,7 +1111,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1155,7 +1160,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1204,7 +1209,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1253,7 +1258,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
@@ -1302,7 +1307,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -1351,7 +1356,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
@@ -1400,7 +1405,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1449,7 +1454,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1498,7 +1503,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1547,7 +1552,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
@@ -1596,7 +1601,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
@@ -1645,7 +1650,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>58</v>
       </c>
@@ -1694,7 +1699,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1743,7 +1748,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1792,7 +1797,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1841,7 +1846,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>58</v>
       </c>
@@ -1890,7 +1895,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>58</v>
       </c>
@@ -1939,7 +1944,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -1988,7 +1993,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2037,7 +2042,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2086,7 +2091,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2135,7 +2140,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -2184,7 +2189,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -2233,7 +2238,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2263,7 +2268,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2291,7 +2296,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2319,7 +2324,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2347,7 +2352,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2375,7 +2380,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2403,7 +2408,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2431,7 +2436,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2459,7 +2464,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2487,7 +2492,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2515,7 +2520,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2543,7 +2548,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2571,7 +2576,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2599,7 +2604,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2627,7 +2632,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2655,7 +2660,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2683,7 +2688,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2711,7 +2716,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2739,7 +2744,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2767,7 +2772,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2795,7 +2800,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2823,7 +2828,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2851,7 +2856,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2879,7 +2884,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2907,7 +2912,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2935,7 +2940,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2963,7 +2968,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2991,7 +2996,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3019,7 +3024,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3047,7 +3052,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3075,7 +3080,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3103,7 +3108,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3131,7 +3136,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3159,7 +3164,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3187,7 +3192,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3215,7 +3220,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3243,7 +3248,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3271,7 +3276,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3299,7 +3304,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3327,7 +3332,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3355,7 +3360,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3383,7 +3388,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3411,7 +3416,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3439,7 +3444,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3467,7 +3472,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3495,7 +3500,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3523,7 +3528,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3551,7 +3556,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3579,7 +3584,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3607,7 +3612,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3635,7 +3640,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3663,7 +3668,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3691,7 +3696,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3719,7 +3724,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3747,7 +3752,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3775,7 +3780,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3803,7 +3808,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3831,7 +3836,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3859,7 +3864,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3887,7 +3892,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3915,7 +3920,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3943,7 +3948,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3971,7 +3976,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3999,7 +4004,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4027,7 +4032,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4055,7 +4060,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4083,7 +4088,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4125,12 +4130,12 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anbe642/zScience/Circadian_rhythm_runs_seasonal_timing/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6451F0B9-7CDD-4EAB-84C7-719D188144A7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213DFDFB-3F16-7C40-B808-99605E9BAA3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52800" yWindow="1080" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1940" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="85">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -280,7 +280,7 @@
     <t>2018-09-20</t>
   </si>
   <si>
-    <t>drshfggffd</t>
+    <t>2018-08-31</t>
   </si>
 </sst>
 </file>
@@ -679,15 +679,15 @@
   <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -734,7 +734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -878,9 +878,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -890,7 +888,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -915,19 +913,31 @@
       <c r="I6">
         <v>232</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -952,19 +962,31 @@
       <c r="I7">
         <v>123</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1013,7 +1035,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1062,7 +1084,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -1111,7 +1133,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1160,7 +1182,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1209,7 +1231,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1258,7 +1280,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
@@ -1307,7 +1329,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -1356,7 +1378,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
@@ -1405,7 +1427,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1454,7 +1476,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1503,7 +1525,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1552,7 +1574,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
@@ -1601,7 +1623,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
@@ -1650,7 +1672,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>58</v>
       </c>
@@ -1699,7 +1721,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1748,7 +1770,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1797,7 +1819,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1846,7 +1868,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>58</v>
       </c>
@@ -1895,7 +1917,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>58</v>
       </c>
@@ -1944,7 +1966,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -1993,7 +2015,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2042,7 +2064,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2091,7 +2113,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2140,7 +2162,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -2189,7 +2211,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -2238,7 +2260,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2268,7 +2290,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2296,7 +2318,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2324,7 +2346,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2352,7 +2374,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2380,7 +2402,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2408,7 +2430,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2436,7 +2458,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2464,7 +2486,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2492,7 +2514,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2520,7 +2542,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2548,7 +2570,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2576,7 +2598,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2604,7 +2626,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2632,7 +2654,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2660,7 +2682,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2688,7 +2710,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2716,7 +2738,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2744,7 +2766,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2772,7 +2794,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2800,7 +2822,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2828,7 +2850,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2856,7 +2878,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2884,7 +2906,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2912,7 +2934,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2940,7 +2962,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2968,7 +2990,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2996,7 +3018,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3024,7 +3046,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3052,7 +3074,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3080,7 +3102,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3108,7 +3130,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3136,7 +3158,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3164,7 +3186,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3192,7 +3214,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3220,7 +3242,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3248,7 +3270,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3276,7 +3298,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3304,7 +3326,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3332,7 +3354,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3360,7 +3382,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3388,7 +3410,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3416,7 +3438,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3444,7 +3466,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3472,7 +3494,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3500,7 +3522,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3528,7 +3550,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3556,7 +3578,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3584,7 +3606,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3612,7 +3634,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3640,7 +3662,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3668,7 +3690,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3696,7 +3718,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3724,7 +3746,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3752,7 +3774,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3780,7 +3802,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3808,7 +3830,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3836,7 +3858,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3864,7 +3886,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3892,7 +3914,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3920,7 +3942,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3948,7 +3970,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3976,7 +3998,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4004,7 +4026,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4032,7 +4054,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4060,7 +4082,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4088,7 +4110,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4130,12 +4152,12 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -1,32 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anbe642/zScience/Circadian_rhythm_runs_seasonal_timing/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213DFDFB-3F16-7C40-B808-99605E9BAA3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA62708-4984-404C-B283-B1FF762D48E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1940" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="35820" windowHeight="18720" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
     <sheet name="Data_collect" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="181">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -281,6 +286,294 @@
   </si>
   <si>
     <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>2018-08-16</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>A6-1</t>
+  </si>
+  <si>
+    <t>A6-2</t>
+  </si>
+  <si>
+    <t>A6-3</t>
+  </si>
+  <si>
+    <t>A6-4</t>
+  </si>
+  <si>
+    <t>A6-5</t>
+  </si>
+  <si>
+    <t>A6-6</t>
+  </si>
+  <si>
+    <t>A6-7</t>
+  </si>
+  <si>
+    <t>A6-8</t>
+  </si>
+  <si>
+    <t>A6-9</t>
+  </si>
+  <si>
+    <t>A6-10</t>
+  </si>
+  <si>
+    <t>A6-11</t>
+  </si>
+  <si>
+    <t>A6-12</t>
+  </si>
+  <si>
+    <t>A6-13</t>
+  </si>
+  <si>
+    <t>A6-14</t>
+  </si>
+  <si>
+    <t>A6-15</t>
+  </si>
+  <si>
+    <t>A6-16</t>
+  </si>
+  <si>
+    <t>A6-17</t>
+  </si>
+  <si>
+    <t>A6-18</t>
+  </si>
+  <si>
+    <t>A6-19</t>
+  </si>
+  <si>
+    <t>A6-20</t>
+  </si>
+  <si>
+    <t>A6-21</t>
+  </si>
+  <si>
+    <t>A6-22</t>
+  </si>
+  <si>
+    <t>A6-23</t>
+  </si>
+  <si>
+    <t>A6-24</t>
+  </si>
+  <si>
+    <t>A6-25</t>
+  </si>
+  <si>
+    <t>A6-26</t>
+  </si>
+  <si>
+    <t>A6-27</t>
+  </si>
+  <si>
+    <t>A6-28</t>
+  </si>
+  <si>
+    <t>A6-29</t>
+  </si>
+  <si>
+    <t>A6-30</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
   </si>
 </sst>
 </file>
@@ -678,16 +971,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -734,7 +1027,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -774,7 +1067,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -814,7 +1107,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -851,7 +1144,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -888,7 +1181,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -937,7 +1230,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -986,7 +1279,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1035,7 +1328,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1084,7 +1377,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -1133,7 +1426,7 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1182,7 +1475,7 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1231,7 +1524,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1280,7 +1573,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
@@ -1329,7 +1622,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -1378,7 +1671,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
@@ -1427,7 +1720,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1476,7 +1769,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -1525,7 +1818,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -1574,7 +1867,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
@@ -1623,7 +1916,7 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
@@ -1672,7 +1965,7 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>58</v>
       </c>
@@ -1721,7 +2014,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -1770,7 +2063,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -1819,7 +2112,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1868,7 +2161,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>58</v>
       </c>
@@ -1917,7 +2210,7 @@
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>58</v>
       </c>
@@ -1966,7 +2259,7 @@
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -2015,7 +2308,7 @@
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2064,7 +2357,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2113,7 +2406,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2162,7 +2455,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -2211,7 +2504,7 @@
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
-    <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -2260,7 +2553,7 @@
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2290,7 +2583,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2318,7 +2611,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2346,7 +2639,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2374,7 +2667,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2402,7 +2695,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2430,7 +2723,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2458,7 +2751,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2486,7 +2779,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2514,7 +2807,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2542,7 +2835,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2570,7 +2863,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2598,7 +2891,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2626,7 +2919,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2654,7 +2947,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2682,7 +2975,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2710,7 +3003,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2738,7 +3031,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2766,7 +3059,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2794,7 +3087,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2822,7 +3115,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2850,7 +3143,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2878,7 +3171,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2906,7 +3199,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2934,7 +3227,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2962,7 +3255,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2990,7 +3283,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3018,7 +3311,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3046,7 +3339,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3074,7 +3367,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3102,7 +3395,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3130,7 +3423,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3158,7 +3451,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3186,7 +3479,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3214,7 +3507,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3242,7 +3535,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3270,7 +3563,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3298,7 +3591,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3326,7 +3619,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3354,7 +3647,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3382,7 +3675,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3410,7 +3703,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3438,7 +3731,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3466,7 +3759,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3494,7 +3787,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3522,7 +3815,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3550,7 +3843,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3578,7 +3871,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3606,7 +3899,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3634,7 +3927,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3662,7 +3955,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3690,7 +3983,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3718,7 +4011,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3746,7 +4039,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3774,7 +4067,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3802,7 +4095,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3830,7 +4123,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3858,7 +4151,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3886,7 +4179,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3914,7 +4207,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3942,7 +4235,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3970,7 +4263,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3998,7 +4291,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4026,7 +4319,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4054,7 +4347,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4082,7 +4375,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4110,7 +4403,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4146,18 +4439,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AS91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="Q18" workbookViewId="0">
+      <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4176,7 +4470,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -4294,7 +4588,2228 @@
         <v>44</v>
       </c>
     </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" t="s">
+        <v>61</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" t="s">
+        <v>61</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" t="s">
+        <v>61</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" t="s">
+        <v>61</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" t="s">
+        <v>61</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" t="s">
+        <v>61</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" t="s">
+        <v>61</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" t="s">
+        <v>61</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" t="s">
+        <v>61</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" t="s">
+        <v>61</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z32" t="str">
+        <f>"A6"&amp;Y32&amp;"-"&amp;AC32</f>
+        <v>A6RT-A2</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" t="s">
+        <v>61</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" ref="Z33:Z91" si="0">"A6"&amp;Y33&amp;"-"&amp;AC33</f>
+        <v>A6RT-F12</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K34" t="s">
+        <v>61</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-H2</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K35" t="s">
+        <v>61</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-C5</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" t="s">
+        <v>61</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-B4</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" t="s">
+        <v>61</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-B9</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K38" t="s">
+        <v>61</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z38" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-C10</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" t="s">
+        <v>61</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-G2</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40" t="s">
+        <v>61</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-D11</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" t="s">
+        <v>61</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-B11</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42" t="s">
+        <v>61</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-B6</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43" t="s">
+        <v>61</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-E7</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K44" t="s">
+        <v>61</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-B12</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K45" t="s">
+        <v>61</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-A9</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K46" t="s">
+        <v>61</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-F8</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K47" t="s">
+        <v>61</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-C7</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K48" t="s">
+        <v>61</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z48" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-G7</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>18</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49" t="s">
+        <v>61</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z49" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-E1</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K50" t="s">
+        <v>61</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z50" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-A10</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K51" t="s">
+        <v>61</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z51" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-G3</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-H4</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K53" t="s">
+        <v>61</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z53" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-H11</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K54" t="s">
+        <v>61</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z54" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-B2</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K55" t="s">
+        <v>61</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z55" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-H6</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K56" t="s">
+        <v>61</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z56" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-C11</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>26</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K57" t="s">
+        <v>61</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z57" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-H5</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K58" t="s">
+        <v>61</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z58" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-C1</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K59" t="s">
+        <v>61</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z59" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-G12</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K60" t="s">
+        <v>61</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z60" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-G8</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K61" t="s">
+        <v>61</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z61" t="str">
+        <f t="shared" si="0"/>
+        <v>A6RT-C2</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K62" t="s">
+        <v>61</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z62" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-F4</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K63" t="s">
+        <v>61</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z63" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-D9</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K64" t="s">
+        <v>61</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z64" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-H8</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K65" t="s">
+        <v>61</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z65" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-H12</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K66" t="s">
+        <v>61</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z66" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-B10</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K67" t="s">
+        <v>61</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z67" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-D3</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K68" t="s">
+        <v>61</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z68" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-E6</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K69" t="s">
+        <v>61</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z69" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-F1</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K70" t="s">
+        <v>61</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z70" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-F11</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K71" t="s">
+        <v>61</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z71" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-G9</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K72" t="s">
+        <v>61</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z72" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-D6</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K73" t="s">
+        <v>61</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z73" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-C4</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>90</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K74" t="s">
+        <v>61</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z74" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-D12</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K75" t="s">
+        <v>61</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z75" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-B5</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K76" t="s">
+        <v>61</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z76" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-A7</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K77" t="s">
+        <v>61</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z77" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-H3</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K78" t="s">
+        <v>61</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z78" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-A8</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K79" t="s">
+        <v>61</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z79" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-E9</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K80" t="s">
+        <v>61</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z80" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-C6</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>20</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K81" t="s">
+        <v>61</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z81" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-B1</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K82" t="s">
+        <v>61</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z82" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-D8</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K83" t="s">
+        <v>61</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-F7</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K84" t="s">
+        <v>61</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-D2</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>24</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K85" t="s">
+        <v>61</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-B8</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>25</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K86" t="s">
+        <v>61</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-H10</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>26</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K87" t="s">
+        <v>61</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-E12</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>27</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K88" t="s">
+        <v>61</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-C9</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K89" t="s">
+        <v>61</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-B7</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>29</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K90" t="s">
+        <v>61</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-E2</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>30</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K91" t="s">
+        <v>61</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="0"/>
+        <v>A6SO-E3</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA62708-4984-404C-B283-B1FF762D48E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9706075-21F3-4D47-8A63-61AB58FF8FDF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1935" windowWidth="35820" windowHeight="18720" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="208">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -574,6 +574,87 @@
   </si>
   <si>
     <t>E3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>2018-08-29</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2018-09-22</t>
+  </si>
+  <si>
+    <t>Lansing</t>
+  </si>
+  <si>
+    <t>MSU F+W</t>
+  </si>
+  <si>
+    <t>MSU clinical</t>
+  </si>
+  <si>
+    <t>2018-09-21</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>TG + Hinal</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>MSU</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Leonard Ferris road</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -625,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -652,7 +733,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -969,14 +1049,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="11" style="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1037,8 +1118,8 @@
       <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="9">
-        <v>43328</v>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1077,8 +1158,8 @@
       <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="9">
-        <v>43328</v>
+      <c r="D3" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1117,8 +1198,8 @@
       <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="9">
-        <v>43328</v>
+      <c r="D4" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1128,6 +1209,9 @@
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I4">
         <v>241</v>
@@ -1154,8 +1238,8 @@
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="9">
-        <v>43328</v>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1165,6 +1249,9 @@
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I5">
         <v>60</v>
@@ -1191,8 +1278,8 @@
       <c r="C6" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="9">
-        <v>43328</v>
+      <c r="D6" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -1202,6 +1289,9 @@
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I6">
         <v>232</v>
@@ -1240,8 +1330,8 @@
       <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="9">
-        <v>43328</v>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1251,6 +1341,9 @@
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I7">
         <v>123</v>
@@ -1289,8 +1382,8 @@
       <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="9">
-        <v>43328</v>
+      <c r="D8" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1300,6 +1393,9 @@
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I8">
         <v>298</v>
@@ -1338,8 +1434,8 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="9">
-        <v>43328</v>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -1349,6 +1445,9 @@
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I9">
         <v>153</v>
@@ -1387,44 +1486,47 @@
       <c r="C10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="12">
-        <v>43328</v>
+      <c r="D10" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E10" s="11">
         <v>8</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>43335</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I10" s="11">
         <v>316</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1436,44 +1538,47 @@
       <c r="C11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="12">
-        <v>43328</v>
+      <c r="D11" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E11" s="11">
         <v>8</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>43335</v>
       </c>
       <c r="G11" s="11">
         <v>1</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I11" s="11">
         <v>152</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1485,8 +1590,8 @@
       <c r="C12" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="9">
-        <v>43328</v>
+      <c r="D12" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -1496,6 +1601,9 @@
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I12">
         <v>302</v>
@@ -1534,8 +1642,8 @@
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="9">
-        <v>43328</v>
+      <c r="D13" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -1545,6 +1653,9 @@
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I13">
         <v>142</v>
@@ -1583,44 +1694,47 @@
       <c r="C14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="12">
-        <v>43328</v>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E14" s="11">
         <v>10</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>43337</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I14" s="11">
         <v>357</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L14" s="14" t="s">
+      <c r="K14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
     </row>
     <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -1632,44 +1746,47 @@
       <c r="C15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="12">
-        <v>43328</v>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E15" s="11">
         <v>10</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>43337</v>
       </c>
       <c r="G15" s="11">
         <v>2</v>
       </c>
+      <c r="H15" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I15" s="11">
         <v>42</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="14" t="s">
+      <c r="K15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
     </row>
     <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -1681,44 +1798,47 @@
       <c r="C16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="12">
-        <v>43328</v>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E16" s="11">
         <v>10</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>43337</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I16" s="11">
         <v>177</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="14" t="s">
+      <c r="K16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1730,8 +1850,8 @@
       <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="9">
-        <v>43328</v>
+      <c r="D17" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -1741,6 +1861,9 @@
       </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I17">
         <v>313</v>
@@ -1779,8 +1902,8 @@
       <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="9">
-        <v>43328</v>
+      <c r="D18" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -1790,6 +1913,9 @@
       </c>
       <c r="G18">
         <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I18">
         <v>129</v>
@@ -1828,8 +1954,8 @@
       <c r="C19" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="9">
-        <v>43328</v>
+      <c r="D19" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E19">
         <v>11</v>
@@ -1839,6 +1965,9 @@
       </c>
       <c r="G19">
         <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I19">
         <v>165</v>
@@ -1877,44 +2006,47 @@
       <c r="C20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="12">
-        <v>43328</v>
+      <c r="D20" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E20" s="11">
         <v>12</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>43339</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
       </c>
+      <c r="H20" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I20" s="11">
         <v>220</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -1926,44 +2058,47 @@
       <c r="C21" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="12">
-        <v>43328</v>
+      <c r="D21" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E21" s="11">
         <v>12</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>43339</v>
       </c>
       <c r="G21" s="11">
         <v>2</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I21" s="11">
         <v>180</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -1975,44 +2110,47 @@
       <c r="C22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="12">
-        <v>43328</v>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E22" s="11">
         <v>12</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>43339</v>
       </c>
       <c r="G22" s="11">
         <v>1</v>
       </c>
+      <c r="H22" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I22" s="11">
         <v>138</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2024,8 +2162,8 @@
       <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="9">
-        <v>43328</v>
+      <c r="D23" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E23">
         <v>13</v>
@@ -2035,6 +2173,9 @@
       </c>
       <c r="G23">
         <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I23">
         <v>210</v>
@@ -2073,8 +2214,8 @@
       <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="9">
-        <v>43328</v>
+      <c r="D24" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E24">
         <v>13</v>
@@ -2084,6 +2225,9 @@
       </c>
       <c r="G24">
         <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I24">
         <v>149</v>
@@ -2122,8 +2266,8 @@
       <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="9">
-        <v>43328</v>
+      <c r="D25" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E25">
         <v>13</v>
@@ -2133,6 +2277,9 @@
       </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I25">
         <v>121</v>
@@ -2171,44 +2318,47 @@
       <c r="C26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="12">
-        <v>43328</v>
+      <c r="D26" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E26" s="11">
         <v>14</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>43341</v>
       </c>
       <c r="G26" s="11">
         <v>1</v>
       </c>
+      <c r="H26" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I26" s="11">
         <v>264</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N26" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O26" s="14" t="s">
+      <c r="O26" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
     </row>
     <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -2220,44 +2370,47 @@
       <c r="C27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="12">
-        <v>43328</v>
+      <c r="D27" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E27" s="11">
         <v>14</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>43341</v>
       </c>
       <c r="G27" s="11">
         <v>2</v>
       </c>
+      <c r="H27" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I27" s="11">
         <v>101</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="M27" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="N27" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="O27" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
     </row>
     <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -2269,44 +2422,47 @@
       <c r="C28" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="12">
-        <v>43328</v>
+      <c r="D28" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E28" s="11">
         <v>14</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>43341</v>
       </c>
       <c r="G28" s="11">
         <v>1</v>
       </c>
+      <c r="H28" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I28" s="11">
         <v>119</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M28" s="14" t="s">
+      <c r="M28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O28" s="14" t="s">
+      <c r="O28" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2318,8 +2474,8 @@
       <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="9">
-        <v>43328</v>
+      <c r="D29" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E29">
         <v>15</v>
@@ -2329,6 +2485,9 @@
       </c>
       <c r="G29">
         <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I29">
         <v>208</v>
@@ -2367,8 +2526,8 @@
       <c r="C30" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="9">
-        <v>43328</v>
+      <c r="D30" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E30">
         <v>15</v>
@@ -2378,6 +2537,9 @@
       </c>
       <c r="G30">
         <v>2</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I30">
         <v>152</v>
@@ -2416,8 +2578,8 @@
       <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="9">
-        <v>43328</v>
+      <c r="D31" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E31">
         <v>15</v>
@@ -2427,6 +2589,9 @@
       </c>
       <c r="G31">
         <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="I31">
         <v>105</v>
@@ -2465,44 +2630,47 @@
       <c r="C32" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="12">
-        <v>43328</v>
+      <c r="D32" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E32" s="11">
         <v>16</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <v>43343</v>
       </c>
       <c r="G32" s="11">
         <v>1</v>
       </c>
+      <c r="H32" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I32" s="11">
         <v>43</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M32" s="14" t="s">
+      <c r="M32" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="N32" s="14" t="s">
+      <c r="N32" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O32" s="14" t="s">
+      <c r="O32" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
     </row>
     <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
@@ -2514,63 +2682,94 @@
       <c r="C33" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="12">
-        <v>43328</v>
+      <c r="D33" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E33" s="11">
         <v>16</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>43343</v>
       </c>
       <c r="G33" s="11">
         <v>1</v>
       </c>
+      <c r="H33" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="I33" s="11">
         <v>34</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M33" s="14" t="s">
+      <c r="M33" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="O33" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -2584,21 +2783,51 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -2612,21 +2841,51 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -2640,21 +2899,51 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -2668,21 +2957,51 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -2696,21 +3015,51 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -2724,21 +3073,51 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -2752,21 +3131,51 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2780,21 +3189,51 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2808,21 +3247,51 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -2836,21 +3305,51 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -2864,21 +3363,51 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -2892,21 +3421,51 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -2920,21 +3479,51 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -2948,21 +3537,51 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -2976,21 +3595,51 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -3004,21 +3653,51 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -3032,21 +3711,51 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -3060,21 +3769,51 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -3088,21 +3827,51 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -3119,7 +3888,6 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3147,7 +3915,6 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3175,7 +3942,6 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3203,7 +3969,6 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -3231,7 +3996,6 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -3259,7 +4023,6 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -3287,7 +4050,6 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3315,7 +4077,6 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3343,7 +4104,6 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -3371,7 +4131,6 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3399,7 +4158,6 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3427,7 +4185,6 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -3455,7 +4212,6 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3483,7 +4239,6 @@
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3511,7 +4266,6 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -3539,7 +4293,6 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -3567,7 +4320,6 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -3595,7 +4347,6 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -3623,7 +4374,6 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -3651,7 +4401,6 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -3679,7 +4428,6 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -3707,7 +4455,6 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -3735,7 +4482,6 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3763,7 +4509,6 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -3791,7 +4536,6 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -3819,7 +4563,6 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -3847,7 +4590,6 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -3875,7 +4617,6 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -3903,7 +4644,6 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -3931,7 +4671,6 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -3959,7 +4698,6 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -3987,7 +4725,6 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -4015,7 +4752,6 @@
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -4043,7 +4779,6 @@
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -4071,7 +4806,6 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -4099,7 +4833,6 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -4127,7 +4860,6 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -4155,7 +4887,6 @@
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -4183,7 +4914,6 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -4211,7 +4941,6 @@
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -4239,7 +4968,6 @@
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -4267,7 +4995,6 @@
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -4295,7 +5022,6 @@
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -4323,7 +5049,6 @@
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -4351,7 +5076,6 @@
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -4379,7 +5103,6 @@
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -4407,7 +5130,6 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -4431,6 +5153,60 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4441,7 +5217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q18" workbookViewId="0">
+    <sheetView topLeftCell="Q18" workbookViewId="0">
       <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9706075-21F3-4D47-8A63-61AB58FF8FDF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EAB03-E28C-40B8-A86D-25EDF99F3D1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1935" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="222">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -655,6 +655,48 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>MSU ATC</t>
+  </si>
+  <si>
+    <t>TG + ANBE</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2018-09-23</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2018-09-24</t>
   </si>
 </sst>
 </file>
@@ -674,7 +716,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,6 +735,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -706,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -735,6 +783,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3246,686 +3296,748 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="C43" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+    </row>
+    <row r="44" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+    </row>
+    <row r="45" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F45" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G45" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H45" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J43" s="1" t="s">
+      <c r="I45" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K45" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L45" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M45" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N45" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O45" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+    </row>
+    <row r="46" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+    </row>
+    <row r="47" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O47" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+    </row>
+    <row r="48" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+    </row>
+    <row r="49" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="C49" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G49" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H49" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J44" s="1" t="s">
+      <c r="I49" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="J49" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K49" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L49" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M49" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N49" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O49" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+    </row>
+    <row r="50" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+    </row>
+    <row r="51" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+    </row>
+    <row r="52" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="14"/>
+    </row>
+    <row r="53" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B53" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N53" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O53" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+    </row>
+    <row r="54" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J54" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N54" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O54" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="14"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K45" s="1" t="s">
+      <c r="H55" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M45" s="1" t="s">
+      <c r="K55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O45" s="1" t="s">
+      <c r="M55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N55" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
+      <c r="O55" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -3939,20 +4051,51 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -3966,20 +4109,51 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -3993,20 +4167,51 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -4020,20 +4225,51 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -4047,20 +4283,51 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -4074,20 +4341,51 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -4101,20 +4399,51 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -4127,302 +4456,643 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="1"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
-      <c r="Z73" s="1"/>
+    <row r="63" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="14"/>
+      <c r="W63" s="14"/>
+      <c r="X63" s="14"/>
+      <c r="Y63" s="14"/>
+      <c r="Z63" s="14"/>
+    </row>
+    <row r="64" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="14"/>
+      <c r="Z64" s="14"/>
+    </row>
+    <row r="65" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N65" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O65" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="14"/>
+      <c r="W65" s="14"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="14"/>
+    </row>
+    <row r="66" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N66" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O66" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="14"/>
+      <c r="W66" s="14"/>
+      <c r="X66" s="14"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+    </row>
+    <row r="67" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="14"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="14"/>
+    </row>
+    <row r="68" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L68" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N68" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+    </row>
+    <row r="69" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N69" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O69" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="14"/>
+      <c r="Z69" s="14"/>
+    </row>
+    <row r="70" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M70" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N70" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="14"/>
+      <c r="Z70" s="14"/>
+    </row>
+    <row r="71" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M71" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="14"/>
+      <c r="Z71" s="14"/>
+    </row>
+    <row r="72" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L72" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M72" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N72" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="X72" s="14"/>
+      <c r="Y72" s="14"/>
+      <c r="Z72" s="14"/>
+    </row>
+    <row r="73" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L73" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="N73" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O73" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="14"/>
+      <c r="Y73" s="14"/>
+      <c r="Z73" s="14"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EAB03-E28C-40B8-A86D-25EDF99F3D1C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAA300-08CC-40DA-B88C-784CF8C3A8C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1935" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="35820" windowHeight="18720" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="222">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -1101,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
@@ -5887,8 +5887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS91"/>
   <sheetViews>
-    <sheetView topLeftCell="Q18" workbookViewId="0">
-      <selection activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6038,6 +6038,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>88</v>
       </c>
@@ -6058,6 +6061,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>88</v>
       </c>
@@ -6078,6 +6084,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>88</v>
       </c>
@@ -6098,6 +6107,9 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>88</v>
       </c>
@@ -6118,6 +6130,9 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>88</v>
       </c>
@@ -6138,6 +6153,9 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>88</v>
       </c>
@@ -6158,6 +6176,9 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>88</v>
       </c>
@@ -6178,6 +6199,9 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>88</v>
       </c>
@@ -6198,6 +6222,9 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>88</v>
       </c>
@@ -6218,6 +6245,9 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
@@ -6238,6 +6268,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>88</v>
       </c>
@@ -6258,6 +6291,9 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>88</v>
       </c>
@@ -6278,6 +6314,9 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>88</v>
       </c>
@@ -6298,6 +6337,9 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>88</v>
       </c>
@@ -6318,6 +6360,9 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>88</v>
       </c>
@@ -6338,6 +6383,9 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>88</v>
       </c>
@@ -6358,6 +6406,9 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>88</v>
       </c>
@@ -6378,6 +6429,9 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>88</v>
       </c>
@@ -6398,6 +6452,9 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>88</v>
       </c>
@@ -6418,6 +6475,9 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>88</v>
       </c>
@@ -6438,6 +6498,9 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>88</v>
       </c>
@@ -6458,6 +6521,9 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>88</v>
       </c>
@@ -6478,6 +6544,9 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>88</v>
       </c>
@@ -6498,6 +6567,9 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>88</v>
       </c>
@@ -6518,6 +6590,9 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>88</v>
       </c>
@@ -6538,6 +6613,9 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>88</v>
       </c>
@@ -6558,6 +6636,9 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>88</v>
       </c>
@@ -6578,6 +6659,9 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>88</v>
       </c>
@@ -6598,6 +6682,9 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>88</v>
       </c>
@@ -6618,6 +6705,9 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>88</v>
       </c>
@@ -6641,6 +6731,9 @@
       <c r="B32" t="s">
         <v>89</v>
       </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>88</v>
       </c>
@@ -6668,6 +6761,9 @@
       <c r="B33" t="s">
         <v>89</v>
       </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>88</v>
       </c>
@@ -6695,6 +6791,9 @@
       <c r="B34" t="s">
         <v>89</v>
       </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>88</v>
       </c>
@@ -6722,6 +6821,9 @@
       <c r="B35" t="s">
         <v>89</v>
       </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>88</v>
       </c>
@@ -6749,6 +6851,9 @@
       <c r="B36" t="s">
         <v>89</v>
       </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>88</v>
       </c>
@@ -6776,6 +6881,9 @@
       <c r="B37" t="s">
         <v>89</v>
       </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>88</v>
       </c>
@@ -6803,6 +6911,9 @@
       <c r="B38" t="s">
         <v>89</v>
       </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>88</v>
       </c>
@@ -6830,6 +6941,9 @@
       <c r="B39" t="s">
         <v>89</v>
       </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>88</v>
       </c>
@@ -6857,6 +6971,9 @@
       <c r="B40" t="s">
         <v>89</v>
       </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>88</v>
       </c>
@@ -6884,6 +7001,9 @@
       <c r="B41" t="s">
         <v>89</v>
       </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>88</v>
       </c>
@@ -6911,6 +7031,9 @@
       <c r="B42" t="s">
         <v>89</v>
       </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>88</v>
       </c>
@@ -6938,6 +7061,9 @@
       <c r="B43" t="s">
         <v>89</v>
       </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>88</v>
       </c>
@@ -6965,6 +7091,9 @@
       <c r="B44" t="s">
         <v>89</v>
       </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
       <c r="G44" s="1" t="s">
         <v>88</v>
       </c>
@@ -6992,6 +7121,9 @@
       <c r="B45" t="s">
         <v>89</v>
       </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>88</v>
       </c>
@@ -7019,6 +7151,9 @@
       <c r="B46" t="s">
         <v>89</v>
       </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
       <c r="G46" s="1" t="s">
         <v>88</v>
       </c>
@@ -7046,6 +7181,9 @@
       <c r="B47" t="s">
         <v>89</v>
       </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
       <c r="G47" s="1" t="s">
         <v>88</v>
       </c>
@@ -7073,6 +7211,9 @@
       <c r="B48" t="s">
         <v>89</v>
       </c>
+      <c r="C48" t="s">
+        <v>60</v>
+      </c>
       <c r="G48" s="1" t="s">
         <v>88</v>
       </c>
@@ -7100,6 +7241,9 @@
       <c r="B49" t="s">
         <v>89</v>
       </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
       <c r="G49" s="1" t="s">
         <v>88</v>
       </c>
@@ -7127,6 +7271,9 @@
       <c r="B50" t="s">
         <v>89</v>
       </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>88</v>
       </c>
@@ -7154,6 +7301,9 @@
       <c r="B51" t="s">
         <v>89</v>
       </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
       <c r="G51" s="1" t="s">
         <v>88</v>
       </c>
@@ -7181,6 +7331,9 @@
       <c r="B52" t="s">
         <v>89</v>
       </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
       <c r="G52" s="1" t="s">
         <v>88</v>
       </c>
@@ -7208,6 +7361,9 @@
       <c r="B53" t="s">
         <v>89</v>
       </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
       <c r="G53" s="1" t="s">
         <v>88</v>
       </c>
@@ -7235,6 +7391,9 @@
       <c r="B54" t="s">
         <v>89</v>
       </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
       <c r="G54" s="1" t="s">
         <v>88</v>
       </c>
@@ -7262,6 +7421,9 @@
       <c r="B55" t="s">
         <v>89</v>
       </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
       <c r="G55" s="1" t="s">
         <v>88</v>
       </c>
@@ -7289,6 +7451,9 @@
       <c r="B56" t="s">
         <v>89</v>
       </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
       <c r="G56" s="1" t="s">
         <v>88</v>
       </c>
@@ -7316,6 +7481,9 @@
       <c r="B57" t="s">
         <v>89</v>
       </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
       <c r="G57" s="1" t="s">
         <v>88</v>
       </c>
@@ -7343,6 +7511,9 @@
       <c r="B58" t="s">
         <v>89</v>
       </c>
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
       <c r="G58" s="1" t="s">
         <v>88</v>
       </c>
@@ -7370,6 +7541,9 @@
       <c r="B59" t="s">
         <v>89</v>
       </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
       <c r="G59" s="1" t="s">
         <v>88</v>
       </c>
@@ -7397,6 +7571,9 @@
       <c r="B60" t="s">
         <v>89</v>
       </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
       <c r="G60" s="1" t="s">
         <v>88</v>
       </c>
@@ -7424,6 +7601,9 @@
       <c r="B61" t="s">
         <v>89</v>
       </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
       <c r="G61" s="1" t="s">
         <v>88</v>
       </c>
@@ -7451,6 +7631,9 @@
       <c r="B62" t="s">
         <v>90</v>
       </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
       <c r="G62" s="1" t="s">
         <v>88</v>
       </c>
@@ -7478,6 +7661,9 @@
       <c r="B63" t="s">
         <v>90</v>
       </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
       <c r="G63" s="1" t="s">
         <v>88</v>
       </c>
@@ -7505,6 +7691,9 @@
       <c r="B64" t="s">
         <v>90</v>
       </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
       <c r="G64" s="1" t="s">
         <v>88</v>
       </c>
@@ -7532,6 +7721,9 @@
       <c r="B65" t="s">
         <v>90</v>
       </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
       <c r="G65" s="1" t="s">
         <v>88</v>
       </c>
@@ -7559,6 +7751,9 @@
       <c r="B66" t="s">
         <v>90</v>
       </c>
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
       <c r="G66" s="1" t="s">
         <v>88</v>
       </c>
@@ -7586,6 +7781,9 @@
       <c r="B67" t="s">
         <v>90</v>
       </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
       <c r="G67" s="1" t="s">
         <v>88</v>
       </c>
@@ -7613,6 +7811,9 @@
       <c r="B68" t="s">
         <v>90</v>
       </c>
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
       <c r="G68" s="1" t="s">
         <v>88</v>
       </c>
@@ -7640,6 +7841,9 @@
       <c r="B69" t="s">
         <v>90</v>
       </c>
+      <c r="C69" t="s">
+        <v>59</v>
+      </c>
       <c r="G69" s="1" t="s">
         <v>88</v>
       </c>
@@ -7667,6 +7871,9 @@
       <c r="B70" t="s">
         <v>90</v>
       </c>
+      <c r="C70" t="s">
+        <v>59</v>
+      </c>
       <c r="G70" s="1" t="s">
         <v>88</v>
       </c>
@@ -7694,6 +7901,9 @@
       <c r="B71" t="s">
         <v>90</v>
       </c>
+      <c r="C71" t="s">
+        <v>59</v>
+      </c>
       <c r="G71" s="1" t="s">
         <v>88</v>
       </c>
@@ -7721,6 +7931,9 @@
       <c r="B72" t="s">
         <v>90</v>
       </c>
+      <c r="C72" t="s">
+        <v>59</v>
+      </c>
       <c r="G72" s="1" t="s">
         <v>88</v>
       </c>
@@ -7748,6 +7961,9 @@
       <c r="B73" t="s">
         <v>90</v>
       </c>
+      <c r="C73" t="s">
+        <v>59</v>
+      </c>
       <c r="G73" s="1" t="s">
         <v>88</v>
       </c>
@@ -7775,6 +7991,9 @@
       <c r="B74" t="s">
         <v>90</v>
       </c>
+      <c r="C74" t="s">
+        <v>59</v>
+      </c>
       <c r="G74" s="1" t="s">
         <v>88</v>
       </c>
@@ -7802,6 +8021,9 @@
       <c r="B75" t="s">
         <v>90</v>
       </c>
+      <c r="C75" t="s">
+        <v>59</v>
+      </c>
       <c r="G75" s="1" t="s">
         <v>88</v>
       </c>
@@ -7829,6 +8051,9 @@
       <c r="B76" t="s">
         <v>90</v>
       </c>
+      <c r="C76" t="s">
+        <v>59</v>
+      </c>
       <c r="G76" s="1" t="s">
         <v>88</v>
       </c>
@@ -7856,6 +8081,9 @@
       <c r="B77" t="s">
         <v>90</v>
       </c>
+      <c r="C77" t="s">
+        <v>60</v>
+      </c>
       <c r="G77" s="1" t="s">
         <v>88</v>
       </c>
@@ -7883,6 +8111,9 @@
       <c r="B78" t="s">
         <v>90</v>
       </c>
+      <c r="C78" t="s">
+        <v>60</v>
+      </c>
       <c r="G78" s="1" t="s">
         <v>88</v>
       </c>
@@ -7910,6 +8141,9 @@
       <c r="B79" t="s">
         <v>90</v>
       </c>
+      <c r="C79" t="s">
+        <v>60</v>
+      </c>
       <c r="G79" s="1" t="s">
         <v>88</v>
       </c>
@@ -7937,6 +8171,9 @@
       <c r="B80" t="s">
         <v>90</v>
       </c>
+      <c r="C80" t="s">
+        <v>60</v>
+      </c>
       <c r="G80" s="1" t="s">
         <v>88</v>
       </c>
@@ -7964,6 +8201,9 @@
       <c r="B81" t="s">
         <v>90</v>
       </c>
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
       <c r="G81" s="1" t="s">
         <v>88</v>
       </c>
@@ -7991,6 +8231,9 @@
       <c r="B82" t="s">
         <v>90</v>
       </c>
+      <c r="C82" t="s">
+        <v>60</v>
+      </c>
       <c r="G82" s="1" t="s">
         <v>88</v>
       </c>
@@ -8018,6 +8261,9 @@
       <c r="B83" t="s">
         <v>90</v>
       </c>
+      <c r="C83" t="s">
+        <v>60</v>
+      </c>
       <c r="G83" s="1" t="s">
         <v>88</v>
       </c>
@@ -8045,6 +8291,9 @@
       <c r="B84" t="s">
         <v>90</v>
       </c>
+      <c r="C84" t="s">
+        <v>60</v>
+      </c>
       <c r="G84" s="1" t="s">
         <v>88</v>
       </c>
@@ -8072,6 +8321,9 @@
       <c r="B85" t="s">
         <v>90</v>
       </c>
+      <c r="C85" t="s">
+        <v>60</v>
+      </c>
       <c r="G85" s="1" t="s">
         <v>88</v>
       </c>
@@ -8099,6 +8351,9 @@
       <c r="B86" t="s">
         <v>90</v>
       </c>
+      <c r="C86" t="s">
+        <v>60</v>
+      </c>
       <c r="G86" s="1" t="s">
         <v>88</v>
       </c>
@@ -8126,6 +8381,9 @@
       <c r="B87" t="s">
         <v>90</v>
       </c>
+      <c r="C87" t="s">
+        <v>60</v>
+      </c>
       <c r="G87" s="1" t="s">
         <v>88</v>
       </c>
@@ -8153,6 +8411,9 @@
       <c r="B88" t="s">
         <v>90</v>
       </c>
+      <c r="C88" t="s">
+        <v>60</v>
+      </c>
       <c r="G88" s="1" t="s">
         <v>88</v>
       </c>
@@ -8180,6 +8441,9 @@
       <c r="B89" t="s">
         <v>90</v>
       </c>
+      <c r="C89" t="s">
+        <v>60</v>
+      </c>
       <c r="G89" s="1" t="s">
         <v>88</v>
       </c>
@@ -8207,6 +8471,9 @@
       <c r="B90" t="s">
         <v>90</v>
       </c>
+      <c r="C90" t="s">
+        <v>60</v>
+      </c>
       <c r="G90" s="1" t="s">
         <v>88</v>
       </c>
@@ -8233,6 +8500,9 @@
       </c>
       <c r="B91" t="s">
         <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>60</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>88</v>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAAA300-08CC-40DA-B88C-784CF8C3A8C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F9F750-C883-4DDD-9042-6D1A38039169}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1935" windowWidth="35820" windowHeight="18720" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
     <sheet name="Data_collect" sheetId="1" r:id="rId2"/>
+    <sheet name="Pupal_Splits" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="237">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -697,6 +698,51 @@
   </si>
   <si>
     <t>2018-09-24</t>
+  </si>
+  <si>
+    <t>Cohort_day</t>
+  </si>
+  <si>
+    <t>Collection_date</t>
+  </si>
+  <si>
+    <t>Cohort_date</t>
+  </si>
+  <si>
+    <t>Site_Name</t>
+  </si>
+  <si>
+    <t>Hinal</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>2018-08-21</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>2018-08-26</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>16:49</t>
+  </si>
+  <si>
+    <t>17:04</t>
+  </si>
+  <si>
+    <t>16:37</t>
   </si>
 </sst>
 </file>
@@ -716,7 +762,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,6 +787,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -754,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -785,6 +843,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1352,10 +1414,10 @@
       <c r="K6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="19" t="s">
         <v>68</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -1404,10 +1466,10 @@
       <c r="K7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="19" t="s">
         <v>68</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -1456,10 +1518,10 @@
       <c r="K8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="L8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="19" t="s">
         <v>69</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -1508,10 +1570,10 @@
       <c r="K9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="L9" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="19" t="s">
         <v>69</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -1560,10 +1622,10 @@
       <c r="K10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N10" s="13" t="s">
@@ -1612,10 +1674,10 @@
       <c r="K11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="19" t="s">
         <v>70</v>
       </c>
       <c r="N11" s="13" t="s">
@@ -1664,10 +1726,10 @@
       <c r="K12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="19" t="s">
         <v>71</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -1716,10 +1778,10 @@
       <c r="K13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="19" t="s">
         <v>71</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -1768,10 +1830,10 @@
       <c r="K14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="19" t="s">
         <v>72</v>
       </c>
       <c r="N14" s="13" t="s">
@@ -1820,10 +1882,10 @@
       <c r="K15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="19" t="s">
         <v>72</v>
       </c>
       <c r="N15" s="13" t="s">
@@ -1872,10 +1934,10 @@
       <c r="K16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="19" t="s">
         <v>72</v>
       </c>
       <c r="N16" s="13" t="s">
@@ -1890,161 +1952,161 @@
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="16">
         <v>11</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="18">
         <v>43338</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="16">
         <v>1</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="16">
         <v>313</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="J17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18">
+      <c r="B18" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="16">
         <v>11</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="18">
         <v>43338</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="16">
         <v>2</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="16">
         <v>129</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="J18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="16">
         <v>11</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="18">
         <v>43338</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="16">
         <v>165</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="J19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
     </row>
     <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -5885,15 +5947,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
-  <dimension ref="A1:AS91"/>
+  <dimension ref="A1:AS185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="11" style="1"/>
     <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="1"/>
     <col min="20" max="20" width="15.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5910,7 +5975,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -8507,6 +8572,9 @@
       <c r="G91" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="J91">
+        <v>6</v>
+      </c>
       <c r="K91" t="s">
         <v>61</v>
       </c>
@@ -8522,6 +8590,3021 @@
       </c>
       <c r="AC91" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92">
+        <v>9.9659999999999993</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J92">
+        <v>11</v>
+      </c>
+      <c r="K92" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93">
+        <v>9.9120000000000008</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J93">
+        <v>11</v>
+      </c>
+      <c r="K93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94">
+        <v>6.5419999999999998</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J94">
+        <v>11</v>
+      </c>
+      <c r="K94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95">
+        <v>9.1750000000000007</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J95">
+        <v>11</v>
+      </c>
+      <c r="K95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>231</v>
+      </c>
+      <c r="C96" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96">
+        <v>6.3680000000000003</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J96">
+        <v>11</v>
+      </c>
+      <c r="K96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97">
+        <v>11.004</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J97">
+        <v>11</v>
+      </c>
+      <c r="K97" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98">
+        <v>7.3</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J98">
+        <v>11</v>
+      </c>
+      <c r="K98" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99">
+        <v>10.097</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J99">
+        <v>11</v>
+      </c>
+      <c r="K99" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>231</v>
+      </c>
+      <c r="C100" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100">
+        <v>8.2029999999999994</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J100">
+        <v>11</v>
+      </c>
+      <c r="K100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101">
+        <v>9.5419999999999998</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J101">
+        <v>11</v>
+      </c>
+      <c r="K101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102">
+        <v>7.2389999999999999</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J102">
+        <v>11</v>
+      </c>
+      <c r="K102" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>231</v>
+      </c>
+      <c r="C103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103">
+        <v>11.362</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J103">
+        <v>11</v>
+      </c>
+      <c r="K103" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104">
+        <v>6.62</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J104">
+        <v>11</v>
+      </c>
+      <c r="K104" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105">
+        <v>6.4130000000000003</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J105">
+        <v>11</v>
+      </c>
+      <c r="K105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>15</v>
+      </c>
+      <c r="B106" t="s">
+        <v>231</v>
+      </c>
+      <c r="C106" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106">
+        <v>4.7149999999999999</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J106">
+        <v>11</v>
+      </c>
+      <c r="K106" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107">
+        <v>11</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J107">
+        <v>11</v>
+      </c>
+      <c r="K107" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108">
+        <v>12.013</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J108">
+        <v>11</v>
+      </c>
+      <c r="K108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>18</v>
+      </c>
+      <c r="B109" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109">
+        <v>8.2040000000000006</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J109">
+        <v>11</v>
+      </c>
+      <c r="K109" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>19</v>
+      </c>
+      <c r="B110" t="s">
+        <v>231</v>
+      </c>
+      <c r="C110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110">
+        <v>6.7530000000000001</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J110">
+        <v>11</v>
+      </c>
+      <c r="K110" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111">
+        <v>6.2270000000000003</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J111">
+        <v>11</v>
+      </c>
+      <c r="K111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>21</v>
+      </c>
+      <c r="B112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112">
+        <v>5.76</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J112">
+        <v>11</v>
+      </c>
+      <c r="K112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>22</v>
+      </c>
+      <c r="B113" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113">
+        <v>5.7779999999999996</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J113">
+        <v>11</v>
+      </c>
+      <c r="K113" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>23</v>
+      </c>
+      <c r="B114" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114">
+        <v>5.8529999999999998</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J114">
+        <v>11</v>
+      </c>
+      <c r="K114" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>24</v>
+      </c>
+      <c r="B115" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115">
+        <v>9.7059999999999995</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J115">
+        <v>11</v>
+      </c>
+      <c r="K115" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116">
+        <v>9.57</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J116">
+        <v>11</v>
+      </c>
+      <c r="K116" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>26</v>
+      </c>
+      <c r="B117" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" t="s">
+        <v>60</v>
+      </c>
+      <c r="D117">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J117">
+        <v>11</v>
+      </c>
+      <c r="K117" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>27</v>
+      </c>
+      <c r="B118" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118" t="s">
+        <v>60</v>
+      </c>
+      <c r="D118">
+        <v>6.43</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J118">
+        <v>11</v>
+      </c>
+      <c r="K118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>28</v>
+      </c>
+      <c r="B119" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119">
+        <v>10.427</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J119">
+        <v>11</v>
+      </c>
+      <c r="K119" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>29</v>
+      </c>
+      <c r="B120" t="s">
+        <v>231</v>
+      </c>
+      <c r="C120" t="s">
+        <v>60</v>
+      </c>
+      <c r="D120">
+        <v>8.0690000000000008</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J120">
+        <v>11</v>
+      </c>
+      <c r="K120" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>30</v>
+      </c>
+      <c r="B121" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121">
+        <v>6.6520000000000001</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J121">
+        <v>11</v>
+      </c>
+      <c r="K121" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>31</v>
+      </c>
+      <c r="B122" t="s">
+        <v>231</v>
+      </c>
+      <c r="C122" t="s">
+        <v>60</v>
+      </c>
+      <c r="D122">
+        <v>7.7389999999999999</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J122">
+        <v>11</v>
+      </c>
+      <c r="K122" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>32</v>
+      </c>
+      <c r="B123" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123">
+        <v>7.1740000000000004</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J123">
+        <v>11</v>
+      </c>
+      <c r="K123" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>33</v>
+      </c>
+      <c r="B124" t="s">
+        <v>231</v>
+      </c>
+      <c r="C124" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124">
+        <v>8.4019999999999992</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J124">
+        <v>11</v>
+      </c>
+      <c r="K124" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>34</v>
+      </c>
+      <c r="B125" t="s">
+        <v>231</v>
+      </c>
+      <c r="C125" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125">
+        <v>6.335</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J125">
+        <v>11</v>
+      </c>
+      <c r="K125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>35</v>
+      </c>
+      <c r="B126" t="s">
+        <v>231</v>
+      </c>
+      <c r="C126" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126">
+        <v>7.6909999999999998</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J126">
+        <v>11</v>
+      </c>
+      <c r="K126" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>36</v>
+      </c>
+      <c r="B127" t="s">
+        <v>231</v>
+      </c>
+      <c r="C127" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127">
+        <v>6.8559999999999999</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J127">
+        <v>11</v>
+      </c>
+      <c r="K127" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>37</v>
+      </c>
+      <c r="B128" t="s">
+        <v>231</v>
+      </c>
+      <c r="C128" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128">
+        <v>9.6440000000000001</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J128">
+        <v>11</v>
+      </c>
+      <c r="K128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>38</v>
+      </c>
+      <c r="B129" t="s">
+        <v>231</v>
+      </c>
+      <c r="C129" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129">
+        <v>10.042999999999999</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J129">
+        <v>11</v>
+      </c>
+      <c r="K129" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>39</v>
+      </c>
+      <c r="B130" t="s">
+        <v>231</v>
+      </c>
+      <c r="C130" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130">
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J130">
+        <v>11</v>
+      </c>
+      <c r="K130" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>40</v>
+      </c>
+      <c r="B131" t="s">
+        <v>231</v>
+      </c>
+      <c r="C131" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131">
+        <v>5.2640000000000002</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J131">
+        <v>11</v>
+      </c>
+      <c r="K131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>41</v>
+      </c>
+      <c r="B132" t="s">
+        <v>231</v>
+      </c>
+      <c r="C132" t="s">
+        <v>60</v>
+      </c>
+      <c r="D132">
+        <v>4.7290000000000001</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J132">
+        <v>11</v>
+      </c>
+      <c r="K132" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>42</v>
+      </c>
+      <c r="B133" t="s">
+        <v>231</v>
+      </c>
+      <c r="C133" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133">
+        <v>10.238</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J133">
+        <v>11</v>
+      </c>
+      <c r="K133" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>43</v>
+      </c>
+      <c r="B134" t="s">
+        <v>231</v>
+      </c>
+      <c r="C134" t="s">
+        <v>60</v>
+      </c>
+      <c r="D134">
+        <v>10.393000000000001</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J134">
+        <v>11</v>
+      </c>
+      <c r="K134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>44</v>
+      </c>
+      <c r="B135" t="s">
+        <v>231</v>
+      </c>
+      <c r="C135" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135">
+        <v>7.2569999999999997</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J135">
+        <v>11</v>
+      </c>
+      <c r="K135" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>45</v>
+      </c>
+      <c r="B136" t="s">
+        <v>231</v>
+      </c>
+      <c r="C136" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136">
+        <v>7.4619999999999997</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J136">
+        <v>11</v>
+      </c>
+      <c r="K136" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>46</v>
+      </c>
+      <c r="B137" t="s">
+        <v>231</v>
+      </c>
+      <c r="C137" t="s">
+        <v>233</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J137">
+        <v>11</v>
+      </c>
+      <c r="K137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>47</v>
+      </c>
+      <c r="B138" t="s">
+        <v>231</v>
+      </c>
+      <c r="C138" t="s">
+        <v>233</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J138">
+        <v>11</v>
+      </c>
+      <c r="K138" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>232</v>
+      </c>
+      <c r="C139" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139">
+        <v>6.4989999999999997</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J139">
+        <v>11</v>
+      </c>
+      <c r="K139" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>232</v>
+      </c>
+      <c r="C140" t="s">
+        <v>60</v>
+      </c>
+      <c r="D140">
+        <v>8.8190000000000008</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J140">
+        <v>11</v>
+      </c>
+      <c r="K140" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
+        <v>232</v>
+      </c>
+      <c r="C141" t="s">
+        <v>59</v>
+      </c>
+      <c r="D141">
+        <v>8.1460000000000008</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J141">
+        <v>11</v>
+      </c>
+      <c r="K141" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>232</v>
+      </c>
+      <c r="C142" t="s">
+        <v>59</v>
+      </c>
+      <c r="D142">
+        <v>6.7469999999999999</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J142">
+        <v>11</v>
+      </c>
+      <c r="K142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>232</v>
+      </c>
+      <c r="C143" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143">
+        <v>8.3829999999999991</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J143">
+        <v>11</v>
+      </c>
+      <c r="K143" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>232</v>
+      </c>
+      <c r="C144" t="s">
+        <v>60</v>
+      </c>
+      <c r="D144">
+        <v>11.62</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J144">
+        <v>11</v>
+      </c>
+      <c r="K144" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>232</v>
+      </c>
+      <c r="C145" t="s">
+        <v>59</v>
+      </c>
+      <c r="D145">
+        <v>7.6989999999999998</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J145">
+        <v>11</v>
+      </c>
+      <c r="K145" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>232</v>
+      </c>
+      <c r="C146" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146">
+        <v>5.2329999999999997</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J146">
+        <v>11</v>
+      </c>
+      <c r="K146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>232</v>
+      </c>
+      <c r="C147" t="s">
+        <v>60</v>
+      </c>
+      <c r="D147">
+        <v>8.7330000000000005</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J147">
+        <v>11</v>
+      </c>
+      <c r="K147" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>232</v>
+      </c>
+      <c r="C148" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148">
+        <v>9.7370000000000001</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J148">
+        <v>11</v>
+      </c>
+      <c r="K148" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>232</v>
+      </c>
+      <c r="C149" t="s">
+        <v>60</v>
+      </c>
+      <c r="D149">
+        <v>15.02</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J149">
+        <v>11</v>
+      </c>
+      <c r="K149" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>232</v>
+      </c>
+      <c r="C150" t="s">
+        <v>60</v>
+      </c>
+      <c r="D150">
+        <v>9.1539999999999999</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J150">
+        <v>11</v>
+      </c>
+      <c r="K150" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>13</v>
+      </c>
+      <c r="B151" t="s">
+        <v>232</v>
+      </c>
+      <c r="C151" t="s">
+        <v>59</v>
+      </c>
+      <c r="D151">
+        <v>10.824</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J151">
+        <v>11</v>
+      </c>
+      <c r="K151" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>232</v>
+      </c>
+      <c r="C152" t="s">
+        <v>59</v>
+      </c>
+      <c r="D152">
+        <v>7.7549999999999999</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J152">
+        <v>11</v>
+      </c>
+      <c r="K152" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>15</v>
+      </c>
+      <c r="B153" t="s">
+        <v>232</v>
+      </c>
+      <c r="C153" t="s">
+        <v>60</v>
+      </c>
+      <c r="D153">
+        <v>9.1980000000000004</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J153">
+        <v>11</v>
+      </c>
+      <c r="K153" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>16</v>
+      </c>
+      <c r="B154" t="s">
+        <v>232</v>
+      </c>
+      <c r="C154" t="s">
+        <v>59</v>
+      </c>
+      <c r="D154">
+        <v>8.8879999999999999</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J154">
+        <v>11</v>
+      </c>
+      <c r="K154" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>17</v>
+      </c>
+      <c r="B155" t="s">
+        <v>232</v>
+      </c>
+      <c r="C155" t="s">
+        <v>60</v>
+      </c>
+      <c r="D155">
+        <v>11.337999999999999</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J155">
+        <v>11</v>
+      </c>
+      <c r="K155" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>18</v>
+      </c>
+      <c r="B156" t="s">
+        <v>232</v>
+      </c>
+      <c r="C156" t="s">
+        <v>59</v>
+      </c>
+      <c r="D156">
+        <v>7.0209999999999999</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J156">
+        <v>11</v>
+      </c>
+      <c r="K156" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>19</v>
+      </c>
+      <c r="B157" t="s">
+        <v>232</v>
+      </c>
+      <c r="C157" t="s">
+        <v>60</v>
+      </c>
+      <c r="D157">
+        <v>8.8230000000000004</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J157">
+        <v>11</v>
+      </c>
+      <c r="K157" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>20</v>
+      </c>
+      <c r="B158" t="s">
+        <v>232</v>
+      </c>
+      <c r="C158" t="s">
+        <v>59</v>
+      </c>
+      <c r="D158">
+        <v>10.875</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J158">
+        <v>11</v>
+      </c>
+      <c r="K158" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>21</v>
+      </c>
+      <c r="B159" t="s">
+        <v>232</v>
+      </c>
+      <c r="C159" t="s">
+        <v>59</v>
+      </c>
+      <c r="D159">
+        <v>8.3859999999999992</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J159">
+        <v>11</v>
+      </c>
+      <c r="K159" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>22</v>
+      </c>
+      <c r="B160" t="s">
+        <v>232</v>
+      </c>
+      <c r="C160" t="s">
+        <v>60</v>
+      </c>
+      <c r="D160">
+        <v>9.9160000000000004</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J160">
+        <v>11</v>
+      </c>
+      <c r="K160" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>23</v>
+      </c>
+      <c r="B161" t="s">
+        <v>232</v>
+      </c>
+      <c r="C161" t="s">
+        <v>59</v>
+      </c>
+      <c r="D161">
+        <v>9.9610000000000003</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J161">
+        <v>11</v>
+      </c>
+      <c r="K161" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>24</v>
+      </c>
+      <c r="B162" t="s">
+        <v>232</v>
+      </c>
+      <c r="C162" t="s">
+        <v>60</v>
+      </c>
+      <c r="D162">
+        <v>7.0469999999999997</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J162">
+        <v>11</v>
+      </c>
+      <c r="K162" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>25</v>
+      </c>
+      <c r="B163" t="s">
+        <v>232</v>
+      </c>
+      <c r="C163" t="s">
+        <v>59</v>
+      </c>
+      <c r="D163">
+        <v>9.8320000000000007</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J163">
+        <v>11</v>
+      </c>
+      <c r="K163" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>26</v>
+      </c>
+      <c r="B164" t="s">
+        <v>232</v>
+      </c>
+      <c r="C164" t="s">
+        <v>60</v>
+      </c>
+      <c r="D164">
+        <v>8.1859999999999999</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J164">
+        <v>11</v>
+      </c>
+      <c r="K164" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>27</v>
+      </c>
+      <c r="B165" t="s">
+        <v>232</v>
+      </c>
+      <c r="C165" t="s">
+        <v>59</v>
+      </c>
+      <c r="D165">
+        <v>8.1010000000000009</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J165">
+        <v>11</v>
+      </c>
+      <c r="K165" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>28</v>
+      </c>
+      <c r="B166" t="s">
+        <v>232</v>
+      </c>
+      <c r="C166" t="s">
+        <v>59</v>
+      </c>
+      <c r="D166">
+        <v>10.337</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J166">
+        <v>11</v>
+      </c>
+      <c r="K166" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>29</v>
+      </c>
+      <c r="B167" t="s">
+        <v>232</v>
+      </c>
+      <c r="C167" t="s">
+        <v>60</v>
+      </c>
+      <c r="D167">
+        <v>6.2240000000000002</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J167">
+        <v>11</v>
+      </c>
+      <c r="K167" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>30</v>
+      </c>
+      <c r="B168" t="s">
+        <v>232</v>
+      </c>
+      <c r="C168" t="s">
+        <v>60</v>
+      </c>
+      <c r="D168">
+        <v>6.5</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J168">
+        <v>11</v>
+      </c>
+      <c r="K168" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>31</v>
+      </c>
+      <c r="B169" t="s">
+        <v>232</v>
+      </c>
+      <c r="C169" t="s">
+        <v>60</v>
+      </c>
+      <c r="D169">
+        <v>8.1460000000000008</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J169">
+        <v>11</v>
+      </c>
+      <c r="K169" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>32</v>
+      </c>
+      <c r="B170" t="s">
+        <v>232</v>
+      </c>
+      <c r="C170" t="s">
+        <v>59</v>
+      </c>
+      <c r="D170">
+        <v>10.167</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J170">
+        <v>11</v>
+      </c>
+      <c r="K170" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>33</v>
+      </c>
+      <c r="B171" t="s">
+        <v>232</v>
+      </c>
+      <c r="C171" t="s">
+        <v>59</v>
+      </c>
+      <c r="D171">
+        <v>11.026999999999999</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J171">
+        <v>11</v>
+      </c>
+      <c r="K171" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>34</v>
+      </c>
+      <c r="B172" t="s">
+        <v>232</v>
+      </c>
+      <c r="C172" t="s">
+        <v>60</v>
+      </c>
+      <c r="D172">
+        <v>5.7759999999999998</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J172">
+        <v>11</v>
+      </c>
+      <c r="K172" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>35</v>
+      </c>
+      <c r="B173" t="s">
+        <v>232</v>
+      </c>
+      <c r="C173" t="s">
+        <v>59</v>
+      </c>
+      <c r="D173">
+        <v>5.8470000000000004</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J173">
+        <v>11</v>
+      </c>
+      <c r="K173" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>36</v>
+      </c>
+      <c r="B174" t="s">
+        <v>232</v>
+      </c>
+      <c r="C174" t="s">
+        <v>60</v>
+      </c>
+      <c r="D174">
+        <v>6.3609999999999998</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J174">
+        <v>11</v>
+      </c>
+      <c r="K174" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>37</v>
+      </c>
+      <c r="B175" t="s">
+        <v>232</v>
+      </c>
+      <c r="C175" t="s">
+        <v>59</v>
+      </c>
+      <c r="D175">
+        <v>5.7770000000000001</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J175">
+        <v>11</v>
+      </c>
+      <c r="K175" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>38</v>
+      </c>
+      <c r="B176" t="s">
+        <v>232</v>
+      </c>
+      <c r="C176" t="s">
+        <v>60</v>
+      </c>
+      <c r="D176">
+        <v>5.282</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J176">
+        <v>11</v>
+      </c>
+      <c r="K176" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>39</v>
+      </c>
+      <c r="B177" t="s">
+        <v>232</v>
+      </c>
+      <c r="C177" t="s">
+        <v>59</v>
+      </c>
+      <c r="D177">
+        <v>6.83</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J177">
+        <v>11</v>
+      </c>
+      <c r="K177" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>40</v>
+      </c>
+      <c r="B178" t="s">
+        <v>232</v>
+      </c>
+      <c r="C178" t="s">
+        <v>59</v>
+      </c>
+      <c r="D178">
+        <v>7.0819999999999999</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J178">
+        <v>11</v>
+      </c>
+      <c r="K178" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>41</v>
+      </c>
+      <c r="B179" t="s">
+        <v>232</v>
+      </c>
+      <c r="C179" t="s">
+        <v>60</v>
+      </c>
+      <c r="D179">
+        <v>8.8620000000000001</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J179">
+        <v>11</v>
+      </c>
+      <c r="K179" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>42</v>
+      </c>
+      <c r="B180" t="s">
+        <v>232</v>
+      </c>
+      <c r="C180" t="s">
+        <v>60</v>
+      </c>
+      <c r="D180">
+        <v>3.0169999999999999</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J180">
+        <v>11</v>
+      </c>
+      <c r="K180" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>43</v>
+      </c>
+      <c r="B181" t="s">
+        <v>232</v>
+      </c>
+      <c r="C181" t="s">
+        <v>59</v>
+      </c>
+      <c r="D181">
+        <v>10.318</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J181">
+        <v>11</v>
+      </c>
+      <c r="K181" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>44</v>
+      </c>
+      <c r="B182" t="s">
+        <v>232</v>
+      </c>
+      <c r="C182" t="s">
+        <v>60</v>
+      </c>
+      <c r="D182">
+        <v>6.1980000000000004</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J182">
+        <v>11</v>
+      </c>
+      <c r="K182" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>45</v>
+      </c>
+      <c r="B183" t="s">
+        <v>232</v>
+      </c>
+      <c r="C183" t="s">
+        <v>59</v>
+      </c>
+      <c r="D183">
+        <v>6.5460000000000003</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J183">
+        <v>11</v>
+      </c>
+      <c r="K183" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>46</v>
+      </c>
+      <c r="B184" t="s">
+        <v>232</v>
+      </c>
+      <c r="C184" t="s">
+        <v>233</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J184">
+        <v>11</v>
+      </c>
+      <c r="K184" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>47</v>
+      </c>
+      <c r="B185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C185" t="s">
+        <v>233</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J185">
+        <v>11</v>
+      </c>
+      <c r="K185" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD836908-61FC-4C6A-BB55-EB17A2B99FDD}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2">
+        <v>123</v>
+      </c>
+      <c r="H2">
+        <v>45</v>
+      </c>
+      <c r="I2">
+        <f>SUM(G2:H2)</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3">
+        <v>64</v>
+      </c>
+      <c r="H3">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I31" si="0">SUM(G3:H3)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31">
+        <f>SUM(G2:G30)</f>
+        <v>187</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H2:H30)</f>
+        <v>90</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -1,38 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anbe642/zScience/Circadian_rhythm_runs_seasonal_timing/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F9F750-C883-4DDD-9042-6D1A38039169}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6D90B0-A98E-874B-A3A2-7332372C767F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1935" windowWidth="35820" windowHeight="18720" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1940" windowWidth="48500" windowHeight="26120" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
     <sheet name="Data_collect" sheetId="1" r:id="rId2"/>
     <sheet name="Pupal_Splits" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="388">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -743,6 +738,459 @@
   </si>
   <si>
     <t>16:37</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>2018-08-22</t>
+  </si>
+  <si>
+    <t>A7-1</t>
+  </si>
+  <si>
+    <t>A7-2</t>
+  </si>
+  <si>
+    <t>A7-3</t>
+  </si>
+  <si>
+    <t>A7-4</t>
+  </si>
+  <si>
+    <t>A7-5</t>
+  </si>
+  <si>
+    <t>A7-6</t>
+  </si>
+  <si>
+    <t>A7-7</t>
+  </si>
+  <si>
+    <t>A7-8</t>
+  </si>
+  <si>
+    <t>A7-9</t>
+  </si>
+  <si>
+    <t>A7-10</t>
+  </si>
+  <si>
+    <t>A7-11</t>
+  </si>
+  <si>
+    <t>A7-12</t>
+  </si>
+  <si>
+    <t>A7-13</t>
+  </si>
+  <si>
+    <t>A7-14</t>
+  </si>
+  <si>
+    <t>A7-15</t>
+  </si>
+  <si>
+    <t>A7-16</t>
+  </si>
+  <si>
+    <t>A7-17</t>
+  </si>
+  <si>
+    <t>A7-18</t>
+  </si>
+  <si>
+    <t>A7-19</t>
+  </si>
+  <si>
+    <t>A7-20</t>
+  </si>
+  <si>
+    <t>A7-21</t>
+  </si>
+  <si>
+    <t>A7-22</t>
+  </si>
+  <si>
+    <t>A7-23</t>
+  </si>
+  <si>
+    <t>A7-24</t>
+  </si>
+  <si>
+    <t>A7-25</t>
+  </si>
+  <si>
+    <t>A7-26</t>
+  </si>
+  <si>
+    <t>A7-27</t>
+  </si>
+  <si>
+    <t>A7-28</t>
+  </si>
+  <si>
+    <t>A7-29</t>
+  </si>
+  <si>
+    <t>A7-30</t>
+  </si>
+  <si>
+    <t>h11w1_18</t>
+  </si>
+  <si>
+    <t>h11w2_18</t>
+  </si>
+  <si>
+    <t>h11w3_18</t>
+  </si>
+  <si>
+    <t>h11w4_18</t>
+  </si>
+  <si>
+    <t>h11w5_18</t>
+  </si>
+  <si>
+    <t>h11w6_18</t>
+  </si>
+  <si>
+    <t>h11w7_18</t>
+  </si>
+  <si>
+    <t>h11w8_18</t>
+  </si>
+  <si>
+    <t>h11w9_18</t>
+  </si>
+  <si>
+    <t>h11w10_18</t>
+  </si>
+  <si>
+    <t>h11w11_18</t>
+  </si>
+  <si>
+    <t>h11w12_18</t>
+  </si>
+  <si>
+    <t>h11w13_18</t>
+  </si>
+  <si>
+    <t>h11w14_18</t>
+  </si>
+  <si>
+    <t>h11w15_18</t>
+  </si>
+  <si>
+    <t>h11w16_18</t>
+  </si>
+  <si>
+    <t>h11w17_18</t>
+  </si>
+  <si>
+    <t>h11w18_18</t>
+  </si>
+  <si>
+    <t>h11w19_18</t>
+  </si>
+  <si>
+    <t>h11w20_18</t>
+  </si>
+  <si>
+    <t>h11w21_18</t>
+  </si>
+  <si>
+    <t>h11w22_18</t>
+  </si>
+  <si>
+    <t>h11w23_18</t>
+  </si>
+  <si>
+    <t>h11w24_18</t>
+  </si>
+  <si>
+    <t>h11w25_18</t>
+  </si>
+  <si>
+    <t>h11w26_18</t>
+  </si>
+  <si>
+    <t>h11w27_18</t>
+  </si>
+  <si>
+    <t>h11w28_18</t>
+  </si>
+  <si>
+    <t>h11w29_18</t>
+  </si>
+  <si>
+    <t>h11w30_18</t>
+  </si>
+  <si>
+    <t>h11w31_18</t>
+  </si>
+  <si>
+    <t>h11w32_18</t>
+  </si>
+  <si>
+    <t>h11w33_18</t>
+  </si>
+  <si>
+    <t>h11w34_18</t>
+  </si>
+  <si>
+    <t>h11w35_18</t>
+  </si>
+  <si>
+    <t>h11w36_18</t>
+  </si>
+  <si>
+    <t>h11w37_18</t>
+  </si>
+  <si>
+    <t>h11w38_18</t>
+  </si>
+  <si>
+    <t>h11w39_18</t>
+  </si>
+  <si>
+    <t>h11w40_18</t>
+  </si>
+  <si>
+    <t>h11w41_18</t>
+  </si>
+  <si>
+    <t>h11w42_18</t>
+  </si>
+  <si>
+    <t>h11w43_18</t>
+  </si>
+  <si>
+    <t>h11w44_18</t>
+  </si>
+  <si>
+    <t>h11w45_18</t>
+  </si>
+  <si>
+    <t>h11b1_18</t>
+  </si>
+  <si>
+    <t>h11b2_18</t>
+  </si>
+  <si>
+    <t>h11b3_18</t>
+  </si>
+  <si>
+    <t>h11b4_18</t>
+  </si>
+  <si>
+    <t>h11b5_18</t>
+  </si>
+  <si>
+    <t>h11b6_18</t>
+  </si>
+  <si>
+    <t>h11b7_18</t>
+  </si>
+  <si>
+    <t>h11b8_18</t>
+  </si>
+  <si>
+    <t>h11b9_18</t>
+  </si>
+  <si>
+    <t>h11b10_18</t>
+  </si>
+  <si>
+    <t>h11b11_18</t>
+  </si>
+  <si>
+    <t>h11b12_18</t>
+  </si>
+  <si>
+    <t>h11b13_18</t>
+  </si>
+  <si>
+    <t>h11b14_18</t>
+  </si>
+  <si>
+    <t>h11b15_18</t>
+  </si>
+  <si>
+    <t>h11b16_18</t>
+  </si>
+  <si>
+    <t>h11b17_18</t>
+  </si>
+  <si>
+    <t>h11b18_18</t>
+  </si>
+  <si>
+    <t>h11b19_18</t>
+  </si>
+  <si>
+    <t>h11b20_18</t>
+  </si>
+  <si>
+    <t>h11b21_18</t>
+  </si>
+  <si>
+    <t>h11b22_18</t>
+  </si>
+  <si>
+    <t>h11b23_18</t>
+  </si>
+  <si>
+    <t>h11b24_18</t>
+  </si>
+  <si>
+    <t>h11b25_18</t>
+  </si>
+  <si>
+    <t>h11b26_18</t>
+  </si>
+  <si>
+    <t>h11b27_18</t>
+  </si>
+  <si>
+    <t>h11b28_18</t>
+  </si>
+  <si>
+    <t>h11b29_18</t>
+  </si>
+  <si>
+    <t>h11b30_18</t>
+  </si>
+  <si>
+    <t>h11b31_18</t>
+  </si>
+  <si>
+    <t>h11b32_18</t>
+  </si>
+  <si>
+    <t>h11b33_18</t>
+  </si>
+  <si>
+    <t>h11b34_18</t>
+  </si>
+  <si>
+    <t>h11b35_18</t>
+  </si>
+  <si>
+    <t>h11b36_18</t>
+  </si>
+  <si>
+    <t>h11b37_18</t>
+  </si>
+  <si>
+    <t>h11b38_18</t>
+  </si>
+  <si>
+    <t>h11b39_18</t>
+  </si>
+  <si>
+    <t>h11b40_18</t>
+  </si>
+  <si>
+    <t>h11b41_18</t>
+  </si>
+  <si>
+    <t>h11b42_18</t>
+  </si>
+  <si>
+    <t>h11b43_18</t>
+  </si>
+  <si>
+    <t>h11b44_18</t>
+  </si>
+  <si>
+    <t>h11b45_18</t>
+  </si>
+  <si>
+    <t>Simulated Overwintering</t>
+  </si>
+  <si>
+    <t>genetic control</t>
+  </si>
+  <si>
+    <t>RT eclosion</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>E8</t>
   </si>
 </sst>
 </file>
@@ -1163,17 +1611,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11" style="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -1220,7 +1668,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1260,7 +1708,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1300,7 +1748,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1340,7 +1788,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1380,7 +1828,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1432,7 +1880,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1484,7 +1932,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1536,7 +1984,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1588,7 +2036,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -1640,7 +2088,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
@@ -1692,7 +2140,7 @@
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1744,7 +2192,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1796,7 +2244,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
@@ -1848,7 +2296,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -1900,7 +2348,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
@@ -1952,7 +2400,7 @@
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
     </row>
-    <row r="17" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
@@ -2004,7 +2452,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
     </row>
-    <row r="18" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>58</v>
       </c>
@@ -2056,7 +2504,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>58</v>
       </c>
@@ -2108,7 +2556,7 @@
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
@@ -2160,7 +2608,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
@@ -2212,7 +2660,7 @@
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>58</v>
       </c>
@@ -2264,7 +2712,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -2316,7 +2764,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -2368,7 +2816,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2420,7 +2868,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>58</v>
       </c>
@@ -2472,7 +2920,7 @@
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>58</v>
       </c>
@@ -2524,7 +2972,7 @@
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -2576,7 +3024,7 @@
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2628,7 +3076,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2680,7 +3128,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2732,7 +3180,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -2784,7 +3232,7 @@
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
     </row>
-    <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -2836,7 +3284,7 @@
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -2894,7 +3342,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -2952,7 +3400,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -3010,7 +3458,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -3068,7 +3516,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -3126,7 +3574,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
@@ -3184,7 +3632,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>195</v>
       </c>
@@ -3242,7 +3690,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>195</v>
       </c>
@@ -3300,7 +3748,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>195</v>
       </c>
@@ -3358,7 +3806,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>58</v>
       </c>
@@ -3416,7 +3864,7 @@
       <c r="Y43" s="14"/>
       <c r="Z43" s="14"/>
     </row>
-    <row r="44" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>58</v>
       </c>
@@ -3474,7 +3922,7 @@
       <c r="Y44" s="14"/>
       <c r="Z44" s="14"/>
     </row>
-    <row r="45" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>58</v>
       </c>
@@ -3532,7 +3980,7 @@
       <c r="Y45" s="14"/>
       <c r="Z45" s="14"/>
     </row>
-    <row r="46" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>58</v>
       </c>
@@ -3590,7 +4038,7 @@
       <c r="Y46" s="14"/>
       <c r="Z46" s="14"/>
     </row>
-    <row r="47" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>58</v>
       </c>
@@ -3648,7 +4096,7 @@
       <c r="Y47" s="14"/>
       <c r="Z47" s="14"/>
     </row>
-    <row r="48" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>58</v>
       </c>
@@ -3706,7 +4154,7 @@
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
     </row>
-    <row r="49" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>58</v>
       </c>
@@ -3764,7 +4212,7 @@
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
     </row>
-    <row r="50" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>195</v>
       </c>
@@ -3822,7 +4270,7 @@
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
     </row>
-    <row r="51" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>195</v>
       </c>
@@ -3880,7 +4328,7 @@
       <c r="Y51" s="14"/>
       <c r="Z51" s="14"/>
     </row>
-    <row r="52" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>195</v>
       </c>
@@ -3938,7 +4386,7 @@
       <c r="Y52" s="14"/>
       <c r="Z52" s="14"/>
     </row>
-    <row r="53" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>58</v>
       </c>
@@ -3996,7 +4444,7 @@
       <c r="Y53" s="14"/>
       <c r="Z53" s="14"/>
     </row>
-    <row r="54" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
         <v>195</v>
       </c>
@@ -4054,7 +4502,7 @@
       <c r="Y54" s="14"/>
       <c r="Z54" s="14"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -4112,7 +4560,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -4170,7 +4618,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -4228,7 +4676,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,7 +4734,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -4344,7 +4792,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -4402,7 +4850,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>195</v>
       </c>
@@ -4460,7 +4908,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>195</v>
       </c>
@@ -4518,7 +4966,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>195</v>
       </c>
@@ -4576,7 +5024,7 @@
       <c r="Y63" s="14"/>
       <c r="Z63" s="14"/>
     </row>
-    <row r="64" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>195</v>
       </c>
@@ -4634,7 +5082,7 @@
       <c r="Y64" s="14"/>
       <c r="Z64" s="14"/>
     </row>
-    <row r="65" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>195</v>
       </c>
@@ -4692,7 +5140,7 @@
       <c r="Y65" s="14"/>
       <c r="Z65" s="14"/>
     </row>
-    <row r="66" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
         <v>58</v>
       </c>
@@ -4750,7 +5198,7 @@
       <c r="Y66" s="14"/>
       <c r="Z66" s="14"/>
     </row>
-    <row r="67" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
         <v>58</v>
       </c>
@@ -4808,7 +5256,7 @@
       <c r="Y67" s="14"/>
       <c r="Z67" s="14"/>
     </row>
-    <row r="68" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>58</v>
       </c>
@@ -4866,7 +5314,7 @@
       <c r="Y68" s="14"/>
       <c r="Z68" s="14"/>
     </row>
-    <row r="69" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>58</v>
       </c>
@@ -4924,7 +5372,7 @@
       <c r="Y69" s="14"/>
       <c r="Z69" s="14"/>
     </row>
-    <row r="70" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
         <v>58</v>
       </c>
@@ -4982,7 +5430,7 @@
       <c r="Y70" s="14"/>
       <c r="Z70" s="14"/>
     </row>
-    <row r="71" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
         <v>58</v>
       </c>
@@ -5040,7 +5488,7 @@
       <c r="Y71" s="14"/>
       <c r="Z71" s="14"/>
     </row>
-    <row r="72" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
         <v>58</v>
       </c>
@@ -5098,7 +5546,7 @@
       <c r="Y72" s="14"/>
       <c r="Z72" s="14"/>
     </row>
-    <row r="73" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
         <v>195</v>
       </c>
@@ -5156,7 +5604,7 @@
       <c r="Y73" s="14"/>
       <c r="Z73" s="14"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5183,7 +5631,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5210,7 +5658,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5237,7 +5685,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5264,7 +5712,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5291,7 +5739,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5318,7 +5766,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5345,7 +5793,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5372,7 +5820,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5399,7 +5847,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5426,7 +5874,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5453,7 +5901,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5480,7 +5928,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5507,7 +5955,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5534,7 +5982,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5561,7 +6009,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5588,7 +6036,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5615,7 +6063,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5642,7 +6090,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5669,7 +6117,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5696,7 +6144,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5723,7 +6171,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5750,7 +6198,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5777,7 +6225,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5804,7 +6252,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5831,7 +6279,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5858,7 +6306,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5885,7 +6333,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5912,7 +6360,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5947,22 +6395,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
-  <dimension ref="A1:AS185"/>
+  <dimension ref="A1:AS275"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC92" sqref="AC92:AC183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="11" style="1"/>
-    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1"/>
-    <col min="20" max="20" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6099,7 +6547,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6109,6 +6557,12 @@
       <c r="G2" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
       <c r="K2" t="s">
         <v>61</v>
       </c>
@@ -6122,7 +6576,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6132,6 +6586,12 @@
       <c r="G3" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
       <c r="K3" t="s">
         <v>61</v>
       </c>
@@ -6145,7 +6605,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6155,6 +6615,12 @@
       <c r="G4" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
       <c r="K4" t="s">
         <v>61</v>
       </c>
@@ -6168,7 +6634,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6178,6 +6644,12 @@
       <c r="G5" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
       <c r="K5" t="s">
         <v>61</v>
       </c>
@@ -6191,7 +6663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6201,6 +6673,12 @@
       <c r="G6" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
       <c r="K6" t="s">
         <v>61</v>
       </c>
@@ -6214,7 +6692,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6224,6 +6702,12 @@
       <c r="G7" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
       <c r="K7" t="s">
         <v>61</v>
       </c>
@@ -6237,7 +6721,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6247,6 +6731,12 @@
       <c r="G8" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
       <c r="K8" t="s">
         <v>61</v>
       </c>
@@ -6260,7 +6750,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6270,6 +6760,12 @@
       <c r="G9" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
       <c r="K9" t="s">
         <v>61</v>
       </c>
@@ -6283,7 +6779,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6293,6 +6789,12 @@
       <c r="G10" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
       <c r="K10" t="s">
         <v>61</v>
       </c>
@@ -6306,7 +6808,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6316,6 +6818,12 @@
       <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
       <c r="K11" t="s">
         <v>61</v>
       </c>
@@ -6329,7 +6837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6339,6 +6847,12 @@
       <c r="G12" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
       <c r="K12" t="s">
         <v>61</v>
       </c>
@@ -6352,7 +6866,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6362,6 +6876,12 @@
       <c r="G13" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
       <c r="K13" t="s">
         <v>61</v>
       </c>
@@ -6375,7 +6895,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6385,6 +6905,12 @@
       <c r="G14" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
       <c r="K14" t="s">
         <v>61</v>
       </c>
@@ -6398,7 +6924,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6408,6 +6934,12 @@
       <c r="G15" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
       <c r="K15" t="s">
         <v>61</v>
       </c>
@@ -6421,7 +6953,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6431,6 +6963,12 @@
       <c r="G16" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
       <c r="K16" t="s">
         <v>61</v>
       </c>
@@ -6444,7 +6982,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6454,6 +6992,12 @@
       <c r="G17" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
       <c r="K17" t="s">
         <v>61</v>
       </c>
@@ -6467,7 +7011,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6477,6 +7021,12 @@
       <c r="G18" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
       <c r="K18" t="s">
         <v>61</v>
       </c>
@@ -6490,7 +7040,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6500,6 +7050,12 @@
       <c r="G19" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
       <c r="K19" t="s">
         <v>61</v>
       </c>
@@ -6513,7 +7069,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6523,6 +7079,12 @@
       <c r="G20" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
       <c r="K20" t="s">
         <v>61</v>
       </c>
@@ -6536,7 +7098,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6546,6 +7108,12 @@
       <c r="G21" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
       <c r="K21" t="s">
         <v>61</v>
       </c>
@@ -6559,7 +7127,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6569,6 +7137,12 @@
       <c r="G22" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
+      </c>
       <c r="K22" t="s">
         <v>61</v>
       </c>
@@ -6582,7 +7156,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6592,6 +7166,12 @@
       <c r="G23" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
       <c r="K23" t="s">
         <v>61</v>
       </c>
@@ -6605,7 +7185,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6615,6 +7195,12 @@
       <c r="G24" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
       <c r="K24" t="s">
         <v>61</v>
       </c>
@@ -6628,7 +7214,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6638,6 +7224,12 @@
       <c r="G25" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
       <c r="K25" t="s">
         <v>61</v>
       </c>
@@ -6651,7 +7243,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6661,6 +7253,12 @@
       <c r="G26" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
       <c r="K26" t="s">
         <v>61</v>
       </c>
@@ -6674,7 +7272,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6684,6 +7282,12 @@
       <c r="G27" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I27" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
       <c r="K27" t="s">
         <v>61</v>
       </c>
@@ -6697,7 +7301,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6707,6 +7311,12 @@
       <c r="G28" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I28" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
       <c r="K28" t="s">
         <v>61</v>
       </c>
@@ -6720,7 +7330,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6730,6 +7340,12 @@
       <c r="G29" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
       <c r="K29" t="s">
         <v>61</v>
       </c>
@@ -6743,7 +7359,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6753,6 +7369,12 @@
       <c r="G30" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
       <c r="K30" t="s">
         <v>61</v>
       </c>
@@ -6766,7 +7388,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6776,6 +7398,12 @@
       <c r="G31" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="I31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
       <c r="K31" t="s">
         <v>61</v>
       </c>
@@ -6789,7 +7417,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6801,6 +7429,12 @@
       </c>
       <c r="G32" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
       </c>
       <c r="K32" t="s">
         <v>61</v>
@@ -6819,7 +7453,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -6831,6 +7465,12 @@
       </c>
       <c r="G33" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
       </c>
       <c r="K33" t="s">
         <v>61</v>
@@ -6849,7 +7489,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -6861,6 +7501,12 @@
       </c>
       <c r="G34" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
       </c>
       <c r="K34" t="s">
         <v>61</v>
@@ -6879,7 +7525,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6891,6 +7537,12 @@
       </c>
       <c r="G35" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
       </c>
       <c r="K35" t="s">
         <v>61</v>
@@ -6909,7 +7561,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -6921,6 +7573,12 @@
       </c>
       <c r="G36" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
       </c>
       <c r="K36" t="s">
         <v>61</v>
@@ -6939,7 +7597,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>
@@ -6951,6 +7609,12 @@
       </c>
       <c r="G37" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
       </c>
       <c r="K37" t="s">
         <v>61</v>
@@ -6969,7 +7633,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7</v>
       </c>
@@ -6981,6 +7645,12 @@
       </c>
       <c r="G38" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
       </c>
       <c r="K38" t="s">
         <v>61</v>
@@ -6999,7 +7669,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8</v>
       </c>
@@ -7011,6 +7681,12 @@
       </c>
       <c r="G39" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
       </c>
       <c r="K39" t="s">
         <v>61</v>
@@ -7029,7 +7705,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9</v>
       </c>
@@ -7041,6 +7717,12 @@
       </c>
       <c r="G40" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
       </c>
       <c r="K40" t="s">
         <v>61</v>
@@ -7059,7 +7741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10</v>
       </c>
@@ -7071,6 +7753,12 @@
       </c>
       <c r="G41" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
       </c>
       <c r="K41" t="s">
         <v>61</v>
@@ -7089,7 +7777,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>11</v>
       </c>
@@ -7101,6 +7789,12 @@
       </c>
       <c r="G42" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
       </c>
       <c r="K42" t="s">
         <v>61</v>
@@ -7119,7 +7813,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>12</v>
       </c>
@@ -7131,6 +7825,12 @@
       </c>
       <c r="G43" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
       </c>
       <c r="K43" t="s">
         <v>61</v>
@@ -7149,7 +7849,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>13</v>
       </c>
@@ -7161,6 +7861,12 @@
       </c>
       <c r="G44" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
       </c>
       <c r="K44" t="s">
         <v>61</v>
@@ -7179,7 +7885,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>14</v>
       </c>
@@ -7191,6 +7897,12 @@
       </c>
       <c r="G45" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
       </c>
       <c r="K45" t="s">
         <v>61</v>
@@ -7209,7 +7921,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>15</v>
       </c>
@@ -7221,6 +7933,12 @@
       </c>
       <c r="G46" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
       </c>
       <c r="K46" t="s">
         <v>61</v>
@@ -7239,7 +7957,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>16</v>
       </c>
@@ -7251,6 +7969,12 @@
       </c>
       <c r="G47" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
       </c>
       <c r="K47" t="s">
         <v>61</v>
@@ -7269,7 +7993,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>17</v>
       </c>
@@ -7281,6 +8005,12 @@
       </c>
       <c r="G48" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
       </c>
       <c r="K48" t="s">
         <v>61</v>
@@ -7299,7 +8029,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>18</v>
       </c>
@@ -7311,6 +8041,12 @@
       </c>
       <c r="G49" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
       </c>
       <c r="K49" t="s">
         <v>61</v>
@@ -7329,7 +8065,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>19</v>
       </c>
@@ -7341,6 +8077,12 @@
       </c>
       <c r="G50" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
       </c>
       <c r="K50" t="s">
         <v>61</v>
@@ -7359,7 +8101,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>20</v>
       </c>
@@ -7371,6 +8113,12 @@
       </c>
       <c r="G51" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
       </c>
       <c r="K51" t="s">
         <v>61</v>
@@ -7389,7 +8137,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>21</v>
       </c>
@@ -7401,6 +8149,12 @@
       </c>
       <c r="G52" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
       </c>
       <c r="K52" t="s">
         <v>61</v>
@@ -7419,7 +8173,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>22</v>
       </c>
@@ -7431,6 +8185,12 @@
       </c>
       <c r="G53" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
       </c>
       <c r="K53" t="s">
         <v>61</v>
@@ -7449,7 +8209,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>23</v>
       </c>
@@ -7461,6 +8221,12 @@
       </c>
       <c r="G54" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
       </c>
       <c r="K54" t="s">
         <v>61</v>
@@ -7479,7 +8245,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>24</v>
       </c>
@@ -7491,6 +8257,12 @@
       </c>
       <c r="G55" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
       </c>
       <c r="K55" t="s">
         <v>61</v>
@@ -7509,7 +8281,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>25</v>
       </c>
@@ -7521,6 +8293,12 @@
       </c>
       <c r="G56" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
       </c>
       <c r="K56" t="s">
         <v>61</v>
@@ -7539,7 +8317,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>26</v>
       </c>
@@ -7551,6 +8329,12 @@
       </c>
       <c r="G57" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
       </c>
       <c r="K57" t="s">
         <v>61</v>
@@ -7569,7 +8353,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>27</v>
       </c>
@@ -7581,6 +8365,12 @@
       </c>
       <c r="G58" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
       </c>
       <c r="K58" t="s">
         <v>61</v>
@@ -7599,7 +8389,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>28</v>
       </c>
@@ -7611,6 +8401,12 @@
       </c>
       <c r="G59" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
       </c>
       <c r="K59" t="s">
         <v>61</v>
@@ -7629,7 +8425,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>29</v>
       </c>
@@ -7641,6 +8437,12 @@
       </c>
       <c r="G60" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
       </c>
       <c r="K60" t="s">
         <v>61</v>
@@ -7659,7 +8461,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>30</v>
       </c>
@@ -7671,6 +8473,12 @@
       </c>
       <c r="G61" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
       </c>
       <c r="K61" t="s">
         <v>61</v>
@@ -7689,7 +8497,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -7701,6 +8509,12 @@
       </c>
       <c r="G62" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
       </c>
       <c r="K62" t="s">
         <v>61</v>
@@ -7719,7 +8533,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -7731,6 +8545,12 @@
       </c>
       <c r="G63" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
       </c>
       <c r="K63" t="s">
         <v>61</v>
@@ -7749,7 +8569,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -7761,6 +8581,12 @@
       </c>
       <c r="G64" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
       </c>
       <c r="K64" t="s">
         <v>61</v>
@@ -7779,7 +8605,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4</v>
       </c>
@@ -7791,6 +8617,12 @@
       </c>
       <c r="G65" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J65">
+        <v>6</v>
       </c>
       <c r="K65" t="s">
         <v>61</v>
@@ -7809,7 +8641,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5</v>
       </c>
@@ -7821,6 +8653,12 @@
       </c>
       <c r="G66" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J66">
+        <v>6</v>
       </c>
       <c r="K66" t="s">
         <v>61</v>
@@ -7839,7 +8677,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6</v>
       </c>
@@ -7851,6 +8689,12 @@
       </c>
       <c r="G67" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J67">
+        <v>6</v>
       </c>
       <c r="K67" t="s">
         <v>61</v>
@@ -7869,7 +8713,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7</v>
       </c>
@@ -7881,6 +8725,12 @@
       </c>
       <c r="G68" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J68">
+        <v>6</v>
       </c>
       <c r="K68" t="s">
         <v>61</v>
@@ -7899,7 +8749,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>8</v>
       </c>
@@ -7911,6 +8761,12 @@
       </c>
       <c r="G69" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J69">
+        <v>6</v>
       </c>
       <c r="K69" t="s">
         <v>61</v>
@@ -7929,7 +8785,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>9</v>
       </c>
@@ -7941,6 +8797,12 @@
       </c>
       <c r="G70" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J70">
+        <v>6</v>
       </c>
       <c r="K70" t="s">
         <v>61</v>
@@ -7959,7 +8821,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10</v>
       </c>
@@ -7971,6 +8833,12 @@
       </c>
       <c r="G71" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J71">
+        <v>6</v>
       </c>
       <c r="K71" t="s">
         <v>61</v>
@@ -7989,7 +8857,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>11</v>
       </c>
@@ -8001,6 +8869,12 @@
       </c>
       <c r="G72" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J72">
+        <v>6</v>
       </c>
       <c r="K72" t="s">
         <v>61</v>
@@ -8019,7 +8893,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>12</v>
       </c>
@@ -8031,6 +8905,12 @@
       </c>
       <c r="G73" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J73">
+        <v>6</v>
       </c>
       <c r="K73" t="s">
         <v>61</v>
@@ -8049,7 +8929,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>13</v>
       </c>
@@ -8061,6 +8941,12 @@
       </c>
       <c r="G74" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
       </c>
       <c r="K74" t="s">
         <v>61</v>
@@ -8079,7 +8965,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>14</v>
       </c>
@@ -8091,6 +8977,12 @@
       </c>
       <c r="G75" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J75">
+        <v>6</v>
       </c>
       <c r="K75" t="s">
         <v>61</v>
@@ -8109,7 +9001,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>15</v>
       </c>
@@ -8121,6 +9013,12 @@
       </c>
       <c r="G76" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
       </c>
       <c r="K76" t="s">
         <v>61</v>
@@ -8139,7 +9037,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>16</v>
       </c>
@@ -8151,6 +9049,12 @@
       </c>
       <c r="G77" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
       </c>
       <c r="K77" t="s">
         <v>61</v>
@@ -8169,7 +9073,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>17</v>
       </c>
@@ -8181,6 +9085,12 @@
       </c>
       <c r="G78" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
       </c>
       <c r="K78" t="s">
         <v>61</v>
@@ -8199,7 +9109,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>18</v>
       </c>
@@ -8211,6 +9121,12 @@
       </c>
       <c r="G79" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J79">
+        <v>6</v>
       </c>
       <c r="K79" t="s">
         <v>61</v>
@@ -8229,7 +9145,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>19</v>
       </c>
@@ -8241,6 +9157,12 @@
       </c>
       <c r="G80" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J80">
+        <v>6</v>
       </c>
       <c r="K80" t="s">
         <v>61</v>
@@ -8259,7 +9181,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>20</v>
       </c>
@@ -8271,6 +9193,12 @@
       </c>
       <c r="G81" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J81">
+        <v>6</v>
       </c>
       <c r="K81" t="s">
         <v>61</v>
@@ -8289,7 +9217,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>21</v>
       </c>
@@ -8301,6 +9229,12 @@
       </c>
       <c r="G82" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J82">
+        <v>6</v>
       </c>
       <c r="K82" t="s">
         <v>61</v>
@@ -8319,7 +9253,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>22</v>
       </c>
@@ -8331,6 +9265,12 @@
       </c>
       <c r="G83" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J83">
+        <v>6</v>
       </c>
       <c r="K83" t="s">
         <v>61</v>
@@ -8349,7 +9289,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>23</v>
       </c>
@@ -8361,6 +9301,12 @@
       </c>
       <c r="G84" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J84">
+        <v>6</v>
       </c>
       <c r="K84" t="s">
         <v>61</v>
@@ -8379,7 +9325,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>24</v>
       </c>
@@ -8391,6 +9337,12 @@
       </c>
       <c r="G85" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J85">
+        <v>6</v>
       </c>
       <c r="K85" t="s">
         <v>61</v>
@@ -8409,7 +9361,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>25</v>
       </c>
@@ -8421,6 +9373,12 @@
       </c>
       <c r="G86" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J86">
+        <v>6</v>
       </c>
       <c r="K86" t="s">
         <v>61</v>
@@ -8439,7 +9397,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>26</v>
       </c>
@@ -8451,6 +9409,12 @@
       </c>
       <c r="G87" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
       </c>
       <c r="K87" t="s">
         <v>61</v>
@@ -8469,7 +9433,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>27</v>
       </c>
@@ -8481,6 +9445,12 @@
       </c>
       <c r="G88" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J88">
+        <v>6</v>
       </c>
       <c r="K88" t="s">
         <v>61</v>
@@ -8499,7 +9469,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>28</v>
       </c>
@@ -8511,6 +9481,12 @@
       </c>
       <c r="G89" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J89">
+        <v>6</v>
       </c>
       <c r="K89" t="s">
         <v>61</v>
@@ -8529,7 +9505,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>29</v>
       </c>
@@ -8541,6 +9517,12 @@
       </c>
       <c r="G90" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J90">
+        <v>6</v>
       </c>
       <c r="K90" t="s">
         <v>61</v>
@@ -8559,7 +9541,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>30</v>
       </c>
@@ -8571,6 +9553,9 @@
       </c>
       <c r="G91" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="J91">
         <v>6</v>
@@ -8592,7 +9577,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -8623,8 +9608,20 @@
       <c r="K92" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="T92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2</v>
       </c>
@@ -8652,8 +9649,17 @@
       <c r="K93" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="T93" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3</v>
       </c>
@@ -8681,8 +9687,17 @@
       <c r="K94" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="T94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4</v>
       </c>
@@ -8710,8 +9725,20 @@
       <c r="K95" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="T95" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5</v>
       </c>
@@ -8739,8 +9766,20 @@
       <c r="K96" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T96" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>6</v>
       </c>
@@ -8768,8 +9807,17 @@
       <c r="K97" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T97" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>7</v>
       </c>
@@ -8797,8 +9845,20 @@
       <c r="K98" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T98" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8</v>
       </c>
@@ -8826,8 +9886,20 @@
       <c r="K99" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T99" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9</v>
       </c>
@@ -8855,8 +9927,20 @@
       <c r="K100" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T100" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10</v>
       </c>
@@ -8884,8 +9968,20 @@
       <c r="K101" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T101" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>11</v>
       </c>
@@ -8913,8 +10009,17 @@
       <c r="K102" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>12</v>
       </c>
@@ -8942,8 +10047,20 @@
       <c r="K103" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T103" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>13</v>
       </c>
@@ -8971,8 +10088,20 @@
       <c r="K104" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T104" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>14</v>
       </c>
@@ -9000,8 +10129,20 @@
       <c r="K105" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T105" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>15</v>
       </c>
@@ -9029,8 +10170,20 @@
       <c r="K106" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T106" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>16</v>
       </c>
@@ -9058,8 +10211,20 @@
       <c r="K107" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T107" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>17</v>
       </c>
@@ -9087,8 +10252,17 @@
       <c r="K108" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T108" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>18</v>
       </c>
@@ -9116,8 +10290,20 @@
       <c r="K109" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T109" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>19</v>
       </c>
@@ -9145,8 +10331,17 @@
       <c r="K110" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>20</v>
       </c>
@@ -9174,8 +10369,20 @@
       <c r="K111" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T111" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>21</v>
       </c>
@@ -9203,8 +10410,20 @@
       <c r="K112" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T112" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>22</v>
       </c>
@@ -9232,8 +10451,17 @@
       <c r="K113" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T113" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>23</v>
       </c>
@@ -9261,8 +10489,20 @@
       <c r="K114" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T114" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>24</v>
       </c>
@@ -9290,8 +10530,17 @@
       <c r="K115" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T115" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>25</v>
       </c>
@@ -9319,8 +10568,20 @@
       <c r="K116" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T116" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>26</v>
       </c>
@@ -9348,8 +10609,17 @@
       <c r="K117" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T117" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>27</v>
       </c>
@@ -9377,8 +10647,17 @@
       <c r="K118" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T118" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>28</v>
       </c>
@@ -9406,8 +10685,20 @@
       <c r="K119" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T119" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>29</v>
       </c>
@@ -9435,8 +10726,20 @@
       <c r="K120" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T120" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>30</v>
       </c>
@@ -9464,8 +10767,17 @@
       <c r="K121" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T121" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>31</v>
       </c>
@@ -9493,8 +10805,20 @@
       <c r="K122" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T122" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>316</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>32</v>
       </c>
@@ -9522,8 +10846,17 @@
       <c r="K123" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T123" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>33</v>
       </c>
@@ -9551,8 +10884,17 @@
       <c r="K124" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T124" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>34</v>
       </c>
@@ -9580,8 +10922,20 @@
       <c r="K125" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T125" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>35</v>
       </c>
@@ -9609,8 +10963,20 @@
       <c r="K126" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T126" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>36</v>
       </c>
@@ -9638,8 +11004,17 @@
       <c r="K127" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T127" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>37</v>
       </c>
@@ -9667,8 +11042,20 @@
       <c r="K128" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T128" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>38</v>
       </c>
@@ -9696,8 +11083,20 @@
       <c r="K129" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T129" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y129" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>39</v>
       </c>
@@ -9725,8 +11124,20 @@
       <c r="K130" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T130" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>40</v>
       </c>
@@ -9754,8 +11165,17 @@
       <c r="K131" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T131" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>41</v>
       </c>
@@ -9783,8 +11203,20 @@
       <c r="K132" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T132" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>326</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>42</v>
       </c>
@@ -9812,8 +11244,20 @@
       <c r="K133" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T133" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y133" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>43</v>
       </c>
@@ -9841,8 +11285,17 @@
       <c r="K134" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T134" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y134" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>44</v>
       </c>
@@ -9870,8 +11323,20 @@
       <c r="K135" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T135" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>329</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>45</v>
       </c>
@@ -9899,8 +11364,17 @@
       <c r="K136" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T136" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y136" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>46</v>
       </c>
@@ -9925,8 +11399,11 @@
       <c r="K137" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T137" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>47</v>
       </c>
@@ -9954,8 +11431,11 @@
       <c r="K138" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T138" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1</v>
       </c>
@@ -9986,8 +11466,17 @@
       <c r="K139" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T139" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2</v>
       </c>
@@ -10015,8 +11504,20 @@
       <c r="K140" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T140" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3</v>
       </c>
@@ -10044,8 +11545,20 @@
       <c r="K141" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T141" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4</v>
       </c>
@@ -10073,8 +11586,20 @@
       <c r="K142" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T142" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC142" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>5</v>
       </c>
@@ -10102,8 +11627,20 @@
       <c r="K143" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T143" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>6</v>
       </c>
@@ -10131,8 +11668,20 @@
       <c r="K144" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T144" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>336</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>7</v>
       </c>
@@ -10160,8 +11709,20 @@
       <c r="K145" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T145" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC145" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>8</v>
       </c>
@@ -10189,8 +11750,20 @@
       <c r="K146" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T146" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>338</v>
+      </c>
+      <c r="AC146" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>9</v>
       </c>
@@ -10218,8 +11791,17 @@
       <c r="K147" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T147" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>10</v>
       </c>
@@ -10247,8 +11829,20 @@
       <c r="K148" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T148" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC148" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>11</v>
       </c>
@@ -10276,8 +11870,17 @@
       <c r="K149" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T149" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>12</v>
       </c>
@@ -10305,8 +11908,17 @@
       <c r="K150" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T150" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>13</v>
       </c>
@@ -10334,8 +11946,20 @@
       <c r="K151" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T151" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>14</v>
       </c>
@@ -10363,8 +11987,20 @@
       <c r="K152" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T152" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC152" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>15</v>
       </c>
@@ -10392,8 +12028,20 @@
       <c r="K153" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T153" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>16</v>
       </c>
@@ -10421,8 +12069,17 @@
       <c r="K154" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T154" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>17</v>
       </c>
@@ -10450,8 +12107,20 @@
       <c r="K155" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T155" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>18</v>
       </c>
@@ -10479,8 +12148,20 @@
       <c r="K156" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T156" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>19</v>
       </c>
@@ -10508,8 +12189,20 @@
       <c r="K157" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T157" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>20</v>
       </c>
@@ -10537,8 +12230,17 @@
       <c r="K158" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T158" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>21</v>
       </c>
@@ -10566,8 +12268,20 @@
       <c r="K159" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T159" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>22</v>
       </c>
@@ -10595,8 +12309,17 @@
       <c r="K160" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T160" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>23</v>
       </c>
@@ -10624,8 +12347,20 @@
       <c r="K161" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T161" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>24</v>
       </c>
@@ -10653,8 +12388,17 @@
       <c r="K162" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T162" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>25</v>
       </c>
@@ -10682,8 +12426,17 @@
       <c r="K163" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T163" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>26</v>
       </c>
@@ -10711,8 +12464,20 @@
       <c r="K164" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T164" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>27</v>
       </c>
@@ -10740,8 +12505,17 @@
       <c r="K165" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T165" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>28</v>
       </c>
@@ -10769,8 +12543,17 @@
       <c r="K166" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T166" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>29</v>
       </c>
@@ -10798,8 +12581,20 @@
       <c r="K167" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T167" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>30</v>
       </c>
@@ -10827,8 +12622,20 @@
       <c r="K168" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T168" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>31</v>
       </c>
@@ -10856,8 +12663,20 @@
       <c r="K169" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T169" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>32</v>
       </c>
@@ -10885,8 +12704,20 @@
       <c r="K170" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T170" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>33</v>
       </c>
@@ -10914,8 +12745,20 @@
       <c r="K171" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T171" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>34</v>
       </c>
@@ -10943,8 +12786,20 @@
       <c r="K172" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T172" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>35</v>
       </c>
@@ -10972,8 +12827,20 @@
       <c r="K173" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T173" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>36</v>
       </c>
@@ -11001,8 +12868,20 @@
       <c r="K174" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T174" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>37</v>
       </c>
@@ -11030,8 +12909,20 @@
       <c r="K175" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T175" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>38</v>
       </c>
@@ -11059,8 +12950,17 @@
       <c r="K176" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T176" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>39</v>
       </c>
@@ -11088,8 +12988,20 @@
       <c r="K177" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T177" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>40</v>
       </c>
@@ -11117,8 +13029,20 @@
       <c r="K178" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T178" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>41</v>
       </c>
@@ -11146,8 +13070,20 @@
       <c r="K179" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T179" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>42</v>
       </c>
@@ -11175,8 +13111,17 @@
       <c r="K180" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T180" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>43</v>
       </c>
@@ -11204,8 +13149,17 @@
       <c r="K181" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T181" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>44</v>
       </c>
@@ -11233,8 +13187,20 @@
       <c r="K182" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T182" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>45</v>
       </c>
@@ -11262,8 +13228,17 @@
       <c r="K183" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T183" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>46</v>
       </c>
@@ -11288,8 +13263,11 @@
       <c r="K184" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T184" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>47</v>
       </c>
@@ -11316,6 +13294,3039 @@
       </c>
       <c r="K185" t="s">
         <v>61</v>
+      </c>
+      <c r="T185" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>59</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J186">
+        <v>7</v>
+      </c>
+      <c r="K186" t="s">
+        <v>61</v>
+      </c>
+      <c r="T186" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="C187" t="s">
+        <v>59</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J187">
+        <v>7</v>
+      </c>
+      <c r="K187" t="s">
+        <v>61</v>
+      </c>
+      <c r="T187" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>59</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J188">
+        <v>7</v>
+      </c>
+      <c r="K188" t="s">
+        <v>61</v>
+      </c>
+      <c r="T188" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>59</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J189">
+        <v>7</v>
+      </c>
+      <c r="K189" t="s">
+        <v>61</v>
+      </c>
+      <c r="T189" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>59</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J190">
+        <v>7</v>
+      </c>
+      <c r="K190" t="s">
+        <v>61</v>
+      </c>
+      <c r="T190" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>59</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J191">
+        <v>7</v>
+      </c>
+      <c r="K191" t="s">
+        <v>61</v>
+      </c>
+      <c r="T191" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
+        <v>59</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J192">
+        <v>7</v>
+      </c>
+      <c r="K192" t="s">
+        <v>61</v>
+      </c>
+      <c r="T192" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>59</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J193">
+        <v>7</v>
+      </c>
+      <c r="K193" t="s">
+        <v>61</v>
+      </c>
+      <c r="T193" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>59</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J194">
+        <v>7</v>
+      </c>
+      <c r="K194" t="s">
+        <v>61</v>
+      </c>
+      <c r="T194" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>10</v>
+      </c>
+      <c r="C195" t="s">
+        <v>59</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J195">
+        <v>7</v>
+      </c>
+      <c r="K195" t="s">
+        <v>61</v>
+      </c>
+      <c r="T195" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>59</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J196">
+        <v>7</v>
+      </c>
+      <c r="K196" t="s">
+        <v>61</v>
+      </c>
+      <c r="T196" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>59</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J197">
+        <v>7</v>
+      </c>
+      <c r="K197" t="s">
+        <v>61</v>
+      </c>
+      <c r="T197" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>59</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J198">
+        <v>7</v>
+      </c>
+      <c r="K198" t="s">
+        <v>61</v>
+      </c>
+      <c r="T198" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>14</v>
+      </c>
+      <c r="C199" t="s">
+        <v>59</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J199">
+        <v>7</v>
+      </c>
+      <c r="K199" t="s">
+        <v>61</v>
+      </c>
+      <c r="T199" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>15</v>
+      </c>
+      <c r="C200" t="s">
+        <v>59</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J200">
+        <v>7</v>
+      </c>
+      <c r="K200" t="s">
+        <v>61</v>
+      </c>
+      <c r="T200" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>16</v>
+      </c>
+      <c r="C201" t="s">
+        <v>60</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J201">
+        <v>7</v>
+      </c>
+      <c r="K201" t="s">
+        <v>61</v>
+      </c>
+      <c r="T201" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>17</v>
+      </c>
+      <c r="C202" t="s">
+        <v>60</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J202">
+        <v>7</v>
+      </c>
+      <c r="K202" t="s">
+        <v>61</v>
+      </c>
+      <c r="T202" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>18</v>
+      </c>
+      <c r="C203" t="s">
+        <v>60</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J203">
+        <v>7</v>
+      </c>
+      <c r="K203" t="s">
+        <v>61</v>
+      </c>
+      <c r="T203" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>19</v>
+      </c>
+      <c r="C204" t="s">
+        <v>60</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J204">
+        <v>7</v>
+      </c>
+      <c r="K204" t="s">
+        <v>61</v>
+      </c>
+      <c r="T204" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>20</v>
+      </c>
+      <c r="C205" t="s">
+        <v>60</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J205">
+        <v>7</v>
+      </c>
+      <c r="K205" t="s">
+        <v>61</v>
+      </c>
+      <c r="T205" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>21</v>
+      </c>
+      <c r="C206" t="s">
+        <v>60</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J206">
+        <v>7</v>
+      </c>
+      <c r="K206" t="s">
+        <v>61</v>
+      </c>
+      <c r="T206" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>22</v>
+      </c>
+      <c r="C207" t="s">
+        <v>60</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J207">
+        <v>7</v>
+      </c>
+      <c r="K207" t="s">
+        <v>61</v>
+      </c>
+      <c r="T207" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>23</v>
+      </c>
+      <c r="C208" t="s">
+        <v>60</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J208">
+        <v>7</v>
+      </c>
+      <c r="K208" t="s">
+        <v>61</v>
+      </c>
+      <c r="T208" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>24</v>
+      </c>
+      <c r="C209" t="s">
+        <v>60</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J209">
+        <v>7</v>
+      </c>
+      <c r="K209" t="s">
+        <v>61</v>
+      </c>
+      <c r="T209" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>25</v>
+      </c>
+      <c r="C210" t="s">
+        <v>60</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J210">
+        <v>7</v>
+      </c>
+      <c r="K210" t="s">
+        <v>61</v>
+      </c>
+      <c r="T210" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>26</v>
+      </c>
+      <c r="C211" t="s">
+        <v>60</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J211">
+        <v>7</v>
+      </c>
+      <c r="K211" t="s">
+        <v>61</v>
+      </c>
+      <c r="T211" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>27</v>
+      </c>
+      <c r="C212" t="s">
+        <v>60</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J212">
+        <v>7</v>
+      </c>
+      <c r="K212" t="s">
+        <v>61</v>
+      </c>
+      <c r="T212" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>28</v>
+      </c>
+      <c r="C213" t="s">
+        <v>60</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J213">
+        <v>7</v>
+      </c>
+      <c r="K213" t="s">
+        <v>61</v>
+      </c>
+      <c r="T213" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>29</v>
+      </c>
+      <c r="C214" t="s">
+        <v>60</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J214">
+        <v>7</v>
+      </c>
+      <c r="K214" t="s">
+        <v>61</v>
+      </c>
+      <c r="T214" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>30</v>
+      </c>
+      <c r="C215" t="s">
+        <v>60</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J215">
+        <v>7</v>
+      </c>
+      <c r="K215" t="s">
+        <v>61</v>
+      </c>
+      <c r="T215" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
+        <v>89</v>
+      </c>
+      <c r="C216" t="s">
+        <v>59</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J216">
+        <v>7</v>
+      </c>
+      <c r="K216" t="s">
+        <v>61</v>
+      </c>
+      <c r="T216" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z216" t="str">
+        <f>"A7"&amp;Y216&amp;"-"&amp;AC216</f>
+        <v>A7RT-G2</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>2</v>
+      </c>
+      <c r="B217" t="s">
+        <v>89</v>
+      </c>
+      <c r="C217" t="s">
+        <v>59</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J217">
+        <v>7</v>
+      </c>
+      <c r="K217" t="s">
+        <v>61</v>
+      </c>
+      <c r="T217" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z217" t="str">
+        <f>"A7"&amp;Y217&amp;"-"&amp;AC217</f>
+        <v>A7RT-C11</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>3</v>
+      </c>
+      <c r="B218" t="s">
+        <v>89</v>
+      </c>
+      <c r="C218" t="s">
+        <v>59</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J218">
+        <v>7</v>
+      </c>
+      <c r="K218" t="s">
+        <v>61</v>
+      </c>
+      <c r="T218" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z218" t="str">
+        <f>"A7"&amp;Y218&amp;"-"&amp;AC218</f>
+        <v>A7RT-A2</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s">
+        <v>89</v>
+      </c>
+      <c r="C219" t="s">
+        <v>59</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J219">
+        <v>7</v>
+      </c>
+      <c r="K219" t="s">
+        <v>61</v>
+      </c>
+      <c r="T219" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z219" t="str">
+        <f t="shared" ref="Z219:Z275" si="1">"A7"&amp;Y219&amp;"-"&amp;AC219</f>
+        <v>A7RT-G6</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>89</v>
+      </c>
+      <c r="C220" t="s">
+        <v>59</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J220">
+        <v>7</v>
+      </c>
+      <c r="K220" t="s">
+        <v>61</v>
+      </c>
+      <c r="T220" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z220" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-D4</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>89</v>
+      </c>
+      <c r="C221" t="s">
+        <v>59</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J221">
+        <v>7</v>
+      </c>
+      <c r="K221" t="s">
+        <v>61</v>
+      </c>
+      <c r="T221" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z221" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-E12</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>7</v>
+      </c>
+      <c r="B222" t="s">
+        <v>89</v>
+      </c>
+      <c r="C222" t="s">
+        <v>59</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J222">
+        <v>7</v>
+      </c>
+      <c r="K222" t="s">
+        <v>61</v>
+      </c>
+      <c r="T222" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z222" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-C1</v>
+      </c>
+      <c r="AC222" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>8</v>
+      </c>
+      <c r="B223" t="s">
+        <v>89</v>
+      </c>
+      <c r="C223" t="s">
+        <v>59</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J223">
+        <v>7</v>
+      </c>
+      <c r="K223" t="s">
+        <v>61</v>
+      </c>
+      <c r="T223" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z223" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-E1</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>9</v>
+      </c>
+      <c r="B224" t="s">
+        <v>89</v>
+      </c>
+      <c r="C224" t="s">
+        <v>59</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J224">
+        <v>7</v>
+      </c>
+      <c r="K224" t="s">
+        <v>61</v>
+      </c>
+      <c r="T224" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z224" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-G3</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>89</v>
+      </c>
+      <c r="C225" t="s">
+        <v>59</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J225">
+        <v>7</v>
+      </c>
+      <c r="K225" t="s">
+        <v>61</v>
+      </c>
+      <c r="T225" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z225" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-A11</v>
+      </c>
+      <c r="AC225" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
+        <v>89</v>
+      </c>
+      <c r="C226" t="s">
+        <v>59</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J226">
+        <v>7</v>
+      </c>
+      <c r="K226" t="s">
+        <v>61</v>
+      </c>
+      <c r="T226" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z226" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-C2</v>
+      </c>
+      <c r="AC226" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>12</v>
+      </c>
+      <c r="B227" t="s">
+        <v>89</v>
+      </c>
+      <c r="C227" t="s">
+        <v>59</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J227">
+        <v>7</v>
+      </c>
+      <c r="K227" t="s">
+        <v>61</v>
+      </c>
+      <c r="T227" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z227" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-D11</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>13</v>
+      </c>
+      <c r="B228" t="s">
+        <v>89</v>
+      </c>
+      <c r="C228" t="s">
+        <v>59</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J228">
+        <v>7</v>
+      </c>
+      <c r="K228" t="s">
+        <v>61</v>
+      </c>
+      <c r="T228" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z228" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-A9</v>
+      </c>
+      <c r="AC228" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s">
+        <v>89</v>
+      </c>
+      <c r="C229" t="s">
+        <v>59</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J229">
+        <v>7</v>
+      </c>
+      <c r="K229" t="s">
+        <v>61</v>
+      </c>
+      <c r="T229" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y229" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z229" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-F4</v>
+      </c>
+      <c r="AC229" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>15</v>
+      </c>
+      <c r="B230" t="s">
+        <v>89</v>
+      </c>
+      <c r="C230" t="s">
+        <v>59</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J230">
+        <v>7</v>
+      </c>
+      <c r="K230" t="s">
+        <v>61</v>
+      </c>
+      <c r="T230" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z230" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-C8</v>
+      </c>
+      <c r="AC230" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>16</v>
+      </c>
+      <c r="B231" t="s">
+        <v>89</v>
+      </c>
+      <c r="C231" t="s">
+        <v>60</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J231">
+        <v>7</v>
+      </c>
+      <c r="K231" t="s">
+        <v>61</v>
+      </c>
+      <c r="T231" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z231" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-A8</v>
+      </c>
+      <c r="AC231" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>17</v>
+      </c>
+      <c r="B232" t="s">
+        <v>89</v>
+      </c>
+      <c r="C232" t="s">
+        <v>60</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J232">
+        <v>7</v>
+      </c>
+      <c r="K232" t="s">
+        <v>61</v>
+      </c>
+      <c r="T232" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y232" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z232" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-F12</v>
+      </c>
+      <c r="AC232" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>18</v>
+      </c>
+      <c r="B233" t="s">
+        <v>89</v>
+      </c>
+      <c r="C233" t="s">
+        <v>60</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J233">
+        <v>7</v>
+      </c>
+      <c r="K233" t="s">
+        <v>61</v>
+      </c>
+      <c r="T233" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y233" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z233" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-E9</v>
+      </c>
+      <c r="AC233" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>19</v>
+      </c>
+      <c r="B234" t="s">
+        <v>89</v>
+      </c>
+      <c r="C234" t="s">
+        <v>60</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J234">
+        <v>7</v>
+      </c>
+      <c r="K234" t="s">
+        <v>61</v>
+      </c>
+      <c r="T234" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z234" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-H1</v>
+      </c>
+      <c r="AC234" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>20</v>
+      </c>
+      <c r="B235" t="s">
+        <v>89</v>
+      </c>
+      <c r="C235" t="s">
+        <v>60</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J235">
+        <v>7</v>
+      </c>
+      <c r="K235" t="s">
+        <v>61</v>
+      </c>
+      <c r="T235" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y235" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z235" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-F9</v>
+      </c>
+      <c r="AC235" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>21</v>
+      </c>
+      <c r="B236" t="s">
+        <v>89</v>
+      </c>
+      <c r="C236" t="s">
+        <v>60</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J236">
+        <v>7</v>
+      </c>
+      <c r="K236" t="s">
+        <v>61</v>
+      </c>
+      <c r="T236" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y236" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z236" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-F3</v>
+      </c>
+      <c r="AC236" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>22</v>
+      </c>
+      <c r="B237" t="s">
+        <v>89</v>
+      </c>
+      <c r="C237" t="s">
+        <v>60</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J237">
+        <v>7</v>
+      </c>
+      <c r="K237" t="s">
+        <v>61</v>
+      </c>
+      <c r="T237" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z237" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-G12</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>23</v>
+      </c>
+      <c r="B238" t="s">
+        <v>89</v>
+      </c>
+      <c r="C238" t="s">
+        <v>60</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J238">
+        <v>7</v>
+      </c>
+      <c r="K238" t="s">
+        <v>61</v>
+      </c>
+      <c r="T238" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z238" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-B9</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>24</v>
+      </c>
+      <c r="B239" t="s">
+        <v>89</v>
+      </c>
+      <c r="C239" t="s">
+        <v>60</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J239">
+        <v>7</v>
+      </c>
+      <c r="K239" t="s">
+        <v>61</v>
+      </c>
+      <c r="T239" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y239" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z239" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-B5</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>25</v>
+      </c>
+      <c r="B240" t="s">
+        <v>89</v>
+      </c>
+      <c r="C240" t="s">
+        <v>60</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J240">
+        <v>7</v>
+      </c>
+      <c r="K240" t="s">
+        <v>61</v>
+      </c>
+      <c r="T240" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z240" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-G7</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>26</v>
+      </c>
+      <c r="B241" t="s">
+        <v>89</v>
+      </c>
+      <c r="C241" t="s">
+        <v>60</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J241">
+        <v>7</v>
+      </c>
+      <c r="K241" t="s">
+        <v>61</v>
+      </c>
+      <c r="T241" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z241" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-B3</v>
+      </c>
+      <c r="AC241" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>27</v>
+      </c>
+      <c r="B242" t="s">
+        <v>89</v>
+      </c>
+      <c r="C242" t="s">
+        <v>60</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J242">
+        <v>7</v>
+      </c>
+      <c r="K242" t="s">
+        <v>61</v>
+      </c>
+      <c r="T242" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z242" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-B1</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>28</v>
+      </c>
+      <c r="B243" t="s">
+        <v>89</v>
+      </c>
+      <c r="C243" t="s">
+        <v>60</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J243">
+        <v>7</v>
+      </c>
+      <c r="K243" t="s">
+        <v>61</v>
+      </c>
+      <c r="T243" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z243" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-G4</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>29</v>
+      </c>
+      <c r="B244" t="s">
+        <v>89</v>
+      </c>
+      <c r="C244" t="s">
+        <v>60</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J244">
+        <v>7</v>
+      </c>
+      <c r="K244" t="s">
+        <v>61</v>
+      </c>
+      <c r="T244" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z244" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-H3</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>30</v>
+      </c>
+      <c r="B245" t="s">
+        <v>89</v>
+      </c>
+      <c r="C245" t="s">
+        <v>60</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J245">
+        <v>7</v>
+      </c>
+      <c r="K245" t="s">
+        <v>61</v>
+      </c>
+      <c r="T245" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z245" t="str">
+        <f t="shared" si="1"/>
+        <v>A7RT-E3</v>
+      </c>
+      <c r="AC245" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246" t="s">
+        <v>90</v>
+      </c>
+      <c r="C246" t="s">
+        <v>59</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J246">
+        <v>7</v>
+      </c>
+      <c r="K246" t="s">
+        <v>61</v>
+      </c>
+      <c r="T246" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z246" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-D6</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>2</v>
+      </c>
+      <c r="B247" t="s">
+        <v>90</v>
+      </c>
+      <c r="C247" t="s">
+        <v>59</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J247">
+        <v>7</v>
+      </c>
+      <c r="K247" t="s">
+        <v>61</v>
+      </c>
+      <c r="T247" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z247" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-B7</v>
+      </c>
+      <c r="AC247" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>3</v>
+      </c>
+      <c r="B248" t="s">
+        <v>90</v>
+      </c>
+      <c r="C248" t="s">
+        <v>59</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J248">
+        <v>7</v>
+      </c>
+      <c r="K248" t="s">
+        <v>61</v>
+      </c>
+      <c r="T248" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z248" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-B12</v>
+      </c>
+      <c r="AC248" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>4</v>
+      </c>
+      <c r="B249" t="s">
+        <v>90</v>
+      </c>
+      <c r="C249" t="s">
+        <v>59</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J249">
+        <v>7</v>
+      </c>
+      <c r="K249" t="s">
+        <v>61</v>
+      </c>
+      <c r="T249" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z249" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-H12</v>
+      </c>
+      <c r="AC249" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>5</v>
+      </c>
+      <c r="B250" t="s">
+        <v>90</v>
+      </c>
+      <c r="C250" t="s">
+        <v>59</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J250">
+        <v>7</v>
+      </c>
+      <c r="K250" t="s">
+        <v>61</v>
+      </c>
+      <c r="T250" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z250" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-F11</v>
+      </c>
+      <c r="AC250" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>6</v>
+      </c>
+      <c r="B251" t="s">
+        <v>90</v>
+      </c>
+      <c r="C251" t="s">
+        <v>59</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J251">
+        <v>7</v>
+      </c>
+      <c r="K251" t="s">
+        <v>61</v>
+      </c>
+      <c r="T251" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z251" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-A6</v>
+      </c>
+      <c r="AC251" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>7</v>
+      </c>
+      <c r="B252" t="s">
+        <v>90</v>
+      </c>
+      <c r="C252" t="s">
+        <v>59</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J252">
+        <v>7</v>
+      </c>
+      <c r="K252" t="s">
+        <v>61</v>
+      </c>
+      <c r="T252" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z252" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-A3</v>
+      </c>
+      <c r="AC252" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>8</v>
+      </c>
+      <c r="B253" t="s">
+        <v>90</v>
+      </c>
+      <c r="C253" t="s">
+        <v>59</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J253">
+        <v>7</v>
+      </c>
+      <c r="K253" t="s">
+        <v>61</v>
+      </c>
+      <c r="T253" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z253" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-C4</v>
+      </c>
+      <c r="AC253" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>9</v>
+      </c>
+      <c r="B254" t="s">
+        <v>90</v>
+      </c>
+      <c r="C254" t="s">
+        <v>59</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J254">
+        <v>7</v>
+      </c>
+      <c r="K254" t="s">
+        <v>61</v>
+      </c>
+      <c r="T254" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z254" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-A5</v>
+      </c>
+      <c r="AC254" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>10</v>
+      </c>
+      <c r="B255" t="s">
+        <v>90</v>
+      </c>
+      <c r="C255" t="s">
+        <v>59</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J255">
+        <v>7</v>
+      </c>
+      <c r="K255" t="s">
+        <v>61</v>
+      </c>
+      <c r="T255" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z255" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-A1</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>11</v>
+      </c>
+      <c r="B256" t="s">
+        <v>90</v>
+      </c>
+      <c r="C256" t="s">
+        <v>59</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J256">
+        <v>7</v>
+      </c>
+      <c r="K256" t="s">
+        <v>61</v>
+      </c>
+      <c r="T256" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z256" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-B4</v>
+      </c>
+      <c r="AC256" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>12</v>
+      </c>
+      <c r="B257" t="s">
+        <v>90</v>
+      </c>
+      <c r="C257" t="s">
+        <v>59</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J257">
+        <v>7</v>
+      </c>
+      <c r="K257" t="s">
+        <v>61</v>
+      </c>
+      <c r="T257" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z257" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-D3</v>
+      </c>
+      <c r="AC257" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>13</v>
+      </c>
+      <c r="B258" t="s">
+        <v>90</v>
+      </c>
+      <c r="C258" t="s">
+        <v>59</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J258">
+        <v>7</v>
+      </c>
+      <c r="K258" t="s">
+        <v>61</v>
+      </c>
+      <c r="T258" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z258" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-A7</v>
+      </c>
+      <c r="AC258" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>14</v>
+      </c>
+      <c r="B259" t="s">
+        <v>90</v>
+      </c>
+      <c r="C259" t="s">
+        <v>59</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J259">
+        <v>7</v>
+      </c>
+      <c r="K259" t="s">
+        <v>61</v>
+      </c>
+      <c r="T259" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z259" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-C6</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>15</v>
+      </c>
+      <c r="B260" t="s">
+        <v>90</v>
+      </c>
+      <c r="C260" t="s">
+        <v>59</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J260">
+        <v>7</v>
+      </c>
+      <c r="K260" t="s">
+        <v>61</v>
+      </c>
+      <c r="T260" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z260" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-C7</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>16</v>
+      </c>
+      <c r="B261" t="s">
+        <v>90</v>
+      </c>
+      <c r="C261" t="s">
+        <v>60</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J261">
+        <v>7</v>
+      </c>
+      <c r="K261" t="s">
+        <v>61</v>
+      </c>
+      <c r="T261" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z261" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-C9</v>
+      </c>
+      <c r="AC261" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>17</v>
+      </c>
+      <c r="B262" t="s">
+        <v>90</v>
+      </c>
+      <c r="C262" t="s">
+        <v>60</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J262">
+        <v>7</v>
+      </c>
+      <c r="K262" t="s">
+        <v>61</v>
+      </c>
+      <c r="T262" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z262" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-E10</v>
+      </c>
+      <c r="AC262" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>18</v>
+      </c>
+      <c r="B263" t="s">
+        <v>90</v>
+      </c>
+      <c r="C263" t="s">
+        <v>60</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J263">
+        <v>7</v>
+      </c>
+      <c r="K263" t="s">
+        <v>61</v>
+      </c>
+      <c r="T263" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z263" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-H10</v>
+      </c>
+      <c r="AC263" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>19</v>
+      </c>
+      <c r="B264" t="s">
+        <v>90</v>
+      </c>
+      <c r="C264" t="s">
+        <v>60</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J264">
+        <v>7</v>
+      </c>
+      <c r="K264" t="s">
+        <v>61</v>
+      </c>
+      <c r="T264" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z264" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-B6</v>
+      </c>
+      <c r="AC264" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>20</v>
+      </c>
+      <c r="B265" t="s">
+        <v>90</v>
+      </c>
+      <c r="C265" t="s">
+        <v>60</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J265">
+        <v>7</v>
+      </c>
+      <c r="K265" t="s">
+        <v>61</v>
+      </c>
+      <c r="T265" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z265" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-G11</v>
+      </c>
+      <c r="AC265" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>21</v>
+      </c>
+      <c r="B266" t="s">
+        <v>90</v>
+      </c>
+      <c r="C266" t="s">
+        <v>60</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J266">
+        <v>7</v>
+      </c>
+      <c r="K266" t="s">
+        <v>61</v>
+      </c>
+      <c r="T266" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z266" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-F5</v>
+      </c>
+      <c r="AC266" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>22</v>
+      </c>
+      <c r="B267" t="s">
+        <v>90</v>
+      </c>
+      <c r="C267" t="s">
+        <v>60</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J267">
+        <v>7</v>
+      </c>
+      <c r="K267" t="s">
+        <v>61</v>
+      </c>
+      <c r="T267" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z267" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-B11</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>23</v>
+      </c>
+      <c r="B268" t="s">
+        <v>90</v>
+      </c>
+      <c r="C268" t="s">
+        <v>60</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J268">
+        <v>7</v>
+      </c>
+      <c r="K268" t="s">
+        <v>61</v>
+      </c>
+      <c r="T268" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z268" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-D5</v>
+      </c>
+      <c r="AC268" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>24</v>
+      </c>
+      <c r="B269" t="s">
+        <v>90</v>
+      </c>
+      <c r="C269" t="s">
+        <v>60</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J269">
+        <v>7</v>
+      </c>
+      <c r="K269" t="s">
+        <v>61</v>
+      </c>
+      <c r="T269" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z269" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-E2</v>
+      </c>
+      <c r="AC269" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>25</v>
+      </c>
+      <c r="B270" t="s">
+        <v>90</v>
+      </c>
+      <c r="C270" t="s">
+        <v>60</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J270">
+        <v>7</v>
+      </c>
+      <c r="K270" t="s">
+        <v>61</v>
+      </c>
+      <c r="T270" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z270" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-H4</v>
+      </c>
+      <c r="AC270" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>26</v>
+      </c>
+      <c r="B271" t="s">
+        <v>90</v>
+      </c>
+      <c r="C271" t="s">
+        <v>60</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J271">
+        <v>7</v>
+      </c>
+      <c r="K271" t="s">
+        <v>61</v>
+      </c>
+      <c r="T271" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z271" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-B10</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>27</v>
+      </c>
+      <c r="B272" t="s">
+        <v>90</v>
+      </c>
+      <c r="C272" t="s">
+        <v>60</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J272">
+        <v>7</v>
+      </c>
+      <c r="K272" t="s">
+        <v>61</v>
+      </c>
+      <c r="T272" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y272" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z272" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-C5</v>
+      </c>
+      <c r="AC272" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>28</v>
+      </c>
+      <c r="B273" t="s">
+        <v>90</v>
+      </c>
+      <c r="C273" t="s">
+        <v>60</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J273">
+        <v>7</v>
+      </c>
+      <c r="K273" t="s">
+        <v>61</v>
+      </c>
+      <c r="T273" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y273" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z273" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-H6</v>
+      </c>
+      <c r="AC273" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>29</v>
+      </c>
+      <c r="B274" t="s">
+        <v>90</v>
+      </c>
+      <c r="C274" t="s">
+        <v>60</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J274">
+        <v>7</v>
+      </c>
+      <c r="K274" t="s">
+        <v>61</v>
+      </c>
+      <c r="T274" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y274" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z274" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-C10</v>
+      </c>
+      <c r="AC274" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>30</v>
+      </c>
+      <c r="B275" t="s">
+        <v>90</v>
+      </c>
+      <c r="C275" t="s">
+        <v>60</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J275">
+        <v>7</v>
+      </c>
+      <c r="K275" t="s">
+        <v>61</v>
+      </c>
+      <c r="T275" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y275" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z275" t="str">
+        <f t="shared" si="1"/>
+        <v>A7SO-A4</v>
+      </c>
+      <c r="AC275" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -11332,14 +16343,14 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -11368,7 +16379,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -11398,7 +16409,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -11428,169 +16439,169 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>229</v>
       </c>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -1,33 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anbe642/zScience/Circadian_rhythm_runs_seasonal_timing/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6D90B0-A98E-874B-A3A2-7332372C767F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B2D309-CA2E-444E-A66E-C4F5E8AAD831}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1940" windowWidth="48500" windowHeight="26120" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
     <sheet name="Data_collect" sheetId="1" r:id="rId2"/>
     <sheet name="Pupal_Splits" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="393">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -1191,6 +1196,21 @@
   </si>
   <si>
     <t>E8</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>2018-08-27</t>
+  </si>
+  <si>
+    <t>13:44</t>
+  </si>
+  <si>
+    <t>13:49</t>
+  </si>
+  <si>
+    <t>13:38</t>
   </si>
 </sst>
 </file>
@@ -1615,13 +1635,13 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11" style="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -1668,7 +1688,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1708,7 +1728,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1748,7 +1768,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1788,7 +1808,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1828,7 +1848,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1880,7 +1900,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1932,7 +1952,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1984,7 +2004,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -2036,7 +2056,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -2088,7 +2108,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
@@ -2140,7 +2160,7 @@
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2192,7 +2212,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2244,7 +2264,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
@@ -2296,7 +2316,7 @@
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -2348,7 +2368,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
@@ -2400,7 +2420,7 @@
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
     </row>
-    <row r="17" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
@@ -2452,7 +2472,7 @@
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
     </row>
-    <row r="18" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>58</v>
       </c>
@@ -2504,7 +2524,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>58</v>
       </c>
@@ -2556,7 +2576,7 @@
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
@@ -2608,7 +2628,7 @@
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
@@ -2660,7 +2680,7 @@
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>58</v>
       </c>
@@ -2712,7 +2732,7 @@
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -2764,7 +2784,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -2816,7 +2836,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2868,7 +2888,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>58</v>
       </c>
@@ -2920,7 +2940,7 @@
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>58</v>
       </c>
@@ -2972,7 +2992,7 @@
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -3024,7 +3044,7 @@
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -3076,7 +3096,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3128,7 +3148,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3180,7 +3200,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -3232,7 +3252,7 @@
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
     </row>
-    <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -3284,7 +3304,7 @@
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3342,7 +3362,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -3400,7 +3420,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -3458,7 +3478,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -3516,7 +3536,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -3574,7 +3594,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
@@ -3632,7 +3652,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>195</v>
       </c>
@@ -3690,7 +3710,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>195</v>
       </c>
@@ -3748,7 +3768,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>195</v>
       </c>
@@ -3806,7 +3826,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>58</v>
       </c>
@@ -3864,7 +3884,7 @@
       <c r="Y43" s="14"/>
       <c r="Z43" s="14"/>
     </row>
-    <row r="44" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>58</v>
       </c>
@@ -3922,7 +3942,7 @@
       <c r="Y44" s="14"/>
       <c r="Z44" s="14"/>
     </row>
-    <row r="45" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>58</v>
       </c>
@@ -3980,7 +4000,7 @@
       <c r="Y45" s="14"/>
       <c r="Z45" s="14"/>
     </row>
-    <row r="46" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>58</v>
       </c>
@@ -4038,7 +4058,7 @@
       <c r="Y46" s="14"/>
       <c r="Z46" s="14"/>
     </row>
-    <row r="47" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>58</v>
       </c>
@@ -4096,7 +4116,7 @@
       <c r="Y47" s="14"/>
       <c r="Z47" s="14"/>
     </row>
-    <row r="48" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>58</v>
       </c>
@@ -4154,7 +4174,7 @@
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
     </row>
-    <row r="49" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>58</v>
       </c>
@@ -4212,7 +4232,7 @@
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
     </row>
-    <row r="50" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>195</v>
       </c>
@@ -4270,7 +4290,7 @@
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
     </row>
-    <row r="51" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>195</v>
       </c>
@@ -4328,7 +4348,7 @@
       <c r="Y51" s="14"/>
       <c r="Z51" s="14"/>
     </row>
-    <row r="52" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>195</v>
       </c>
@@ -4386,7 +4406,7 @@
       <c r="Y52" s="14"/>
       <c r="Z52" s="14"/>
     </row>
-    <row r="53" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>58</v>
       </c>
@@ -4444,7 +4464,7 @@
       <c r="Y53" s="14"/>
       <c r="Z53" s="14"/>
     </row>
-    <row r="54" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>195</v>
       </c>
@@ -4502,7 +4522,7 @@
       <c r="Y54" s="14"/>
       <c r="Z54" s="14"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -4560,7 +4580,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -4618,7 +4638,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -4676,7 +4696,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -4734,7 +4754,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -4792,7 +4812,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -4850,7 +4870,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>195</v>
       </c>
@@ -4908,7 +4928,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>195</v>
       </c>
@@ -4966,7 +4986,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>195</v>
       </c>
@@ -5024,7 +5044,7 @@
       <c r="Y63" s="14"/>
       <c r="Z63" s="14"/>
     </row>
-    <row r="64" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>195</v>
       </c>
@@ -5082,7 +5102,7 @@
       <c r="Y64" s="14"/>
       <c r="Z64" s="14"/>
     </row>
-    <row r="65" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>195</v>
       </c>
@@ -5140,7 +5160,7 @@
       <c r="Y65" s="14"/>
       <c r="Z65" s="14"/>
     </row>
-    <row r="66" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>58</v>
       </c>
@@ -5198,7 +5218,7 @@
       <c r="Y66" s="14"/>
       <c r="Z66" s="14"/>
     </row>
-    <row r="67" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>58</v>
       </c>
@@ -5256,7 +5276,7 @@
       <c r="Y67" s="14"/>
       <c r="Z67" s="14"/>
     </row>
-    <row r="68" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>58</v>
       </c>
@@ -5314,7 +5334,7 @@
       <c r="Y68" s="14"/>
       <c r="Z68" s="14"/>
     </row>
-    <row r="69" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>58</v>
       </c>
@@ -5372,7 +5392,7 @@
       <c r="Y69" s="14"/>
       <c r="Z69" s="14"/>
     </row>
-    <row r="70" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>58</v>
       </c>
@@ -5430,7 +5450,7 @@
       <c r="Y70" s="14"/>
       <c r="Z70" s="14"/>
     </row>
-    <row r="71" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>58</v>
       </c>
@@ -5488,7 +5508,7 @@
       <c r="Y71" s="14"/>
       <c r="Z71" s="14"/>
     </row>
-    <row r="72" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>58</v>
       </c>
@@ -5546,7 +5566,7 @@
       <c r="Y72" s="14"/>
       <c r="Z72" s="14"/>
     </row>
-    <row r="73" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>195</v>
       </c>
@@ -5604,7 +5624,7 @@
       <c r="Y73" s="14"/>
       <c r="Z73" s="14"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5631,7 +5651,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5658,7 +5678,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5685,7 +5705,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5712,7 +5732,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5739,7 +5759,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5766,7 +5786,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5793,7 +5813,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5820,7 +5840,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5847,7 +5867,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5874,7 +5894,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5901,7 +5921,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5928,7 +5948,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5955,7 +5975,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5982,7 +6002,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6009,7 +6029,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6036,7 +6056,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6063,7 +6083,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6090,7 +6110,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6117,7 +6137,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6144,7 +6164,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6171,7 +6191,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6198,7 +6218,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6225,7 +6245,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6252,7 +6272,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6279,7 +6299,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6306,7 +6326,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6333,7 +6353,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6360,7 +6380,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6395,22 +6415,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
-  <dimension ref="A1:AS275"/>
+  <dimension ref="A1:AS319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC92" sqref="AC92:AC183"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D318" sqref="D318"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11" style="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1"/>
-    <col min="20" max="20" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6547,7 +6567,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6576,7 +6596,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6605,7 +6625,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6634,7 +6654,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6663,7 +6683,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6692,7 +6712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6721,7 +6741,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6750,7 +6770,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6779,7 +6799,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6808,7 +6828,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6837,7 +6857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6866,7 +6886,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6895,7 +6915,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6924,7 +6944,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6953,7 +6973,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6982,7 +7002,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7011,7 +7031,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7040,7 +7060,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7069,7 +7089,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7098,7 +7118,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7127,7 +7147,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7156,7 +7176,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7185,7 +7205,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7214,7 +7234,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7243,7 +7263,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7272,7 +7292,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7301,7 +7321,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7330,7 +7350,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7359,7 +7379,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7388,7 +7408,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7417,7 +7437,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -7453,7 +7473,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -7489,7 +7509,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -7525,7 +7545,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -7561,7 +7581,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -7597,7 +7617,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -7633,7 +7653,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -7669,7 +7689,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -7705,7 +7725,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -7741,7 +7761,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -7777,7 +7797,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
@@ -7813,7 +7833,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -7849,7 +7869,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13</v>
       </c>
@@ -7885,7 +7905,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14</v>
       </c>
@@ -7921,7 +7941,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15</v>
       </c>
@@ -7957,7 +7977,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
@@ -7993,7 +8013,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>17</v>
       </c>
@@ -8029,7 +8049,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>18</v>
       </c>
@@ -8065,7 +8085,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>19</v>
       </c>
@@ -8101,7 +8121,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20</v>
       </c>
@@ -8137,7 +8157,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>21</v>
       </c>
@@ -8173,7 +8193,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>22</v>
       </c>
@@ -8209,7 +8229,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>23</v>
       </c>
@@ -8245,7 +8265,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>24</v>
       </c>
@@ -8281,7 +8301,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>25</v>
       </c>
@@ -8317,7 +8337,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>26</v>
       </c>
@@ -8353,7 +8373,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>27</v>
       </c>
@@ -8389,7 +8409,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>28</v>
       </c>
@@ -8425,7 +8445,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>29</v>
       </c>
@@ -8461,7 +8481,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>30</v>
       </c>
@@ -8497,7 +8517,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -8533,7 +8553,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -8569,7 +8589,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -8605,7 +8625,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -8641,7 +8661,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -8677,7 +8697,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6</v>
       </c>
@@ -8713,7 +8733,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -8749,7 +8769,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
@@ -8785,7 +8805,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
@@ -8821,7 +8841,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10</v>
       </c>
@@ -8857,7 +8877,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>11</v>
       </c>
@@ -8893,7 +8913,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12</v>
       </c>
@@ -8929,7 +8949,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13</v>
       </c>
@@ -8965,7 +8985,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>14</v>
       </c>
@@ -9001,7 +9021,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15</v>
       </c>
@@ -9037,7 +9057,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -9073,7 +9093,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>17</v>
       </c>
@@ -9109,7 +9129,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>18</v>
       </c>
@@ -9145,7 +9165,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>19</v>
       </c>
@@ -9181,7 +9201,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
@@ -9217,7 +9237,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -9253,7 +9273,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>22</v>
       </c>
@@ -9289,7 +9309,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>23</v>
       </c>
@@ -9325,7 +9345,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>24</v>
       </c>
@@ -9361,7 +9381,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>25</v>
       </c>
@@ -9397,7 +9417,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>26</v>
       </c>
@@ -9433,7 +9453,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>27</v>
       </c>
@@ -9469,7 +9489,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>28</v>
       </c>
@@ -9505,7 +9525,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>29</v>
       </c>
@@ -9541,7 +9561,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>30</v>
       </c>
@@ -9577,7 +9597,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -9621,7 +9641,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -9659,7 +9679,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -9697,7 +9717,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -9738,7 +9758,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -9779,7 +9799,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -9817,7 +9837,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7</v>
       </c>
@@ -9858,7 +9878,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>8</v>
       </c>
@@ -9899,7 +9919,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
@@ -9940,7 +9960,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
@@ -9981,7 +10001,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11</v>
       </c>
@@ -10019,7 +10039,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12</v>
       </c>
@@ -10060,7 +10080,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>13</v>
       </c>
@@ -10101,7 +10121,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14</v>
       </c>
@@ -10142,7 +10162,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>15</v>
       </c>
@@ -10183,7 +10203,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>16</v>
       </c>
@@ -10224,7 +10244,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>17</v>
       </c>
@@ -10262,7 +10282,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>18</v>
       </c>
@@ -10303,7 +10323,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>19</v>
       </c>
@@ -10341,7 +10361,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20</v>
       </c>
@@ -10382,7 +10402,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>21</v>
       </c>
@@ -10423,7 +10443,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>22</v>
       </c>
@@ -10461,7 +10481,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>23</v>
       </c>
@@ -10502,7 +10522,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>24</v>
       </c>
@@ -10540,7 +10560,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>25</v>
       </c>
@@ -10581,7 +10601,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>26</v>
       </c>
@@ -10619,7 +10639,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>27</v>
       </c>
@@ -10657,7 +10677,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>28</v>
       </c>
@@ -10698,7 +10718,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>29</v>
       </c>
@@ -10739,7 +10759,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>30</v>
       </c>
@@ -10777,7 +10797,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>31</v>
       </c>
@@ -10818,7 +10838,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>32</v>
       </c>
@@ -10856,7 +10876,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>33</v>
       </c>
@@ -10894,7 +10914,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>34</v>
       </c>
@@ -10935,7 +10955,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>35</v>
       </c>
@@ -10976,7 +10996,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>36</v>
       </c>
@@ -11014,7 +11034,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>37</v>
       </c>
@@ -11055,7 +11075,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>38</v>
       </c>
@@ -11096,7 +11116,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -11137,7 +11157,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -11175,7 +11195,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>41</v>
       </c>
@@ -11216,7 +11236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>42</v>
       </c>
@@ -11257,7 +11277,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>43</v>
       </c>
@@ -11295,7 +11315,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>44</v>
       </c>
@@ -11336,7 +11356,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>45</v>
       </c>
@@ -11374,7 +11394,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>46</v>
       </c>
@@ -11403,7 +11423,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>47</v>
       </c>
@@ -11435,7 +11455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -11476,7 +11496,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2</v>
       </c>
@@ -11517,7 +11537,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -11558,7 +11578,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -11599,7 +11619,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -11640,7 +11660,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -11681,7 +11701,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7</v>
       </c>
@@ -11722,7 +11742,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>8</v>
       </c>
@@ -11763,7 +11783,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>9</v>
       </c>
@@ -11801,7 +11821,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>10</v>
       </c>
@@ -11842,7 +11862,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>11</v>
       </c>
@@ -11880,7 +11900,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>12</v>
       </c>
@@ -11918,7 +11938,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>13</v>
       </c>
@@ -11959,7 +11979,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>14</v>
       </c>
@@ -12000,7 +12020,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>15</v>
       </c>
@@ -12041,7 +12061,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>16</v>
       </c>
@@ -12079,7 +12099,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>17</v>
       </c>
@@ -12120,7 +12140,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>18</v>
       </c>
@@ -12161,7 +12181,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>19</v>
       </c>
@@ -12202,7 +12222,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>20</v>
       </c>
@@ -12240,7 +12260,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>21</v>
       </c>
@@ -12281,7 +12301,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>22</v>
       </c>
@@ -12319,7 +12339,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>23</v>
       </c>
@@ -12360,7 +12380,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>24</v>
       </c>
@@ -12398,7 +12418,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>25</v>
       </c>
@@ -12436,7 +12456,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>26</v>
       </c>
@@ -12477,7 +12497,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>27</v>
       </c>
@@ -12515,7 +12535,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>28</v>
       </c>
@@ -12553,7 +12573,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>29</v>
       </c>
@@ -12594,7 +12614,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>30</v>
       </c>
@@ -12635,7 +12655,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>31</v>
       </c>
@@ -12676,7 +12696,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>32</v>
       </c>
@@ -12717,7 +12737,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>33</v>
       </c>
@@ -12758,7 +12778,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>34</v>
       </c>
@@ -12799,7 +12819,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>35</v>
       </c>
@@ -12840,7 +12860,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>36</v>
       </c>
@@ -12881,7 +12901,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>37</v>
       </c>
@@ -12922,7 +12942,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>38</v>
       </c>
@@ -12960,7 +12980,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>39</v>
       </c>
@@ -13001,7 +13021,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>40</v>
       </c>
@@ -13042,7 +13062,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>41</v>
       </c>
@@ -13083,7 +13103,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>42</v>
       </c>
@@ -13121,7 +13141,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>43</v>
       </c>
@@ -13159,7 +13179,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>44</v>
       </c>
@@ -13200,7 +13220,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>45</v>
       </c>
@@ -13238,7 +13258,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>46</v>
       </c>
@@ -13267,7 +13287,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>47</v>
       </c>
@@ -13299,7 +13319,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -13328,7 +13348,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2</v>
       </c>
@@ -13357,7 +13377,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3</v>
       </c>
@@ -13386,7 +13406,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>4</v>
       </c>
@@ -13415,7 +13435,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>5</v>
       </c>
@@ -13444,7 +13464,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>6</v>
       </c>
@@ -13473,7 +13493,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>7</v>
       </c>
@@ -13502,7 +13522,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8</v>
       </c>
@@ -13531,7 +13551,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9</v>
       </c>
@@ -13560,7 +13580,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>10</v>
       </c>
@@ -13589,7 +13609,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>11</v>
       </c>
@@ -13618,7 +13638,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>12</v>
       </c>
@@ -13647,7 +13667,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>13</v>
       </c>
@@ -13676,7 +13696,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>14</v>
       </c>
@@ -13705,7 +13725,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>15</v>
       </c>
@@ -13734,7 +13754,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>16</v>
       </c>
@@ -13763,7 +13783,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>17</v>
       </c>
@@ -13792,7 +13812,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>18</v>
       </c>
@@ -13821,7 +13841,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>19</v>
       </c>
@@ -13850,7 +13870,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>20</v>
       </c>
@@ -13879,7 +13899,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>21</v>
       </c>
@@ -13908,7 +13928,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>22</v>
       </c>
@@ -13937,7 +13957,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>23</v>
       </c>
@@ -13966,7 +13986,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>24</v>
       </c>
@@ -13995,7 +14015,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>25</v>
       </c>
@@ -14024,7 +14044,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>26</v>
       </c>
@@ -14053,7 +14073,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>27</v>
       </c>
@@ -14082,7 +14102,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>28</v>
       </c>
@@ -14111,7 +14131,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>29</v>
       </c>
@@ -14140,7 +14160,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>30</v>
       </c>
@@ -14169,7 +14189,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -14205,7 +14225,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2</v>
       </c>
@@ -14241,7 +14261,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>3</v>
       </c>
@@ -14277,7 +14297,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4</v>
       </c>
@@ -14313,7 +14333,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5</v>
       </c>
@@ -14349,7 +14369,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>6</v>
       </c>
@@ -14385,7 +14405,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>7</v>
       </c>
@@ -14421,7 +14441,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>8</v>
       </c>
@@ -14457,7 +14477,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>9</v>
       </c>
@@ -14493,7 +14513,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>10</v>
       </c>
@@ -14529,7 +14549,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>11</v>
       </c>
@@ -14565,7 +14585,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>12</v>
       </c>
@@ -14601,7 +14621,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>13</v>
       </c>
@@ -14637,7 +14657,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>14</v>
       </c>
@@ -14673,7 +14693,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>15</v>
       </c>
@@ -14709,7 +14729,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>16</v>
       </c>
@@ -14745,7 +14765,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>17</v>
       </c>
@@ -14781,7 +14801,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>18</v>
       </c>
@@ -14817,7 +14837,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>19</v>
       </c>
@@ -14853,7 +14873,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>20</v>
       </c>
@@ -14889,7 +14909,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>21</v>
       </c>
@@ -14925,7 +14945,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>22</v>
       </c>
@@ -14961,7 +14981,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>23</v>
       </c>
@@ -14997,7 +15017,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>24</v>
       </c>
@@ -15033,7 +15053,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>25</v>
       </c>
@@ -15069,7 +15089,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>26</v>
       </c>
@@ -15105,7 +15125,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>27</v>
       </c>
@@ -15141,7 +15161,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>28</v>
       </c>
@@ -15177,7 +15197,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>29</v>
       </c>
@@ -15213,7 +15233,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>30</v>
       </c>
@@ -15249,7 +15269,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -15285,7 +15305,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2</v>
       </c>
@@ -15321,7 +15341,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>3</v>
       </c>
@@ -15357,7 +15377,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>4</v>
       </c>
@@ -15393,7 +15413,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>5</v>
       </c>
@@ -15429,7 +15449,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>6</v>
       </c>
@@ -15465,7 +15485,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>7</v>
       </c>
@@ -15501,7 +15521,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>8</v>
       </c>
@@ -15537,7 +15557,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>9</v>
       </c>
@@ -15573,7 +15593,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>10</v>
       </c>
@@ -15609,7 +15629,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>11</v>
       </c>
@@ -15645,7 +15665,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>12</v>
       </c>
@@ -15681,7 +15701,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>13</v>
       </c>
@@ -15717,7 +15737,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>14</v>
       </c>
@@ -15753,7 +15773,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>15</v>
       </c>
@@ -15789,7 +15809,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16</v>
       </c>
@@ -15825,7 +15845,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>17</v>
       </c>
@@ -15861,7 +15881,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>18</v>
       </c>
@@ -15897,7 +15917,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>19</v>
       </c>
@@ -15933,7 +15953,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>20</v>
       </c>
@@ -15969,7 +15989,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>21</v>
       </c>
@@ -16005,7 +16025,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>22</v>
       </c>
@@ -16041,7 +16061,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>23</v>
       </c>
@@ -16077,7 +16097,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>24</v>
       </c>
@@ -16113,7 +16133,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>25</v>
       </c>
@@ -16149,7 +16169,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>26</v>
       </c>
@@ -16185,7 +16205,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>27</v>
       </c>
@@ -16221,7 +16241,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>28</v>
       </c>
@@ -16257,7 +16277,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>29</v>
       </c>
@@ -16293,7 +16313,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>30</v>
       </c>
@@ -16327,6 +16347,1270 @@
       </c>
       <c r="AC275" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276" t="s">
+        <v>90</v>
+      </c>
+      <c r="C276" t="s">
+        <v>60</v>
+      </c>
+      <c r="D276">
+        <v>10.505000000000001</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J276">
+        <v>12</v>
+      </c>
+      <c r="K276" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2</v>
+      </c>
+      <c r="B277" t="s">
+        <v>90</v>
+      </c>
+      <c r="C277" t="s">
+        <v>60</v>
+      </c>
+      <c r="D277">
+        <v>7.7539999999999996</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J277">
+        <v>12</v>
+      </c>
+      <c r="K277" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>3</v>
+      </c>
+      <c r="B278" t="s">
+        <v>90</v>
+      </c>
+      <c r="C278" t="s">
+        <v>59</v>
+      </c>
+      <c r="D278">
+        <v>8.0920000000000005</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J278">
+        <v>12</v>
+      </c>
+      <c r="K278" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>4</v>
+      </c>
+      <c r="B279" t="s">
+        <v>90</v>
+      </c>
+      <c r="C279" t="s">
+        <v>60</v>
+      </c>
+      <c r="D279">
+        <v>6.2539999999999996</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J279">
+        <v>12</v>
+      </c>
+      <c r="K279" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>5</v>
+      </c>
+      <c r="B280" t="s">
+        <v>90</v>
+      </c>
+      <c r="C280" t="s">
+        <v>59</v>
+      </c>
+      <c r="D280">
+        <v>8.7449999999999992</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J280">
+        <v>12</v>
+      </c>
+      <c r="K280" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>6</v>
+      </c>
+      <c r="B281" t="s">
+        <v>90</v>
+      </c>
+      <c r="C281" t="s">
+        <v>60</v>
+      </c>
+      <c r="D281">
+        <v>6.0759999999999996</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J281">
+        <v>12</v>
+      </c>
+      <c r="K281" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>7</v>
+      </c>
+      <c r="B282" t="s">
+        <v>90</v>
+      </c>
+      <c r="C282" t="s">
+        <v>59</v>
+      </c>
+      <c r="D282">
+        <v>6.4139999999999997</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J282">
+        <v>12</v>
+      </c>
+      <c r="K282" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>8</v>
+      </c>
+      <c r="B283" t="s">
+        <v>90</v>
+      </c>
+      <c r="C283" t="s">
+        <v>60</v>
+      </c>
+      <c r="D283">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J283">
+        <v>12</v>
+      </c>
+      <c r="K283" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>9</v>
+      </c>
+      <c r="B284" t="s">
+        <v>90</v>
+      </c>
+      <c r="C284" t="s">
+        <v>59</v>
+      </c>
+      <c r="D284">
+        <v>8.1159999999999997</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J284">
+        <v>12</v>
+      </c>
+      <c r="K284" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>10</v>
+      </c>
+      <c r="B285" t="s">
+        <v>90</v>
+      </c>
+      <c r="C285" t="s">
+        <v>60</v>
+      </c>
+      <c r="D285">
+        <v>8.8789999999999996</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J285">
+        <v>12</v>
+      </c>
+      <c r="K285" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>11</v>
+      </c>
+      <c r="B286" t="s">
+        <v>90</v>
+      </c>
+      <c r="C286" t="s">
+        <v>60</v>
+      </c>
+      <c r="D286">
+        <v>7.4950000000000001</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J286">
+        <v>12</v>
+      </c>
+      <c r="K286" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>12</v>
+      </c>
+      <c r="B287" t="s">
+        <v>90</v>
+      </c>
+      <c r="C287" t="s">
+        <v>60</v>
+      </c>
+      <c r="D287">
+        <v>10.103</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J287">
+        <v>12</v>
+      </c>
+      <c r="K287" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>13</v>
+      </c>
+      <c r="B288" t="s">
+        <v>90</v>
+      </c>
+      <c r="C288" t="s">
+        <v>59</v>
+      </c>
+      <c r="D288">
+        <v>9.6980000000000004</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J288">
+        <v>12</v>
+      </c>
+      <c r="K288" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>14</v>
+      </c>
+      <c r="B289" t="s">
+        <v>90</v>
+      </c>
+      <c r="C289" t="s">
+        <v>60</v>
+      </c>
+      <c r="D289">
+        <v>9.5640000000000001</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J289">
+        <v>12</v>
+      </c>
+      <c r="K289" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>15</v>
+      </c>
+      <c r="B290" t="s">
+        <v>90</v>
+      </c>
+      <c r="C290" t="s">
+        <v>59</v>
+      </c>
+      <c r="D290">
+        <v>8.6340000000000003</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J290">
+        <v>12</v>
+      </c>
+      <c r="K290" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>16</v>
+      </c>
+      <c r="B291" t="s">
+        <v>90</v>
+      </c>
+      <c r="C291" t="s">
+        <v>60</v>
+      </c>
+      <c r="D291">
+        <v>6.4130000000000003</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J291">
+        <v>12</v>
+      </c>
+      <c r="K291" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>17</v>
+      </c>
+      <c r="B292" t="s">
+        <v>90</v>
+      </c>
+      <c r="C292" t="s">
+        <v>59</v>
+      </c>
+      <c r="D292">
+        <v>6.6890000000000001</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J292">
+        <v>12</v>
+      </c>
+      <c r="K292" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>18</v>
+      </c>
+      <c r="B293" t="s">
+        <v>90</v>
+      </c>
+      <c r="C293" t="s">
+        <v>59</v>
+      </c>
+      <c r="D293">
+        <v>6.4089999999999998</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J293">
+        <v>12</v>
+      </c>
+      <c r="K293" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>19</v>
+      </c>
+      <c r="B294" t="s">
+        <v>90</v>
+      </c>
+      <c r="C294" t="s">
+        <v>59</v>
+      </c>
+      <c r="D294">
+        <v>8.5830000000000002</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J294">
+        <v>12</v>
+      </c>
+      <c r="K294" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>20</v>
+      </c>
+      <c r="B295" t="s">
+        <v>90</v>
+      </c>
+      <c r="C295" t="s">
+        <v>59</v>
+      </c>
+      <c r="D295">
+        <v>7.5229999999999997</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J295">
+        <v>12</v>
+      </c>
+      <c r="K295" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>21</v>
+      </c>
+      <c r="B296" t="s">
+        <v>90</v>
+      </c>
+      <c r="C296" t="s">
+        <v>233</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J296">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>22</v>
+      </c>
+      <c r="B297" t="s">
+        <v>90</v>
+      </c>
+      <c r="C297" t="s">
+        <v>233</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J297">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298" t="s">
+        <v>388</v>
+      </c>
+      <c r="C298" t="s">
+        <v>59</v>
+      </c>
+      <c r="D298">
+        <v>10.206</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J298">
+        <v>12</v>
+      </c>
+      <c r="K298" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2</v>
+      </c>
+      <c r="B299" t="s">
+        <v>388</v>
+      </c>
+      <c r="C299" t="s">
+        <v>59</v>
+      </c>
+      <c r="D299">
+        <v>11.188000000000001</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J299">
+        <v>12</v>
+      </c>
+      <c r="K299" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>3</v>
+      </c>
+      <c r="B300" t="s">
+        <v>388</v>
+      </c>
+      <c r="C300" t="s">
+        <v>60</v>
+      </c>
+      <c r="D300">
+        <v>8.84</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J300">
+        <v>12</v>
+      </c>
+      <c r="K300" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>4</v>
+      </c>
+      <c r="B301" t="s">
+        <v>388</v>
+      </c>
+      <c r="C301" t="s">
+        <v>59</v>
+      </c>
+      <c r="D301">
+        <v>10.257999999999999</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J301">
+        <v>12</v>
+      </c>
+      <c r="K301" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>5</v>
+      </c>
+      <c r="B302" t="s">
+        <v>388</v>
+      </c>
+      <c r="C302" t="s">
+        <v>60</v>
+      </c>
+      <c r="D302">
+        <v>9.7279999999999998</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J302">
+        <v>12</v>
+      </c>
+      <c r="K302" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>6</v>
+      </c>
+      <c r="B303" t="s">
+        <v>388</v>
+      </c>
+      <c r="C303" t="s">
+        <v>59</v>
+      </c>
+      <c r="D303">
+        <v>7.4139999999999997</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J303">
+        <v>12</v>
+      </c>
+      <c r="K303" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>7</v>
+      </c>
+      <c r="B304" t="s">
+        <v>388</v>
+      </c>
+      <c r="C304" t="s">
+        <v>60</v>
+      </c>
+      <c r="D304">
+        <v>6.7629999999999999</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J304">
+        <v>12</v>
+      </c>
+      <c r="K304" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>8</v>
+      </c>
+      <c r="B305" t="s">
+        <v>388</v>
+      </c>
+      <c r="C305" t="s">
+        <v>59</v>
+      </c>
+      <c r="D305">
+        <v>8.6720000000000006</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J305">
+        <v>12</v>
+      </c>
+      <c r="K305" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>9</v>
+      </c>
+      <c r="B306" t="s">
+        <v>388</v>
+      </c>
+      <c r="C306" t="s">
+        <v>60</v>
+      </c>
+      <c r="D306">
+        <v>7.6029999999999998</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J306">
+        <v>12</v>
+      </c>
+      <c r="K306" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>10</v>
+      </c>
+      <c r="B307" t="s">
+        <v>388</v>
+      </c>
+      <c r="C307" t="s">
+        <v>60</v>
+      </c>
+      <c r="D307">
+        <v>6.6710000000000003</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J307">
+        <v>12</v>
+      </c>
+      <c r="K307" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>11</v>
+      </c>
+      <c r="B308" t="s">
+        <v>388</v>
+      </c>
+      <c r="C308" t="s">
+        <v>59</v>
+      </c>
+      <c r="D308">
+        <v>9.8219999999999992</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J308">
+        <v>12</v>
+      </c>
+      <c r="K308" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>12</v>
+      </c>
+      <c r="B309" t="s">
+        <v>388</v>
+      </c>
+      <c r="C309" t="s">
+        <v>60</v>
+      </c>
+      <c r="D309">
+        <v>7.8040000000000003</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J309">
+        <v>12</v>
+      </c>
+      <c r="K309" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>13</v>
+      </c>
+      <c r="B310" t="s">
+        <v>388</v>
+      </c>
+      <c r="C310" t="s">
+        <v>60</v>
+      </c>
+      <c r="D310">
+        <v>3.76</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J310">
+        <v>12</v>
+      </c>
+      <c r="K310" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>14</v>
+      </c>
+      <c r="B311" t="s">
+        <v>388</v>
+      </c>
+      <c r="C311" t="s">
+        <v>59</v>
+      </c>
+      <c r="D311">
+        <v>7.6929999999999996</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J311">
+        <v>12</v>
+      </c>
+      <c r="K311" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>15</v>
+      </c>
+      <c r="B312" t="s">
+        <v>388</v>
+      </c>
+      <c r="C312" t="s">
+        <v>60</v>
+      </c>
+      <c r="D312">
+        <v>5.6</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J312">
+        <v>12</v>
+      </c>
+      <c r="K312" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>16</v>
+      </c>
+      <c r="B313" t="s">
+        <v>388</v>
+      </c>
+      <c r="C313" t="s">
+        <v>60</v>
+      </c>
+      <c r="D313">
+        <v>8.48</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J313">
+        <v>12</v>
+      </c>
+      <c r="K313" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>17</v>
+      </c>
+      <c r="B314" t="s">
+        <v>388</v>
+      </c>
+      <c r="C314" t="s">
+        <v>59</v>
+      </c>
+      <c r="D314">
+        <v>9.8160000000000007</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J314">
+        <v>12</v>
+      </c>
+      <c r="K314" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>18</v>
+      </c>
+      <c r="B315" t="s">
+        <v>388</v>
+      </c>
+      <c r="C315" t="s">
+        <v>59</v>
+      </c>
+      <c r="D315">
+        <v>6.5</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J315">
+        <v>12</v>
+      </c>
+      <c r="K315" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>19</v>
+      </c>
+      <c r="B316" t="s">
+        <v>388</v>
+      </c>
+      <c r="C316" t="s">
+        <v>60</v>
+      </c>
+      <c r="D316">
+        <v>5.49</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J316">
+        <v>12</v>
+      </c>
+      <c r="K316" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>20</v>
+      </c>
+      <c r="B317" t="s">
+        <v>388</v>
+      </c>
+      <c r="C317" t="s">
+        <v>59</v>
+      </c>
+      <c r="D317">
+        <v>8.3529999999999998</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J317">
+        <v>12</v>
+      </c>
+      <c r="K317" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>21</v>
+      </c>
+      <c r="B318" t="s">
+        <v>90</v>
+      </c>
+      <c r="C318" t="s">
+        <v>233</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J318">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>22</v>
+      </c>
+      <c r="B319" t="s">
+        <v>90</v>
+      </c>
+      <c r="C319" t="s">
+        <v>233</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J319">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -16343,14 +17627,14 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -16379,7 +17663,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -16409,7 +17693,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -16439,169 +17723,169 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>229</v>
       </c>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B2D309-CA2E-444E-A66E-C4F5E8AAD831}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0C79D-E770-4DBB-9409-72BD73262540}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="395">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -1211,6 +1211,12 @@
   </si>
   <si>
     <t>13:38</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
 </sst>
 </file>
@@ -1631,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5625,15 +5631,36 @@
       <c r="Z73" s="14"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="A74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -6417,7 +6444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D318" sqref="D318"/>
     </sheetView>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0C79D-E770-4DBB-9409-72BD73262540}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C61B09-CEF1-43CC-8642-1A18198F3EDD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3566" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="395">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -1286,7 +1286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1321,6 +1321,8 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1637,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6444,9 +6446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS319"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D318" sqref="D318"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L276" sqref="L276:L297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9655,6 +9657,15 @@
       <c r="K92" t="s">
         <v>61</v>
       </c>
+      <c r="L92">
+        <v>6262</v>
+      </c>
+      <c r="M92" s="20">
+        <v>0.47093750000000001</v>
+      </c>
+      <c r="N92">
+        <v>0.1970401</v>
+      </c>
       <c r="T92" s="1" t="s">
         <v>73</v>
       </c>
@@ -9696,6 +9707,15 @@
       <c r="K93" t="s">
         <v>61</v>
       </c>
+      <c r="L93">
+        <v>6262</v>
+      </c>
+      <c r="M93" s="20">
+        <v>0.47167824074074072</v>
+      </c>
+      <c r="N93">
+        <v>0.13336590000000001</v>
+      </c>
       <c r="T93" s="1" t="s">
         <v>73</v>
       </c>
@@ -9734,6 +9754,15 @@
       <c r="K94" t="s">
         <v>61</v>
       </c>
+      <c r="L94">
+        <v>6262</v>
+      </c>
+      <c r="M94" s="20">
+        <v>0.4725462962962963</v>
+      </c>
+      <c r="N94">
+        <v>0.74489930000000004</v>
+      </c>
       <c r="T94" s="1" t="s">
         <v>73</v>
       </c>
@@ -9772,6 +9801,15 @@
       <c r="K95" t="s">
         <v>61</v>
       </c>
+      <c r="L95">
+        <v>6262</v>
+      </c>
+      <c r="M95" s="20">
+        <v>0.47342592592592592</v>
+      </c>
+      <c r="N95">
+        <v>0.85287159999999995</v>
+      </c>
       <c r="T95" s="1" t="s">
         <v>73</v>
       </c>
@@ -9813,6 +9851,15 @@
       <c r="K96" t="s">
         <v>61</v>
       </c>
+      <c r="L96">
+        <v>6262</v>
+      </c>
+      <c r="M96" s="20">
+        <v>0.47438657407407409</v>
+      </c>
+      <c r="N96">
+        <v>0.13788710000000001</v>
+      </c>
       <c r="T96" s="1" t="s">
         <v>73</v>
       </c>
@@ -9854,6 +9901,15 @@
       <c r="K97" t="s">
         <v>61</v>
       </c>
+      <c r="L97">
+        <v>6262</v>
+      </c>
+      <c r="M97" s="20">
+        <v>0.47538194444444448</v>
+      </c>
+      <c r="N97">
+        <v>0.2489103</v>
+      </c>
       <c r="T97" s="1" t="s">
         <v>73</v>
       </c>
@@ -9892,6 +9948,15 @@
       <c r="K98" t="s">
         <v>61</v>
       </c>
+      <c r="L98">
+        <v>6262</v>
+      </c>
+      <c r="M98" s="20">
+        <v>0.47619212962962965</v>
+      </c>
+      <c r="N98">
+        <v>0.3853647</v>
+      </c>
       <c r="T98" s="1" t="s">
         <v>73</v>
       </c>
@@ -9933,6 +9998,15 @@
       <c r="K99" t="s">
         <v>61</v>
       </c>
+      <c r="L99">
+        <v>6262</v>
+      </c>
+      <c r="M99" s="20">
+        <v>0.47695601851851849</v>
+      </c>
+      <c r="N99">
+        <v>1.2578400000000001</v>
+      </c>
       <c r="T99" s="1" t="s">
         <v>73</v>
       </c>
@@ -9974,6 +10048,15 @@
       <c r="K100" t="s">
         <v>61</v>
       </c>
+      <c r="L100">
+        <v>6262</v>
+      </c>
+      <c r="M100" s="20">
+        <v>0.47784722222222226</v>
+      </c>
+      <c r="N100">
+        <v>0.1002569</v>
+      </c>
       <c r="T100" s="1" t="s">
         <v>73</v>
       </c>
@@ -10015,6 +10098,15 @@
       <c r="K101" t="s">
         <v>61</v>
       </c>
+      <c r="L101">
+        <v>6262</v>
+      </c>
+      <c r="M101" s="20">
+        <v>0.47856481481481478</v>
+      </c>
+      <c r="N101">
+        <v>1.1946300000000001</v>
+      </c>
       <c r="T101" s="1" t="s">
         <v>73</v>
       </c>
@@ -10056,6 +10148,15 @@
       <c r="K102" t="s">
         <v>61</v>
       </c>
+      <c r="L102">
+        <v>6262</v>
+      </c>
+      <c r="M102" s="20">
+        <v>0.47949074074074072</v>
+      </c>
+      <c r="N102">
+        <v>1.2690429999999999</v>
+      </c>
       <c r="T102" s="1" t="s">
         <v>73</v>
       </c>
@@ -10094,6 +10195,15 @@
       <c r="K103" t="s">
         <v>61</v>
       </c>
+      <c r="L103">
+        <v>6262</v>
+      </c>
+      <c r="M103" s="20">
+        <v>0.48037037037037034</v>
+      </c>
+      <c r="N103">
+        <v>1.4929490000000001</v>
+      </c>
       <c r="T103" s="1" t="s">
         <v>73</v>
       </c>
@@ -10135,6 +10245,15 @@
       <c r="K104" t="s">
         <v>61</v>
       </c>
+      <c r="L104">
+        <v>6262</v>
+      </c>
+      <c r="M104" s="20">
+        <v>0.48130787037037037</v>
+      </c>
+      <c r="N104">
+        <v>0.14917730000000001</v>
+      </c>
       <c r="T104" s="1" t="s">
         <v>73</v>
       </c>
@@ -10176,6 +10295,15 @@
       <c r="K105" t="s">
         <v>61</v>
       </c>
+      <c r="L105">
+        <v>6262</v>
+      </c>
+      <c r="M105" s="20">
+        <v>0.48201388888888891</v>
+      </c>
+      <c r="N105">
+        <v>0.1464047</v>
+      </c>
       <c r="T105" s="1" t="s">
         <v>73</v>
       </c>
@@ -10217,6 +10345,15 @@
       <c r="K106" t="s">
         <v>61</v>
       </c>
+      <c r="L106">
+        <v>6262</v>
+      </c>
+      <c r="M106" s="20">
+        <v>0.48284722222222221</v>
+      </c>
+      <c r="N106">
+        <v>0.61558199999999996</v>
+      </c>
       <c r="T106" s="1" t="s">
         <v>73</v>
       </c>
@@ -10258,6 +10395,15 @@
       <c r="K107" t="s">
         <v>61</v>
       </c>
+      <c r="L107">
+        <v>6262</v>
+      </c>
+      <c r="M107" s="20">
+        <v>0.48363425925925929</v>
+      </c>
+      <c r="N107">
+        <v>0.2616211</v>
+      </c>
       <c r="T107" s="1" t="s">
         <v>73</v>
       </c>
@@ -10299,6 +10445,15 @@
       <c r="K108" t="s">
         <v>61</v>
       </c>
+      <c r="L108">
+        <v>6262</v>
+      </c>
+      <c r="M108" s="20">
+        <v>0.48434027777777783</v>
+      </c>
+      <c r="N108">
+        <v>0.2566137</v>
+      </c>
       <c r="T108" s="1" t="s">
         <v>73</v>
       </c>
@@ -10337,6 +10492,15 @@
       <c r="K109" t="s">
         <v>61</v>
       </c>
+      <c r="L109">
+        <v>6262</v>
+      </c>
+      <c r="M109" s="20">
+        <v>0.48504629629629631</v>
+      </c>
+      <c r="N109">
+        <v>0.1296766</v>
+      </c>
       <c r="T109" s="1" t="s">
         <v>73</v>
       </c>
@@ -10378,6 +10542,15 @@
       <c r="K110" t="s">
         <v>61</v>
       </c>
+      <c r="L110">
+        <v>6262</v>
+      </c>
+      <c r="M110" s="20">
+        <v>0.48574074074074075</v>
+      </c>
+      <c r="N110">
+        <v>0.89022429999999997</v>
+      </c>
       <c r="T110" s="1" t="s">
         <v>73</v>
       </c>
@@ -10416,6 +10589,15 @@
       <c r="K111" t="s">
         <v>61</v>
       </c>
+      <c r="L111">
+        <v>6262</v>
+      </c>
+      <c r="M111" s="20">
+        <v>0.48659722222222218</v>
+      </c>
+      <c r="N111">
+        <v>0.70833469999999998</v>
+      </c>
       <c r="T111" s="1" t="s">
         <v>73</v>
       </c>
@@ -10457,6 +10639,15 @@
       <c r="K112" t="s">
         <v>61</v>
       </c>
+      <c r="L112">
+        <v>6262</v>
+      </c>
+      <c r="M112" s="20">
+        <v>0.48748842592592595</v>
+      </c>
+      <c r="N112">
+        <v>0.1138883</v>
+      </c>
       <c r="T112" s="1" t="s">
         <v>73</v>
       </c>
@@ -10498,6 +10689,15 @@
       <c r="K113" t="s">
         <v>61</v>
       </c>
+      <c r="L113">
+        <v>6262</v>
+      </c>
+      <c r="M113" s="20">
+        <v>0.48832175925925925</v>
+      </c>
+      <c r="N113">
+        <v>0.6530359</v>
+      </c>
       <c r="T113" s="1" t="s">
         <v>73</v>
       </c>
@@ -10536,6 +10736,15 @@
       <c r="K114" t="s">
         <v>61</v>
       </c>
+      <c r="L114">
+        <v>6262</v>
+      </c>
+      <c r="M114" s="20">
+        <v>0.48907407407407405</v>
+      </c>
+      <c r="N114">
+        <v>0.15391759999999999</v>
+      </c>
       <c r="T114" s="1" t="s">
         <v>73</v>
       </c>
@@ -10577,6 +10786,15 @@
       <c r="K115" t="s">
         <v>61</v>
       </c>
+      <c r="L115">
+        <v>6262</v>
+      </c>
+      <c r="M115" s="20">
+        <v>0.4899074074074074</v>
+      </c>
+      <c r="N115">
+        <v>0.1257113</v>
+      </c>
       <c r="T115" s="1" t="s">
         <v>73</v>
       </c>
@@ -10615,6 +10833,15 @@
       <c r="K116" t="s">
         <v>61</v>
       </c>
+      <c r="L116">
+        <v>6262</v>
+      </c>
+      <c r="M116" s="20">
+        <v>0.49062500000000003</v>
+      </c>
+      <c r="N116">
+        <v>0.3096526</v>
+      </c>
       <c r="T116" s="1" t="s">
         <v>73</v>
       </c>
@@ -10656,6 +10883,15 @@
       <c r="K117" t="s">
         <v>61</v>
       </c>
+      <c r="L117">
+        <v>6262</v>
+      </c>
+      <c r="M117" s="20">
+        <v>0.49136574074074074</v>
+      </c>
+      <c r="N117">
+        <v>0.17303840000000001</v>
+      </c>
       <c r="T117" s="1" t="s">
         <v>73</v>
       </c>
@@ -10694,6 +10930,15 @@
       <c r="K118" t="s">
         <v>61</v>
       </c>
+      <c r="L118">
+        <v>6262</v>
+      </c>
+      <c r="M118" s="20">
+        <v>0.49208333333333337</v>
+      </c>
+      <c r="N118">
+        <v>0.81787480000000001</v>
+      </c>
       <c r="T118" s="1" t="s">
         <v>73</v>
       </c>
@@ -10732,6 +10977,15 @@
       <c r="K119" t="s">
         <v>61</v>
       </c>
+      <c r="L119">
+        <v>6262</v>
+      </c>
+      <c r="M119" s="20">
+        <v>0.49296296296296299</v>
+      </c>
+      <c r="N119">
+        <v>1.1387959999999999</v>
+      </c>
       <c r="T119" s="1" t="s">
         <v>73</v>
       </c>
@@ -10773,6 +11027,15 @@
       <c r="K120" t="s">
         <v>61</v>
       </c>
+      <c r="L120">
+        <v>6262</v>
+      </c>
+      <c r="M120" s="20">
+        <v>0.49381944444444442</v>
+      </c>
+      <c r="N120">
+        <v>0.30968760000000001</v>
+      </c>
       <c r="T120" s="1" t="s">
         <v>73</v>
       </c>
@@ -10814,6 +11077,15 @@
       <c r="K121" t="s">
         <v>61</v>
       </c>
+      <c r="L121">
+        <v>6262</v>
+      </c>
+      <c r="M121" s="20">
+        <v>0.49454861111111109</v>
+      </c>
+      <c r="N121">
+        <v>1.482758</v>
+      </c>
       <c r="T121" s="1" t="s">
         <v>73</v>
       </c>
@@ -10852,6 +11124,15 @@
       <c r="K122" t="s">
         <v>61</v>
       </c>
+      <c r="L122">
+        <v>6262</v>
+      </c>
+      <c r="M122" s="20">
+        <v>0.49539351851851854</v>
+      </c>
+      <c r="N122">
+        <v>0.92802739999999995</v>
+      </c>
       <c r="T122" s="1" t="s">
         <v>73</v>
       </c>
@@ -10893,6 +11174,15 @@
       <c r="K123" t="s">
         <v>61</v>
       </c>
+      <c r="L123">
+        <v>6262</v>
+      </c>
+      <c r="M123" s="20">
+        <v>0.49625000000000002</v>
+      </c>
+      <c r="N123" s="21">
+        <v>7.1121240000000002E-2</v>
+      </c>
       <c r="T123" s="1" t="s">
         <v>73</v>
       </c>
@@ -10931,6 +11221,15 @@
       <c r="K124" t="s">
         <v>61</v>
       </c>
+      <c r="L124">
+        <v>6262</v>
+      </c>
+      <c r="M124" s="20">
+        <v>0.49715277777777778</v>
+      </c>
+      <c r="N124">
+        <v>0.12740109999999999</v>
+      </c>
       <c r="T124" s="1" t="s">
         <v>73</v>
       </c>
@@ -10969,6 +11268,15 @@
       <c r="K125" t="s">
         <v>61</v>
       </c>
+      <c r="L125">
+        <v>6262</v>
+      </c>
+      <c r="M125" s="20">
+        <v>0.49784722222222227</v>
+      </c>
+      <c r="N125">
+        <v>0.98314860000000004</v>
+      </c>
       <c r="T125" s="1" t="s">
         <v>73</v>
       </c>
@@ -11010,6 +11318,15 @@
       <c r="K126" t="s">
         <v>61</v>
       </c>
+      <c r="L126">
+        <v>6262</v>
+      </c>
+      <c r="M126" s="20">
+        <v>0.49873842592592593</v>
+      </c>
+      <c r="N126">
+        <v>1.0477609999999999</v>
+      </c>
       <c r="T126" s="1" t="s">
         <v>73</v>
       </c>
@@ -11051,6 +11368,15 @@
       <c r="K127" t="s">
         <v>61</v>
       </c>
+      <c r="L127">
+        <v>6262</v>
+      </c>
+      <c r="M127" s="20">
+        <v>0.51457175925925924</v>
+      </c>
+      <c r="N127">
+        <v>0.109638</v>
+      </c>
       <c r="T127" s="1" t="s">
         <v>73</v>
       </c>
@@ -11089,6 +11415,15 @@
       <c r="K128" t="s">
         <v>61</v>
       </c>
+      <c r="L128">
+        <v>6262</v>
+      </c>
+      <c r="M128" s="20">
+        <v>0.51545138888888886</v>
+      </c>
+      <c r="N128">
+        <v>1.4345509999999999</v>
+      </c>
       <c r="T128" s="1" t="s">
         <v>73</v>
       </c>
@@ -11130,6 +11465,15 @@
       <c r="K129" t="s">
         <v>61</v>
       </c>
+      <c r="L129">
+        <v>6262</v>
+      </c>
+      <c r="M129" s="20">
+        <v>0.51640046296296294</v>
+      </c>
+      <c r="N129">
+        <v>1.2323409999999999</v>
+      </c>
       <c r="T129" s="1" t="s">
         <v>73</v>
       </c>
@@ -11171,6 +11515,15 @@
       <c r="K130" t="s">
         <v>61</v>
       </c>
+      <c r="L130">
+        <v>6262</v>
+      </c>
+      <c r="M130" s="20">
+        <v>0.51728009259259256</v>
+      </c>
+      <c r="N130">
+        <v>3.2334070000000001</v>
+      </c>
       <c r="T130" s="1" t="s">
         <v>73</v>
       </c>
@@ -11212,6 +11565,15 @@
       <c r="K131" t="s">
         <v>61</v>
       </c>
+      <c r="L131">
+        <v>6262</v>
+      </c>
+      <c r="M131" s="20">
+        <v>0.51832175925925927</v>
+      </c>
+      <c r="N131">
+        <v>0.13739380000000001</v>
+      </c>
       <c r="T131" s="1" t="s">
         <v>73</v>
       </c>
@@ -11250,6 +11612,15 @@
       <c r="K132" t="s">
         <v>61</v>
       </c>
+      <c r="L132">
+        <v>6262</v>
+      </c>
+      <c r="M132" s="20">
+        <v>0.51903935185185179</v>
+      </c>
+      <c r="N132">
+        <v>0.1400179</v>
+      </c>
       <c r="T132" s="1" t="s">
         <v>73</v>
       </c>
@@ -11291,6 +11662,15 @@
       <c r="K133" t="s">
         <v>61</v>
       </c>
+      <c r="L133">
+        <v>6262</v>
+      </c>
+      <c r="M133" s="20">
+        <v>0.51986111111111111</v>
+      </c>
+      <c r="N133">
+        <v>1.369402</v>
+      </c>
       <c r="T133" s="1" t="s">
         <v>73</v>
       </c>
@@ -11332,6 +11712,15 @@
       <c r="K134" t="s">
         <v>61</v>
       </c>
+      <c r="L134">
+        <v>6262</v>
+      </c>
+      <c r="M134" s="20">
+        <v>0.52076388888888892</v>
+      </c>
+      <c r="N134">
+        <v>0.1629767</v>
+      </c>
       <c r="T134" s="1" t="s">
         <v>73</v>
       </c>
@@ -11370,6 +11759,15 @@
       <c r="K135" t="s">
         <v>61</v>
       </c>
+      <c r="L135">
+        <v>6262</v>
+      </c>
+      <c r="M135" s="20">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="N135">
+        <v>0.165682</v>
+      </c>
       <c r="T135" s="1" t="s">
         <v>73</v>
       </c>
@@ -11411,6 +11809,15 @@
       <c r="K136" t="s">
         <v>61</v>
       </c>
+      <c r="L136">
+        <v>6262</v>
+      </c>
+      <c r="M136" s="20">
+        <v>0.52258101851851857</v>
+      </c>
+      <c r="N136">
+        <v>0.1706609</v>
+      </c>
       <c r="T136" s="1" t="s">
         <v>73</v>
       </c>
@@ -11446,6 +11853,15 @@
       <c r="K137" t="s">
         <v>61</v>
       </c>
+      <c r="L137">
+        <v>6262</v>
+      </c>
+      <c r="M137" s="20">
+        <v>0.52347222222222223</v>
+      </c>
+      <c r="N137" s="21">
+        <v>1.517576E-2</v>
+      </c>
       <c r="T137" s="1" t="s">
         <v>73</v>
       </c>
@@ -11478,6 +11894,15 @@
       <c r="K138" t="s">
         <v>61</v>
       </c>
+      <c r="L138">
+        <v>6262</v>
+      </c>
+      <c r="M138" s="20">
+        <v>0.52417824074074071</v>
+      </c>
+      <c r="N138" s="21">
+        <v>1.5057539999999999E-2</v>
+      </c>
       <c r="T138" s="1" t="s">
         <v>73</v>
       </c>
@@ -11513,6 +11938,15 @@
       <c r="K139" t="s">
         <v>61</v>
       </c>
+      <c r="L139">
+        <v>7000</v>
+      </c>
+      <c r="M139" s="20">
+        <v>0.47093750000000001</v>
+      </c>
+      <c r="N139" s="21">
+        <v>5.1285450000000003E-2</v>
+      </c>
       <c r="T139" s="1" t="s">
         <v>73</v>
       </c>
@@ -11551,6 +11985,15 @@
       <c r="K140" t="s">
         <v>61</v>
       </c>
+      <c r="L140">
+        <v>7000</v>
+      </c>
+      <c r="M140" s="20">
+        <v>0.47167824074074072</v>
+      </c>
+      <c r="N140">
+        <v>0.58465710000000004</v>
+      </c>
       <c r="T140" s="1" t="s">
         <v>73</v>
       </c>
@@ -11592,6 +12035,15 @@
       <c r="K141" t="s">
         <v>61</v>
       </c>
+      <c r="L141">
+        <v>7000</v>
+      </c>
+      <c r="M141" s="20">
+        <v>0.4725462962962963</v>
+      </c>
+      <c r="N141" s="21">
+        <v>9.7062759999999998E-2</v>
+      </c>
       <c r="T141" s="1" t="s">
         <v>73</v>
       </c>
@@ -11633,6 +12085,15 @@
       <c r="K142" t="s">
         <v>61</v>
       </c>
+      <c r="L142">
+        <v>7000</v>
+      </c>
+      <c r="M142" s="20">
+        <v>0.47342592592592592</v>
+      </c>
+      <c r="N142">
+        <v>0.64936369999999999</v>
+      </c>
       <c r="T142" s="1" t="s">
         <v>73</v>
       </c>
@@ -11674,6 +12135,15 @@
       <c r="K143" t="s">
         <v>61</v>
       </c>
+      <c r="L143">
+        <v>7000</v>
+      </c>
+      <c r="M143" s="20">
+        <v>0.47438657407407409</v>
+      </c>
+      <c r="N143">
+        <v>1.50685</v>
+      </c>
       <c r="T143" s="1" t="s">
         <v>73</v>
       </c>
@@ -11715,6 +12185,15 @@
       <c r="K144" t="s">
         <v>61</v>
       </c>
+      <c r="L144">
+        <v>7000</v>
+      </c>
+      <c r="M144" s="20">
+        <v>0.47538194444444448</v>
+      </c>
+      <c r="N144">
+        <v>0.17113790000000001</v>
+      </c>
       <c r="T144" s="1" t="s">
         <v>73</v>
       </c>
@@ -11756,6 +12235,15 @@
       <c r="K145" t="s">
         <v>61</v>
       </c>
+      <c r="L145">
+        <v>7000</v>
+      </c>
+      <c r="M145" s="20">
+        <v>0.47619212962962965</v>
+      </c>
+      <c r="N145">
+        <v>9.6943799999999997E-2</v>
+      </c>
       <c r="T145" s="1" t="s">
         <v>73</v>
       </c>
@@ -11797,6 +12285,15 @@
       <c r="K146" t="s">
         <v>61</v>
       </c>
+      <c r="L146">
+        <v>7000</v>
+      </c>
+      <c r="M146" s="20">
+        <v>0.47695601851851849</v>
+      </c>
+      <c r="N146">
+        <v>0.4973764</v>
+      </c>
       <c r="T146" s="1" t="s">
         <v>73</v>
       </c>
@@ -11838,6 +12335,15 @@
       <c r="K147" t="s">
         <v>61</v>
       </c>
+      <c r="L147">
+        <v>7000</v>
+      </c>
+      <c r="M147" s="20">
+        <v>0.47784722222222226</v>
+      </c>
+      <c r="N147" s="21">
+        <v>7.759228E-2</v>
+      </c>
       <c r="T147" s="1" t="s">
         <v>73</v>
       </c>
@@ -11876,6 +12382,15 @@
       <c r="K148" t="s">
         <v>61</v>
       </c>
+      <c r="L148">
+        <v>7000</v>
+      </c>
+      <c r="M148" s="20">
+        <v>0.47856481481481478</v>
+      </c>
+      <c r="N148" s="21">
+        <v>7.1666450000000007E-2</v>
+      </c>
       <c r="T148" s="1" t="s">
         <v>73</v>
       </c>
@@ -11917,6 +12432,15 @@
       <c r="K149" t="s">
         <v>61</v>
       </c>
+      <c r="L149">
+        <v>7000</v>
+      </c>
+      <c r="M149" s="20">
+        <v>0.47949074074074072</v>
+      </c>
+      <c r="N149">
+        <v>0.46812979999999998</v>
+      </c>
       <c r="T149" s="1" t="s">
         <v>73</v>
       </c>
@@ -11955,6 +12479,15 @@
       <c r="K150" t="s">
         <v>61</v>
       </c>
+      <c r="L150">
+        <v>7000</v>
+      </c>
+      <c r="M150" s="20">
+        <v>0.48037037037037034</v>
+      </c>
+      <c r="N150">
+        <v>0.13641529999999999</v>
+      </c>
       <c r="T150" s="1" t="s">
         <v>73</v>
       </c>
@@ -11993,6 +12526,15 @@
       <c r="K151" t="s">
         <v>61</v>
       </c>
+      <c r="L151">
+        <v>7000</v>
+      </c>
+      <c r="M151" s="20">
+        <v>0.48130787037037037</v>
+      </c>
+      <c r="N151">
+        <v>0.1132746</v>
+      </c>
       <c r="T151" s="1" t="s">
         <v>73</v>
       </c>
@@ -12034,6 +12576,15 @@
       <c r="K152" t="s">
         <v>61</v>
       </c>
+      <c r="L152">
+        <v>7000</v>
+      </c>
+      <c r="M152" s="20">
+        <v>0.48201388888888891</v>
+      </c>
+      <c r="N152">
+        <v>0.85572360000000003</v>
+      </c>
       <c r="T152" s="1" t="s">
         <v>73</v>
       </c>
@@ -12075,6 +12626,15 @@
       <c r="K153" t="s">
         <v>61</v>
       </c>
+      <c r="L153">
+        <v>7000</v>
+      </c>
+      <c r="M153" s="20">
+        <v>0.48284722222222221</v>
+      </c>
+      <c r="N153">
+        <v>0.15050740000000001</v>
+      </c>
       <c r="T153" s="1" t="s">
         <v>73</v>
       </c>
@@ -12116,6 +12676,15 @@
       <c r="K154" t="s">
         <v>61</v>
       </c>
+      <c r="L154">
+        <v>7000</v>
+      </c>
+      <c r="M154" s="20">
+        <v>0.48363425925925929</v>
+      </c>
+      <c r="N154" s="21">
+        <v>5.9912069999999998E-2</v>
+      </c>
       <c r="T154" s="1" t="s">
         <v>73</v>
       </c>
@@ -12154,6 +12723,15 @@
       <c r="K155" t="s">
         <v>61</v>
       </c>
+      <c r="L155">
+        <v>7000</v>
+      </c>
+      <c r="M155" s="20">
+        <v>0.48434027777777783</v>
+      </c>
+      <c r="N155">
+        <v>0.12034</v>
+      </c>
       <c r="T155" s="1" t="s">
         <v>73</v>
       </c>
@@ -12195,6 +12773,15 @@
       <c r="K156" t="s">
         <v>61</v>
       </c>
+      <c r="L156">
+        <v>7000</v>
+      </c>
+      <c r="M156" s="20">
+        <v>0.48504629629629631</v>
+      </c>
+      <c r="N156" s="21">
+        <v>8.0263559999999998E-2</v>
+      </c>
       <c r="T156" s="1" t="s">
         <v>73</v>
       </c>
@@ -12236,6 +12823,15 @@
       <c r="K157" t="s">
         <v>61</v>
       </c>
+      <c r="L157">
+        <v>7000</v>
+      </c>
+      <c r="M157" s="20">
+        <v>0.48574074074074075</v>
+      </c>
+      <c r="N157">
+        <v>0.70180109999999996</v>
+      </c>
       <c r="T157" s="1" t="s">
         <v>73</v>
       </c>
@@ -12277,6 +12873,15 @@
       <c r="K158" t="s">
         <v>61</v>
       </c>
+      <c r="L158">
+        <v>7000</v>
+      </c>
+      <c r="M158" s="20">
+        <v>0.48659722222222218</v>
+      </c>
+      <c r="N158">
+        <v>0.92372509999999997</v>
+      </c>
       <c r="T158" s="1" t="s">
         <v>73</v>
       </c>
@@ -12315,6 +12920,15 @@
       <c r="K159" t="s">
         <v>61</v>
       </c>
+      <c r="L159">
+        <v>7000</v>
+      </c>
+      <c r="M159" s="20">
+        <v>0.48748842592592595</v>
+      </c>
+      <c r="N159">
+        <v>0.77597720000000003</v>
+      </c>
       <c r="T159" s="1" t="s">
         <v>73</v>
       </c>
@@ -12356,6 +12970,15 @@
       <c r="K160" t="s">
         <v>61</v>
       </c>
+      <c r="L160">
+        <v>7000</v>
+      </c>
+      <c r="M160" s="20">
+        <v>0.48832175925925925</v>
+      </c>
+      <c r="N160">
+        <v>0.1450272</v>
+      </c>
       <c r="T160" s="1" t="s">
         <v>73</v>
       </c>
@@ -12394,6 +13017,15 @@
       <c r="K161" t="s">
         <v>61</v>
       </c>
+      <c r="L161">
+        <v>7000</v>
+      </c>
+      <c r="M161" s="20">
+        <v>0.48907407407407405</v>
+      </c>
+      <c r="N161">
+        <v>0.73810480000000001</v>
+      </c>
       <c r="T161" s="1" t="s">
         <v>73</v>
       </c>
@@ -12435,6 +13067,15 @@
       <c r="K162" t="s">
         <v>61</v>
       </c>
+      <c r="L162">
+        <v>7000</v>
+      </c>
+      <c r="M162" s="20">
+        <v>0.4899074074074074</v>
+      </c>
+      <c r="N162">
+        <v>0.1215401</v>
+      </c>
       <c r="T162" s="1" t="s">
         <v>73</v>
       </c>
@@ -12473,6 +13114,15 @@
       <c r="K163" t="s">
         <v>61</v>
       </c>
+      <c r="L163">
+        <v>7000</v>
+      </c>
+      <c r="M163" s="20">
+        <v>0.49062500000000003</v>
+      </c>
+      <c r="N163" s="21">
+        <v>7.7478649999999996E-2</v>
+      </c>
       <c r="T163" s="1" t="s">
         <v>73</v>
       </c>
@@ -12511,6 +13161,15 @@
       <c r="K164" t="s">
         <v>61</v>
       </c>
+      <c r="L164">
+        <v>7000</v>
+      </c>
+      <c r="M164" s="20">
+        <v>0.49136574074074074</v>
+      </c>
+      <c r="N164" s="21">
+        <v>8.7185029999999997E-2</v>
+      </c>
       <c r="T164" s="1" t="s">
         <v>73</v>
       </c>
@@ -12552,6 +13211,15 @@
       <c r="K165" t="s">
         <v>61</v>
       </c>
+      <c r="L165">
+        <v>7000</v>
+      </c>
+      <c r="M165" s="20">
+        <v>0.49208333333333337</v>
+      </c>
+      <c r="N165">
+        <v>0.1196178</v>
+      </c>
       <c r="T165" s="1" t="s">
         <v>73</v>
       </c>
@@ -12590,6 +13258,15 @@
       <c r="K166" t="s">
         <v>61</v>
       </c>
+      <c r="L166">
+        <v>7000</v>
+      </c>
+      <c r="M166" s="20">
+        <v>0.49296296296296299</v>
+      </c>
+      <c r="N166">
+        <v>0.17530589999999999</v>
+      </c>
       <c r="T166" s="1" t="s">
         <v>73</v>
       </c>
@@ -12628,6 +13305,15 @@
       <c r="K167" t="s">
         <v>61</v>
       </c>
+      <c r="L167">
+        <v>7000</v>
+      </c>
+      <c r="M167" s="20">
+        <v>0.49381944444444442</v>
+      </c>
+      <c r="N167">
+        <v>9.7768999999999995E-2</v>
+      </c>
       <c r="T167" s="1" t="s">
         <v>73</v>
       </c>
@@ -12669,6 +13355,15 @@
       <c r="K168" t="s">
         <v>61</v>
       </c>
+      <c r="L168">
+        <v>7000</v>
+      </c>
+      <c r="M168" s="20">
+        <v>0.49454861111111109</v>
+      </c>
+      <c r="N168">
+        <v>0.44250270000000003</v>
+      </c>
       <c r="T168" s="1" t="s">
         <v>73</v>
       </c>
@@ -12710,6 +13405,15 @@
       <c r="K169" t="s">
         <v>61</v>
       </c>
+      <c r="L169">
+        <v>7000</v>
+      </c>
+      <c r="M169" s="20">
+        <v>0.49539351851851854</v>
+      </c>
+      <c r="N169">
+        <v>7.2012400000000004E-2</v>
+      </c>
       <c r="T169" s="1" t="s">
         <v>73</v>
       </c>
@@ -12751,6 +13455,15 @@
       <c r="K170" t="s">
         <v>61</v>
       </c>
+      <c r="L170">
+        <v>7000</v>
+      </c>
+      <c r="M170" s="20">
+        <v>0.49625000000000002</v>
+      </c>
+      <c r="N170">
+        <v>0.94064519999999996</v>
+      </c>
       <c r="T170" s="1" t="s">
         <v>73</v>
       </c>
@@ -12792,6 +13505,15 @@
       <c r="K171" t="s">
         <v>61</v>
       </c>
+      <c r="L171">
+        <v>7000</v>
+      </c>
+      <c r="M171" s="20">
+        <v>0.49715277777777778</v>
+      </c>
+      <c r="N171" s="21">
+        <v>8.9814859999999996E-2</v>
+      </c>
       <c r="T171" s="1" t="s">
         <v>73</v>
       </c>
@@ -12833,6 +13555,15 @@
       <c r="K172" t="s">
         <v>61</v>
       </c>
+      <c r="L172">
+        <v>7000</v>
+      </c>
+      <c r="M172" s="20">
+        <v>0.49784722222222227</v>
+      </c>
+      <c r="N172" s="21">
+        <v>9.6213660000000006E-2</v>
+      </c>
       <c r="T172" s="1" t="s">
         <v>73</v>
       </c>
@@ -12874,6 +13605,15 @@
       <c r="K173" t="s">
         <v>61</v>
       </c>
+      <c r="L173">
+        <v>7000</v>
+      </c>
+      <c r="M173" s="20">
+        <v>0.49873842592592593</v>
+      </c>
+      <c r="N173" s="21">
+        <v>9.322076E-2</v>
+      </c>
       <c r="T173" s="1" t="s">
         <v>73</v>
       </c>
@@ -12915,6 +13655,15 @@
       <c r="K174" t="s">
         <v>61</v>
       </c>
+      <c r="L174">
+        <v>7000</v>
+      </c>
+      <c r="M174" s="20">
+        <v>0.51457175925925924</v>
+      </c>
+      <c r="N174" s="21">
+        <v>9.0419239999999998E-2</v>
+      </c>
       <c r="T174" s="1" t="s">
         <v>73</v>
       </c>
@@ -12956,6 +13705,15 @@
       <c r="K175" t="s">
         <v>61</v>
       </c>
+      <c r="L175">
+        <v>7000</v>
+      </c>
+      <c r="M175" s="20">
+        <v>0.51545138888888886</v>
+      </c>
+      <c r="N175">
+        <v>0.11817270000000001</v>
+      </c>
       <c r="T175" s="1" t="s">
         <v>73</v>
       </c>
@@ -12997,6 +13755,15 @@
       <c r="K176" t="s">
         <v>61</v>
       </c>
+      <c r="L176">
+        <v>7000</v>
+      </c>
+      <c r="M176" s="20">
+        <v>0.51640046296296294</v>
+      </c>
+      <c r="N176">
+        <v>0.68029110000000004</v>
+      </c>
       <c r="T176" s="1" t="s">
         <v>73</v>
       </c>
@@ -13035,6 +13802,15 @@
       <c r="K177" t="s">
         <v>61</v>
       </c>
+      <c r="L177">
+        <v>7000</v>
+      </c>
+      <c r="M177" s="20">
+        <v>0.51728009259259256</v>
+      </c>
+      <c r="N177" s="21">
+        <v>9.4185749999999999E-2</v>
+      </c>
       <c r="T177" s="1" t="s">
         <v>73</v>
       </c>
@@ -13076,6 +13852,15 @@
       <c r="K178" t="s">
         <v>61</v>
       </c>
+      <c r="L178">
+        <v>7000</v>
+      </c>
+      <c r="M178" s="20">
+        <v>0.51832175925925927</v>
+      </c>
+      <c r="N178" s="21">
+        <v>9.1616569999999994E-2</v>
+      </c>
       <c r="T178" s="1" t="s">
         <v>73</v>
       </c>
@@ -13117,6 +13902,15 @@
       <c r="K179" t="s">
         <v>61</v>
       </c>
+      <c r="L179">
+        <v>7000</v>
+      </c>
+      <c r="M179" s="20">
+        <v>0.51903935185185179</v>
+      </c>
+      <c r="N179">
+        <v>0.93948520000000002</v>
+      </c>
       <c r="T179" s="1" t="s">
         <v>73</v>
       </c>
@@ -13158,6 +13952,15 @@
       <c r="K180" t="s">
         <v>61</v>
       </c>
+      <c r="L180">
+        <v>7000</v>
+      </c>
+      <c r="M180" s="20">
+        <v>0.51986111111111111</v>
+      </c>
+      <c r="N180">
+        <v>0.1224875</v>
+      </c>
       <c r="T180" s="1" t="s">
         <v>73</v>
       </c>
@@ -13196,6 +13999,15 @@
       <c r="K181" t="s">
         <v>61</v>
       </c>
+      <c r="L181">
+        <v>7000</v>
+      </c>
+      <c r="M181" s="20">
+        <v>0.52076388888888892</v>
+      </c>
+      <c r="N181">
+        <v>0.1082694</v>
+      </c>
       <c r="T181" s="1" t="s">
         <v>73</v>
       </c>
@@ -13234,6 +14046,15 @@
       <c r="K182" t="s">
         <v>61</v>
       </c>
+      <c r="L182">
+        <v>7000</v>
+      </c>
+      <c r="M182" s="20">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="N182" s="21">
+        <v>7.8673350000000003E-2</v>
+      </c>
       <c r="T182" s="1" t="s">
         <v>73</v>
       </c>
@@ -13275,6 +14096,15 @@
       <c r="K183" t="s">
         <v>61</v>
       </c>
+      <c r="L183">
+        <v>7000</v>
+      </c>
+      <c r="M183" s="20">
+        <v>0.52258101851851857</v>
+      </c>
+      <c r="N183" s="21">
+        <v>2.6454790000000001E-3</v>
+      </c>
       <c r="T183" s="1" t="s">
         <v>73</v>
       </c>
@@ -13310,6 +14140,15 @@
       <c r="K184" t="s">
         <v>61</v>
       </c>
+      <c r="L184">
+        <v>7000</v>
+      </c>
+      <c r="M184" s="20">
+        <v>0.52347222222222223</v>
+      </c>
+      <c r="N184" s="21">
+        <v>9.3572949999999998E-3</v>
+      </c>
       <c r="T184" s="1" t="s">
         <v>73</v>
       </c>
@@ -13342,6 +14181,15 @@
       <c r="K185" t="s">
         <v>61</v>
       </c>
+      <c r="L185">
+        <v>7000</v>
+      </c>
+      <c r="M185" s="20">
+        <v>0.52417824074074071</v>
+      </c>
+      <c r="N185" s="21">
+        <v>1.1425980000000001E-2</v>
+      </c>
       <c r="T185" s="1" t="s">
         <v>73</v>
       </c>
@@ -16407,6 +17255,15 @@
       <c r="K276" t="s">
         <v>61</v>
       </c>
+      <c r="L276">
+        <v>7000</v>
+      </c>
+      <c r="M276" s="20">
+        <v>0.41784722222222226</v>
+      </c>
+      <c r="N276">
+        <v>0.12277009999999999</v>
+      </c>
     </row>
     <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277">
@@ -16436,6 +17293,15 @@
       <c r="K277" t="s">
         <v>61</v>
       </c>
+      <c r="L277">
+        <v>7000</v>
+      </c>
+      <c r="M277" s="20">
+        <v>0.41900462962962964</v>
+      </c>
+      <c r="N277">
+        <v>0.70028290000000004</v>
+      </c>
     </row>
     <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278">
@@ -16465,6 +17331,15 @@
       <c r="K278" t="s">
         <v>61</v>
       </c>
+      <c r="L278">
+        <v>7000</v>
+      </c>
+      <c r="M278" s="20">
+        <v>0.42020833333333335</v>
+      </c>
+      <c r="N278" s="21">
+        <v>6.7837389999999997E-2</v>
+      </c>
     </row>
     <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279">
@@ -16494,6 +17369,15 @@
       <c r="K279" t="s">
         <v>61</v>
       </c>
+      <c r="L279">
+        <v>7000</v>
+      </c>
+      <c r="M279" s="20">
+        <v>0.42140046296296302</v>
+      </c>
+      <c r="N279">
+        <v>0.46603889999999998</v>
+      </c>
     </row>
     <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280">
@@ -16523,6 +17407,15 @@
       <c r="K280" t="s">
         <v>61</v>
       </c>
+      <c r="L280">
+        <v>7000</v>
+      </c>
+      <c r="M280" s="20">
+        <v>0.42251157407407408</v>
+      </c>
+      <c r="N280" s="21">
+        <v>9.7149630000000001E-2</v>
+      </c>
     </row>
     <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281">
@@ -16552,6 +17445,15 @@
       <c r="K281" t="s">
         <v>61</v>
       </c>
+      <c r="L281">
+        <v>7000</v>
+      </c>
+      <c r="M281" s="20">
+        <v>0.42379629629629628</v>
+      </c>
+      <c r="N281">
+        <v>0.59092040000000001</v>
+      </c>
     </row>
     <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282">
@@ -16581,6 +17483,15 @@
       <c r="K282" t="s">
         <v>61</v>
       </c>
+      <c r="L282">
+        <v>7000</v>
+      </c>
+      <c r="M282" s="20">
+        <v>0.424837962962963</v>
+      </c>
+      <c r="N282">
+        <v>0.1025996</v>
+      </c>
     </row>
     <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283">
@@ -16610,6 +17521,15 @@
       <c r="K283" t="s">
         <v>61</v>
       </c>
+      <c r="L283">
+        <v>7000</v>
+      </c>
+      <c r="M283" s="20">
+        <v>0.42625000000000002</v>
+      </c>
+      <c r="N283">
+        <v>0.1445264</v>
+      </c>
     </row>
     <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284">
@@ -16639,6 +17559,15 @@
       <c r="K284" t="s">
         <v>61</v>
       </c>
+      <c r="L284">
+        <v>7000</v>
+      </c>
+      <c r="M284" s="20">
+        <v>0.42733796296296295</v>
+      </c>
+      <c r="N284">
+        <v>0.7662523</v>
+      </c>
     </row>
     <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285">
@@ -16668,6 +17597,15 @@
       <c r="K285" t="s">
         <v>61</v>
       </c>
+      <c r="L285">
+        <v>7000</v>
+      </c>
+      <c r="M285" s="20">
+        <v>0.42842592592592593</v>
+      </c>
+      <c r="N285">
+        <v>0.79609700000000005</v>
+      </c>
     </row>
     <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286">
@@ -16697,6 +17635,15 @@
       <c r="K286" t="s">
         <v>61</v>
       </c>
+      <c r="L286">
+        <v>7000</v>
+      </c>
+      <c r="M286" s="20">
+        <v>0.42939814814814814</v>
+      </c>
+      <c r="N286">
+        <v>0.11193790000000001</v>
+      </c>
     </row>
     <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287">
@@ -16726,6 +17673,15 @@
       <c r="K287" t="s">
         <v>61</v>
       </c>
+      <c r="L287">
+        <v>7000</v>
+      </c>
+      <c r="M287" s="20">
+        <v>0.43023148148148144</v>
+      </c>
+      <c r="N287">
+        <v>0.80031540000000001</v>
+      </c>
     </row>
     <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288">
@@ -16755,8 +17711,17 @@
       <c r="K288" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L288">
+        <v>7000</v>
+      </c>
+      <c r="M288" s="20">
+        <v>0.43116898148148147</v>
+      </c>
+      <c r="N288">
+        <v>0.1230512</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>14</v>
       </c>
@@ -16784,8 +17749,17 @@
       <c r="K289" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L289">
+        <v>7000</v>
+      </c>
+      <c r="M289" s="20">
+        <v>0.43210648148148145</v>
+      </c>
+      <c r="N289">
+        <v>0.10142959999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>15</v>
       </c>
@@ -16813,8 +17787,17 @@
       <c r="K290" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L290">
+        <v>7000</v>
+      </c>
+      <c r="M290" s="20">
+        <v>0.43312499999999998</v>
+      </c>
+      <c r="N290" s="21">
+        <v>8.0545110000000003E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>16</v>
       </c>
@@ -16842,8 +17825,17 @@
       <c r="K291" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L291">
+        <v>7000</v>
+      </c>
+      <c r="M291" s="20">
+        <v>0.43394675925925924</v>
+      </c>
+      <c r="N291">
+        <v>0.5833024</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>17</v>
       </c>
@@ -16871,8 +17863,17 @@
       <c r="K292" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L292">
+        <v>7000</v>
+      </c>
+      <c r="M292" s="20">
+        <v>0.4349189814814815</v>
+      </c>
+      <c r="N292">
+        <v>0.52003160000000004</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>18</v>
       </c>
@@ -16900,8 +17901,17 @@
       <c r="K293" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L293">
+        <v>7000</v>
+      </c>
+      <c r="M293" s="20">
+        <v>0.43596064814814817</v>
+      </c>
+      <c r="N293" s="21">
+        <v>8.6169090000000004E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>19</v>
       </c>
@@ -16929,8 +17939,17 @@
       <c r="K294" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L294">
+        <v>7000</v>
+      </c>
+      <c r="M294" s="20">
+        <v>0.43678240740740737</v>
+      </c>
+      <c r="N294" s="21">
+        <v>7.3894829999999995E-2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>20</v>
       </c>
@@ -16961,8 +17980,17 @@
       <c r="K295" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L295">
+        <v>7000</v>
+      </c>
+      <c r="M295" s="20">
+        <v>0.43760416666666663</v>
+      </c>
+      <c r="N295">
+        <v>0.68196570000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>21</v>
       </c>
@@ -16984,8 +18012,20 @@
       <c r="J296">
         <v>12</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K296" t="s">
+        <v>61</v>
+      </c>
+      <c r="L296">
+        <v>7000</v>
+      </c>
+      <c r="M296" s="20">
+        <v>0.43853009259259257</v>
+      </c>
+      <c r="N296" s="21">
+        <v>8.2836980000000008E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>22</v>
       </c>
@@ -17007,8 +18047,20 @@
       <c r="J297">
         <v>12</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K297" t="s">
+        <v>61</v>
+      </c>
+      <c r="L297">
+        <v>7000</v>
+      </c>
+      <c r="M297" s="20">
+        <v>0.4392361111111111</v>
+      </c>
+      <c r="N297" s="21">
+        <v>7.9548310000000007E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1</v>
       </c>
@@ -17039,8 +18091,17 @@
       <c r="K298" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L298">
+        <v>6262</v>
+      </c>
+      <c r="M298" s="20">
+        <v>0.41784722222222226</v>
+      </c>
+      <c r="N298">
+        <v>0.21415609999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -17068,8 +18129,17 @@
       <c r="K299" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L299">
+        <v>6262</v>
+      </c>
+      <c r="M299" s="20">
+        <v>0.41900462962962964</v>
+      </c>
+      <c r="N299">
+        <v>1.54416</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>3</v>
       </c>
@@ -17097,8 +18167,17 @@
       <c r="K300" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L300">
+        <v>6262</v>
+      </c>
+      <c r="M300" s="20">
+        <v>0.42020833333333335</v>
+      </c>
+      <c r="N300">
+        <v>1.456161</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>4</v>
       </c>
@@ -17126,8 +18205,17 @@
       <c r="K301" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L301">
+        <v>6262</v>
+      </c>
+      <c r="M301" s="20">
+        <v>0.42140046296296302</v>
+      </c>
+      <c r="N301">
+        <v>0.15702050000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>5</v>
       </c>
@@ -17155,8 +18243,17 @@
       <c r="K302" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L302">
+        <v>6262</v>
+      </c>
+      <c r="M302" s="20">
+        <v>0.42251157407407408</v>
+      </c>
+      <c r="N302">
+        <v>1.242848</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>6</v>
       </c>
@@ -17184,8 +18281,17 @@
       <c r="K303" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L303">
+        <v>6262</v>
+      </c>
+      <c r="M303" s="20">
+        <v>0.42379629629629628</v>
+      </c>
+      <c r="N303" s="21">
+        <v>8.9593690000000004E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>7</v>
       </c>
@@ -17213,8 +18319,17 @@
       <c r="K304" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L304">
+        <v>6262</v>
+      </c>
+      <c r="M304" s="20">
+        <v>0.424837962962963</v>
+      </c>
+      <c r="N304">
+        <v>0.88852350000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>8</v>
       </c>
@@ -17242,8 +18357,17 @@
       <c r="K305" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L305">
+        <v>6262</v>
+      </c>
+      <c r="M305" s="20">
+        <v>0.42625000000000002</v>
+      </c>
+      <c r="N305">
+        <v>1.329091</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>9</v>
       </c>
@@ -17271,8 +18395,17 @@
       <c r="K306" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L306">
+        <v>6262</v>
+      </c>
+      <c r="M306" s="20">
+        <v>0.42733796296296295</v>
+      </c>
+      <c r="N306">
+        <v>1.511344</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>10</v>
       </c>
@@ -17300,8 +18433,17 @@
       <c r="K307" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L307">
+        <v>6262</v>
+      </c>
+      <c r="M307" s="20">
+        <v>0.42842592592592593</v>
+      </c>
+      <c r="N307">
+        <v>0.16845199999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>11</v>
       </c>
@@ -17329,8 +18471,17 @@
       <c r="K308" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L308">
+        <v>6262</v>
+      </c>
+      <c r="M308" s="20">
+        <v>0.42939814814814814</v>
+      </c>
+      <c r="N308">
+        <v>0.1916591</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>12</v>
       </c>
@@ -17358,8 +18509,17 @@
       <c r="K309" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L309">
+        <v>6262</v>
+      </c>
+      <c r="M309" s="20">
+        <v>0.43023148148148144</v>
+      </c>
+      <c r="N309">
+        <v>0.22653429999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>13</v>
       </c>
@@ -17387,8 +18547,17 @@
       <c r="K310" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L310">
+        <v>6262</v>
+      </c>
+      <c r="M310" s="20">
+        <v>0.43116898148148147</v>
+      </c>
+      <c r="N310">
+        <v>0.46903630000000002</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>14</v>
       </c>
@@ -17416,8 +18585,17 @@
       <c r="K311" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L311">
+        <v>6262</v>
+      </c>
+      <c r="M311" s="20">
+        <v>0.43210648148148145</v>
+      </c>
+      <c r="N311">
+        <v>0.98061030000000005</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>15</v>
       </c>
@@ -17445,8 +18623,17 @@
       <c r="K312" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L312">
+        <v>6262</v>
+      </c>
+      <c r="M312" s="20">
+        <v>0.43312499999999998</v>
+      </c>
+      <c r="N312">
+        <v>0.133075</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>16</v>
       </c>
@@ -17474,8 +18661,17 @@
       <c r="K313" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L313">
+        <v>6262</v>
+      </c>
+      <c r="M313" s="20">
+        <v>0.43394675925925924</v>
+      </c>
+      <c r="N313">
+        <v>1.2619419999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>17</v>
       </c>
@@ -17503,8 +18699,17 @@
       <c r="K314" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L314">
+        <v>6262</v>
+      </c>
+      <c r="M314" s="20">
+        <v>0.4349189814814815</v>
+      </c>
+      <c r="N314">
+        <v>1.1777489999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>18</v>
       </c>
@@ -17532,8 +18737,17 @@
       <c r="K315" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L315">
+        <v>6262</v>
+      </c>
+      <c r="M315" s="20">
+        <v>0.43596064814814817</v>
+      </c>
+      <c r="N315">
+        <v>0.16995160000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>19</v>
       </c>
@@ -17561,8 +18775,17 @@
       <c r="K316" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L316">
+        <v>6262</v>
+      </c>
+      <c r="M316" s="20">
+        <v>0.43678240740740737</v>
+      </c>
+      <c r="N316">
+        <v>0.1100877</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>20</v>
       </c>
@@ -17590,8 +18813,17 @@
       <c r="K317" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L317">
+        <v>6262</v>
+      </c>
+      <c r="M317" s="20">
+        <v>0.43760416666666663</v>
+      </c>
+      <c r="N317">
+        <v>0.14432429999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>21</v>
       </c>
@@ -17613,8 +18845,17 @@
       <c r="J318">
         <v>12</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L318">
+        <v>6262</v>
+      </c>
+      <c r="M318" s="20">
+        <v>0.43853009259259257</v>
+      </c>
+      <c r="N318" s="21">
+        <v>1.377661E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>22</v>
       </c>
@@ -17638,6 +18879,15 @@
       </c>
       <c r="J319">
         <v>12</v>
+      </c>
+      <c r="L319">
+        <v>6262</v>
+      </c>
+      <c r="M319" s="20">
+        <v>0.4392361111111111</v>
+      </c>
+      <c r="N319" s="21">
+        <v>1.357036E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -1,33 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anbe642/zScience/Circadian_rhythm_runs_seasonal_timing/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96E8D73-BBE4-AE46-9323-4F1A28AA4015}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6133F54-EA1B-4402-AF9A-6000F53608F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1940" windowWidth="48500" windowHeight="26120" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
     <sheet name="Data_collect" sheetId="1" r:id="rId2"/>
     <sheet name="Pupal_Splits" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5502" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5587" uniqueCount="501">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -1518,6 +1523,18 @@
   </si>
   <si>
     <t>A10-30</t>
+  </si>
+  <si>
+    <t>Day6resp</t>
+  </si>
+  <si>
+    <t>Day8resp</t>
+  </si>
+  <si>
+    <t>Day5weight</t>
+  </si>
+  <si>
+    <t>Day7weight</t>
   </si>
 </sst>
 </file>
@@ -1528,10 +1545,17 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1587,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1624,6 +1648,8 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1938,19 +1964,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11" style="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -1978,26 +2005,38 @@
       <c r="I1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2025,10 +2064,6 @@
       <c r="I2" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2036,8 +2071,12 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2065,10 +2104,6 @@
       <c r="I3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2076,8 +2111,12 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2105,10 +2144,6 @@
       <c r="I4">
         <v>241</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2116,8 +2151,12 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2145,10 +2184,6 @@
       <c r="I5">
         <v>60</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -2156,8 +2191,12 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2185,31 +2224,31 @@
       <c r="I6">
         <v>232</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="P6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="Q6" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -2237,31 +2276,31 @@
       <c r="I7">
         <v>123</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="P7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="Q7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2289,31 +2328,31 @@
       <c r="I8">
         <v>298</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="P8" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="Q8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -2341,31 +2380,31 @@
       <c r="I9">
         <v>153</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="P9" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="Q9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -2393,31 +2432,31 @@
       <c r="I10" s="11">
         <v>316</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="N10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="O10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="P10" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="Q10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="R10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="S10" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
       <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
@@ -2445,31 +2484,31 @@
       <c r="I11" s="11">
         <v>152</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="N11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="O11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="P11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="Q11" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="R11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="S11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
       <c r="T11" s="13"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2497,31 +2536,31 @@
       <c r="I12">
         <v>302</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="P12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="Q12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2549,31 +2588,31 @@
       <c r="I13">
         <v>142</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="P13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="Q13" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
@@ -2601,31 +2640,31 @@
       <c r="I14" s="11">
         <v>357</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="N14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="O14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="P14" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="Q14" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="R14" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="S14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
       <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+    </row>
+    <row r="15" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -2653,31 +2692,31 @@
       <c r="I15" s="11">
         <v>42</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="N15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="O15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="P15" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="Q15" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="R15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="S15" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
       <c r="T15" s="13"/>
-    </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+    </row>
+    <row r="16" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
@@ -2705,31 +2744,31 @@
       <c r="I16" s="11">
         <v>177</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="N16" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="O16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="P16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="Q16" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="R16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="S16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
       <c r="T16" s="13"/>
-    </row>
-    <row r="17" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+    </row>
+    <row r="17" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
@@ -2757,31 +2796,31 @@
       <c r="I17" s="16">
         <v>313</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="N17" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="O17" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="P17" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="Q17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="R17" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="S17" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
       <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+    </row>
+    <row r="18" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>58</v>
       </c>
@@ -2809,31 +2848,31 @@
       <c r="I18" s="16">
         <v>129</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="N18" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="O18" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="P18" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="Q18" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="R18" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="S18" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
       <c r="T18" s="17"/>
-    </row>
-    <row r="19" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+    </row>
+    <row r="19" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>58</v>
       </c>
@@ -2861,31 +2900,31 @@
       <c r="I19" s="16">
         <v>165</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="N19" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="O19" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="P19" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="Q19" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="R19" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="S19" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
       <c r="T19" s="17"/>
-    </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+    </row>
+    <row r="20" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
@@ -2913,31 +2952,31 @@
       <c r="I20" s="11">
         <v>220</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="N20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="O20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="P20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="Q20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="R20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="S20" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
       <c r="T20" s="13"/>
-    </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+    </row>
+    <row r="21" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
@@ -2965,31 +3004,31 @@
       <c r="I21" s="11">
         <v>180</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="N21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="O21" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="P21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="Q21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="R21" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="S21" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
       <c r="T21" s="13"/>
-    </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+    </row>
+    <row r="22" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>58</v>
       </c>
@@ -3017,31 +3056,31 @@
       <c r="I22" s="11">
         <v>138</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="N22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="O22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="P22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="Q22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="R22" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="S22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
       <c r="T22" s="13"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -3069,31 +3108,31 @@
       <c r="I23">
         <v>210</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3121,31 +3160,31 @@
       <c r="I24">
         <v>149</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3173,31 +3212,31 @@
       <c r="I25">
         <v>121</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>58</v>
       </c>
@@ -3225,31 +3264,31 @@
       <c r="I26" s="11">
         <v>264</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="N26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="O26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="P26" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="Q26" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="R26" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="S26" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
       <c r="T26" s="13"/>
-    </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+    </row>
+    <row r="27" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>58</v>
       </c>
@@ -3277,31 +3316,31 @@
       <c r="I27" s="11">
         <v>101</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="N27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="O27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="P27" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="Q27" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="R27" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="S27" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
       <c r="T27" s="13"/>
-    </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+    </row>
+    <row r="28" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -3329,31 +3368,31 @@
       <c r="I28" s="11">
         <v>119</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="N28" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="O28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="P28" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="Q28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N28" s="13" t="s">
+      <c r="R28" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O28" s="13" t="s">
+      <c r="S28" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
       <c r="T28" s="13"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -3381,31 +3420,31 @@
       <c r="I29">
         <v>208</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3433,31 +3472,31 @@
       <c r="I30">
         <v>152</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3485,31 +3524,31 @@
       <c r="I31">
         <v>105</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -3537,31 +3576,31 @@
       <c r="I32" s="11">
         <v>43</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="N32" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="O32" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="P32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="Q32" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="R32" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="S32" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
       <c r="T32" s="13"/>
-    </row>
-    <row r="33" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+    </row>
+    <row r="33" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -3589,31 +3628,31 @@
       <c r="I33" s="11">
         <v>34</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="N33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="O33" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="P33" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="Q33" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="R33" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O33" s="13" t="s">
+      <c r="S33" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
       <c r="T33" s="13"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3642,27 +3681,29 @@
         <v>187</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="Q34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="S34" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -3670,8 +3711,12 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -3699,28 +3744,28 @@
       <c r="I35" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="Q35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="R35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -3728,8 +3773,12 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -3757,28 +3806,28 @@
       <c r="I36" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="P36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="R36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="S36" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -3786,8 +3835,12 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -3815,28 +3868,28 @@
       <c r="I37" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -3844,8 +3897,12 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -3873,28 +3930,28 @@
       <c r="I38" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="P38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="Q38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="S38" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -3902,8 +3959,12 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
@@ -3931,28 +3992,28 @@
       <c r="I39" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="S39" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -3960,8 +4021,12 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>195</v>
       </c>
@@ -3989,28 +4054,28 @@
       <c r="I40" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="Q40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="R40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="S40" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -4018,8 +4083,12 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>195</v>
       </c>
@@ -4047,28 +4116,28 @@
       <c r="I41" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="Q41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="R41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="S41" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -4076,8 +4145,12 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>195</v>
       </c>
@@ -4105,28 +4178,28 @@
       <c r="I42" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="P42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="Q42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="R42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="S42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -4134,8 +4207,12 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+    </row>
+    <row r="43" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>58</v>
       </c>
@@ -4164,27 +4241,35 @@
         <v>199</v>
       </c>
       <c r="J43" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N43" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K43" s="14" t="s">
+      <c r="O43" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L43" s="14" t="s">
+      <c r="P43" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="M43" s="14" t="s">
+      <c r="Q43" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N43" s="14" t="s">
+      <c r="R43" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O43" s="14" t="s">
+      <c r="S43" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
@@ -4192,8 +4277,12 @@
       <c r="X43" s="14"/>
       <c r="Y43" s="14"/>
       <c r="Z43" s="14"/>
-    </row>
-    <row r="44" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+    </row>
+    <row r="44" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>58</v>
       </c>
@@ -4222,27 +4311,35 @@
         <v>201</v>
       </c>
       <c r="J44" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N44" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="O44" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L44" s="14" t="s">
+      <c r="P44" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="M44" s="14" t="s">
+      <c r="Q44" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N44" s="14" t="s">
+      <c r="R44" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O44" s="14" t="s">
+      <c r="S44" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
       <c r="T44" s="14"/>
       <c r="U44" s="14"/>
       <c r="V44" s="14"/>
@@ -4250,8 +4347,12 @@
       <c r="X44" s="14"/>
       <c r="Y44" s="14"/>
       <c r="Z44" s="14"/>
-    </row>
-    <row r="45" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+    </row>
+    <row r="45" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>58</v>
       </c>
@@ -4280,27 +4381,35 @@
         <v>186</v>
       </c>
       <c r="J45" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N45" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="O45" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L45" s="14" t="s">
+      <c r="P45" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="M45" s="14" t="s">
+      <c r="Q45" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N45" s="14" t="s">
+      <c r="R45" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O45" s="14" t="s">
+      <c r="S45" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
       <c r="T45" s="14"/>
       <c r="U45" s="14"/>
       <c r="V45" s="14"/>
@@ -4308,8 +4417,12 @@
       <c r="X45" s="14"/>
       <c r="Y45" s="14"/>
       <c r="Z45" s="14"/>
-    </row>
-    <row r="46" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+    </row>
+    <row r="46" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>58</v>
       </c>
@@ -4338,27 +4451,35 @@
         <v>201</v>
       </c>
       <c r="J46" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N46" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="O46" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L46" s="14" t="s">
+      <c r="P46" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="M46" s="14" t="s">
+      <c r="Q46" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N46" s="14" t="s">
+      <c r="R46" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O46" s="14" t="s">
+      <c r="S46" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
       <c r="T46" s="14"/>
       <c r="U46" s="14"/>
       <c r="V46" s="14"/>
@@ -4366,8 +4487,12 @@
       <c r="X46" s="14"/>
       <c r="Y46" s="14"/>
       <c r="Z46" s="14"/>
-    </row>
-    <row r="47" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14"/>
+    </row>
+    <row r="47" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>58</v>
       </c>
@@ -4396,27 +4521,35 @@
         <v>204</v>
       </c>
       <c r="J47" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M47" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N47" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="O47" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L47" s="14" t="s">
+      <c r="P47" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="M47" s="14" t="s">
+      <c r="Q47" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="R47" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O47" s="14" t="s">
+      <c r="S47" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
       <c r="T47" s="14"/>
       <c r="U47" s="14"/>
       <c r="V47" s="14"/>
@@ -4424,8 +4557,12 @@
       <c r="X47" s="14"/>
       <c r="Y47" s="14"/>
       <c r="Z47" s="14"/>
-    </row>
-    <row r="48" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+    </row>
+    <row r="48" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>58</v>
       </c>
@@ -4454,27 +4591,35 @@
         <v>193</v>
       </c>
       <c r="J48" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N48" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="O48" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L48" s="14" t="s">
+      <c r="P48" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="M48" s="14" t="s">
+      <c r="Q48" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N48" s="14" t="s">
+      <c r="R48" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O48" s="14" t="s">
+      <c r="S48" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
       <c r="T48" s="14"/>
       <c r="U48" s="14"/>
       <c r="V48" s="14"/>
@@ -4482,8 +4627,12 @@
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
-    </row>
-    <row r="49" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+    </row>
+    <row r="49" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>58</v>
       </c>
@@ -4512,27 +4661,35 @@
         <v>181</v>
       </c>
       <c r="J49" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N49" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K49" s="14" t="s">
+      <c r="O49" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L49" s="14" t="s">
+      <c r="P49" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="M49" s="14" t="s">
+      <c r="Q49" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N49" s="14" t="s">
+      <c r="R49" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O49" s="14" t="s">
+      <c r="S49" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
       <c r="T49" s="14"/>
       <c r="U49" s="14"/>
       <c r="V49" s="14"/>
@@ -4540,8 +4697,12 @@
       <c r="X49" s="14"/>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
-    </row>
-    <row r="50" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+    </row>
+    <row r="50" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>195</v>
       </c>
@@ -4570,27 +4731,35 @@
         <v>204</v>
       </c>
       <c r="J50" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N50" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K50" s="14" t="s">
+      <c r="O50" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L50" s="14" t="s">
+      <c r="P50" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="M50" s="14" t="s">
+      <c r="Q50" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N50" s="14" t="s">
+      <c r="R50" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O50" s="14" t="s">
+      <c r="S50" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
       <c r="T50" s="14"/>
       <c r="U50" s="14"/>
       <c r="V50" s="14"/>
@@ -4598,8 +4767,12 @@
       <c r="X50" s="14"/>
       <c r="Y50" s="14"/>
       <c r="Z50" s="14"/>
-    </row>
-    <row r="51" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+    </row>
+    <row r="51" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>195</v>
       </c>
@@ -4628,27 +4801,35 @@
         <v>183</v>
       </c>
       <c r="J51" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N51" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K51" s="14" t="s">
+      <c r="O51" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L51" s="14" t="s">
+      <c r="P51" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="M51" s="14" t="s">
+      <c r="Q51" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N51" s="14" t="s">
+      <c r="R51" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O51" s="14" t="s">
+      <c r="S51" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
       <c r="T51" s="14"/>
       <c r="U51" s="14"/>
       <c r="V51" s="14"/>
@@ -4656,8 +4837,12 @@
       <c r="X51" s="14"/>
       <c r="Y51" s="14"/>
       <c r="Z51" s="14"/>
-    </row>
-    <row r="52" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+    </row>
+    <row r="52" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>195</v>
       </c>
@@ -4686,27 +4871,35 @@
         <v>205</v>
       </c>
       <c r="J52" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N52" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K52" s="14" t="s">
+      <c r="O52" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L52" s="14" t="s">
+      <c r="P52" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="M52" s="14" t="s">
+      <c r="Q52" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N52" s="14" t="s">
+      <c r="R52" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O52" s="14" t="s">
+      <c r="S52" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
       <c r="T52" s="14"/>
       <c r="U52" s="14"/>
       <c r="V52" s="14"/>
@@ -4714,8 +4907,12 @@
       <c r="X52" s="14"/>
       <c r="Y52" s="14"/>
       <c r="Z52" s="14"/>
-    </row>
-    <row r="53" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="14"/>
+      <c r="AD52" s="14"/>
+    </row>
+    <row r="53" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>58</v>
       </c>
@@ -4744,27 +4941,35 @@
         <v>207</v>
       </c>
       <c r="J53" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N53" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K53" s="14" t="s">
+      <c r="O53" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L53" s="14" t="s">
+      <c r="P53" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="M53" s="14" t="s">
+      <c r="Q53" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N53" s="14" t="s">
+      <c r="R53" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O53" s="14" t="s">
+      <c r="S53" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
       <c r="T53" s="14"/>
       <c r="U53" s="14"/>
       <c r="V53" s="14"/>
@@ -4772,8 +4977,12 @@
       <c r="X53" s="14"/>
       <c r="Y53" s="14"/>
       <c r="Z53" s="14"/>
-    </row>
-    <row r="54" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+    </row>
+    <row r="54" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>195</v>
       </c>
@@ -4802,27 +5011,35 @@
         <v>182</v>
       </c>
       <c r="J54" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N54" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="K54" s="14" t="s">
+      <c r="O54" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="L54" s="14" t="s">
+      <c r="P54" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="M54" s="14" t="s">
+      <c r="Q54" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="N54" s="14" t="s">
+      <c r="R54" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="O54" s="14" t="s">
+      <c r="S54" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
       <c r="T54" s="14"/>
       <c r="U54" s="14"/>
       <c r="V54" s="14"/>
@@ -4830,8 +5047,12 @@
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
       <c r="Z54" s="14"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
+      <c r="AD54" s="14"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -4860,27 +5081,35 @@
         <v>210</v>
       </c>
       <c r="J55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N55" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="O55" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="P55" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="Q55" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="R55" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="S55" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
@@ -4888,8 +5117,12 @@
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -4918,27 +5151,35 @@
         <v>211</v>
       </c>
       <c r="J56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N56" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="O56" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="P56" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="Q56" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="R56" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="S56" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
@@ -4946,8 +5187,12 @@
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -4976,27 +5221,35 @@
         <v>182</v>
       </c>
       <c r="J57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N57" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="O57" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="P57" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="Q57" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="R57" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="S57" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
@@ -5004,8 +5257,12 @@
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -5034,27 +5291,35 @@
         <v>210</v>
       </c>
       <c r="J58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N58" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="O58" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="P58" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="Q58" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="R58" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="S58" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
@@ -5062,8 +5327,12 @@
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -5092,27 +5361,35 @@
         <v>182</v>
       </c>
       <c r="J59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N59" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="O59" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="P59" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="Q59" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="R59" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="S59" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -5120,8 +5397,12 @@
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -5150,27 +5431,35 @@
         <v>211</v>
       </c>
       <c r="J60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N60" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="O60" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="P60" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="Q60" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="R60" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="S60" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
@@ -5178,8 +5467,12 @@
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>195</v>
       </c>
@@ -5208,27 +5501,35 @@
         <v>212</v>
       </c>
       <c r="J61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N61" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="O61" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="P61" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="Q61" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="R61" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="S61" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
@@ -5236,8 +5537,12 @@
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>195</v>
       </c>
@@ -5266,27 +5571,35 @@
         <v>205</v>
       </c>
       <c r="J62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N62" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="O62" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="P62" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="Q62" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="R62" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="S62" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
@@ -5294,8 +5607,12 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
-    </row>
-    <row r="63" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+    </row>
+    <row r="63" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>195</v>
       </c>
@@ -5323,28 +5640,28 @@
       <c r="I63" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="J63" s="14" t="s">
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K63" s="14" t="s">
+      <c r="O63" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L63" s="14" t="s">
+      <c r="P63" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M63" s="14" t="s">
+      <c r="Q63" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N63" s="14" t="s">
+      <c r="R63" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O63" s="14" t="s">
+      <c r="S63" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
       <c r="T63" s="14"/>
       <c r="U63" s="14"/>
       <c r="V63" s="14"/>
@@ -5352,8 +5669,12 @@
       <c r="X63" s="14"/>
       <c r="Y63" s="14"/>
       <c r="Z63" s="14"/>
-    </row>
-    <row r="64" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
+    </row>
+    <row r="64" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>195</v>
       </c>
@@ -5381,28 +5702,28 @@
       <c r="I64" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="J64" s="14" t="s">
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K64" s="14" t="s">
+      <c r="O64" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L64" s="14" t="s">
+      <c r="P64" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M64" s="14" t="s">
+      <c r="Q64" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="14" t="s">
+      <c r="R64" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O64" s="14" t="s">
+      <c r="S64" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
       <c r="T64" s="14"/>
       <c r="U64" s="14"/>
       <c r="V64" s="14"/>
@@ -5410,8 +5731,12 @@
       <c r="X64" s="14"/>
       <c r="Y64" s="14"/>
       <c r="Z64" s="14"/>
-    </row>
-    <row r="65" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA64" s="14"/>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="14"/>
+      <c r="AD64" s="14"/>
+    </row>
+    <row r="65" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>195</v>
       </c>
@@ -5439,28 +5764,28 @@
       <c r="I65" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="J65" s="14" t="s">
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="O65" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L65" s="14" t="s">
+      <c r="P65" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M65" s="14" t="s">
+      <c r="Q65" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N65" s="14" t="s">
+      <c r="R65" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O65" s="14" t="s">
+      <c r="S65" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
       <c r="T65" s="14"/>
       <c r="U65" s="14"/>
       <c r="V65" s="14"/>
@@ -5468,8 +5793,12 @@
       <c r="X65" s="14"/>
       <c r="Y65" s="14"/>
       <c r="Z65" s="14"/>
-    </row>
-    <row r="66" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA65" s="14"/>
+      <c r="AB65" s="14"/>
+      <c r="AC65" s="14"/>
+      <c r="AD65" s="14"/>
+    </row>
+    <row r="66" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>58</v>
       </c>
@@ -5497,28 +5826,28 @@
       <c r="I66" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="J66" s="14" t="s">
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="O66" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L66" s="14" t="s">
+      <c r="P66" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M66" s="14" t="s">
+      <c r="Q66" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N66" s="14" t="s">
+      <c r="R66" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O66" s="14" t="s">
+      <c r="S66" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="14"/>
       <c r="T66" s="14"/>
       <c r="U66" s="14"/>
       <c r="V66" s="14"/>
@@ -5526,8 +5855,12 @@
       <c r="X66" s="14"/>
       <c r="Y66" s="14"/>
       <c r="Z66" s="14"/>
-    </row>
-    <row r="67" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="14"/>
+    </row>
+    <row r="67" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>58</v>
       </c>
@@ -5555,28 +5888,28 @@
       <c r="I67" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="J67" s="14" t="s">
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="O67" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L67" s="14" t="s">
+      <c r="P67" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M67" s="14" t="s">
+      <c r="Q67" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N67" s="14" t="s">
+      <c r="R67" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O67" s="14" t="s">
+      <c r="S67" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
       <c r="T67" s="14"/>
       <c r="U67" s="14"/>
       <c r="V67" s="14"/>
@@ -5584,8 +5917,12 @@
       <c r="X67" s="14"/>
       <c r="Y67" s="14"/>
       <c r="Z67" s="14"/>
-    </row>
-    <row r="68" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="14"/>
+      <c r="AC67" s="14"/>
+      <c r="AD67" s="14"/>
+    </row>
+    <row r="68" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>58</v>
       </c>
@@ -5613,28 +5950,28 @@
       <c r="I68" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="J68" s="14" t="s">
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K68" s="14" t="s">
+      <c r="O68" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L68" s="14" t="s">
+      <c r="P68" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M68" s="14" t="s">
+      <c r="Q68" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N68" s="14" t="s">
+      <c r="R68" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O68" s="14" t="s">
+      <c r="S68" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14"/>
       <c r="T68" s="14"/>
       <c r="U68" s="14"/>
       <c r="V68" s="14"/>
@@ -5642,8 +5979,12 @@
       <c r="X68" s="14"/>
       <c r="Y68" s="14"/>
       <c r="Z68" s="14"/>
-    </row>
-    <row r="69" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="14"/>
+      <c r="AD68" s="14"/>
+    </row>
+    <row r="69" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>58</v>
       </c>
@@ -5671,28 +6012,28 @@
       <c r="I69" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="O69" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L69" s="14" t="s">
+      <c r="P69" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M69" s="14" t="s">
+      <c r="Q69" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N69" s="14" t="s">
+      <c r="R69" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="14" t="s">
+      <c r="S69" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
       <c r="T69" s="14"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
@@ -5700,8 +6041,12 @@
       <c r="X69" s="14"/>
       <c r="Y69" s="14"/>
       <c r="Z69" s="14"/>
-    </row>
-    <row r="70" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="14"/>
+      <c r="AC69" s="14"/>
+      <c r="AD69" s="14"/>
+    </row>
+    <row r="70" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>58</v>
       </c>
@@ -5729,28 +6074,28 @@
       <c r="I70" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="J70" s="14" t="s">
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K70" s="14" t="s">
+      <c r="O70" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L70" s="14" t="s">
+      <c r="P70" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M70" s="14" t="s">
+      <c r="Q70" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N70" s="14" t="s">
+      <c r="R70" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O70" s="14" t="s">
+      <c r="S70" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
       <c r="T70" s="14"/>
       <c r="U70" s="14"/>
       <c r="V70" s="14"/>
@@ -5758,8 +6103,12 @@
       <c r="X70" s="14"/>
       <c r="Y70" s="14"/>
       <c r="Z70" s="14"/>
-    </row>
-    <row r="71" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="14"/>
+      <c r="AD70" s="14"/>
+    </row>
+    <row r="71" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>58</v>
       </c>
@@ -5787,28 +6136,28 @@
       <c r="I71" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="J71" s="14" t="s">
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="O71" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L71" s="14" t="s">
+      <c r="P71" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M71" s="14" t="s">
+      <c r="Q71" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N71" s="14" t="s">
+      <c r="R71" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O71" s="14" t="s">
+      <c r="S71" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
       <c r="T71" s="14"/>
       <c r="U71" s="14"/>
       <c r="V71" s="14"/>
@@ -5816,8 +6165,12 @@
       <c r="X71" s="14"/>
       <c r="Y71" s="14"/>
       <c r="Z71" s="14"/>
-    </row>
-    <row r="72" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="14"/>
+      <c r="AC71" s="14"/>
+      <c r="AD71" s="14"/>
+    </row>
+    <row r="72" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>58</v>
       </c>
@@ -5845,28 +6198,28 @@
       <c r="I72" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="J72" s="14" t="s">
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K72" s="14" t="s">
+      <c r="O72" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L72" s="14" t="s">
+      <c r="P72" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M72" s="14" t="s">
+      <c r="Q72" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N72" s="14" t="s">
+      <c r="R72" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O72" s="14" t="s">
+      <c r="S72" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
       <c r="T72" s="14"/>
       <c r="U72" s="14"/>
       <c r="V72" s="14"/>
@@ -5874,8 +6227,12 @@
       <c r="X72" s="14"/>
       <c r="Y72" s="14"/>
       <c r="Z72" s="14"/>
-    </row>
-    <row r="73" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
+      <c r="AC72" s="14"/>
+      <c r="AD72" s="14"/>
+    </row>
+    <row r="73" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>195</v>
       </c>
@@ -5903,28 +6260,28 @@
       <c r="I73" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="J73" s="14" t="s">
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="K73" s="14" t="s">
+      <c r="O73" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L73" s="14" t="s">
+      <c r="P73" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M73" s="14" t="s">
+      <c r="Q73" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="N73" s="14" t="s">
+      <c r="R73" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="O73" s="14" t="s">
+      <c r="S73" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
       <c r="T73" s="14"/>
       <c r="U73" s="14"/>
       <c r="V73" s="14"/>
@@ -5932,8 +6289,12 @@
       <c r="X73" s="14"/>
       <c r="Y73" s="14"/>
       <c r="Z73" s="14"/>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="14"/>
+      <c r="AB73" s="14"/>
+      <c r="AC73" s="14"/>
+      <c r="AD73" s="14"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>58</v>
       </c>
@@ -5961,13 +6322,13 @@
       <c r="I74" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
+      <c r="N74" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -5980,8 +6341,12 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6007,8 +6372,12 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6034,8 +6403,12 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -6061,8 +6434,12 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6088,8 +6465,12 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6115,8 +6496,12 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6142,8 +6527,12 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6169,8 +6558,12 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
-    </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6196,8 +6589,12 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6223,8 +6620,12 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6250,8 +6651,12 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
-    </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6277,8 +6682,12 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6304,8 +6713,12 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6331,8 +6744,12 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6358,8 +6775,12 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6385,8 +6806,12 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6412,8 +6837,12 @@
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6439,8 +6868,12 @@
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6466,8 +6899,12 @@
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6493,8 +6930,12 @@
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6520,8 +6961,12 @@
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6547,8 +6992,12 @@
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6574,8 +7023,12 @@
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6601,8 +7054,12 @@
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6628,8 +7085,12 @@
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
-    </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6655,8 +7116,12 @@
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6682,8 +7147,12 @@
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6709,8 +7178,12 @@
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6736,6 +7209,10 @@
       <c r="X102" s="1"/>
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6747,20 +7224,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O567" sqref="O567"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11" style="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1"/>
-    <col min="20" max="20" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6897,7 +7374,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6926,7 +7403,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6955,7 +7432,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6984,7 +7461,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7013,7 +7490,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7042,7 +7519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7071,7 +7548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7100,7 +7577,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7129,7 +7606,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7158,7 +7635,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7187,7 +7664,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7216,7 +7693,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7245,7 +7722,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7274,7 +7751,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7303,7 +7780,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7332,7 +7809,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7361,7 +7838,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7390,7 +7867,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7419,7 +7896,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7448,7 +7925,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7477,7 +7954,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7506,7 +7983,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7535,7 +8012,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7564,7 +8041,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7593,7 +8070,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7622,7 +8099,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7651,7 +8128,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7680,7 +8157,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7709,7 +8186,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7738,7 +8215,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7767,7 +8244,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -7803,7 +8280,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -7839,7 +8316,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -7875,7 +8352,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -7911,7 +8388,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -7947,7 +8424,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -7983,7 +8460,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -8019,7 +8496,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -8055,7 +8532,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -8091,7 +8568,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -8127,7 +8604,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
@@ -8163,7 +8640,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -8199,7 +8676,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13</v>
       </c>
@@ -8235,7 +8712,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14</v>
       </c>
@@ -8271,7 +8748,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15</v>
       </c>
@@ -8307,7 +8784,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
@@ -8343,7 +8820,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>17</v>
       </c>
@@ -8379,7 +8856,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>18</v>
       </c>
@@ -8415,7 +8892,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>19</v>
       </c>
@@ -8451,7 +8928,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20</v>
       </c>
@@ -8487,7 +8964,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>21</v>
       </c>
@@ -8523,7 +9000,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>22</v>
       </c>
@@ -8559,7 +9036,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>23</v>
       </c>
@@ -8595,7 +9072,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>24</v>
       </c>
@@ -8631,7 +9108,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>25</v>
       </c>
@@ -8667,7 +9144,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>26</v>
       </c>
@@ -8703,7 +9180,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>27</v>
       </c>
@@ -8739,7 +9216,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>28</v>
       </c>
@@ -8775,7 +9252,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>29</v>
       </c>
@@ -8811,7 +9288,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>30</v>
       </c>
@@ -8847,7 +9324,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -8883,7 +9360,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -8919,7 +9396,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -8955,7 +9432,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -8991,7 +9468,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -9027,7 +9504,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6</v>
       </c>
@@ -9063,7 +9540,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
@@ -9099,7 +9576,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
@@ -9135,7 +9612,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
@@ -9171,7 +9648,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10</v>
       </c>
@@ -9207,7 +9684,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>11</v>
       </c>
@@ -9243,7 +9720,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12</v>
       </c>
@@ -9279,7 +9756,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13</v>
       </c>
@@ -9315,7 +9792,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>14</v>
       </c>
@@ -9351,7 +9828,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15</v>
       </c>
@@ -9387,7 +9864,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -9423,7 +9900,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>17</v>
       </c>
@@ -9459,7 +9936,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>18</v>
       </c>
@@ -9495,7 +9972,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>19</v>
       </c>
@@ -9531,7 +10008,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
@@ -9567,7 +10044,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21</v>
       </c>
@@ -9603,7 +10080,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>22</v>
       </c>
@@ -9639,7 +10116,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>23</v>
       </c>
@@ -9675,7 +10152,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>24</v>
       </c>
@@ -9711,7 +10188,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>25</v>
       </c>
@@ -9747,7 +10224,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>26</v>
       </c>
@@ -9783,7 +10260,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>27</v>
       </c>
@@ -9819,7 +10296,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>28</v>
       </c>
@@ -9855,7 +10332,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>29</v>
       </c>
@@ -9891,7 +10368,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>30</v>
       </c>
@@ -9927,7 +10404,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -9980,7 +10457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -10027,7 +10504,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -10074,7 +10551,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -10124,7 +10601,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -10174,7 +10651,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -10221,7 +10698,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7</v>
       </c>
@@ -10271,7 +10748,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>8</v>
       </c>
@@ -10321,7 +10798,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
@@ -10371,7 +10848,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
@@ -10421,7 +10898,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11</v>
       </c>
@@ -10468,7 +10945,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12</v>
       </c>
@@ -10518,7 +10995,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>13</v>
       </c>
@@ -10568,7 +11045,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14</v>
       </c>
@@ -10618,7 +11095,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>15</v>
       </c>
@@ -10668,7 +11145,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>16</v>
       </c>
@@ -10718,7 +11195,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>17</v>
       </c>
@@ -10765,7 +11242,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>18</v>
       </c>
@@ -10815,7 +11292,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>19</v>
       </c>
@@ -10862,7 +11339,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>20</v>
       </c>
@@ -10912,7 +11389,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>21</v>
       </c>
@@ -10962,7 +11439,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>22</v>
       </c>
@@ -11009,7 +11486,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>23</v>
       </c>
@@ -11059,7 +11536,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>24</v>
       </c>
@@ -11106,7 +11583,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>25</v>
       </c>
@@ -11156,7 +11633,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>26</v>
       </c>
@@ -11203,7 +11680,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>27</v>
       </c>
@@ -11250,7 +11727,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>28</v>
       </c>
@@ -11300,7 +11777,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>29</v>
       </c>
@@ -11350,7 +11827,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>30</v>
       </c>
@@ -11397,7 +11874,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>31</v>
       </c>
@@ -11447,7 +11924,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>32</v>
       </c>
@@ -11494,7 +11971,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>33</v>
       </c>
@@ -11541,7 +12018,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>34</v>
       </c>
@@ -11591,7 +12068,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>35</v>
       </c>
@@ -11641,7 +12118,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>36</v>
       </c>
@@ -11688,7 +12165,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>37</v>
       </c>
@@ -11738,7 +12215,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>38</v>
       </c>
@@ -11788,7 +12265,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -11838,7 +12315,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>40</v>
       </c>
@@ -11885,7 +12362,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>41</v>
       </c>
@@ -11935,7 +12412,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>42</v>
       </c>
@@ -11985,7 +12462,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>43</v>
       </c>
@@ -12032,7 +12509,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>44</v>
       </c>
@@ -12082,7 +12559,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>45</v>
       </c>
@@ -12129,7 +12606,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>46</v>
       </c>
@@ -12167,7 +12644,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>47</v>
       </c>
@@ -12208,7 +12685,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -12258,7 +12735,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2</v>
       </c>
@@ -12308,7 +12785,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -12358,7 +12835,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -12408,7 +12885,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -12458,7 +12935,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -12508,7 +12985,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7</v>
       </c>
@@ -12558,7 +13035,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>8</v>
       </c>
@@ -12608,7 +13085,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>9</v>
       </c>
@@ -12655,7 +13132,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>10</v>
       </c>
@@ -12705,7 +13182,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>11</v>
       </c>
@@ -12752,7 +13229,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>12</v>
       </c>
@@ -12799,7 +13276,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>13</v>
       </c>
@@ -12849,7 +13326,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>14</v>
       </c>
@@ -12899,7 +13376,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>15</v>
       </c>
@@ -12949,7 +13426,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>16</v>
       </c>
@@ -12996,7 +13473,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>17</v>
       </c>
@@ -13046,7 +13523,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>18</v>
       </c>
@@ -13096,7 +13573,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>19</v>
       </c>
@@ -13146,7 +13623,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>20</v>
       </c>
@@ -13193,7 +13670,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>21</v>
       </c>
@@ -13243,7 +13720,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>22</v>
       </c>
@@ -13290,7 +13767,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>23</v>
       </c>
@@ -13340,7 +13817,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>24</v>
       </c>
@@ -13387,7 +13864,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>25</v>
       </c>
@@ -13434,7 +13911,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>26</v>
       </c>
@@ -13484,7 +13961,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>27</v>
       </c>
@@ -13531,7 +14008,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>28</v>
       </c>
@@ -13578,7 +14055,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>29</v>
       </c>
@@ -13628,7 +14105,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>30</v>
       </c>
@@ -13678,7 +14155,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>31</v>
       </c>
@@ -13728,7 +14205,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>32</v>
       </c>
@@ -13778,7 +14255,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>33</v>
       </c>
@@ -13828,7 +14305,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>34</v>
       </c>
@@ -13878,7 +14355,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>35</v>
       </c>
@@ -13928,7 +14405,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>36</v>
       </c>
@@ -13978,7 +14455,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>37</v>
       </c>
@@ -14028,7 +14505,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>38</v>
       </c>
@@ -14075,7 +14552,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>39</v>
       </c>
@@ -14125,7 +14602,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>40</v>
       </c>
@@ -14175,7 +14652,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>41</v>
       </c>
@@ -14225,7 +14702,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>42</v>
       </c>
@@ -14272,7 +14749,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>43</v>
       </c>
@@ -14319,7 +14796,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>44</v>
       </c>
@@ -14369,7 +14846,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>45</v>
       </c>
@@ -14416,7 +14893,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>46</v>
       </c>
@@ -14454,7 +14931,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>47</v>
       </c>
@@ -14495,7 +14972,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -14524,7 +15001,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2</v>
       </c>
@@ -14553,7 +15030,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3</v>
       </c>
@@ -14582,7 +15059,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>4</v>
       </c>
@@ -14611,7 +15088,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>5</v>
       </c>
@@ -14640,7 +15117,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>6</v>
       </c>
@@ -14669,7 +15146,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>7</v>
       </c>
@@ -14698,7 +15175,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8</v>
       </c>
@@ -14727,7 +15204,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9</v>
       </c>
@@ -14756,7 +15233,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>10</v>
       </c>
@@ -14785,7 +15262,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>11</v>
       </c>
@@ -14814,7 +15291,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>12</v>
       </c>
@@ -14843,7 +15320,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>13</v>
       </c>
@@ -14872,7 +15349,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>14</v>
       </c>
@@ -14901,7 +15378,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>15</v>
       </c>
@@ -14930,7 +15407,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>16</v>
       </c>
@@ -14959,7 +15436,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>17</v>
       </c>
@@ -14988,7 +15465,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>18</v>
       </c>
@@ -15017,7 +15494,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>19</v>
       </c>
@@ -15046,7 +15523,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>20</v>
       </c>
@@ -15075,7 +15552,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>21</v>
       </c>
@@ -15104,7 +15581,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>22</v>
       </c>
@@ -15133,7 +15610,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>23</v>
       </c>
@@ -15162,7 +15639,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>24</v>
       </c>
@@ -15191,7 +15668,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>25</v>
       </c>
@@ -15220,7 +15697,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>26</v>
       </c>
@@ -15249,7 +15726,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>27</v>
       </c>
@@ -15278,7 +15755,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>28</v>
       </c>
@@ -15307,7 +15784,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>29</v>
       </c>
@@ -15336,7 +15813,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>30</v>
       </c>
@@ -15365,7 +15842,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -15401,7 +15878,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2</v>
       </c>
@@ -15437,7 +15914,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>3</v>
       </c>
@@ -15473,7 +15950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4</v>
       </c>
@@ -15509,7 +15986,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5</v>
       </c>
@@ -15545,7 +16022,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>6</v>
       </c>
@@ -15581,7 +16058,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>7</v>
       </c>
@@ -15617,7 +16094,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>8</v>
       </c>
@@ -15653,7 +16130,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>9</v>
       </c>
@@ -15689,7 +16166,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>10</v>
       </c>
@@ -15725,7 +16202,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>11</v>
       </c>
@@ -15761,7 +16238,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>12</v>
       </c>
@@ -15797,7 +16274,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>13</v>
       </c>
@@ -15833,7 +16310,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>14</v>
       </c>
@@ -15869,7 +16346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>15</v>
       </c>
@@ -15905,7 +16382,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>16</v>
       </c>
@@ -15941,7 +16418,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>17</v>
       </c>
@@ -15977,7 +16454,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>18</v>
       </c>
@@ -16013,7 +16490,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>19</v>
       </c>
@@ -16049,7 +16526,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>20</v>
       </c>
@@ -16085,7 +16562,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>21</v>
       </c>
@@ -16121,7 +16598,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>22</v>
       </c>
@@ -16157,7 +16634,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>23</v>
       </c>
@@ -16193,7 +16670,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>24</v>
       </c>
@@ -16229,7 +16706,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>25</v>
       </c>
@@ -16265,7 +16742,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>26</v>
       </c>
@@ -16301,7 +16778,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>27</v>
       </c>
@@ -16337,7 +16814,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>28</v>
       </c>
@@ -16373,7 +16850,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>29</v>
       </c>
@@ -16409,7 +16886,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>30</v>
       </c>
@@ -16445,7 +16922,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -16481,7 +16958,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>2</v>
       </c>
@@ -16517,7 +16994,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>3</v>
       </c>
@@ -16553,7 +17030,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>4</v>
       </c>
@@ -16589,7 +17066,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>5</v>
       </c>
@@ -16625,7 +17102,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>6</v>
       </c>
@@ -16661,7 +17138,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>7</v>
       </c>
@@ -16697,7 +17174,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>8</v>
       </c>
@@ -16733,7 +17210,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>9</v>
       </c>
@@ -16769,7 +17246,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>10</v>
       </c>
@@ -16805,7 +17282,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>11</v>
       </c>
@@ -16841,7 +17318,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>12</v>
       </c>
@@ -16877,7 +17354,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>13</v>
       </c>
@@ -16913,7 +17390,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>14</v>
       </c>
@@ -16949,7 +17426,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>15</v>
       </c>
@@ -16985,7 +17462,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16</v>
       </c>
@@ -17021,7 +17498,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>17</v>
       </c>
@@ -17057,7 +17534,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>18</v>
       </c>
@@ -17093,7 +17570,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>19</v>
       </c>
@@ -17129,7 +17606,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>20</v>
       </c>
@@ -17165,7 +17642,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>21</v>
       </c>
@@ -17201,7 +17678,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>22</v>
       </c>
@@ -17237,7 +17714,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>23</v>
       </c>
@@ -17273,7 +17750,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>24</v>
       </c>
@@ -17309,7 +17786,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>25</v>
       </c>
@@ -17345,7 +17822,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>26</v>
       </c>
@@ -17381,7 +17858,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>27</v>
       </c>
@@ -17417,7 +17894,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>28</v>
       </c>
@@ -17453,7 +17930,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>29</v>
       </c>
@@ -17489,7 +17966,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>30</v>
       </c>
@@ -17525,7 +18002,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1</v>
       </c>
@@ -17569,7 +18046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
@@ -17610,7 +18087,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3</v>
       </c>
@@ -17651,7 +18128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>4</v>
       </c>
@@ -17692,7 +18169,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>5</v>
       </c>
@@ -17733,7 +18210,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>6</v>
       </c>
@@ -17774,7 +18251,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>7</v>
       </c>
@@ -17815,7 +18292,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>8</v>
       </c>
@@ -17856,7 +18333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>9</v>
       </c>
@@ -17897,7 +18374,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>10</v>
       </c>
@@ -17938,7 +18415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>11</v>
       </c>
@@ -17979,7 +18456,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>12</v>
       </c>
@@ -18020,7 +18497,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>13</v>
       </c>
@@ -18061,7 +18538,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>14</v>
       </c>
@@ -18102,7 +18579,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>15</v>
       </c>
@@ -18143,7 +18620,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>16</v>
       </c>
@@ -18184,7 +18661,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>17</v>
       </c>
@@ -18225,7 +18702,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>18</v>
       </c>
@@ -18266,7 +18743,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>19</v>
       </c>
@@ -18307,7 +18784,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>20</v>
       </c>
@@ -18351,7 +18828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>21</v>
       </c>
@@ -18389,7 +18866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>22</v>
       </c>
@@ -18427,7 +18904,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1</v>
       </c>
@@ -18471,7 +18948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -18512,7 +18989,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>3</v>
       </c>
@@ -18553,7 +19030,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>4</v>
       </c>
@@ -18594,7 +19071,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>5</v>
       </c>
@@ -18635,7 +19112,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>6</v>
       </c>
@@ -18676,7 +19153,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>7</v>
       </c>
@@ -18717,7 +19194,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>8</v>
       </c>
@@ -18758,7 +19235,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>9</v>
       </c>
@@ -18799,7 +19276,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>10</v>
       </c>
@@ -18840,7 +19317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>11</v>
       </c>
@@ -18881,7 +19358,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>12</v>
       </c>
@@ -18922,7 +19399,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>13</v>
       </c>
@@ -18963,7 +19440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>14</v>
       </c>
@@ -19004,7 +19481,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>15</v>
       </c>
@@ -19045,7 +19522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>16</v>
       </c>
@@ -19086,7 +19563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>17</v>
       </c>
@@ -19127,7 +19604,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>18</v>
       </c>
@@ -19168,7 +19645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>19</v>
       </c>
@@ -19209,7 +19686,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>20</v>
       </c>
@@ -19250,7 +19727,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>21</v>
       </c>
@@ -19285,7 +19762,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>22</v>
       </c>
@@ -19323,7 +19800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1</v>
       </c>
@@ -19352,7 +19829,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2</v>
       </c>
@@ -19381,7 +19858,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>3</v>
       </c>
@@ -19410,7 +19887,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>4</v>
       </c>
@@ -19439,7 +19916,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>5</v>
       </c>
@@ -19468,7 +19945,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>6</v>
       </c>
@@ -19497,7 +19974,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>7</v>
       </c>
@@ -19526,7 +20003,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>8</v>
       </c>
@@ -19555,7 +20032,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>9</v>
       </c>
@@ -19584,7 +20061,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>10</v>
       </c>
@@ -19613,7 +20090,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>11</v>
       </c>
@@ -19642,7 +20119,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>12</v>
       </c>
@@ -19671,7 +20148,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>13</v>
       </c>
@@ -19700,7 +20177,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>14</v>
       </c>
@@ -19729,7 +20206,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>15</v>
       </c>
@@ -19758,7 +20235,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>16</v>
       </c>
@@ -19787,7 +20264,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>17</v>
       </c>
@@ -19816,7 +20293,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>18</v>
       </c>
@@ -19845,7 +20322,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>19</v>
       </c>
@@ -19874,7 +20351,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>20</v>
       </c>
@@ -19903,7 +20380,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>21</v>
       </c>
@@ -19932,7 +20409,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>22</v>
       </c>
@@ -19961,7 +20438,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>23</v>
       </c>
@@ -19990,7 +20467,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>24</v>
       </c>
@@ -20019,7 +20496,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>25</v>
       </c>
@@ -20048,7 +20525,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>26</v>
       </c>
@@ -20077,7 +20554,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>27</v>
       </c>
@@ -20106,7 +20583,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>28</v>
       </c>
@@ -20135,7 +20612,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>29</v>
       </c>
@@ -20164,7 +20641,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>30</v>
       </c>
@@ -20193,7 +20670,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1</v>
       </c>
@@ -20219,14 +20696,14 @@
         <v>86</v>
       </c>
       <c r="Z350" t="str">
-        <f t="shared" ref="Z321:Z384" si="2">"A8"&amp;Y350&amp;"-"&amp;AC350</f>
+        <f t="shared" ref="Z350:Z384" si="2">"A8"&amp;Y350&amp;"-"&amp;AC350</f>
         <v>A8RT-H5</v>
       </c>
       <c r="AC350" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2</v>
       </c>
@@ -20259,7 +20736,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>3</v>
       </c>
@@ -20292,7 +20769,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>4</v>
       </c>
@@ -20325,7 +20802,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>5</v>
       </c>
@@ -20358,7 +20835,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>6</v>
       </c>
@@ -20391,7 +20868,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>7</v>
       </c>
@@ -20424,7 +20901,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>8</v>
       </c>
@@ -20457,7 +20934,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>9</v>
       </c>
@@ -20490,7 +20967,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>10</v>
       </c>
@@ -20523,7 +21000,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>11</v>
       </c>
@@ -20556,7 +21033,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>12</v>
       </c>
@@ -20589,7 +21066,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>13</v>
       </c>
@@ -20622,7 +21099,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>14</v>
       </c>
@@ -20655,7 +21132,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>15</v>
       </c>
@@ -20688,7 +21165,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>16</v>
       </c>
@@ -20721,7 +21198,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>17</v>
       </c>
@@ -20754,7 +21231,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>18</v>
       </c>
@@ -20787,7 +21264,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>19</v>
       </c>
@@ -20820,7 +21297,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>20</v>
       </c>
@@ -20853,7 +21330,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>21</v>
       </c>
@@ -20886,7 +21363,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>22</v>
       </c>
@@ -20919,7 +21396,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>23</v>
       </c>
@@ -20952,7 +21429,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>24</v>
       </c>
@@ -20985,7 +21462,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>25</v>
       </c>
@@ -21018,7 +21495,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>26</v>
       </c>
@@ -21051,7 +21528,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>27</v>
       </c>
@@ -21084,7 +21561,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>28</v>
       </c>
@@ -21117,7 +21594,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>29</v>
       </c>
@@ -21150,7 +21627,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>30</v>
       </c>
@@ -21183,7 +21660,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1</v>
       </c>
@@ -21216,7 +21693,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -21249,7 +21726,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>3</v>
       </c>
@@ -21282,7 +21759,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>4</v>
       </c>
@@ -21315,7 +21792,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>5</v>
       </c>
@@ -21348,7 +21825,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6</v>
       </c>
@@ -21381,7 +21858,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>7</v>
       </c>
@@ -21414,7 +21891,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>8</v>
       </c>
@@ -21447,7 +21924,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>9</v>
       </c>
@@ -21480,7 +21957,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>10</v>
       </c>
@@ -21513,7 +21990,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>11</v>
       </c>
@@ -21546,7 +22023,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>12</v>
       </c>
@@ -21579,7 +22056,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>13</v>
       </c>
@@ -21612,7 +22089,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>14</v>
       </c>
@@ -21645,7 +22122,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>15</v>
       </c>
@@ -21678,7 +22155,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>16</v>
       </c>
@@ -21711,7 +22188,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>17</v>
       </c>
@@ -21744,7 +22221,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="397" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>18</v>
       </c>
@@ -21777,7 +22254,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>19</v>
       </c>
@@ -21810,7 +22287,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="399" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>20</v>
       </c>
@@ -21843,7 +22320,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="400" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>21</v>
       </c>
@@ -21876,7 +22353,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="401" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>22</v>
       </c>
@@ -21909,7 +22386,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="402" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>23</v>
       </c>
@@ -21942,7 +22419,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>24</v>
       </c>
@@ -21975,7 +22452,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="404" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>25</v>
       </c>
@@ -22008,7 +22485,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="405" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>26</v>
       </c>
@@ -22041,7 +22518,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="406" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>27</v>
       </c>
@@ -22074,7 +22551,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="407" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>28</v>
       </c>
@@ -22107,7 +22584,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="408" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>29</v>
       </c>
@@ -22140,7 +22617,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="409" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>30</v>
       </c>
@@ -22173,7 +22650,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="410" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1</v>
       </c>
@@ -22202,7 +22679,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="411" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2</v>
       </c>
@@ -22231,7 +22708,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="412" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>3</v>
       </c>
@@ -22260,7 +22737,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="413" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>4</v>
       </c>
@@ -22289,7 +22766,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="414" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>5</v>
       </c>
@@ -22318,7 +22795,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="415" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>6</v>
       </c>
@@ -22347,7 +22824,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="416" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>7</v>
       </c>
@@ -22376,7 +22853,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>8</v>
       </c>
@@ -22405,7 +22882,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="418" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>9</v>
       </c>
@@ -22434,7 +22911,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>10</v>
       </c>
@@ -22463,7 +22940,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="420" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>11</v>
       </c>
@@ -22492,7 +22969,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="421" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>12</v>
       </c>
@@ -22521,7 +22998,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>13</v>
       </c>
@@ -22550,7 +23027,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="423" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>14</v>
       </c>
@@ -22579,7 +23056,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>15</v>
       </c>
@@ -22608,7 +23085,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="425" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>16</v>
       </c>
@@ -22637,7 +23114,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>17</v>
       </c>
@@ -22666,7 +23143,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="427" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>18</v>
       </c>
@@ -22695,7 +23172,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>19</v>
       </c>
@@ -22724,7 +23201,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="429" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>20</v>
       </c>
@@ -22753,7 +23230,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>21</v>
       </c>
@@ -22782,7 +23259,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="431" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>22</v>
       </c>
@@ -22811,7 +23288,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>23</v>
       </c>
@@ -22840,7 +23317,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="433" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>24</v>
       </c>
@@ -22869,7 +23346,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="434" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>25</v>
       </c>
@@ -22898,7 +23375,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="435" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>26</v>
       </c>
@@ -22927,7 +23404,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>27</v>
       </c>
@@ -22956,7 +23433,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="437" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>28</v>
       </c>
@@ -22985,7 +23462,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="438" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>29</v>
       </c>
@@ -23014,7 +23491,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="439" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>30</v>
       </c>
@@ -23043,7 +23520,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="440" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>1</v>
       </c>
@@ -23076,7 +23553,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="441" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2</v>
       </c>
@@ -23109,7 +23586,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="442" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>3</v>
       </c>
@@ -23142,7 +23619,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>4</v>
       </c>
@@ -23175,7 +23652,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>5</v>
       </c>
@@ -23208,7 +23685,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="445" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>6</v>
       </c>
@@ -23241,7 +23718,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="446" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>7</v>
       </c>
@@ -23274,7 +23751,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>8</v>
       </c>
@@ -23307,7 +23784,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>9</v>
       </c>
@@ -23340,7 +23817,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>10</v>
       </c>
@@ -23373,7 +23850,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>11</v>
       </c>
@@ -23406,7 +23883,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="451" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>12</v>
       </c>
@@ -23439,7 +23916,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>13</v>
       </c>
@@ -23472,7 +23949,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>14</v>
       </c>
@@ -23505,7 +23982,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>15</v>
       </c>
@@ -23538,7 +24015,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>16</v>
       </c>
@@ -23571,7 +24048,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>17</v>
       </c>
@@ -23604,7 +24081,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>18</v>
       </c>
@@ -23637,7 +24114,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="458" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>19</v>
       </c>
@@ -23670,7 +24147,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>20</v>
       </c>
@@ -23703,7 +24180,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="460" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>21</v>
       </c>
@@ -23736,7 +24213,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="461" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>22</v>
       </c>
@@ -23769,7 +24246,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="462" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>23</v>
       </c>
@@ -23802,7 +24279,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="463" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>24</v>
       </c>
@@ -23835,7 +24312,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="464" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>25</v>
       </c>
@@ -23868,7 +24345,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>26</v>
       </c>
@@ -23901,7 +24378,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="466" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>27</v>
       </c>
@@ -23934,7 +24411,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="467" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>28</v>
       </c>
@@ -23967,7 +24444,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="468" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>29</v>
       </c>
@@ -24000,7 +24477,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="469" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>30</v>
       </c>
@@ -24033,7 +24510,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="470" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>1</v>
       </c>
@@ -24066,7 +24543,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="471" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2</v>
       </c>
@@ -24099,7 +24576,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="472" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>3</v>
       </c>
@@ -24132,7 +24609,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="473" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>4</v>
       </c>
@@ -24165,7 +24642,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="474" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>5</v>
       </c>
@@ -24198,7 +24675,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="475" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>6</v>
       </c>
@@ -24231,7 +24708,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="476" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>7</v>
       </c>
@@ -24264,7 +24741,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="477" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>8</v>
       </c>
@@ -24297,7 +24774,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="478" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>9</v>
       </c>
@@ -24330,7 +24807,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="479" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>10</v>
       </c>
@@ -24363,7 +24840,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="480" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>11</v>
       </c>
@@ -24396,7 +24873,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>12</v>
       </c>
@@ -24429,7 +24906,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>13</v>
       </c>
@@ -24462,7 +24939,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>14</v>
       </c>
@@ -24495,7 +24972,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>15</v>
       </c>
@@ -24528,7 +25005,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>16</v>
       </c>
@@ -24561,7 +25038,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>17</v>
       </c>
@@ -24594,7 +25071,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>18</v>
       </c>
@@ -24627,7 +25104,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="488" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>19</v>
       </c>
@@ -24660,7 +25137,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>20</v>
       </c>
@@ -24693,7 +25170,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>21</v>
       </c>
@@ -24726,7 +25203,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>22</v>
       </c>
@@ -24759,7 +25236,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>23</v>
       </c>
@@ -24792,7 +25269,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="493" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>24</v>
       </c>
@@ -24825,7 +25302,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="494" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>25</v>
       </c>
@@ -24858,7 +25335,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="495" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>26</v>
       </c>
@@ -24891,7 +25368,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="496" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>27</v>
       </c>
@@ -24924,7 +25401,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="497" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>28</v>
       </c>
@@ -24957,7 +25434,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="498" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>29</v>
       </c>
@@ -24990,7 +25467,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="499" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>30</v>
       </c>
@@ -25023,7 +25500,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="500" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>1</v>
       </c>
@@ -25052,7 +25529,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="501" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -25081,7 +25558,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="502" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>3</v>
       </c>
@@ -25110,7 +25587,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="503" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>4</v>
       </c>
@@ -25139,7 +25616,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="504" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>5</v>
       </c>
@@ -25168,7 +25645,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="505" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>6</v>
       </c>
@@ -25197,7 +25674,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="506" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>7</v>
       </c>
@@ -25226,7 +25703,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="507" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>8</v>
       </c>
@@ -25255,7 +25732,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="508" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>9</v>
       </c>
@@ -25284,7 +25761,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="509" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>10</v>
       </c>
@@ -25313,7 +25790,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="510" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>11</v>
       </c>
@@ -25342,7 +25819,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="511" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>12</v>
       </c>
@@ -25371,7 +25848,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="512" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>13</v>
       </c>
@@ -25400,7 +25877,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="513" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>14</v>
       </c>
@@ -25429,7 +25906,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="514" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>15</v>
       </c>
@@ -25458,7 +25935,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="515" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>16</v>
       </c>
@@ -25487,7 +25964,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="516" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>17</v>
       </c>
@@ -25516,7 +25993,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="517" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>18</v>
       </c>
@@ -25545,7 +26022,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="518" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>19</v>
       </c>
@@ -25574,7 +26051,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="519" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>20</v>
       </c>
@@ -25603,7 +26080,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="520" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>21</v>
       </c>
@@ -25632,7 +26109,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="521" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>22</v>
       </c>
@@ -25661,7 +26138,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="522" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>23</v>
       </c>
@@ -25690,7 +26167,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="523" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>24</v>
       </c>
@@ -25719,7 +26196,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="524" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>25</v>
       </c>
@@ -25748,7 +26225,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="525" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>26</v>
       </c>
@@ -25777,7 +26254,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="526" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>27</v>
       </c>
@@ -25806,7 +26283,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="527" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>28</v>
       </c>
@@ -25835,7 +26312,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="528" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>29</v>
       </c>
@@ -25864,7 +26341,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="529" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>30</v>
       </c>
@@ -25893,7 +26370,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="530" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>1</v>
       </c>
@@ -25926,7 +26403,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="531" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2</v>
       </c>
@@ -25959,7 +26436,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="532" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>3</v>
       </c>
@@ -25992,7 +26469,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="533" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>4</v>
       </c>
@@ -26025,7 +26502,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="534" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>5</v>
       </c>
@@ -26058,7 +26535,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="535" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>6</v>
       </c>
@@ -26091,7 +26568,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="536" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>7</v>
       </c>
@@ -26124,7 +26601,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="537" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>8</v>
       </c>
@@ -26157,7 +26634,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="538" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>9</v>
       </c>
@@ -26190,7 +26667,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="539" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>10</v>
       </c>
@@ -26223,7 +26700,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="540" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>11</v>
       </c>
@@ -26256,7 +26733,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="541" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>12</v>
       </c>
@@ -26289,7 +26766,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="542" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>13</v>
       </c>
@@ -26322,7 +26799,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="543" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>14</v>
       </c>
@@ -26355,7 +26832,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="544" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>15</v>
       </c>
@@ -26388,7 +26865,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="545" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>16</v>
       </c>
@@ -26421,7 +26898,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="546" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>17</v>
       </c>
@@ -26454,7 +26931,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="547" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>18</v>
       </c>
@@ -26487,7 +26964,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="548" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>19</v>
       </c>
@@ -26520,7 +26997,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="549" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>20</v>
       </c>
@@ -26553,7 +27030,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="550" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>21</v>
       </c>
@@ -26586,7 +27063,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="551" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>22</v>
       </c>
@@ -26619,7 +27096,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="552" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>23</v>
       </c>
@@ -26652,7 +27129,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="553" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>24</v>
       </c>
@@ -26685,7 +27162,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="554" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>25</v>
       </c>
@@ -26718,7 +27195,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="555" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>26</v>
       </c>
@@ -26751,7 +27228,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="556" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>27</v>
       </c>
@@ -26784,7 +27261,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="557" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>28</v>
       </c>
@@ -26817,7 +27294,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="558" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>29</v>
       </c>
@@ -26850,7 +27327,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="559" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>30</v>
       </c>
@@ -26883,7 +27360,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="560" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>1</v>
       </c>
@@ -26916,7 +27393,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="561" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>2</v>
       </c>
@@ -26949,7 +27426,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="562" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>3</v>
       </c>
@@ -26982,7 +27459,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="563" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>4</v>
       </c>
@@ -27015,7 +27492,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="564" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>5</v>
       </c>
@@ -27048,7 +27525,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="565" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>6</v>
       </c>
@@ -27081,7 +27558,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="566" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>7</v>
       </c>
@@ -27114,7 +27591,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="567" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>8</v>
       </c>
@@ -27147,7 +27624,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="568" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>9</v>
       </c>
@@ -27180,7 +27657,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="569" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>10</v>
       </c>
@@ -27213,7 +27690,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="570" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>11</v>
       </c>
@@ -27246,7 +27723,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="571" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>12</v>
       </c>
@@ -27279,7 +27756,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="572" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>13</v>
       </c>
@@ -27312,7 +27789,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="573" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>14</v>
       </c>
@@ -27345,7 +27822,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="574" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>15</v>
       </c>
@@ -27378,7 +27855,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="575" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>16</v>
       </c>
@@ -27411,7 +27888,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="576" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>17</v>
       </c>
@@ -27444,7 +27921,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="577" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>18</v>
       </c>
@@ -27477,7 +27954,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="578" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>19</v>
       </c>
@@ -27510,7 +27987,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="579" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>20</v>
       </c>
@@ -27543,7 +28020,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="580" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>21</v>
       </c>
@@ -27576,7 +28053,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="581" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>22</v>
       </c>
@@ -27609,7 +28086,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="582" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>23</v>
       </c>
@@ -27642,7 +28119,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="583" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>24</v>
       </c>
@@ -27675,7 +28152,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="584" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>25</v>
       </c>
@@ -27708,7 +28185,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="585" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>26</v>
       </c>
@@ -27741,7 +28218,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="586" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>27</v>
       </c>
@@ -27774,7 +28251,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="587" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>28</v>
       </c>
@@ -27807,7 +28284,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="588" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>29</v>
       </c>
@@ -27840,7 +28317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="589" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>30</v>
       </c>
@@ -27887,14 +28364,14 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -27923,7 +28400,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -27953,7 +28430,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -27983,169 +28460,169 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>229</v>
       </c>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6133F54-EA1B-4402-AF9A-6000F53608F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313EC8B3-708F-4557-94BD-04BFB496F539}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -1966,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
@@ -7224,9 +7224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS589"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O567" sqref="O567"/>
+      <selection pane="bottomLeft" activeCell="M537" sqref="M537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313EC8B3-708F-4557-94BD-04BFB496F539}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068BD75B-6C68-4C71-B0AF-74E27898F60C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -7224,9 +7224,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M537" sqref="M537"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z530" sqref="Z530:Z589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23546,8 +23546,8 @@
         <v>86</v>
       </c>
       <c r="Z440" t="str">
-        <f t="shared" ref="Z440:Z499" si="4">"A8"&amp;Y440&amp;"-"&amp;AC440</f>
-        <v>A8RT-B8</v>
+        <f>"A9"&amp;Y440&amp;"-"&amp;AC440</f>
+        <v>A9RT-B8</v>
       </c>
       <c r="AC440" t="s">
         <v>174</v>
@@ -23579,8 +23579,8 @@
         <v>86</v>
       </c>
       <c r="Z441" t="str">
-        <f t="shared" si="4"/>
-        <v>A8RT-A11</v>
+        <f t="shared" ref="Z441:Z499" si="4">"A9"&amp;Y441&amp;"-"&amp;AC441</f>
+        <v>A9RT-A11</v>
       </c>
       <c r="AC441" t="s">
         <v>239</v>
@@ -23613,7 +23613,7 @@
       </c>
       <c r="Z442" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-B3</v>
+        <v>A9RT-B3</v>
       </c>
       <c r="AC442" t="s">
         <v>244</v>
@@ -23646,7 +23646,7 @@
       </c>
       <c r="Z443" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-H8</v>
+        <v>A9RT-H8</v>
       </c>
       <c r="AC443" t="s">
         <v>153</v>
@@ -23679,7 +23679,7 @@
       </c>
       <c r="Z444" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-G4</v>
+        <v>A9RT-G4</v>
       </c>
       <c r="AC444" t="s">
         <v>245</v>
@@ -23712,7 +23712,7 @@
       </c>
       <c r="Z445" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-E12</v>
+        <v>A9RT-E12</v>
       </c>
       <c r="AC445" t="s">
         <v>176</v>
@@ -23745,7 +23745,7 @@
       </c>
       <c r="Z446" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-G5</v>
+        <v>A9RT-G5</v>
       </c>
       <c r="AC446" t="s">
         <v>432</v>
@@ -23778,7 +23778,7 @@
       </c>
       <c r="Z447" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-B2</v>
+        <v>A9RT-B2</v>
       </c>
       <c r="AC447" t="s">
         <v>143</v>
@@ -23811,7 +23811,7 @@
       </c>
       <c r="Z448" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-C9</v>
+        <v>A9RT-C9</v>
       </c>
       <c r="AC448" t="s">
         <v>177</v>
@@ -23844,7 +23844,7 @@
       </c>
       <c r="Z449" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-F1</v>
+        <v>A9RT-F1</v>
       </c>
       <c r="AC449" t="s">
         <v>158</v>
@@ -23877,7 +23877,7 @@
       </c>
       <c r="Z450" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-G8</v>
+        <v>A9RT-G8</v>
       </c>
       <c r="AC450" t="s">
         <v>149</v>
@@ -23910,7 +23910,7 @@
       </c>
       <c r="Z451" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-C12</v>
+        <v>A9RT-C12</v>
       </c>
       <c r="AC451" t="s">
         <v>398</v>
@@ -23943,7 +23943,7 @@
       </c>
       <c r="Z452" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-A6</v>
+        <v>A9RT-A6</v>
       </c>
       <c r="AC452" t="s">
         <v>246</v>
@@ -23976,7 +23976,7 @@
       </c>
       <c r="Z453" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-H1</v>
+        <v>A9RT-H1</v>
       </c>
       <c r="AC453" t="s">
         <v>241</v>
@@ -24009,7 +24009,7 @@
       </c>
       <c r="Z454" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-B6</v>
+        <v>A9RT-B6</v>
       </c>
       <c r="AC454" t="s">
         <v>131</v>
@@ -24042,7 +24042,7 @@
       </c>
       <c r="Z455" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-C1</v>
+        <v>A9RT-C1</v>
       </c>
       <c r="AC455" t="s">
         <v>147</v>
@@ -24075,7 +24075,7 @@
       </c>
       <c r="Z456" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-A12</v>
+        <v>A9RT-A12</v>
       </c>
       <c r="AC456" t="s">
         <v>379</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="Z457" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-B4</v>
+        <v>A9RT-B4</v>
       </c>
       <c r="AC457" t="s">
         <v>125</v>
@@ -24141,7 +24141,7 @@
       </c>
       <c r="Z458" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-E6</v>
+        <v>A9RT-E6</v>
       </c>
       <c r="AC458" t="s">
         <v>157</v>
@@ -24174,7 +24174,7 @@
       </c>
       <c r="Z459" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-D9</v>
+        <v>A9RT-D9</v>
       </c>
       <c r="AC459" t="s">
         <v>152</v>
@@ -24207,7 +24207,7 @@
       </c>
       <c r="Z460" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-D12</v>
+        <v>A9RT-D12</v>
       </c>
       <c r="AC460" t="s">
         <v>163</v>
@@ -24240,7 +24240,7 @@
       </c>
       <c r="Z461" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-E4</v>
+        <v>A9RT-E4</v>
       </c>
       <c r="AC461" t="s">
         <v>399</v>
@@ -24273,7 +24273,7 @@
       </c>
       <c r="Z462" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-F8</v>
+        <v>A9RT-F8</v>
       </c>
       <c r="AC462" t="s">
         <v>135</v>
@@ -24306,7 +24306,7 @@
       </c>
       <c r="Z463" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-D2</v>
+        <v>A9RT-D2</v>
       </c>
       <c r="AC463" t="s">
         <v>173</v>
@@ -24339,7 +24339,7 @@
       </c>
       <c r="Z464" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-F7</v>
+        <v>A9RT-F7</v>
       </c>
       <c r="AC464" t="s">
         <v>172</v>
@@ -24372,7 +24372,7 @@
       </c>
       <c r="Z465" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-D8</v>
+        <v>A9RT-D8</v>
       </c>
       <c r="AC465" t="s">
         <v>171</v>
@@ -24405,7 +24405,7 @@
       </c>
       <c r="Z466" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-G2</v>
+        <v>A9RT-G2</v>
       </c>
       <c r="AC466" t="s">
         <v>128</v>
@@ -24438,7 +24438,7 @@
       </c>
       <c r="Z467" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-A2</v>
+        <v>A9RT-A2</v>
       </c>
       <c r="AC467" t="s">
         <v>121</v>
@@ -24471,7 +24471,7 @@
       </c>
       <c r="Z468" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-B12</v>
+        <v>A9RT-B12</v>
       </c>
       <c r="AC468" t="s">
         <v>133</v>
@@ -24504,7 +24504,7 @@
       </c>
       <c r="Z469" t="str">
         <f t="shared" si="4"/>
-        <v>A8RT-C3</v>
+        <v>A9RT-C3</v>
       </c>
       <c r="AC469" t="s">
         <v>396</v>
@@ -24537,7 +24537,7 @@
       </c>
       <c r="Z470" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-H10</v>
+        <v>A9SO-H10</v>
       </c>
       <c r="AC470" t="s">
         <v>175</v>
@@ -24570,7 +24570,7 @@
       </c>
       <c r="Z471" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-E10</v>
+        <v>A9SO-E10</v>
       </c>
       <c r="AC471" t="s">
         <v>250</v>
@@ -24603,7 +24603,7 @@
       </c>
       <c r="Z472" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-H9</v>
+        <v>A9SO-H9</v>
       </c>
       <c r="AC472" t="s">
         <v>382</v>
@@ -24636,7 +24636,7 @@
       </c>
       <c r="Z473" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-D6</v>
+        <v>A9SO-D6</v>
       </c>
       <c r="AC473" t="s">
         <v>161</v>
@@ -24669,7 +24669,7 @@
       </c>
       <c r="Z474" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-A10</v>
+        <v>A9SO-A10</v>
       </c>
       <c r="AC474" t="s">
         <v>139</v>
@@ -24702,7 +24702,7 @@
       </c>
       <c r="Z475" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-E3</v>
+        <v>A9SO-E3</v>
       </c>
       <c r="AC475" t="s">
         <v>180</v>
@@ -24735,7 +24735,7 @@
       </c>
       <c r="Z476" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-H3</v>
+        <v>A9SO-H3</v>
       </c>
       <c r="AC476" t="s">
         <v>166</v>
@@ -24768,7 +24768,7 @@
       </c>
       <c r="Z477" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-A3</v>
+        <v>A9SO-A3</v>
       </c>
       <c r="AC477" t="s">
         <v>247</v>
@@ -24801,7 +24801,7 @@
       </c>
       <c r="Z478" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-C2</v>
+        <v>A9SO-C2</v>
       </c>
       <c r="AC478" t="s">
         <v>150</v>
@@ -24834,7 +24834,7 @@
       </c>
       <c r="Z479" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-G9</v>
+        <v>A9SO-G9</v>
       </c>
       <c r="AC479" t="s">
         <v>160</v>
@@ -24867,7 +24867,7 @@
       </c>
       <c r="Z480" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-B11</v>
+        <v>A9SO-B11</v>
       </c>
       <c r="AC480" t="s">
         <v>130</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="Z481" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-A4</v>
+        <v>A9SO-A4</v>
       </c>
       <c r="AC481" t="s">
         <v>254</v>
@@ -24933,7 +24933,7 @@
       </c>
       <c r="Z482" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-C5</v>
+        <v>A9SO-C5</v>
       </c>
       <c r="AC482" t="s">
         <v>124</v>
@@ -24966,7 +24966,7 @@
       </c>
       <c r="Z483" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-D11</v>
+        <v>A9SO-D11</v>
       </c>
       <c r="AC483" t="s">
         <v>129</v>
@@ -24999,7 +24999,7 @@
       </c>
       <c r="Z484" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-G3</v>
+        <v>A9SO-G3</v>
       </c>
       <c r="AC484" t="s">
         <v>140</v>
@@ -25032,7 +25032,7 @@
       </c>
       <c r="Z485" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-G12</v>
+        <v>A9SO-G12</v>
       </c>
       <c r="AC485" t="s">
         <v>148</v>
@@ -25065,7 +25065,7 @@
       </c>
       <c r="Z486" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-G10</v>
+        <v>A9SO-G10</v>
       </c>
       <c r="AC486" t="s">
         <v>397</v>
@@ -25098,7 +25098,7 @@
       </c>
       <c r="Z487" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-D5</v>
+        <v>A9SO-D5</v>
       </c>
       <c r="AC487" t="s">
         <v>253</v>
@@ -25131,7 +25131,7 @@
       </c>
       <c r="Z488" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-D1</v>
+        <v>A9SO-D1</v>
       </c>
       <c r="AC488" t="s">
         <v>383</v>
@@ -25164,7 +25164,7 @@
       </c>
       <c r="Z489" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-G11</v>
+        <v>A9SO-G11</v>
       </c>
       <c r="AC489" t="s">
         <v>251</v>
@@ -25197,7 +25197,7 @@
       </c>
       <c r="Z490" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-A1</v>
+        <v>A9SO-A1</v>
       </c>
       <c r="AC490" t="s">
         <v>249</v>
@@ -25230,7 +25230,7 @@
       </c>
       <c r="Z491" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-E8</v>
+        <v>A9SO-E8</v>
       </c>
       <c r="AC491" t="s">
         <v>387</v>
@@ -25263,7 +25263,7 @@
       </c>
       <c r="Z492" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-H2</v>
+        <v>A9SO-H2</v>
       </c>
       <c r="AC492" t="s">
         <v>123</v>
@@ -25296,7 +25296,7 @@
       </c>
       <c r="Z493" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-E11</v>
+        <v>A9SO-E11</v>
       </c>
       <c r="AC493" t="s">
         <v>433</v>
@@ -25329,7 +25329,7 @@
       </c>
       <c r="Z494" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-D7</v>
+        <v>A9SO-D7</v>
       </c>
       <c r="AC494" t="s">
         <v>380</v>
@@ -25362,7 +25362,7 @@
       </c>
       <c r="Z495" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-G6</v>
+        <v>A9SO-G6</v>
       </c>
       <c r="AC495" t="s">
         <v>237</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="Z496" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-G1</v>
+        <v>A9SO-G1</v>
       </c>
       <c r="AC496" t="s">
         <v>385</v>
@@ -25428,7 +25428,7 @@
       </c>
       <c r="Z497" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-C11</v>
+        <v>A9SO-C11</v>
       </c>
       <c r="AC497" t="s">
         <v>145</v>
@@ -25461,7 +25461,7 @@
       </c>
       <c r="Z498" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-E1</v>
+        <v>A9SO-E1</v>
       </c>
       <c r="AC498" t="s">
         <v>138</v>
@@ -25494,7 +25494,7 @@
       </c>
       <c r="Z499" t="str">
         <f t="shared" si="4"/>
-        <v>A8SO-F6</v>
+        <v>A9SO-F6</v>
       </c>
       <c r="AC499" t="s">
         <v>386</v>
@@ -26396,8 +26396,8 @@
         <v>86</v>
       </c>
       <c r="Z530" t="str">
-        <f t="shared" ref="Z530:Z589" si="5">"A8"&amp;Y530&amp;"-"&amp;AC530</f>
-        <v>A8RT-D7</v>
+        <f>"A10"&amp;Y530&amp;"-"&amp;AC530</f>
+        <v>A10RT-D7</v>
       </c>
       <c r="AC530" t="s">
         <v>380</v>
@@ -26429,8 +26429,8 @@
         <v>86</v>
       </c>
       <c r="Z531" t="str">
-        <f t="shared" si="5"/>
-        <v>A8RT-G3</v>
+        <f t="shared" ref="Z531:Z589" si="5">"A10"&amp;Y531&amp;"-"&amp;AC531</f>
+        <v>A10RT-G3</v>
       </c>
       <c r="AC531" t="s">
         <v>140</v>
@@ -26463,7 +26463,7 @@
       </c>
       <c r="Z532" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-D1</v>
+        <v>A10RT-D1</v>
       </c>
       <c r="AC532" t="s">
         <v>383</v>
@@ -26496,7 +26496,7 @@
       </c>
       <c r="Z533" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-C12</v>
+        <v>A10RT-C12</v>
       </c>
       <c r="AC533" t="s">
         <v>398</v>
@@ -26529,7 +26529,7 @@
       </c>
       <c r="Z534" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-G10</v>
+        <v>A10RT-G10</v>
       </c>
       <c r="AC534" t="s">
         <v>397</v>
@@ -26562,7 +26562,7 @@
       </c>
       <c r="Z535" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-C8</v>
+        <v>A10RT-C8</v>
       </c>
       <c r="AC535" t="s">
         <v>240</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="Z536" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-B11</v>
+        <v>A10RT-B11</v>
       </c>
       <c r="AC536" t="s">
         <v>130</v>
@@ -26628,7 +26628,7 @@
       </c>
       <c r="Z537" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-D2</v>
+        <v>A10RT-D2</v>
       </c>
       <c r="AC537" t="s">
         <v>173</v>
@@ -26661,7 +26661,7 @@
       </c>
       <c r="Z538" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-E3</v>
+        <v>A10RT-E3</v>
       </c>
       <c r="AC538" t="s">
         <v>180</v>
@@ -26694,7 +26694,7 @@
       </c>
       <c r="Z539" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-B6</v>
+        <v>A10RT-B6</v>
       </c>
       <c r="AC539" t="s">
         <v>131</v>
@@ -26727,7 +26727,7 @@
       </c>
       <c r="Z540" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-G8</v>
+        <v>A10RT-G8</v>
       </c>
       <c r="AC540" t="s">
         <v>149</v>
@@ -26760,7 +26760,7 @@
       </c>
       <c r="Z541" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-F11</v>
+        <v>A10RT-F11</v>
       </c>
       <c r="AC541" t="s">
         <v>159</v>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="Z542" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-A12</v>
+        <v>A10RT-A12</v>
       </c>
       <c r="AC542" t="s">
         <v>379</v>
@@ -26826,7 +26826,7 @@
       </c>
       <c r="Z543" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-C2</v>
+        <v>A10RT-C2</v>
       </c>
       <c r="AC543" t="s">
         <v>150</v>
@@ -26859,7 +26859,7 @@
       </c>
       <c r="Z544" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-D5</v>
+        <v>A10RT-D5</v>
       </c>
       <c r="AC544" t="s">
         <v>253</v>
@@ -26892,7 +26892,7 @@
       </c>
       <c r="Z545" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-H1</v>
+        <v>A10RT-H1</v>
       </c>
       <c r="AC545" t="s">
         <v>241</v>
@@ -26925,7 +26925,7 @@
       </c>
       <c r="Z546" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-D4</v>
+        <v>A10RT-D4</v>
       </c>
       <c r="AC546" t="s">
         <v>238</v>
@@ -26958,7 +26958,7 @@
       </c>
       <c r="Z547" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-C6</v>
+        <v>A10RT-C6</v>
       </c>
       <c r="AC547" t="s">
         <v>169</v>
@@ -26991,7 +26991,7 @@
       </c>
       <c r="Z548" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-B8</v>
+        <v>A10RT-B8</v>
       </c>
       <c r="AC548" t="s">
         <v>174</v>
@@ -27024,7 +27024,7 @@
       </c>
       <c r="Z549" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-G11</v>
+        <v>A10RT-G11</v>
       </c>
       <c r="AC549" t="s">
         <v>251</v>
@@ -27057,7 +27057,7 @@
       </c>
       <c r="Z550" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-F9</v>
+        <v>A10RT-F9</v>
       </c>
       <c r="AC550" t="s">
         <v>242</v>
@@ -27090,7 +27090,7 @@
       </c>
       <c r="Z551" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-C1</v>
+        <v>A10RT-C1</v>
       </c>
       <c r="AC551" t="s">
         <v>147</v>
@@ -27123,7 +27123,7 @@
       </c>
       <c r="Z552" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-H11</v>
+        <v>A10RT-H11</v>
       </c>
       <c r="AC552" t="s">
         <v>142</v>
@@ -27156,7 +27156,7 @@
       </c>
       <c r="Z553" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-D9</v>
+        <v>A10RT-D9</v>
       </c>
       <c r="AC553" t="s">
         <v>152</v>
@@ -27189,7 +27189,7 @@
       </c>
       <c r="Z554" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-F5</v>
+        <v>A10RT-F5</v>
       </c>
       <c r="AC554" t="s">
         <v>252</v>
@@ -27222,7 +27222,7 @@
       </c>
       <c r="Z555" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-F4</v>
+        <v>A10RT-F4</v>
       </c>
       <c r="AC555" t="s">
         <v>151</v>
@@ -27255,7 +27255,7 @@
       </c>
       <c r="Z556" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-B7</v>
+        <v>A10RT-B7</v>
       </c>
       <c r="AC556" t="s">
         <v>178</v>
@@ -27288,7 +27288,7 @@
       </c>
       <c r="Z557" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-D6</v>
+        <v>A10RT-D6</v>
       </c>
       <c r="AC557" t="s">
         <v>161</v>
@@ -27321,7 +27321,7 @@
       </c>
       <c r="Z558" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-G7</v>
+        <v>A10RT-G7</v>
       </c>
       <c r="AC558" t="s">
         <v>137</v>
@@ -27354,7 +27354,7 @@
       </c>
       <c r="Z559" t="str">
         <f t="shared" si="5"/>
-        <v>A8RT-C5</v>
+        <v>A10RT-C5</v>
       </c>
       <c r="AC559" t="s">
         <v>124</v>
@@ -27387,7 +27387,7 @@
       </c>
       <c r="Z560" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-D12</v>
+        <v>A10SO-D12</v>
       </c>
       <c r="AC560" t="s">
         <v>163</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="Z561" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-F2</v>
+        <v>A10SO-F2</v>
       </c>
       <c r="AC561" t="s">
         <v>465</v>
@@ -27453,7 +27453,7 @@
       </c>
       <c r="Z562" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-E4</v>
+        <v>A10SO-E4</v>
       </c>
       <c r="AC562" t="s">
         <v>399</v>
@@ -27486,7 +27486,7 @@
       </c>
       <c r="Z563" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-H7</v>
+        <v>A10SO-H7</v>
       </c>
       <c r="AC563" t="s">
         <v>381</v>
@@ -27519,7 +27519,7 @@
       </c>
       <c r="Z564" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-H10</v>
+        <v>A10SO-H10</v>
       </c>
       <c r="AC564" t="s">
         <v>175</v>
@@ -27552,7 +27552,7 @@
       </c>
       <c r="Z565" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-A8</v>
+        <v>A10SO-A8</v>
       </c>
       <c r="AC565" t="s">
         <v>167</v>
@@ -27585,7 +27585,7 @@
       </c>
       <c r="Z566" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-A10</v>
+        <v>A10SO-A10</v>
       </c>
       <c r="AC566" t="s">
         <v>139</v>
@@ -27618,7 +27618,7 @@
       </c>
       <c r="Z567" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-H5</v>
+        <v>A10SO-H5</v>
       </c>
       <c r="AC567" t="s">
         <v>146</v>
@@ -27651,7 +27651,7 @@
       </c>
       <c r="Z568" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-A1</v>
+        <v>A10SO-A1</v>
       </c>
       <c r="AC568" t="s">
         <v>249</v>
@@ -27684,7 +27684,7 @@
       </c>
       <c r="Z569" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-F12</v>
+        <v>A10SO-F12</v>
       </c>
       <c r="AC569" t="s">
         <v>122</v>
@@ -27717,7 +27717,7 @@
       </c>
       <c r="Z570" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-B10</v>
+        <v>A10SO-B10</v>
       </c>
       <c r="AC570" t="s">
         <v>155</v>
@@ -27750,7 +27750,7 @@
       </c>
       <c r="Z571" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-E5</v>
+        <v>A10SO-E5</v>
       </c>
       <c r="AC571" t="s">
         <v>400</v>
@@ -27783,7 +27783,7 @@
       </c>
       <c r="Z572" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-B4</v>
+        <v>A10SO-B4</v>
       </c>
       <c r="AC572" t="s">
         <v>125</v>
@@ -27816,7 +27816,7 @@
       </c>
       <c r="Z573" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-F1</v>
+        <v>A10SO-F1</v>
       </c>
       <c r="AC573" t="s">
         <v>158</v>
@@ -27849,7 +27849,7 @@
       </c>
       <c r="Z574" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-C3</v>
+        <v>A10SO-C3</v>
       </c>
       <c r="AC574" t="s">
         <v>396</v>
@@ -27882,7 +27882,7 @@
       </c>
       <c r="Z575" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-D11</v>
+        <v>A10SO-D11</v>
       </c>
       <c r="AC575" t="s">
         <v>129</v>
@@ -27915,7 +27915,7 @@
       </c>
       <c r="Z576" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-F10</v>
+        <v>A10SO-F10</v>
       </c>
       <c r="AC576" t="s">
         <v>384</v>
@@ -27948,7 +27948,7 @@
       </c>
       <c r="Z577" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-D10</v>
+        <v>A10SO-D10</v>
       </c>
       <c r="AC577" t="s">
         <v>466</v>
@@ -27981,7 +27981,7 @@
       </c>
       <c r="Z578" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-C4</v>
+        <v>A10SO-C4</v>
       </c>
       <c r="AC578" t="s">
         <v>162</v>
@@ -28014,7 +28014,7 @@
       </c>
       <c r="Z579" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-A6</v>
+        <v>A10SO-A6</v>
       </c>
       <c r="AC579" t="s">
         <v>246</v>
@@ -28047,7 +28047,7 @@
       </c>
       <c r="Z580" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-D3</v>
+        <v>A10SO-D3</v>
       </c>
       <c r="AC580" t="s">
         <v>156</v>
@@ -28080,7 +28080,7 @@
       </c>
       <c r="Z581" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-B12</v>
+        <v>A10SO-B12</v>
       </c>
       <c r="AC581" t="s">
         <v>133</v>
@@ -28113,7 +28113,7 @@
       </c>
       <c r="Z582" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-H9</v>
+        <v>A10SO-H9</v>
       </c>
       <c r="AC582" t="s">
         <v>382</v>
@@ -28146,7 +28146,7 @@
       </c>
       <c r="Z583" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-A4</v>
+        <v>A10SO-A4</v>
       </c>
       <c r="AC583" t="s">
         <v>254</v>
@@ -28179,7 +28179,7 @@
       </c>
       <c r="Z584" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-B9</v>
+        <v>A10SO-B9</v>
       </c>
       <c r="AC584" t="s">
         <v>126</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="Z585" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-A5</v>
+        <v>A10SO-A5</v>
       </c>
       <c r="AC585" t="s">
         <v>248</v>
@@ -28245,7 +28245,7 @@
       </c>
       <c r="Z586" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-B1</v>
+        <v>A10SO-B1</v>
       </c>
       <c r="AC586" t="s">
         <v>170</v>
@@ -28278,7 +28278,7 @@
       </c>
       <c r="Z587" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-E2</v>
+        <v>A10SO-E2</v>
       </c>
       <c r="AC587" t="s">
         <v>179</v>
@@ -28311,7 +28311,7 @@
       </c>
       <c r="Z588" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-G9</v>
+        <v>A10SO-G9</v>
       </c>
       <c r="AC588" t="s">
         <v>160</v>
@@ -28344,7 +28344,7 @@
       </c>
       <c r="Z589" t="str">
         <f t="shared" si="5"/>
-        <v>A8SO-E1</v>
+        <v>A10SO-E1</v>
       </c>
       <c r="AC589" t="s">
         <v>138</v>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068BD75B-6C68-4C71-B0AF-74E27898F60C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6F2ABB-7D69-4288-90A3-2FF53629D65B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5587" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5704" uniqueCount="543">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -1535,6 +1535,132 @@
   </si>
   <si>
     <t>Day7weight</t>
+  </si>
+  <si>
+    <t>a12r1_18</t>
+  </si>
+  <si>
+    <t>a12r2_18</t>
+  </si>
+  <si>
+    <t>a12r3_18</t>
+  </si>
+  <si>
+    <t>a12r4_18</t>
+  </si>
+  <si>
+    <t>a12r5_18</t>
+  </si>
+  <si>
+    <t>a12r6_18</t>
+  </si>
+  <si>
+    <t>a12r7_18</t>
+  </si>
+  <si>
+    <t>a12r8_18</t>
+  </si>
+  <si>
+    <t>a12r9_18</t>
+  </si>
+  <si>
+    <t>a12r10_18</t>
+  </si>
+  <si>
+    <t>a12r11_18</t>
+  </si>
+  <si>
+    <t>a12r12_18</t>
+  </si>
+  <si>
+    <t>a12r13_18</t>
+  </si>
+  <si>
+    <t>a12r14_18</t>
+  </si>
+  <si>
+    <t>a12r15_18</t>
+  </si>
+  <si>
+    <t>a12r16_18</t>
+  </si>
+  <si>
+    <t>a12r17_18</t>
+  </si>
+  <si>
+    <t>a12r18_18</t>
+  </si>
+  <si>
+    <t>a12r19_18</t>
+  </si>
+  <si>
+    <t>a12r20_18</t>
+  </si>
+  <si>
+    <t>a12r21_18</t>
+  </si>
+  <si>
+    <t>a12r22_18</t>
+  </si>
+  <si>
+    <t>a12o1_18</t>
+  </si>
+  <si>
+    <t>a12o2_18</t>
+  </si>
+  <si>
+    <t>a12o3_18</t>
+  </si>
+  <si>
+    <t>a12o4_18</t>
+  </si>
+  <si>
+    <t>a12o5_18</t>
+  </si>
+  <si>
+    <t>a12o6_18</t>
+  </si>
+  <si>
+    <t>a12o7_18</t>
+  </si>
+  <si>
+    <t>a12o8_18</t>
+  </si>
+  <si>
+    <t>a12o9_18</t>
+  </si>
+  <si>
+    <t>a12o10_18</t>
+  </si>
+  <si>
+    <t>a12o11_18</t>
+  </si>
+  <si>
+    <t>a12o12_18</t>
+  </si>
+  <si>
+    <t>a12o13_18</t>
+  </si>
+  <si>
+    <t>a12o14_18</t>
+  </si>
+  <si>
+    <t>a12o15_18</t>
+  </si>
+  <si>
+    <t>a12o16_18</t>
+  </si>
+  <si>
+    <t>a12o17_18</t>
+  </si>
+  <si>
+    <t>a12o18_18</t>
+  </si>
+  <si>
+    <t>a12o19_18</t>
+  </si>
+  <si>
+    <t>a12o20_18</t>
   </si>
 </sst>
 </file>
@@ -1966,9 +2092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7224,9 +7350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A582" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z530" sqref="Z530:Z589"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U297" sqref="U297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18045,6 +18171,15 @@
       <c r="T276" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="Y276" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z276" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC276" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277">
@@ -18086,6 +18221,15 @@
       <c r="T277" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="Y277" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z277" t="s">
+        <v>502</v>
+      </c>
+      <c r="AC277" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278">
@@ -18127,6 +18271,12 @@
       <c r="T278" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="Y278" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z278" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279">
@@ -18168,6 +18318,15 @@
       <c r="T279" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="Y279" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z279" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280">
@@ -18209,6 +18368,15 @@
       <c r="T280" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="Y280" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z280" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC280" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281">
@@ -18250,6 +18418,12 @@
       <c r="T281" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="Y281" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z281" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282">
@@ -18291,6 +18465,12 @@
       <c r="T282" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="Y282" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z282" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283">
@@ -18332,6 +18512,15 @@
       <c r="T283" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="Y283" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z283" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284">
@@ -18373,6 +18562,15 @@
       <c r="T284" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="Y284" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z284" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC284" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285">
@@ -18414,6 +18612,15 @@
       <c r="T285" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="Y285" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z285" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC285" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286">
@@ -18455,6 +18662,12 @@
       <c r="T286" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="Y286" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z286" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287">
@@ -18496,6 +18709,15 @@
       <c r="T287" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="Y287" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z287" t="s">
+        <v>512</v>
+      </c>
+      <c r="AC287" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288">
@@ -18537,8 +18759,17 @@
       <c r="T288" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y288" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z288" t="s">
+        <v>513</v>
+      </c>
+      <c r="AC288" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>14</v>
       </c>
@@ -18578,8 +18809,17 @@
       <c r="T289" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y289" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z289" t="s">
+        <v>514</v>
+      </c>
+      <c r="AC289" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>15</v>
       </c>
@@ -18619,8 +18859,14 @@
       <c r="T290" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y290" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z290" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>16</v>
       </c>
@@ -18660,8 +18906,17 @@
       <c r="T291" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y291" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z291" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC291" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>17</v>
       </c>
@@ -18701,8 +18956,14 @@
       <c r="T292" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y292" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z292" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>18</v>
       </c>
@@ -18742,8 +19003,17 @@
       <c r="T293" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y293" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z293" t="s">
+        <v>518</v>
+      </c>
+      <c r="AC293" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>19</v>
       </c>
@@ -18783,8 +19053,14 @@
       <c r="T294" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y294" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z294" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>20</v>
       </c>
@@ -18827,8 +19103,14 @@
       <c r="T295" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y295" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z295" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>21</v>
       </c>
@@ -18865,8 +19147,14 @@
       <c r="T296" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y296" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z296" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>22</v>
       </c>
@@ -18903,8 +19191,17 @@
       <c r="T297" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y297" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z297" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC297" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1</v>
       </c>
@@ -18947,8 +19244,14 @@
       <c r="T298" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y298" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z298" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -18988,8 +19291,14 @@
       <c r="T299" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y299" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z299" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>3</v>
       </c>
@@ -19029,8 +19338,17 @@
       <c r="T300" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y300" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z300" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC300" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>4</v>
       </c>
@@ -19070,8 +19388,14 @@
       <c r="T301" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y301" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z301" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>5</v>
       </c>
@@ -19111,8 +19435,17 @@
       <c r="T302" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y302" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z302" t="s">
+        <v>527</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>6</v>
       </c>
@@ -19152,8 +19485,17 @@
       <c r="T303" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y303" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z303" t="s">
+        <v>528</v>
+      </c>
+      <c r="AC303" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>7</v>
       </c>
@@ -19193,8 +19535,17 @@
       <c r="T304" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y304" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z304" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC304" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>8</v>
       </c>
@@ -19234,8 +19585,14 @@
       <c r="T305" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y305" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z305" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>9</v>
       </c>
@@ -19275,8 +19632,14 @@
       <c r="T306" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y306" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z306" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>10</v>
       </c>
@@ -19316,8 +19679,17 @@
       <c r="T307" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y307" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z307" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC307" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>11</v>
       </c>
@@ -19357,8 +19729,17 @@
       <c r="T308" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y308" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z308" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC308" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>12</v>
       </c>
@@ -19398,8 +19779,17 @@
       <c r="T309" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y309" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z309" t="s">
+        <v>534</v>
+      </c>
+      <c r="AC309" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>13</v>
       </c>
@@ -19439,8 +19829,17 @@
       <c r="T310" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y310" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z310" t="s">
+        <v>535</v>
+      </c>
+      <c r="AC310" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>14</v>
       </c>
@@ -19480,8 +19879,14 @@
       <c r="T311" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y311" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z311" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>15</v>
       </c>
@@ -19521,8 +19926,17 @@
       <c r="T312" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y312" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z312" t="s">
+        <v>537</v>
+      </c>
+      <c r="AC312" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>16</v>
       </c>
@@ -19562,8 +19976,14 @@
       <c r="T313" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y313" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z313" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>17</v>
       </c>
@@ -19603,8 +20023,17 @@
       <c r="T314" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y314" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z314" t="s">
+        <v>539</v>
+      </c>
+      <c r="AC314" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>18</v>
       </c>
@@ -19644,8 +20073,17 @@
       <c r="T315" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y315" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z315" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC315" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>19</v>
       </c>
@@ -19685,8 +20123,17 @@
       <c r="T316" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y316" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z316" t="s">
+        <v>541</v>
+      </c>
+      <c r="AC316" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="317" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>20</v>
       </c>
@@ -19726,8 +20173,17 @@
       <c r="T317" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y317" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z317" t="s">
+        <v>542</v>
+      </c>
+      <c r="AC317" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="318" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>21</v>
       </c>
@@ -19749,6 +20205,9 @@
       <c r="J318">
         <v>12</v>
       </c>
+      <c r="K318" t="s">
+        <v>61</v>
+      </c>
       <c r="L318">
         <v>6262</v>
       </c>
@@ -19761,8 +20220,14 @@
       <c r="T318" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y318" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z318" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="319" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>22</v>
       </c>
@@ -19787,6 +20252,9 @@
       <c r="J319">
         <v>12</v>
       </c>
+      <c r="K319" t="s">
+        <v>61</v>
+      </c>
       <c r="L319">
         <v>6262</v>
       </c>
@@ -19799,8 +20267,17 @@
       <c r="T319" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y319" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z319" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC319" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="320" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1</v>
       </c>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6F2ABB-7D69-4288-90A3-2FF53629D65B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A7043-F247-4B81-8DFD-E11D4F3DDE88}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="2" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5704" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5752" uniqueCount="543">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -2092,9 +2092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28837,8 +28837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD836908-61FC-4C6A-BB55-EB17A2B99FDD}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28938,72 +28938,333 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10">
+        <v>43334</v>
+      </c>
+      <c r="G4">
+        <v>208</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10">
+        <v>43334</v>
+      </c>
+      <c r="G5">
+        <v>69</v>
+      </c>
+      <c r="H5">
+        <v>45</v>
+      </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="11">
+        <v>8</v>
+      </c>
+      <c r="F6" s="12">
+        <v>43335</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="11">
+        <v>8</v>
+      </c>
+      <c r="F7" s="12">
+        <v>43335</v>
+      </c>
+      <c r="G7">
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
+      </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10">
+        <v>43336</v>
+      </c>
+      <c r="G8">
+        <v>207</v>
+      </c>
+      <c r="H8">
+        <v>45</v>
+      </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="10">
+        <v>43336</v>
+      </c>
+      <c r="G9">
+        <v>76</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="11">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12">
+        <v>43337</v>
+      </c>
+      <c r="H10">
+        <v>45</v>
+      </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12">
+        <v>43337</v>
+      </c>
+      <c r="H11">
+        <v>45</v>
+      </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="11">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12">
+        <v>43337</v>
+      </c>
+      <c r="H12">
+        <v>45</v>
+      </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="16">
+        <v>11</v>
+      </c>
+      <c r="F13" s="18">
+        <v>43338</v>
+      </c>
       <c r="I13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="16">
+        <v>11</v>
+      </c>
+      <c r="F14" s="18">
+        <v>43338</v>
+      </c>
       <c r="I14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="16">
+        <v>11</v>
+      </c>
+      <c r="F15" s="18">
+        <v>43338</v>
+      </c>
       <c r="I15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -29105,15 +29366,15 @@
       </c>
       <c r="G31">
         <f>SUM(G2:G30)</f>
-        <v>187</v>
+        <v>1025</v>
       </c>
       <c r="H31">
         <f>SUM(H2:H30)</f>
-        <v>90</v>
+        <v>495</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>277</v>
+        <v>1520</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772BD498-59FB-4202-8329-9A0EE49B76DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A4D08-61DA-4567-8EEA-B1ABF9D3F127}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="2" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5753" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6218" uniqueCount="556">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -1517,15 +1517,9 @@
     <t>A10-30</t>
   </si>
   <si>
-    <t>Day6resp</t>
-  </si>
-  <si>
     <t>Day8resp</t>
   </si>
   <si>
-    <t>Day5weight</t>
-  </si>
-  <si>
     <t>Day7weight</t>
   </si>
   <si>
@@ -1659,6 +1653,48 @@
   </si>
   <si>
     <t>Hinal_non_diapause</t>
+  </si>
+  <si>
+    <t>Day9_weights_date</t>
+  </si>
+  <si>
+    <t>2018-09-25</t>
+  </si>
+  <si>
+    <t>2018-09-26</t>
+  </si>
+  <si>
+    <t>2018-09-27</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1721,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1722,6 +1758,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1735,7 +1783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1774,6 +1822,12 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2088,20 +2142,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
-  <dimension ref="A1:AD102"/>
+  <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11" style="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -2130,37 +2185,34 @@
         <v>51</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>497</v>
+      <c r="L1" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="Q1" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="R1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2188,6 +2240,7 @@
       <c r="I2" t="s">
         <v>57</v>
       </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2198,9 +2251,8 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2228,6 +2280,7 @@
       <c r="I3" t="s">
         <v>57</v>
       </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2238,9 +2291,8 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2268,6 +2320,7 @@
       <c r="I4">
         <v>241</v>
       </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2278,9 +2331,8 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2308,6 +2360,7 @@
       <c r="I5">
         <v>60</v>
       </c>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -2318,9 +2371,8 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2348,31 +2400,31 @@
       <c r="I6">
         <v>232</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="N6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="O6" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="P6" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q6" s="19" t="s">
         <v>68</v>
       </c>
+      <c r="Q6" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="R6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S6" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -2400,31 +2452,31 @@
       <c r="I7">
         <v>123</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="N7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="O7" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="P7" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="19" t="s">
         <v>68</v>
       </c>
+      <c r="Q7" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="R7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="S7" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2452,31 +2504,31 @@
       <c r="I8">
         <v>298</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="N8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="O8" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="P8" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q8" s="19" t="s">
         <v>69</v>
       </c>
+      <c r="Q8" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="R8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S8" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -2504,31 +2556,31 @@
       <c r="I9">
         <v>153</v>
       </c>
+      <c r="M9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="N9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="O9" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="P9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9" s="19" t="s">
         <v>69</v>
       </c>
+      <c r="Q9" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="R9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S9" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -2556,31 +2608,31 @@
       <c r="I10" s="11">
         <v>316</v>
       </c>
+      <c r="M10" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="N10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="13" t="s">
         <v>66</v>
       </c>
+      <c r="O10" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="P10" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="19" t="s">
         <v>70</v>
       </c>
+      <c r="Q10" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="R10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="S10" s="13" t="s">
         <v>75</v>
       </c>
+      <c r="S10" s="13"/>
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-    </row>
-    <row r="11" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
@@ -2608,31 +2660,31 @@
       <c r="I11" s="11">
         <v>152</v>
       </c>
+      <c r="M11" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="N11" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="13" t="s">
         <v>66</v>
       </c>
+      <c r="O11" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="P11" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="19" t="s">
         <v>70</v>
       </c>
+      <c r="Q11" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="R11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="S11" s="13" t="s">
         <v>75</v>
       </c>
+      <c r="S11" s="13"/>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2660,31 +2712,31 @@
       <c r="I12">
         <v>302</v>
       </c>
+      <c r="M12" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="N12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="O12" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="P12" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="19" t="s">
         <v>71</v>
       </c>
+      <c r="Q12" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="R12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S12" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2712,31 +2764,31 @@
       <c r="I13">
         <v>142</v>
       </c>
+      <c r="M13" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="N13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="O13" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="P13" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="19" t="s">
         <v>71</v>
       </c>
+      <c r="Q13" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="R13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="S13" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
@@ -2764,31 +2816,31 @@
       <c r="I14" s="11">
         <v>357</v>
       </c>
+      <c r="M14" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="N14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="13" t="s">
         <v>68</v>
       </c>
+      <c r="O14" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="P14" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q14" s="19" t="s">
         <v>72</v>
       </c>
+      <c r="Q14" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="R14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="S14" s="13" t="s">
         <v>77</v>
       </c>
+      <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-    </row>
-    <row r="15" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -2816,31 +2868,31 @@
       <c r="I15" s="11">
         <v>42</v>
       </c>
+      <c r="M15" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="N15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="13" t="s">
         <v>68</v>
       </c>
+      <c r="O15" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="P15" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q15" s="19" t="s">
         <v>72</v>
       </c>
+      <c r="Q15" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="R15" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="S15" s="13" t="s">
         <v>77</v>
       </c>
+      <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-    </row>
-    <row r="16" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
@@ -2868,31 +2920,31 @@
       <c r="I16" s="11">
         <v>177</v>
       </c>
+      <c r="M16" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="N16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="13" t="s">
         <v>68</v>
       </c>
+      <c r="O16" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="P16" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="19" t="s">
         <v>72</v>
       </c>
+      <c r="Q16" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="R16" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="S16" s="13" t="s">
         <v>77</v>
       </c>
+      <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-    </row>
-    <row r="17" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
@@ -2920,31 +2972,31 @@
       <c r="I17" s="16">
         <v>313</v>
       </c>
+      <c r="M17" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="N17" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="R17" s="17" t="s">
+      <c r="Q17" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="S17" s="17" t="s">
+      <c r="R17" s="28" t="s">
         <v>78</v>
       </c>
+      <c r="S17" s="17"/>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-    </row>
-    <row r="18" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>58</v>
       </c>
@@ -2972,31 +3024,31 @@
       <c r="I18" s="16">
         <v>129</v>
       </c>
+      <c r="M18" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="N18" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q18" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="R18" s="17" t="s">
+      <c r="Q18" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="S18" s="17" t="s">
+      <c r="R18" s="28" t="s">
         <v>78</v>
       </c>
+      <c r="S18" s="17"/>
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-    </row>
-    <row r="19" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>58</v>
       </c>
@@ -3024,31 +3076,31 @@
       <c r="I19" s="16">
         <v>165</v>
       </c>
+      <c r="M19" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="N19" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q19" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="R19" s="17" t="s">
+      <c r="Q19" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="S19" s="17" t="s">
+      <c r="R19" s="28" t="s">
         <v>78</v>
       </c>
+      <c r="S19" s="17"/>
       <c r="T19" s="17"/>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-    </row>
-    <row r="20" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
@@ -3076,31 +3128,31 @@
       <c r="I20" s="11">
         <v>220</v>
       </c>
+      <c r="M20" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="N20" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="O20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="O20" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="P20" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="R20" s="13" t="s">
+      <c r="Q20" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="S20" s="13" t="s">
+      <c r="R20" s="28" t="s">
         <v>79</v>
       </c>
+      <c r="S20" s="13"/>
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-    </row>
-    <row r="21" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
@@ -3128,31 +3180,31 @@
       <c r="I21" s="11">
         <v>180</v>
       </c>
+      <c r="M21" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="N21" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="O21" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P21" s="13" t="s">
+      <c r="O21" s="28" t="s">
         <v>73</v>
       </c>
+      <c r="P21" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q21" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="S21" s="13" t="s">
         <v>79</v>
       </c>
+      <c r="S21" s="13"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
       <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-    </row>
-    <row r="22" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>58</v>
       </c>
@@ -3180,31 +3232,31 @@
       <c r="I22" s="11">
         <v>138</v>
       </c>
+      <c r="M22" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="N22" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="O22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="O22" s="28" t="s">
         <v>73</v>
       </c>
+      <c r="P22" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q22" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="S22" s="13" t="s">
         <v>79</v>
       </c>
+      <c r="S22" s="13"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -3232,31 +3284,31 @@
       <c r="I23">
         <v>210</v>
       </c>
+      <c r="M23" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="N23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="O23" s="28" t="s">
         <v>74</v>
       </c>
+      <c r="P23" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="Q23" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S23" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3284,31 +3336,31 @@
       <c r="I24">
         <v>149</v>
       </c>
+      <c r="M24" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="N24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="O24" s="28" t="s">
         <v>74</v>
       </c>
+      <c r="P24" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="Q24" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S24" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3336,31 +3388,31 @@
       <c r="I25">
         <v>121</v>
       </c>
+      <c r="M25" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="N25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="O25" s="28" t="s">
         <v>74</v>
       </c>
+      <c r="P25" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="Q25" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S25" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-    </row>
-    <row r="26" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>58</v>
       </c>
@@ -3388,31 +3440,31 @@
       <c r="I26" s="11">
         <v>264</v>
       </c>
+      <c r="M26" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="N26" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S26" s="13" t="s">
         <v>81</v>
       </c>
+      <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-    </row>
-    <row r="27" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>58</v>
       </c>
@@ -3440,31 +3492,31 @@
       <c r="I27" s="11">
         <v>101</v>
       </c>
+      <c r="M27" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="N27" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S27" s="13" t="s">
         <v>81</v>
       </c>
+      <c r="S27" s="13"/>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-    </row>
-    <row r="28" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -3492,31 +3544,31 @@
       <c r="I28" s="11">
         <v>119</v>
       </c>
+      <c r="M28" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="N28" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S28" s="13" t="s">
         <v>81</v>
       </c>
+      <c r="S28" s="13"/>
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -3544,31 +3596,31 @@
       <c r="I29">
         <v>208</v>
       </c>
+      <c r="M29" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="N29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S29" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3596,31 +3648,31 @@
       <c r="I30">
         <v>152</v>
       </c>
+      <c r="M30" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="N30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S30" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3648,31 +3700,31 @@
       <c r="I31">
         <v>105</v>
       </c>
+      <c r="M31" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="N31" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S31" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-    </row>
-    <row r="32" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -3700,31 +3752,31 @@
       <c r="I32" s="11">
         <v>43</v>
       </c>
+      <c r="M32" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="N32" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="S32" s="13" t="s">
         <v>83</v>
       </c>
+      <c r="S32" s="13"/>
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-    </row>
-    <row r="33" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -3752,31 +3804,31 @@
       <c r="I33" s="11">
         <v>34</v>
       </c>
+      <c r="M33" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="N33" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R33" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="S33" s="13" t="s">
         <v>83</v>
       </c>
+      <c r="S33" s="13"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3804,30 +3856,28 @@
       <c r="I34" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="N34" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S34" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
@@ -3838,9 +3888,8 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -3871,25 +3920,25 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="N35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S35" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
@@ -3900,9 +3949,8 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -3933,25 +3981,25 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="M36" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="N36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S36" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
@@ -3962,9 +4010,8 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -3995,25 +4042,25 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="M37" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="N37" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S37" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -4024,9 +4071,8 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>58</v>
       </c>
@@ -4057,25 +4103,25 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="N38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S38" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
@@ -4086,9 +4132,8 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
@@ -4119,25 +4164,25 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="M39" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="N39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S39" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -4148,9 +4193,8 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>195</v>
       </c>
@@ -4181,25 +4225,25 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="M40" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="N40" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S40" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -4210,9 +4254,8 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>195</v>
       </c>
@@ -4243,25 +4286,25 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="M41" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="N41" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S41" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -4272,9 +4315,8 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>195</v>
       </c>
@@ -4305,25 +4347,25 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="M42" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="N42" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S42" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -4334,66 +4376,63 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-    </row>
-    <row r="43" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+    </row>
+    <row r="43" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="14" t="s">
+      <c r="B43" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="H43" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="J43" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L43" s="14" t="s">
+      <c r="J43" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="M43" s="14" t="s">
+      <c r="K43" s="24" t="s">
         <v>73</v>
       </c>
+      <c r="L43" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="N43" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O43" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P43" s="22" t="s">
+      <c r="O43" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="P43" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q43" s="22" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="R43" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S43" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="S43" s="14"/>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
@@ -4404,9 +4443,8 @@
       <c r="AA43" s="14"/>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-    </row>
-    <row r="44" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>58</v>
       </c>
@@ -4435,35 +4473,33 @@
         <v>201</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M44" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="L44" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="N44" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O44" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P44" s="22" t="s">
+      <c r="O44" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="P44" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q44" s="22" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="R44" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S44" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="S44" s="14"/>
       <c r="T44" s="14"/>
       <c r="U44" s="14"/>
       <c r="V44" s="14"/>
@@ -4474,9 +4510,8 @@
       <c r="AA44" s="14"/>
       <c r="AB44" s="14"/>
       <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-    </row>
-    <row r="45" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>58</v>
       </c>
@@ -4505,35 +4540,33 @@
         <v>186</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M45" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="L45" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="N45" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O45" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P45" s="22" t="s">
+      <c r="O45" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="P45" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q45" s="22" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="R45" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S45" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="S45" s="14"/>
       <c r="T45" s="14"/>
       <c r="U45" s="14"/>
       <c r="V45" s="14"/>
@@ -4544,9 +4577,8 @@
       <c r="AA45" s="14"/>
       <c r="AB45" s="14"/>
       <c r="AC45" s="14"/>
-      <c r="AD45" s="14"/>
-    </row>
-    <row r="46" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>58</v>
       </c>
@@ -4575,35 +4607,33 @@
         <v>201</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L46" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M46" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="L46" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="N46" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O46" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P46" s="22" t="s">
+      <c r="O46" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="P46" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q46" s="22" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="R46" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S46" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="S46" s="14"/>
       <c r="T46" s="14"/>
       <c r="U46" s="14"/>
       <c r="V46" s="14"/>
@@ -4614,9 +4644,8 @@
       <c r="AA46" s="14"/>
       <c r="AB46" s="14"/>
       <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-    </row>
-    <row r="47" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>58</v>
       </c>
@@ -4645,35 +4674,33 @@
         <v>204</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M47" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="L47" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="N47" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O47" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P47" s="22" t="s">
+      <c r="O47" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="P47" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q47" s="22" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="R47" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S47" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="S47" s="14"/>
       <c r="T47" s="14"/>
       <c r="U47" s="14"/>
       <c r="V47" s="14"/>
@@ -4684,9 +4711,8 @@
       <c r="AA47" s="14"/>
       <c r="AB47" s="14"/>
       <c r="AC47" s="14"/>
-      <c r="AD47" s="14"/>
-    </row>
-    <row r="48" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>58</v>
       </c>
@@ -4715,35 +4741,33 @@
         <v>193</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L48" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M48" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="L48" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="N48" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O48" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P48" s="22" t="s">
+      <c r="O48" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="P48" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q48" s="22" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="R48" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S48" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="S48" s="14"/>
       <c r="T48" s="14"/>
       <c r="U48" s="14"/>
       <c r="V48" s="14"/>
@@ -4754,9 +4778,8 @@
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
       <c r="AC48" s="14"/>
-      <c r="AD48" s="14"/>
-    </row>
-    <row r="49" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>58</v>
       </c>
@@ -4785,35 +4808,33 @@
         <v>181</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M49" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="L49" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M49" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="N49" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O49" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P49" s="22" t="s">
+      <c r="O49" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="P49" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q49" s="22" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="R49" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S49" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="S49" s="14"/>
       <c r="T49" s="14"/>
       <c r="U49" s="14"/>
       <c r="V49" s="14"/>
@@ -4824,9 +4845,8 @@
       <c r="AA49" s="14"/>
       <c r="AB49" s="14"/>
       <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-    </row>
-    <row r="50" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>195</v>
       </c>
@@ -4855,35 +4875,33 @@
         <v>204</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L50" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M50" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="L50" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M50" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="N50" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O50" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P50" s="22" t="s">
+      <c r="O50" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="P50" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q50" s="22" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="R50" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S50" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="S50" s="14"/>
       <c r="T50" s="14"/>
       <c r="U50" s="14"/>
       <c r="V50" s="14"/>
@@ -4894,9 +4912,8 @@
       <c r="AA50" s="14"/>
       <c r="AB50" s="14"/>
       <c r="AC50" s="14"/>
-      <c r="AD50" s="14"/>
-    </row>
-    <row r="51" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>195</v>
       </c>
@@ -4925,35 +4942,33 @@
         <v>183</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L51" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M51" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="L51" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M51" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="N51" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O51" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P51" s="22" t="s">
+      <c r="O51" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="P51" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q51" s="22" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="R51" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S51" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="S51" s="14"/>
       <c r="T51" s="14"/>
       <c r="U51" s="14"/>
       <c r="V51" s="14"/>
@@ -4964,9 +4979,8 @@
       <c r="AA51" s="14"/>
       <c r="AB51" s="14"/>
       <c r="AC51" s="14"/>
-      <c r="AD51" s="14"/>
-    </row>
-    <row r="52" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>195</v>
       </c>
@@ -4995,35 +5009,33 @@
         <v>205</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L52" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M52" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="L52" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M52" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="N52" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O52" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P52" s="22" t="s">
+      <c r="O52" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="P52" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q52" s="22" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="R52" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S52" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="S52" s="14"/>
       <c r="T52" s="14"/>
       <c r="U52" s="14"/>
       <c r="V52" s="14"/>
@@ -5034,9 +5046,8 @@
       <c r="AA52" s="14"/>
       <c r="AB52" s="14"/>
       <c r="AC52" s="14"/>
-      <c r="AD52" s="14"/>
-    </row>
-    <row r="53" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>58</v>
       </c>
@@ -5065,35 +5076,33 @@
         <v>207</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M53" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="L53" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M53" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="N53" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O53" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P53" s="22" t="s">
+      <c r="O53" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="P53" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q53" s="22" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="R53" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S53" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="S53" s="14"/>
       <c r="T53" s="14"/>
       <c r="U53" s="14"/>
       <c r="V53" s="14"/>
@@ -5104,9 +5113,8 @@
       <c r="AA53" s="14"/>
       <c r="AB53" s="14"/>
       <c r="AC53" s="14"/>
-      <c r="AD53" s="14"/>
-    </row>
-    <row r="54" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>195</v>
       </c>
@@ -5135,35 +5143,33 @@
         <v>182</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L54" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M54" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="L54" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M54" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="N54" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O54" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="P54" s="22" t="s">
+      <c r="O54" s="29" t="s">
         <v>79</v>
       </c>
+      <c r="P54" s="29" t="s">
+        <v>80</v>
+      </c>
       <c r="Q54" s="22" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="R54" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="S54" s="22" t="s">
         <v>194</v>
       </c>
+      <c r="S54" s="14"/>
       <c r="T54" s="14"/>
       <c r="U54" s="14"/>
       <c r="V54" s="14"/>
@@ -5174,9 +5180,8 @@
       <c r="AA54" s="14"/>
       <c r="AB54" s="14"/>
       <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -5205,35 +5210,33 @@
         <v>210</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M55" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="L55" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="N55" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O55" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P55" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q55" s="23" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="R55" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="S55" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
@@ -5244,9 +5247,8 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -5275,35 +5277,33 @@
         <v>211</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M56" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="L56" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="N56" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O56" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P56" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q56" s="23" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="R56" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="S56" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
@@ -5314,9 +5314,8 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -5345,35 +5344,33 @@
         <v>182</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M57" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="L57" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="N57" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O57" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P57" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q57" s="23" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="R57" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="S57" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
@@ -5384,9 +5381,8 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -5415,35 +5411,33 @@
         <v>210</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M58" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="L58" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="N58" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O58" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P58" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q58" s="23" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="R58" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="S58" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
@@ -5454,9 +5448,8 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -5485,35 +5478,33 @@
         <v>182</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M59" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="L59" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="N59" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O59" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P59" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q59" s="23" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="R59" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="S59" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
@@ -5524,9 +5515,8 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -5555,35 +5545,33 @@
         <v>211</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M60" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="L60" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="N60" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O60" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P60" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q60" s="23" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="R60" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="S60" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
@@ -5594,9 +5582,8 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>195</v>
       </c>
@@ -5625,35 +5612,33 @@
         <v>212</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M61" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="L61" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="N61" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O61" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P61" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q61" s="23" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="R61" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="S61" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
@@ -5664,9 +5649,8 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>195</v>
       </c>
@@ -5695,35 +5679,33 @@
         <v>205</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M62" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="L62" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="N62" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O62" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P62" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q62" s="23" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
       <c r="R62" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="S62" s="23" t="s">
         <v>213</v>
       </c>
+      <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
@@ -5734,9 +5716,8 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-    </row>
-    <row r="63" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>195</v>
       </c>
@@ -5764,28 +5745,34 @@
       <c r="I63" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
+      <c r="J63" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K63" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L63" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="N63" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P63" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q63" s="14" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R63" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="S63" s="14" t="s">
         <v>221</v>
       </c>
+      <c r="S63" s="14"/>
       <c r="T63" s="14"/>
       <c r="U63" s="14"/>
       <c r="V63" s="14"/>
@@ -5796,9 +5783,8 @@
       <c r="AA63" s="14"/>
       <c r="AB63" s="14"/>
       <c r="AC63" s="14"/>
-      <c r="AD63" s="14"/>
-    </row>
-    <row r="64" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>195</v>
       </c>
@@ -5826,28 +5812,34 @@
       <c r="I64" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
+      <c r="J64" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K64" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L64" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="N64" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P64" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q64" s="14" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R64" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="S64" s="14" t="s">
         <v>221</v>
       </c>
+      <c r="S64" s="14"/>
       <c r="T64" s="14"/>
       <c r="U64" s="14"/>
       <c r="V64" s="14"/>
@@ -5858,9 +5850,8 @@
       <c r="AA64" s="14"/>
       <c r="AB64" s="14"/>
       <c r="AC64" s="14"/>
-      <c r="AD64" s="14"/>
-    </row>
-    <row r="65" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>195</v>
       </c>
@@ -5888,28 +5879,34 @@
       <c r="I65" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
+      <c r="J65" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L65" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="N65" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P65" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q65" s="14" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R65" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="S65" s="14" t="s">
         <v>221</v>
       </c>
+      <c r="S65" s="14"/>
       <c r="T65" s="14"/>
       <c r="U65" s="14"/>
       <c r="V65" s="14"/>
@@ -5920,58 +5917,63 @@
       <c r="AA65" s="14"/>
       <c r="AB65" s="14"/>
       <c r="AC65" s="14"/>
-      <c r="AD65" s="14"/>
-    </row>
-    <row r="66" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+    </row>
+    <row r="66" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="14" t="s">
+      <c r="B66" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
+      <c r="J66" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L66" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="N66" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O66" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P66" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q66" s="14" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R66" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="S66" s="14" t="s">
         <v>221</v>
       </c>
+      <c r="S66" s="14"/>
       <c r="T66" s="14"/>
       <c r="U66" s="14"/>
       <c r="V66" s="14"/>
@@ -5982,58 +5984,63 @@
       <c r="AA66" s="14"/>
       <c r="AB66" s="14"/>
       <c r="AC66" s="14"/>
-      <c r="AD66" s="14"/>
-    </row>
-    <row r="67" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+    </row>
+    <row r="67" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="14" t="s">
+      <c r="B67" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
+      <c r="J67" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K67" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L67" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="N67" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P67" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q67" s="14" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R67" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="S67" s="14" t="s">
         <v>221</v>
       </c>
+      <c r="S67" s="14"/>
       <c r="T67" s="14"/>
       <c r="U67" s="14"/>
       <c r="V67" s="14"/>
@@ -6044,9 +6051,8 @@
       <c r="AA67" s="14"/>
       <c r="AB67" s="14"/>
       <c r="AC67" s="14"/>
-      <c r="AD67" s="14"/>
-    </row>
-    <row r="68" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>58</v>
       </c>
@@ -6074,28 +6080,34 @@
       <c r="I68" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
+      <c r="J68" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L68" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="N68" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P68" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q68" s="14" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R68" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="S68" s="14" t="s">
         <v>221</v>
       </c>
+      <c r="S68" s="14"/>
       <c r="T68" s="14"/>
       <c r="U68" s="14"/>
       <c r="V68" s="14"/>
@@ -6106,9 +6118,8 @@
       <c r="AA68" s="14"/>
       <c r="AB68" s="14"/>
       <c r="AC68" s="14"/>
-      <c r="AD68" s="14"/>
-    </row>
-    <row r="69" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>58</v>
       </c>
@@ -6136,28 +6147,34 @@
       <c r="I69" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
+      <c r="J69" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K69" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L69" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="N69" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P69" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q69" s="14" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R69" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="S69" s="14" t="s">
         <v>221</v>
       </c>
+      <c r="S69" s="14"/>
       <c r="T69" s="14"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
@@ -6168,9 +6185,8 @@
       <c r="AA69" s="14"/>
       <c r="AB69" s="14"/>
       <c r="AC69" s="14"/>
-      <c r="AD69" s="14"/>
-    </row>
-    <row r="70" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>58</v>
       </c>
@@ -6198,28 +6214,34 @@
       <c r="I70" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
+      <c r="J70" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K70" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L70" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M70" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="N70" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P70" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q70" s="14" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R70" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="S70" s="14" t="s">
         <v>221</v>
       </c>
+      <c r="S70" s="14"/>
       <c r="T70" s="14"/>
       <c r="U70" s="14"/>
       <c r="V70" s="14"/>
@@ -6230,9 +6252,8 @@
       <c r="AA70" s="14"/>
       <c r="AB70" s="14"/>
       <c r="AC70" s="14"/>
-      <c r="AD70" s="14"/>
-    </row>
-    <row r="71" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>58</v>
       </c>
@@ -6260,28 +6281,34 @@
       <c r="I71" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
+      <c r="J71" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K71" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L71" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M71" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="N71" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P71" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q71" s="14" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R71" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="S71" s="14" t="s">
         <v>221</v>
       </c>
+      <c r="S71" s="14"/>
       <c r="T71" s="14"/>
       <c r="U71" s="14"/>
       <c r="V71" s="14"/>
@@ -6292,9 +6319,8 @@
       <c r="AA71" s="14"/>
       <c r="AB71" s="14"/>
       <c r="AC71" s="14"/>
-      <c r="AD71" s="14"/>
-    </row>
-    <row r="72" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>58</v>
       </c>
@@ -6322,28 +6348,34 @@
       <c r="I72" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
+      <c r="J72" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K72" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L72" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M72" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="N72" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P72" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q72" s="14" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R72" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="S72" s="14" t="s">
         <v>221</v>
       </c>
+      <c r="S72" s="14"/>
       <c r="T72" s="14"/>
       <c r="U72" s="14"/>
       <c r="V72" s="14"/>
@@ -6354,9 +6386,8 @@
       <c r="AA72" s="14"/>
       <c r="AB72" s="14"/>
       <c r="AC72" s="14"/>
-      <c r="AD72" s="14"/>
-    </row>
-    <row r="73" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>195</v>
       </c>
@@ -6384,28 +6415,34 @@
       <c r="I73" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
+      <c r="J73" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K73" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="L73" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="N73" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P73" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q73" s="14" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="R73" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="S73" s="14" t="s">
         <v>221</v>
       </c>
+      <c r="S73" s="14"/>
       <c r="T73" s="14"/>
       <c r="U73" s="14"/>
       <c r="V73" s="14"/>
@@ -6416,9 +6453,8 @@
       <c r="AA73" s="14"/>
       <c r="AB73" s="14"/>
       <c r="AC73" s="14"/>
-      <c r="AD73" s="14"/>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>58</v>
       </c>
@@ -6446,17 +6482,31 @@
       <c r="I74" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1" t="s">
+      <c r="J74" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K74" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L74" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q74" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
@@ -6468,26 +6518,58 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
+      <c r="H75" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
+      <c r="O75" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q75" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
@@ -6499,26 +6581,56 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-      <c r="AD75" s="1"/>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
+      <c r="H76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L76" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M76" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
+      <c r="O76" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q76" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
@@ -6530,26 +6642,56 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-      <c r="AD76" s="1"/>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
+      <c r="H77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L77" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M77" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
+      <c r="O77" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q77" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
@@ -6561,26 +6703,56 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-      <c r="AD77" s="1"/>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
+      <c r="H78" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L78" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M78" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
+      <c r="O78" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q78" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
@@ -6592,26 +6764,56 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
+      <c r="H79" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L79" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M79" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
+      <c r="O79" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q79" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
@@ -6623,26 +6825,56 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
+      <c r="H80" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J80" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K80" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L80" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M80" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
+      <c r="O80" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q80" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
@@ -6654,26 +6886,56 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J81" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="K81" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L81" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M81" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
+      <c r="O81" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q81" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>543</v>
+      </c>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
@@ -6685,26 +6947,58 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
+      <c r="H82" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M82" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
+      <c r="O82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
@@ -6716,26 +7010,58 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
-      <c r="AD82" s="1"/>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
+      <c r="H83" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J83" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L83" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M83" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
+      <c r="O83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -6747,26 +7073,56 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
+      <c r="H84" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J84" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L84" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M84" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
+      <c r="O84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
@@ -6778,26 +7134,56 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
-      <c r="AD84" s="1"/>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
+      <c r="H85" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J85" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L85" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M85" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
+      <c r="O85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -6809,26 +7195,56 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
+      <c r="H86" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J86" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L86" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M86" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
+      <c r="O86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
@@ -6840,26 +7256,56 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
+      <c r="H87" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J87" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L87" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M87" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
+      <c r="O87" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
@@ -6871,26 +7317,56 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
+      <c r="H88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J88" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L88" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M88" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1"/>
+      <c r="O88" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
@@ -6902,26 +7378,56 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
-      <c r="AD88" s="1"/>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
+      <c r="H89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J89" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="L89" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M89" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
+      <c r="O89" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>544</v>
+      </c>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
@@ -6933,26 +7439,58 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
-      <c r="AD89" s="1"/>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
+      <c r="H90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J90" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L90" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M90" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
+      <c r="O90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P90" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
@@ -6964,26 +7502,58 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
+      <c r="H91" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L91" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M91" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
+      <c r="O91" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P91" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
@@ -6995,26 +7565,56 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
-      <c r="AD91" s="1"/>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
+      <c r="H92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J92" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K92" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L92" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M92" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
+      <c r="O92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P92" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
@@ -7026,26 +7626,56 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
-      <c r="AD92" s="1"/>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
+      <c r="H93" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J93" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L93" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M93" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
+      <c r="O93" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P93" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
@@ -7057,26 +7687,56 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
-      <c r="AD93" s="1"/>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
+      <c r="H94" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J94" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L94" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M94" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
+      <c r="O94" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P94" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
@@ -7088,26 +7748,56 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
-      <c r="AD94" s="1"/>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
+      <c r="H95" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="J95" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L95" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M95" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
+      <c r="O95" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P95" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
@@ -7119,26 +7809,56 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
-      <c r="AD95" s="1"/>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
+      <c r="H96" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J96" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L96" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M96" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
+      <c r="O96" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P96" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
@@ -7150,26 +7870,56 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
-      <c r="AD96" s="1"/>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
+      <c r="H97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J97" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L97" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M97" s="23" t="s">
+        <v>80</v>
+      </c>
       <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
+      <c r="O97" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P97" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>545</v>
+      </c>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
@@ -7181,17 +7931,33 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
-      <c r="AD97" s="1"/>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="H98" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -7212,17 +7978,33 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
-      <c r="AD98" s="1"/>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="H99" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -7243,17 +8025,31 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
-      <c r="AD99" s="1"/>
-    </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="H100" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -7274,17 +8070,31 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
-      <c r="AD100" s="1"/>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="H101" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -7305,17 +8115,31 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
-      <c r="AD101" s="1"/>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="H102" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -7336,7 +8160,246 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
-      <c r="AD102" s="1"/>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I103">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I104">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106">
+        <v>25</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E107">
+        <v>25</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I108">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I111">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F113" s="1"/>
+      <c r="H113" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18173,7 +19236,7 @@
         <v>375</v>
       </c>
       <c r="Z276" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AC276" t="s">
         <v>247</v>
@@ -18223,7 +19286,7 @@
         <v>375</v>
       </c>
       <c r="Z277" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AC277" t="s">
         <v>153</v>
@@ -18273,7 +19336,7 @@
         <v>376</v>
       </c>
       <c r="Z278" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="279" spans="1:29" x14ac:dyDescent="0.25">
@@ -18320,7 +19383,7 @@
         <v>375</v>
       </c>
       <c r="Z279" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AC279" t="s">
         <v>244</v>
@@ -18370,7 +19433,7 @@
         <v>377</v>
       </c>
       <c r="Z280" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AC280" t="s">
         <v>174</v>
@@ -18420,7 +19483,7 @@
         <v>376</v>
       </c>
       <c r="Z281" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="282" spans="1:29" x14ac:dyDescent="0.25">
@@ -18467,7 +19530,7 @@
         <v>376</v>
       </c>
       <c r="Z282" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="283" spans="1:29" x14ac:dyDescent="0.25">
@@ -18514,7 +19577,7 @@
         <v>375</v>
       </c>
       <c r="Z283" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AC283" t="s">
         <v>133</v>
@@ -18564,7 +19627,7 @@
         <v>377</v>
       </c>
       <c r="Z284" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AC284" t="s">
         <v>170</v>
@@ -18614,7 +19677,7 @@
         <v>377</v>
       </c>
       <c r="Z285" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AC285" t="s">
         <v>176</v>
@@ -18664,7 +19727,7 @@
         <v>376</v>
       </c>
       <c r="Z286" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="287" spans="1:29" x14ac:dyDescent="0.25">
@@ -18711,7 +19774,7 @@
         <v>377</v>
       </c>
       <c r="Z287" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AC287" t="s">
         <v>395</v>
@@ -18761,7 +19824,7 @@
         <v>375</v>
       </c>
       <c r="Z288" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AC288" t="s">
         <v>431</v>
@@ -18811,7 +19874,7 @@
         <v>375</v>
       </c>
       <c r="Z289" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AC289" t="s">
         <v>132</v>
@@ -18861,7 +19924,7 @@
         <v>376</v>
       </c>
       <c r="Z290" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="291" spans="1:29" x14ac:dyDescent="0.25">
@@ -18908,7 +19971,7 @@
         <v>377</v>
       </c>
       <c r="Z291" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AC291" t="s">
         <v>175</v>
@@ -18958,7 +20021,7 @@
         <v>376</v>
       </c>
       <c r="Z292" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="293" spans="1:29" x14ac:dyDescent="0.25">
@@ -19005,7 +20068,7 @@
         <v>377</v>
       </c>
       <c r="Z293" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AC293" t="s">
         <v>154</v>
@@ -19055,7 +20118,7 @@
         <v>376</v>
       </c>
       <c r="Z294" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="295" spans="1:29" x14ac:dyDescent="0.25">
@@ -19105,7 +20168,7 @@
         <v>376</v>
       </c>
       <c r="Z295" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="296" spans="1:29" x14ac:dyDescent="0.25">
@@ -19149,7 +20212,7 @@
         <v>376</v>
       </c>
       <c r="Z296" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="297" spans="1:29" x14ac:dyDescent="0.25">
@@ -19193,7 +20256,7 @@
         <v>377</v>
       </c>
       <c r="Z297" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AC297" t="s">
         <v>153</v>
@@ -19246,7 +20309,7 @@
         <v>376</v>
       </c>
       <c r="Z298" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="299" spans="1:29" x14ac:dyDescent="0.25">
@@ -19293,7 +20356,7 @@
         <v>376</v>
       </c>
       <c r="Z299" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="300" spans="1:29" x14ac:dyDescent="0.25">
@@ -19340,7 +20403,7 @@
         <v>375</v>
       </c>
       <c r="Z300" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AC300" t="s">
         <v>154</v>
@@ -19390,7 +20453,7 @@
         <v>376</v>
       </c>
       <c r="Z301" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="302" spans="1:29" x14ac:dyDescent="0.25">
@@ -19437,7 +20500,7 @@
         <v>375</v>
       </c>
       <c r="Z302" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AC302" t="s">
         <v>124</v>
@@ -19487,7 +20550,7 @@
         <v>375</v>
       </c>
       <c r="Z303" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AC303" t="s">
         <v>249</v>
@@ -19537,7 +20600,7 @@
         <v>377</v>
       </c>
       <c r="Z304" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AC304" t="s">
         <v>149</v>
@@ -19587,7 +20650,7 @@
         <v>376</v>
       </c>
       <c r="Z305" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="306" spans="1:29" x14ac:dyDescent="0.25">
@@ -19634,7 +20697,7 @@
         <v>376</v>
       </c>
       <c r="Z306" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="307" spans="1:29" x14ac:dyDescent="0.25">
@@ -19681,7 +20744,7 @@
         <v>375</v>
       </c>
       <c r="Z307" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AC307" t="s">
         <v>160</v>
@@ -19731,7 +20794,7 @@
         <v>375</v>
       </c>
       <c r="Z308" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AC308" t="s">
         <v>169</v>
@@ -19781,7 +20844,7 @@
         <v>375</v>
       </c>
       <c r="Z309" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AC309" t="s">
         <v>131</v>
@@ -19831,7 +20894,7 @@
         <v>377</v>
       </c>
       <c r="Z310" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AC310" t="s">
         <v>141</v>
@@ -19881,7 +20944,7 @@
         <v>376</v>
       </c>
       <c r="Z311" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="312" spans="1:29" x14ac:dyDescent="0.25">
@@ -19928,7 +20991,7 @@
         <v>375</v>
       </c>
       <c r="Z312" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AC312" t="s">
         <v>166</v>
@@ -19978,7 +21041,7 @@
         <v>376</v>
       </c>
       <c r="Z313" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="314" spans="1:29" x14ac:dyDescent="0.25">
@@ -20025,7 +21088,7 @@
         <v>377</v>
       </c>
       <c r="Z314" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AC314" t="s">
         <v>172</v>
@@ -20075,7 +21138,7 @@
         <v>377</v>
       </c>
       <c r="Z315" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AC315" t="s">
         <v>164</v>
@@ -20125,7 +21188,7 @@
         <v>377</v>
       </c>
       <c r="Z316" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AC316" t="s">
         <v>138</v>
@@ -20175,7 +21238,7 @@
         <v>377</v>
       </c>
       <c r="Z317" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AC317" t="s">
         <v>161</v>
@@ -20222,7 +21285,7 @@
         <v>376</v>
       </c>
       <c r="Z318" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="319" spans="1:29" x14ac:dyDescent="0.25">
@@ -20269,7 +21332,7 @@
         <v>377</v>
       </c>
       <c r="Z319" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AC319" t="s">
         <v>250</v>
@@ -28835,8 +29898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD836908-61FC-4C6A-BB55-EB17A2B99FDD}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28867,10 +29930,10 @@
         <v>224</v>
       </c>
       <c r="G1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I1" t="s">
         <v>226</v>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A4D08-61DA-4567-8EEA-B1ABF9D3F127}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD9EE7-A1C8-453A-8634-5DF668C1A24A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -2144,9 +2144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O103" sqref="O103"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5209,7 +5209,7 @@
       <c r="I55" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="26" t="s">
         <v>73</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -5276,7 +5276,7 @@
       <c r="I56" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="26" t="s">
         <v>73</v>
       </c>
       <c r="K56" s="1" t="s">
@@ -5343,7 +5343,7 @@
       <c r="I57" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="26" t="s">
         <v>73</v>
       </c>
       <c r="K57" s="1" t="s">
@@ -5410,7 +5410,7 @@
       <c r="I58" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="26" t="s">
         <v>73</v>
       </c>
       <c r="K58" s="1" t="s">
@@ -5477,7 +5477,7 @@
       <c r="I59" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="26" t="s">
         <v>73</v>
       </c>
       <c r="K59" s="1" t="s">
@@ -5544,7 +5544,7 @@
       <c r="I60" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="26" t="s">
         <v>73</v>
       </c>
       <c r="K60" s="1" t="s">
@@ -5611,7 +5611,7 @@
       <c r="I61" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="26" t="s">
         <v>73</v>
       </c>
       <c r="K61" s="1" t="s">
@@ -5678,7 +5678,7 @@
       <c r="I62" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="26" t="s">
         <v>73</v>
       </c>
       <c r="K62" s="1" t="s">
@@ -8411,9 +8411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS589"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U297" sqref="U297"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O582" sqref="O582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD9EE7-A1C8-453A-8634-5DF668C1A24A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456FEF1B-CDA0-46FD-BB8E-EAF639FABE80}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -21,6 +21,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -8412,8 +8417,8 @@
   <dimension ref="A1:AS589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O582" sqref="O582"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O318" sqref="O318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19229,6 +19234,9 @@
       <c r="N276">
         <v>0.12277009999999999</v>
       </c>
+      <c r="O276">
+        <v>9.9290000000000003</v>
+      </c>
       <c r="T276" s="1" t="s">
         <v>74</v>
       </c>
@@ -19279,6 +19287,9 @@
       <c r="N277">
         <v>0.70028290000000004</v>
       </c>
+      <c r="O277">
+        <v>7.0609999999999999</v>
+      </c>
       <c r="T277" s="1" t="s">
         <v>74</v>
       </c>
@@ -19329,6 +19340,9 @@
       <c r="N278" s="21">
         <v>6.7837389999999997E-2</v>
       </c>
+      <c r="O278">
+        <v>7.3390000000000004</v>
+      </c>
       <c r="T278" s="1" t="s">
         <v>74</v>
       </c>
@@ -19376,6 +19390,9 @@
       <c r="N279">
         <v>0.46603889999999998</v>
       </c>
+      <c r="O279">
+        <v>5.7560000000000002</v>
+      </c>
       <c r="T279" s="1" t="s">
         <v>74</v>
       </c>
@@ -19426,6 +19443,9 @@
       <c r="N280" s="21">
         <v>9.7149630000000001E-2</v>
       </c>
+      <c r="O280">
+        <v>8.1379999999999999</v>
+      </c>
       <c r="T280" s="1" t="s">
         <v>74</v>
       </c>
@@ -19476,6 +19496,9 @@
       <c r="N281">
         <v>0.59092040000000001</v>
       </c>
+      <c r="O281">
+        <v>5.7530000000000001</v>
+      </c>
       <c r="T281" s="1" t="s">
         <v>74</v>
       </c>
@@ -19523,6 +19546,9 @@
       <c r="N282">
         <v>0.1025996</v>
       </c>
+      <c r="O282">
+        <v>5.835</v>
+      </c>
       <c r="T282" s="1" t="s">
         <v>74</v>
       </c>
@@ -19570,6 +19596,9 @@
       <c r="N283">
         <v>0.1445264</v>
       </c>
+      <c r="O283">
+        <v>8.5</v>
+      </c>
       <c r="T283" s="1" t="s">
         <v>74</v>
       </c>
@@ -19620,6 +19649,9 @@
       <c r="N284">
         <v>0.7662523</v>
       </c>
+      <c r="O284">
+        <v>7.8810000000000002</v>
+      </c>
       <c r="T284" s="1" t="s">
         <v>74</v>
       </c>
@@ -19670,6 +19702,9 @@
       <c r="N285">
         <v>0.79609700000000005</v>
       </c>
+      <c r="O285">
+        <v>8.093</v>
+      </c>
       <c r="T285" s="1" t="s">
         <v>74</v>
       </c>
@@ -19720,6 +19755,9 @@
       <c r="N286">
         <v>0.11193790000000001</v>
       </c>
+      <c r="O286">
+        <v>6.8730000000000002</v>
+      </c>
       <c r="T286" s="1" t="s">
         <v>74</v>
       </c>
@@ -19767,6 +19805,9 @@
       <c r="N287">
         <v>0.80031540000000001</v>
       </c>
+      <c r="O287">
+        <v>9.1649999999999991</v>
+      </c>
       <c r="T287" s="1" t="s">
         <v>74</v>
       </c>
@@ -19817,6 +19858,9 @@
       <c r="N288">
         <v>0.1230512</v>
       </c>
+      <c r="O288">
+        <v>9.0359999999999996</v>
+      </c>
       <c r="T288" s="1" t="s">
         <v>74</v>
       </c>
@@ -19867,6 +19911,9 @@
       <c r="N289">
         <v>0.10142959999999999</v>
       </c>
+      <c r="O289">
+        <v>8.7129999999999992</v>
+      </c>
       <c r="T289" s="1" t="s">
         <v>74</v>
       </c>
@@ -19917,6 +19964,9 @@
       <c r="N290" s="21">
         <v>8.0545110000000003E-2</v>
       </c>
+      <c r="O290">
+        <v>8.1890000000000001</v>
+      </c>
       <c r="T290" s="1" t="s">
         <v>74</v>
       </c>
@@ -19964,6 +20014,9 @@
       <c r="N291">
         <v>0.5833024</v>
       </c>
+      <c r="O291">
+        <v>2.5009999999999999</v>
+      </c>
       <c r="T291" s="1" t="s">
         <v>74</v>
       </c>
@@ -20014,6 +20067,9 @@
       <c r="N292">
         <v>0.52003160000000004</v>
       </c>
+      <c r="O292">
+        <v>6.3010000000000002</v>
+      </c>
       <c r="T292" s="1" t="s">
         <v>74</v>
       </c>
@@ -20061,6 +20117,9 @@
       <c r="N293" s="21">
         <v>8.6169090000000004E-2</v>
       </c>
+      <c r="O293">
+        <v>6.0869999999999997</v>
+      </c>
       <c r="T293" s="1" t="s">
         <v>74</v>
       </c>
@@ -20111,6 +20170,9 @@
       <c r="N294" s="21">
         <v>7.3894829999999995E-2</v>
       </c>
+      <c r="O294">
+        <v>8.4649999999999999</v>
+      </c>
       <c r="T294" s="1" t="s">
         <v>74</v>
       </c>
@@ -20161,6 +20223,9 @@
       <c r="N295">
         <v>0.68196570000000001</v>
       </c>
+      <c r="O295">
+        <v>7.319</v>
+      </c>
       <c r="T295" s="1" t="s">
         <v>74</v>
       </c>
@@ -20302,6 +20367,9 @@
       <c r="N298">
         <v>0.21415609999999999</v>
       </c>
+      <c r="O298">
+        <v>9.6630000000000003</v>
+      </c>
       <c r="T298" s="1" t="s">
         <v>74</v>
       </c>
@@ -20349,6 +20417,9 @@
       <c r="N299">
         <v>1.54416</v>
       </c>
+      <c r="O299">
+        <v>10.476000000000001</v>
+      </c>
       <c r="T299" s="1" t="s">
         <v>74</v>
       </c>
@@ -20396,6 +20467,9 @@
       <c r="N300">
         <v>1.456161</v>
       </c>
+      <c r="O300">
+        <v>8.2170000000000005</v>
+      </c>
       <c r="T300" s="1" t="s">
         <v>74</v>
       </c>
@@ -20446,6 +20520,9 @@
       <c r="N301">
         <v>0.15702050000000001</v>
       </c>
+      <c r="O301">
+        <v>9.5839999999999996</v>
+      </c>
       <c r="T301" s="1" t="s">
         <v>74</v>
       </c>
@@ -20493,6 +20570,9 @@
       <c r="N302">
         <v>1.242848</v>
       </c>
+      <c r="O302">
+        <v>8.7010000000000005</v>
+      </c>
       <c r="T302" s="1" t="s">
         <v>74</v>
       </c>
@@ -20543,6 +20623,9 @@
       <c r="N303" s="21">
         <v>8.9593690000000004E-2</v>
       </c>
+      <c r="O303">
+        <v>6.6660000000000004</v>
+      </c>
       <c r="T303" s="1" t="s">
         <v>74</v>
       </c>
@@ -20593,6 +20676,9 @@
       <c r="N304">
         <v>0.88852350000000002</v>
       </c>
+      <c r="O304">
+        <v>6.25</v>
+      </c>
       <c r="T304" s="1" t="s">
         <v>74</v>
       </c>
@@ -20643,6 +20729,9 @@
       <c r="N305">
         <v>1.329091</v>
       </c>
+      <c r="O305">
+        <v>7.6050000000000004</v>
+      </c>
       <c r="T305" s="1" t="s">
         <v>74</v>
       </c>
@@ -20690,6 +20779,9 @@
       <c r="N306">
         <v>1.511344</v>
       </c>
+      <c r="O306">
+        <v>7.0229999999999997</v>
+      </c>
       <c r="T306" s="1" t="s">
         <v>74</v>
       </c>
@@ -20737,6 +20829,9 @@
       <c r="N307">
         <v>0.16845199999999999</v>
       </c>
+      <c r="O307">
+        <v>6.1989999999999998</v>
+      </c>
       <c r="T307" s="1" t="s">
         <v>74</v>
       </c>
@@ -20787,6 +20882,9 @@
       <c r="N308">
         <v>0.1916591</v>
       </c>
+      <c r="O308">
+        <v>9.1940000000000008</v>
+      </c>
       <c r="T308" s="1" t="s">
         <v>74</v>
       </c>
@@ -20837,6 +20935,9 @@
       <c r="N309">
         <v>0.22653429999999999</v>
       </c>
+      <c r="O309">
+        <v>7.2949999999999999</v>
+      </c>
       <c r="T309" s="1" t="s">
         <v>74</v>
       </c>
@@ -20887,6 +20988,9 @@
       <c r="N310">
         <v>0.46903630000000002</v>
       </c>
+      <c r="O310">
+        <v>3.5070000000000001</v>
+      </c>
       <c r="T310" s="1" t="s">
         <v>74</v>
       </c>
@@ -20937,6 +21041,9 @@
       <c r="N311">
         <v>0.98061030000000005</v>
       </c>
+      <c r="O311">
+        <v>7.0060000000000002</v>
+      </c>
       <c r="T311" s="1" t="s">
         <v>74</v>
       </c>
@@ -20984,6 +21091,9 @@
       <c r="N312">
         <v>0.133075</v>
       </c>
+      <c r="O312">
+        <v>5.2249999999999996</v>
+      </c>
       <c r="T312" s="1" t="s">
         <v>74</v>
       </c>
@@ -21034,6 +21144,9 @@
       <c r="N313">
         <v>1.2619419999999999</v>
       </c>
+      <c r="O313">
+        <v>7.7329999999999997</v>
+      </c>
       <c r="T313" s="1" t="s">
         <v>74</v>
       </c>
@@ -21081,6 +21194,9 @@
       <c r="N314">
         <v>1.1777489999999999</v>
       </c>
+      <c r="O314">
+        <v>8.9610000000000003</v>
+      </c>
       <c r="T314" s="1" t="s">
         <v>74</v>
       </c>
@@ -21131,6 +21247,9 @@
       <c r="N315">
         <v>0.16995160000000001</v>
       </c>
+      <c r="O315">
+        <v>6.0350000000000001</v>
+      </c>
       <c r="T315" s="1" t="s">
         <v>74</v>
       </c>
@@ -21181,6 +21300,9 @@
       <c r="N316">
         <v>0.1100877</v>
       </c>
+      <c r="O316">
+        <v>5.415</v>
+      </c>
       <c r="T316" s="1" t="s">
         <v>74</v>
       </c>
@@ -21230,6 +21352,9 @@
       </c>
       <c r="N317">
         <v>0.14432429999999999</v>
+      </c>
+      <c r="O317">
+        <v>7.7619999999999996</v>
       </c>
       <c r="T317" s="1" t="s">
         <v>74</v>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD9EE7-A1C8-453A-8634-5DF668C1A24A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C7077F-0E16-4B76-93E7-0EC740EF49CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="2" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -8411,7 +8411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A564" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O582" sqref="O582"/>
     </sheetView>
@@ -29898,8 +29898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD836908-61FC-4C6A-BB55-EB17A2B99FDD}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30291,9 +30291,15 @@
       <c r="F13" s="18">
         <v>43338</v>
       </c>
+      <c r="G13">
+        <v>178</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -30315,9 +30321,12 @@
       <c r="F14" s="18">
         <v>43338</v>
       </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -30339,9 +30348,12 @@
       <c r="F15" s="18">
         <v>43338</v>
       </c>
+      <c r="G15">
+        <v>64</v>
+      </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -30440,7 +30452,7 @@
       </c>
       <c r="G31">
         <f>SUM(G2:G30)</f>
-        <v>1285</v>
+        <v>1543</v>
       </c>
       <c r="I31">
         <f>SUM(I2:I30)</f>
@@ -30448,7 +30460,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>1780</v>
+        <v>2038</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFB20C7-C062-4907-8220-11956C4870D6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB9E8C0-ED6C-40E6-9931-C5717A7DD257}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6218" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6243" uniqueCount="557">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -1695,6 +1695,9 @@
   </si>
   <si>
     <t>24</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -2145,8 +2148,8 @@
   <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85:XFD85"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29899,7 +29902,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30357,36 +30360,158 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="11">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12">
+        <v>43339</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I16" s="11"/>
       <c r="J16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="11">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12">
+        <v>43339</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="11"/>
       <c r="J17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="11">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12">
+        <v>43339</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="11"/>
       <c r="J18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19" s="10">
+        <v>43340</v>
+      </c>
+      <c r="H19" s="1"/>
       <c r="J19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20" s="10">
+        <v>43340</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="J20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21" s="10">
+        <v>43340</v>
+      </c>
+      <c r="H21" s="1"/>
       <c r="J21">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8893BF16-9FFC-43D5-8189-F008FE1C5E30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C61F2F-4D52-488E-BE4F-6D24DB6E23EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6539" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7169" uniqueCount="588">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -1703,6 +1703,99 @@
   </si>
   <si>
     <t>a12-1</t>
+  </si>
+  <si>
+    <t>2018-08-28</t>
+  </si>
+  <si>
+    <t>A12-1</t>
+  </si>
+  <si>
+    <t>A12-2</t>
+  </si>
+  <si>
+    <t>A12-3</t>
+  </si>
+  <si>
+    <t>A12-4</t>
+  </si>
+  <si>
+    <t>A12-5</t>
+  </si>
+  <si>
+    <t>A12-6</t>
+  </si>
+  <si>
+    <t>A12-7</t>
+  </si>
+  <si>
+    <t>A12-8</t>
+  </si>
+  <si>
+    <t>A12-9</t>
+  </si>
+  <si>
+    <t>A12-10</t>
+  </si>
+  <si>
+    <t>A12-11</t>
+  </si>
+  <si>
+    <t>A12-12</t>
+  </si>
+  <si>
+    <t>A12-13</t>
+  </si>
+  <si>
+    <t>A12-14</t>
+  </si>
+  <si>
+    <t>A12-15</t>
+  </si>
+  <si>
+    <t>A12-16</t>
+  </si>
+  <si>
+    <t>A12-17</t>
+  </si>
+  <si>
+    <t>A12-18</t>
+  </si>
+  <si>
+    <t>A12-19</t>
+  </si>
+  <si>
+    <t>A12-20</t>
+  </si>
+  <si>
+    <t>A12-21</t>
+  </si>
+  <si>
+    <t>A12-22</t>
+  </si>
+  <si>
+    <t>A12-23</t>
+  </si>
+  <si>
+    <t>A12-24</t>
+  </si>
+  <si>
+    <t>A12-25</t>
+  </si>
+  <si>
+    <t>A12-26</t>
+  </si>
+  <si>
+    <t>A12-27</t>
+  </si>
+  <si>
+    <t>A12-28</t>
+  </si>
+  <si>
+    <t>A12-29</t>
+  </si>
+  <si>
+    <t>A12-30</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2247,7 @@
   <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A85" sqref="A85:XFD85"/>
     </sheetView>
   </sheetViews>
@@ -8418,11 +8511,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
-  <dimension ref="A1:AS629"/>
+  <dimension ref="A1:AS719"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H360" sqref="H360"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC660" sqref="AC660:AC719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -31950,6 +32043,2856 @@
       </c>
       <c r="AC629" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="630" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>1</v>
+      </c>
+      <c r="C630" t="s">
+        <v>59</v>
+      </c>
+      <c r="G630" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I630" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J630">
+        <v>13</v>
+      </c>
+      <c r="K630" t="s">
+        <v>61</v>
+      </c>
+      <c r="T630" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y630" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z630" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="631" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>2</v>
+      </c>
+      <c r="C631" t="s">
+        <v>59</v>
+      </c>
+      <c r="G631" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I631" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J631">
+        <v>13</v>
+      </c>
+      <c r="K631" t="s">
+        <v>61</v>
+      </c>
+      <c r="T631" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y631" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z631" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="632" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>3</v>
+      </c>
+      <c r="C632" t="s">
+        <v>59</v>
+      </c>
+      <c r="G632" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I632" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J632">
+        <v>13</v>
+      </c>
+      <c r="K632" t="s">
+        <v>61</v>
+      </c>
+      <c r="T632" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y632" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z632" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="633" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>4</v>
+      </c>
+      <c r="C633" t="s">
+        <v>59</v>
+      </c>
+      <c r="G633" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I633" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J633">
+        <v>13</v>
+      </c>
+      <c r="K633" t="s">
+        <v>61</v>
+      </c>
+      <c r="T633" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y633" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z633" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="634" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>5</v>
+      </c>
+      <c r="C634" t="s">
+        <v>59</v>
+      </c>
+      <c r="G634" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I634" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J634">
+        <v>13</v>
+      </c>
+      <c r="K634" t="s">
+        <v>61</v>
+      </c>
+      <c r="T634" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y634" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z634" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="635" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>6</v>
+      </c>
+      <c r="C635" t="s">
+        <v>59</v>
+      </c>
+      <c r="G635" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I635" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J635">
+        <v>13</v>
+      </c>
+      <c r="K635" t="s">
+        <v>61</v>
+      </c>
+      <c r="T635" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y635" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z635" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="636" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>7</v>
+      </c>
+      <c r="C636" t="s">
+        <v>59</v>
+      </c>
+      <c r="G636" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I636" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J636">
+        <v>13</v>
+      </c>
+      <c r="K636" t="s">
+        <v>61</v>
+      </c>
+      <c r="T636" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y636" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z636" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="637" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>8</v>
+      </c>
+      <c r="C637" t="s">
+        <v>59</v>
+      </c>
+      <c r="G637" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I637" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J637">
+        <v>13</v>
+      </c>
+      <c r="K637" t="s">
+        <v>61</v>
+      </c>
+      <c r="T637" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y637" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z637" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="638" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>9</v>
+      </c>
+      <c r="C638" t="s">
+        <v>59</v>
+      </c>
+      <c r="G638" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I638" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J638">
+        <v>13</v>
+      </c>
+      <c r="K638" t="s">
+        <v>61</v>
+      </c>
+      <c r="T638" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y638" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z638" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="639" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>10</v>
+      </c>
+      <c r="C639" t="s">
+        <v>59</v>
+      </c>
+      <c r="G639" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I639" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J639">
+        <v>13</v>
+      </c>
+      <c r="K639" t="s">
+        <v>61</v>
+      </c>
+      <c r="T639" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y639" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z639" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="640" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>11</v>
+      </c>
+      <c r="C640" t="s">
+        <v>59</v>
+      </c>
+      <c r="G640" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I640" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J640">
+        <v>13</v>
+      </c>
+      <c r="K640" t="s">
+        <v>61</v>
+      </c>
+      <c r="T640" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y640" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z640" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="641" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>12</v>
+      </c>
+      <c r="C641" t="s">
+        <v>59</v>
+      </c>
+      <c r="G641" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I641" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J641">
+        <v>13</v>
+      </c>
+      <c r="K641" t="s">
+        <v>61</v>
+      </c>
+      <c r="T641" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y641" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z641" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="642" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>13</v>
+      </c>
+      <c r="C642" t="s">
+        <v>59</v>
+      </c>
+      <c r="G642" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I642" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J642">
+        <v>13</v>
+      </c>
+      <c r="K642" t="s">
+        <v>61</v>
+      </c>
+      <c r="T642" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y642" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z642" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="643" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>14</v>
+      </c>
+      <c r="C643" t="s">
+        <v>59</v>
+      </c>
+      <c r="G643" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I643" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J643">
+        <v>13</v>
+      </c>
+      <c r="K643" t="s">
+        <v>61</v>
+      </c>
+      <c r="T643" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y643" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z643" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="644" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>15</v>
+      </c>
+      <c r="C644" t="s">
+        <v>59</v>
+      </c>
+      <c r="G644" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I644" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J644">
+        <v>13</v>
+      </c>
+      <c r="K644" t="s">
+        <v>61</v>
+      </c>
+      <c r="T644" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y644" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z644" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="645" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>16</v>
+      </c>
+      <c r="C645" t="s">
+        <v>60</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I645" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J645">
+        <v>13</v>
+      </c>
+      <c r="K645" t="s">
+        <v>61</v>
+      </c>
+      <c r="T645" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y645" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z645" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="646" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>17</v>
+      </c>
+      <c r="C646" t="s">
+        <v>60</v>
+      </c>
+      <c r="G646" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I646" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J646">
+        <v>13</v>
+      </c>
+      <c r="K646" t="s">
+        <v>61</v>
+      </c>
+      <c r="T646" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y646" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z646" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="647" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>18</v>
+      </c>
+      <c r="C647" t="s">
+        <v>60</v>
+      </c>
+      <c r="G647" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I647" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J647">
+        <v>13</v>
+      </c>
+      <c r="K647" t="s">
+        <v>61</v>
+      </c>
+      <c r="T647" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y647" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z647" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="648" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>19</v>
+      </c>
+      <c r="C648" t="s">
+        <v>60</v>
+      </c>
+      <c r="G648" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I648" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J648">
+        <v>13</v>
+      </c>
+      <c r="K648" t="s">
+        <v>61</v>
+      </c>
+      <c r="T648" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y648" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z648" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="649" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>20</v>
+      </c>
+      <c r="C649" t="s">
+        <v>60</v>
+      </c>
+      <c r="G649" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I649" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J649">
+        <v>13</v>
+      </c>
+      <c r="K649" t="s">
+        <v>61</v>
+      </c>
+      <c r="T649" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y649" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z649" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="650" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>21</v>
+      </c>
+      <c r="C650" t="s">
+        <v>60</v>
+      </c>
+      <c r="G650" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I650" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J650">
+        <v>13</v>
+      </c>
+      <c r="K650" t="s">
+        <v>61</v>
+      </c>
+      <c r="T650" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y650" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z650" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="651" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>22</v>
+      </c>
+      <c r="C651" t="s">
+        <v>60</v>
+      </c>
+      <c r="G651" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I651" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J651">
+        <v>13</v>
+      </c>
+      <c r="K651" t="s">
+        <v>61</v>
+      </c>
+      <c r="T651" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y651" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z651" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="652" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>23</v>
+      </c>
+      <c r="C652" t="s">
+        <v>60</v>
+      </c>
+      <c r="G652" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I652" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J652">
+        <v>13</v>
+      </c>
+      <c r="K652" t="s">
+        <v>61</v>
+      </c>
+      <c r="T652" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y652" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z652" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="653" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>24</v>
+      </c>
+      <c r="C653" t="s">
+        <v>60</v>
+      </c>
+      <c r="G653" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I653" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J653">
+        <v>13</v>
+      </c>
+      <c r="K653" t="s">
+        <v>61</v>
+      </c>
+      <c r="T653" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y653" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z653" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="654" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>25</v>
+      </c>
+      <c r="C654" t="s">
+        <v>60</v>
+      </c>
+      <c r="G654" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I654" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J654">
+        <v>13</v>
+      </c>
+      <c r="K654" t="s">
+        <v>61</v>
+      </c>
+      <c r="T654" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y654" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z654" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="655" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>26</v>
+      </c>
+      <c r="C655" t="s">
+        <v>60</v>
+      </c>
+      <c r="G655" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I655" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J655">
+        <v>13</v>
+      </c>
+      <c r="K655" t="s">
+        <v>61</v>
+      </c>
+      <c r="T655" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y655" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z655" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="656" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>27</v>
+      </c>
+      <c r="C656" t="s">
+        <v>60</v>
+      </c>
+      <c r="G656" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I656" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J656">
+        <v>13</v>
+      </c>
+      <c r="K656" t="s">
+        <v>61</v>
+      </c>
+      <c r="T656" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y656" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z656" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="657" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>28</v>
+      </c>
+      <c r="C657" t="s">
+        <v>60</v>
+      </c>
+      <c r="G657" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I657" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J657">
+        <v>13</v>
+      </c>
+      <c r="K657" t="s">
+        <v>61</v>
+      </c>
+      <c r="T657" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y657" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z657" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="658" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>29</v>
+      </c>
+      <c r="C658" t="s">
+        <v>60</v>
+      </c>
+      <c r="G658" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I658" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J658">
+        <v>13</v>
+      </c>
+      <c r="K658" t="s">
+        <v>61</v>
+      </c>
+      <c r="T658" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y658" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z658" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="659" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>30</v>
+      </c>
+      <c r="C659" t="s">
+        <v>60</v>
+      </c>
+      <c r="G659" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I659" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J659">
+        <v>13</v>
+      </c>
+      <c r="K659" t="s">
+        <v>61</v>
+      </c>
+      <c r="T659" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y659" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z659" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="660" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>1</v>
+      </c>
+      <c r="C660" t="s">
+        <v>59</v>
+      </c>
+      <c r="G660" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I660" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J660">
+        <v>13</v>
+      </c>
+      <c r="K660" t="s">
+        <v>61</v>
+      </c>
+      <c r="T660" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y660" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z660" t="str">
+        <f>"A12"&amp;Y660&amp;"-"&amp;AC660</f>
+        <v>A12RT-G6</v>
+      </c>
+      <c r="AC660" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="661" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>2</v>
+      </c>
+      <c r="C661" t="s">
+        <v>59</v>
+      </c>
+      <c r="G661" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I661" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J661">
+        <v>13</v>
+      </c>
+      <c r="K661" t="s">
+        <v>61</v>
+      </c>
+      <c r="T661" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y661" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z661" t="str">
+        <f t="shared" ref="Z661:Z719" si="6">"A12"&amp;Y661&amp;"-"&amp;AC661</f>
+        <v>A12RT-G10</v>
+      </c>
+      <c r="AC661" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="662" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>3</v>
+      </c>
+      <c r="C662" t="s">
+        <v>59</v>
+      </c>
+      <c r="G662" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I662" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J662">
+        <v>13</v>
+      </c>
+      <c r="K662" t="s">
+        <v>61</v>
+      </c>
+      <c r="T662" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y662" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z662" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-A11</v>
+      </c>
+      <c r="AC662" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="663" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>4</v>
+      </c>
+      <c r="C663" t="s">
+        <v>59</v>
+      </c>
+      <c r="G663" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I663" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J663">
+        <v>13</v>
+      </c>
+      <c r="K663" t="s">
+        <v>61</v>
+      </c>
+      <c r="T663" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y663" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z663" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-B11</v>
+      </c>
+      <c r="AC663" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="664" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>5</v>
+      </c>
+      <c r="C664" t="s">
+        <v>59</v>
+      </c>
+      <c r="G664" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I664" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J664">
+        <v>13</v>
+      </c>
+      <c r="K664" t="s">
+        <v>61</v>
+      </c>
+      <c r="T664" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y664" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z664" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-F12</v>
+      </c>
+      <c r="AC664" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="665" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>6</v>
+      </c>
+      <c r="C665" t="s">
+        <v>59</v>
+      </c>
+      <c r="G665" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I665" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J665">
+        <v>13</v>
+      </c>
+      <c r="K665" t="s">
+        <v>61</v>
+      </c>
+      <c r="T665" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y665" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z665" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-H7</v>
+      </c>
+      <c r="AC665" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="666" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>7</v>
+      </c>
+      <c r="C666" t="s">
+        <v>59</v>
+      </c>
+      <c r="G666" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I666" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J666">
+        <v>13</v>
+      </c>
+      <c r="K666" t="s">
+        <v>61</v>
+      </c>
+      <c r="T666" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y666" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z666" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-D9</v>
+      </c>
+      <c r="AC666" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="667" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>8</v>
+      </c>
+      <c r="C667" t="s">
+        <v>59</v>
+      </c>
+      <c r="G667" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I667" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J667">
+        <v>13</v>
+      </c>
+      <c r="K667" t="s">
+        <v>61</v>
+      </c>
+      <c r="T667" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y667" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z667" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-F6</v>
+      </c>
+      <c r="AC667" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="668" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>9</v>
+      </c>
+      <c r="C668" t="s">
+        <v>59</v>
+      </c>
+      <c r="G668" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I668" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J668">
+        <v>13</v>
+      </c>
+      <c r="K668" t="s">
+        <v>61</v>
+      </c>
+      <c r="T668" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y668" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z668" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-E5</v>
+      </c>
+      <c r="AC668" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="669" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>10</v>
+      </c>
+      <c r="C669" t="s">
+        <v>59</v>
+      </c>
+      <c r="G669" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I669" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J669">
+        <v>13</v>
+      </c>
+      <c r="K669" t="s">
+        <v>61</v>
+      </c>
+      <c r="T669" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y669" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z669" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-D2</v>
+      </c>
+      <c r="AC669" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="670" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>11</v>
+      </c>
+      <c r="C670" t="s">
+        <v>59</v>
+      </c>
+      <c r="G670" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I670" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J670">
+        <v>13</v>
+      </c>
+      <c r="K670" t="s">
+        <v>61</v>
+      </c>
+      <c r="T670" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y670" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z670" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-F10</v>
+      </c>
+      <c r="AC670" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="671" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>12</v>
+      </c>
+      <c r="C671" t="s">
+        <v>59</v>
+      </c>
+      <c r="G671" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I671" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J671">
+        <v>13</v>
+      </c>
+      <c r="K671" t="s">
+        <v>61</v>
+      </c>
+      <c r="T671" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y671" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z671" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-C12</v>
+      </c>
+      <c r="AC671" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="672" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>13</v>
+      </c>
+      <c r="C672" t="s">
+        <v>59</v>
+      </c>
+      <c r="G672" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I672" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J672">
+        <v>13</v>
+      </c>
+      <c r="K672" t="s">
+        <v>61</v>
+      </c>
+      <c r="T672" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y672" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z672" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-A8</v>
+      </c>
+      <c r="AC672" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="673" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>14</v>
+      </c>
+      <c r="C673" t="s">
+        <v>59</v>
+      </c>
+      <c r="G673" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I673" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J673">
+        <v>13</v>
+      </c>
+      <c r="K673" t="s">
+        <v>61</v>
+      </c>
+      <c r="T673" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y673" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z673" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-D6</v>
+      </c>
+      <c r="AC673" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="674" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>15</v>
+      </c>
+      <c r="C674" t="s">
+        <v>59</v>
+      </c>
+      <c r="G674" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I674" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J674">
+        <v>13</v>
+      </c>
+      <c r="K674" t="s">
+        <v>61</v>
+      </c>
+      <c r="T674" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y674" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z674" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-C4</v>
+      </c>
+      <c r="AC674" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="675" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>16</v>
+      </c>
+      <c r="C675" t="s">
+        <v>60</v>
+      </c>
+      <c r="G675" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I675" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J675">
+        <v>13</v>
+      </c>
+      <c r="K675" t="s">
+        <v>61</v>
+      </c>
+      <c r="T675" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y675" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z675" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-H1</v>
+      </c>
+      <c r="AC675" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="676" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>17</v>
+      </c>
+      <c r="C676" t="s">
+        <v>60</v>
+      </c>
+      <c r="G676" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I676" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J676">
+        <v>13</v>
+      </c>
+      <c r="K676" t="s">
+        <v>61</v>
+      </c>
+      <c r="T676" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y676" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z676" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-A9</v>
+      </c>
+      <c r="AC676" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="677" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>18</v>
+      </c>
+      <c r="C677" t="s">
+        <v>60</v>
+      </c>
+      <c r="G677" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I677" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J677">
+        <v>13</v>
+      </c>
+      <c r="K677" t="s">
+        <v>61</v>
+      </c>
+      <c r="T677" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y677" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z677" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-E10</v>
+      </c>
+      <c r="AC677" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="678" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>19</v>
+      </c>
+      <c r="C678" t="s">
+        <v>60</v>
+      </c>
+      <c r="G678" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I678" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J678">
+        <v>13</v>
+      </c>
+      <c r="K678" t="s">
+        <v>61</v>
+      </c>
+      <c r="T678" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y678" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z678" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-G3</v>
+      </c>
+      <c r="AC678" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="679" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>20</v>
+      </c>
+      <c r="C679" t="s">
+        <v>60</v>
+      </c>
+      <c r="G679" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I679" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J679">
+        <v>13</v>
+      </c>
+      <c r="K679" t="s">
+        <v>61</v>
+      </c>
+      <c r="T679" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y679" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z679" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-H9</v>
+      </c>
+      <c r="AC679" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="680" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>21</v>
+      </c>
+      <c r="C680" t="s">
+        <v>60</v>
+      </c>
+      <c r="G680" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I680" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J680">
+        <v>13</v>
+      </c>
+      <c r="K680" t="s">
+        <v>61</v>
+      </c>
+      <c r="T680" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y680" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z680" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-B5</v>
+      </c>
+      <c r="AC680" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="681" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>22</v>
+      </c>
+      <c r="C681" t="s">
+        <v>60</v>
+      </c>
+      <c r="G681" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I681" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J681">
+        <v>13</v>
+      </c>
+      <c r="K681" t="s">
+        <v>61</v>
+      </c>
+      <c r="T681" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y681" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z681" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-E12</v>
+      </c>
+      <c r="AC681" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="682" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>23</v>
+      </c>
+      <c r="C682" t="s">
+        <v>60</v>
+      </c>
+      <c r="G682" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I682" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J682">
+        <v>13</v>
+      </c>
+      <c r="K682" t="s">
+        <v>61</v>
+      </c>
+      <c r="T682" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y682" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z682" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-A4</v>
+      </c>
+      <c r="AC682" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="683" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>24</v>
+      </c>
+      <c r="C683" t="s">
+        <v>60</v>
+      </c>
+      <c r="G683" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I683" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J683">
+        <v>13</v>
+      </c>
+      <c r="K683" t="s">
+        <v>61</v>
+      </c>
+      <c r="T683" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y683" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z683" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-A2</v>
+      </c>
+      <c r="AC683" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="684" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>25</v>
+      </c>
+      <c r="C684" t="s">
+        <v>60</v>
+      </c>
+      <c r="G684" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I684" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J684">
+        <v>13</v>
+      </c>
+      <c r="K684" t="s">
+        <v>61</v>
+      </c>
+      <c r="T684" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y684" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z684" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-H4</v>
+      </c>
+      <c r="AC684" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="685" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>26</v>
+      </c>
+      <c r="C685" t="s">
+        <v>60</v>
+      </c>
+      <c r="G685" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I685" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J685">
+        <v>13</v>
+      </c>
+      <c r="K685" t="s">
+        <v>61</v>
+      </c>
+      <c r="T685" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y685" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z685" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-B3</v>
+      </c>
+      <c r="AC685" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="686" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>27</v>
+      </c>
+      <c r="C686" t="s">
+        <v>60</v>
+      </c>
+      <c r="G686" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I686" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J686">
+        <v>13</v>
+      </c>
+      <c r="K686" t="s">
+        <v>61</v>
+      </c>
+      <c r="T686" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y686" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z686" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-C11</v>
+      </c>
+      <c r="AC686" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="687" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>28</v>
+      </c>
+      <c r="C687" t="s">
+        <v>60</v>
+      </c>
+      <c r="G687" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I687" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J687">
+        <v>13</v>
+      </c>
+      <c r="K687" t="s">
+        <v>61</v>
+      </c>
+      <c r="T687" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y687" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z687" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-G5</v>
+      </c>
+      <c r="AC687" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="688" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>29</v>
+      </c>
+      <c r="C688" t="s">
+        <v>60</v>
+      </c>
+      <c r="G688" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I688" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J688">
+        <v>13</v>
+      </c>
+      <c r="K688" t="s">
+        <v>61</v>
+      </c>
+      <c r="T688" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y688" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z688" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-G11</v>
+      </c>
+      <c r="AC688" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="689" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>30</v>
+      </c>
+      <c r="C689" t="s">
+        <v>60</v>
+      </c>
+      <c r="G689" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I689" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J689">
+        <v>13</v>
+      </c>
+      <c r="K689" t="s">
+        <v>61</v>
+      </c>
+      <c r="T689" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y689" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z689" t="str">
+        <f t="shared" si="6"/>
+        <v>A12RT-H6</v>
+      </c>
+      <c r="AC689" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="690" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>1</v>
+      </c>
+      <c r="C690" t="s">
+        <v>59</v>
+      </c>
+      <c r="G690" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I690" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J690">
+        <v>13</v>
+      </c>
+      <c r="K690" t="s">
+        <v>61</v>
+      </c>
+      <c r="T690" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y690" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z690" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-A6</v>
+      </c>
+      <c r="AC690" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="691" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>2</v>
+      </c>
+      <c r="C691" t="s">
+        <v>59</v>
+      </c>
+      <c r="G691" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I691" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J691">
+        <v>13</v>
+      </c>
+      <c r="K691" t="s">
+        <v>61</v>
+      </c>
+      <c r="T691" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y691" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z691" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-F2</v>
+      </c>
+      <c r="AC691" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="692" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>3</v>
+      </c>
+      <c r="C692" t="s">
+        <v>59</v>
+      </c>
+      <c r="G692" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I692" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J692">
+        <v>13</v>
+      </c>
+      <c r="K692" t="s">
+        <v>61</v>
+      </c>
+      <c r="T692" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y692" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z692" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-D12</v>
+      </c>
+      <c r="AC692" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="693" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>4</v>
+      </c>
+      <c r="C693" t="s">
+        <v>59</v>
+      </c>
+      <c r="G693" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I693" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J693">
+        <v>13</v>
+      </c>
+      <c r="K693" t="s">
+        <v>61</v>
+      </c>
+      <c r="T693" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y693" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z693" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-E4</v>
+      </c>
+      <c r="AC693" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="694" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>5</v>
+      </c>
+      <c r="C694" t="s">
+        <v>59</v>
+      </c>
+      <c r="G694" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I694" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J694">
+        <v>13</v>
+      </c>
+      <c r="K694" t="s">
+        <v>61</v>
+      </c>
+      <c r="T694" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y694" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z694" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-E1</v>
+      </c>
+      <c r="AC694" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="695" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>6</v>
+      </c>
+      <c r="C695" t="s">
+        <v>59</v>
+      </c>
+      <c r="G695" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I695" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J695">
+        <v>13</v>
+      </c>
+      <c r="K695" t="s">
+        <v>61</v>
+      </c>
+      <c r="T695" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y695" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z695" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-E6</v>
+      </c>
+      <c r="AC695" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="696" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>7</v>
+      </c>
+      <c r="C696" t="s">
+        <v>59</v>
+      </c>
+      <c r="G696" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I696" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J696">
+        <v>13</v>
+      </c>
+      <c r="K696" t="s">
+        <v>61</v>
+      </c>
+      <c r="T696" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y696" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z696" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-F9</v>
+      </c>
+      <c r="AC696" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="697" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>8</v>
+      </c>
+      <c r="C697" t="s">
+        <v>59</v>
+      </c>
+      <c r="G697" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I697" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J697">
+        <v>13</v>
+      </c>
+      <c r="K697" t="s">
+        <v>61</v>
+      </c>
+      <c r="T697" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y697" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z697" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-F3</v>
+      </c>
+      <c r="AC697" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="698" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>9</v>
+      </c>
+      <c r="C698" t="s">
+        <v>59</v>
+      </c>
+      <c r="G698" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I698" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J698">
+        <v>13</v>
+      </c>
+      <c r="K698" t="s">
+        <v>61</v>
+      </c>
+      <c r="T698" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y698" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z698" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-A1</v>
+      </c>
+      <c r="AC698" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="699" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>10</v>
+      </c>
+      <c r="C699" t="s">
+        <v>59</v>
+      </c>
+      <c r="G699" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I699" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J699">
+        <v>13</v>
+      </c>
+      <c r="K699" t="s">
+        <v>61</v>
+      </c>
+      <c r="T699" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y699" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z699" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-C7</v>
+      </c>
+      <c r="AC699" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="700" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>11</v>
+      </c>
+      <c r="C700" t="s">
+        <v>59</v>
+      </c>
+      <c r="G700" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I700" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J700">
+        <v>13</v>
+      </c>
+      <c r="K700" t="s">
+        <v>61</v>
+      </c>
+      <c r="T700" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y700" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z700" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-D4</v>
+      </c>
+      <c r="AC700" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="701" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>12</v>
+      </c>
+      <c r="C701" t="s">
+        <v>59</v>
+      </c>
+      <c r="G701" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I701" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J701">
+        <v>13</v>
+      </c>
+      <c r="K701" t="s">
+        <v>61</v>
+      </c>
+      <c r="T701" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y701" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z701" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-F11</v>
+      </c>
+      <c r="AC701" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="702" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>13</v>
+      </c>
+      <c r="C702" t="s">
+        <v>59</v>
+      </c>
+      <c r="G702" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I702" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J702">
+        <v>13</v>
+      </c>
+      <c r="K702" t="s">
+        <v>61</v>
+      </c>
+      <c r="T702" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y702" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z702" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-D8</v>
+      </c>
+      <c r="AC702" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="703" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>14</v>
+      </c>
+      <c r="C703" t="s">
+        <v>59</v>
+      </c>
+      <c r="G703" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I703" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J703">
+        <v>13</v>
+      </c>
+      <c r="K703" t="s">
+        <v>61</v>
+      </c>
+      <c r="T703" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y703" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z703" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-A7</v>
+      </c>
+      <c r="AC703" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="704" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>15</v>
+      </c>
+      <c r="C704" t="s">
+        <v>59</v>
+      </c>
+      <c r="G704" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I704" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J704">
+        <v>13</v>
+      </c>
+      <c r="K704" t="s">
+        <v>61</v>
+      </c>
+      <c r="T704" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y704" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z704" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-G9</v>
+      </c>
+      <c r="AC704" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="705" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>16</v>
+      </c>
+      <c r="C705" t="s">
+        <v>60</v>
+      </c>
+      <c r="G705" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I705" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J705">
+        <v>13</v>
+      </c>
+      <c r="K705" t="s">
+        <v>61</v>
+      </c>
+      <c r="T705" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y705" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z705" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-B6</v>
+      </c>
+      <c r="AC705" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="706" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>17</v>
+      </c>
+      <c r="C706" t="s">
+        <v>60</v>
+      </c>
+      <c r="G706" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I706" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J706">
+        <v>13</v>
+      </c>
+      <c r="K706" t="s">
+        <v>61</v>
+      </c>
+      <c r="T706" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y706" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z706" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-H10</v>
+      </c>
+      <c r="AC706" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="707" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>18</v>
+      </c>
+      <c r="C707" t="s">
+        <v>60</v>
+      </c>
+      <c r="G707" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I707" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J707">
+        <v>13</v>
+      </c>
+      <c r="K707" t="s">
+        <v>61</v>
+      </c>
+      <c r="T707" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y707" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z707" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-C1</v>
+      </c>
+      <c r="AC707" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="708" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>19</v>
+      </c>
+      <c r="C708" t="s">
+        <v>60</v>
+      </c>
+      <c r="G708" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I708" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J708">
+        <v>13</v>
+      </c>
+      <c r="K708" t="s">
+        <v>61</v>
+      </c>
+      <c r="T708" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y708" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z708" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-D5</v>
+      </c>
+      <c r="AC708" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="709" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>20</v>
+      </c>
+      <c r="C709" t="s">
+        <v>60</v>
+      </c>
+      <c r="G709" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I709" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J709">
+        <v>13</v>
+      </c>
+      <c r="K709" t="s">
+        <v>61</v>
+      </c>
+      <c r="T709" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y709" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z709" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-E2</v>
+      </c>
+      <c r="AC709" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="710" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>21</v>
+      </c>
+      <c r="C710" t="s">
+        <v>60</v>
+      </c>
+      <c r="G710" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I710" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J710">
+        <v>13</v>
+      </c>
+      <c r="K710" t="s">
+        <v>61</v>
+      </c>
+      <c r="T710" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y710" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z710" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-G4</v>
+      </c>
+      <c r="AC710" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="711" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>22</v>
+      </c>
+      <c r="C711" t="s">
+        <v>60</v>
+      </c>
+      <c r="G711" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I711" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J711">
+        <v>13</v>
+      </c>
+      <c r="K711" t="s">
+        <v>61</v>
+      </c>
+      <c r="T711" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y711" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z711" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-D1</v>
+      </c>
+      <c r="AC711" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="712" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>23</v>
+      </c>
+      <c r="C712" t="s">
+        <v>60</v>
+      </c>
+      <c r="G712" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I712" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J712">
+        <v>13</v>
+      </c>
+      <c r="K712" t="s">
+        <v>61</v>
+      </c>
+      <c r="T712" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y712" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z712" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-C5</v>
+      </c>
+      <c r="AC712" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="713" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>24</v>
+      </c>
+      <c r="C713" t="s">
+        <v>60</v>
+      </c>
+      <c r="G713" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I713" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J713">
+        <v>13</v>
+      </c>
+      <c r="K713" t="s">
+        <v>61</v>
+      </c>
+      <c r="T713" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y713" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z713" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-A5</v>
+      </c>
+      <c r="AC713" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="714" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>25</v>
+      </c>
+      <c r="C714" t="s">
+        <v>60</v>
+      </c>
+      <c r="G714" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I714" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J714">
+        <v>13</v>
+      </c>
+      <c r="K714" t="s">
+        <v>61</v>
+      </c>
+      <c r="T714" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y714" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z714" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-E8</v>
+      </c>
+      <c r="AC714" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="715" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>26</v>
+      </c>
+      <c r="C715" t="s">
+        <v>60</v>
+      </c>
+      <c r="G715" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I715" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J715">
+        <v>13</v>
+      </c>
+      <c r="K715" t="s">
+        <v>61</v>
+      </c>
+      <c r="T715" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y715" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z715" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-B10</v>
+      </c>
+      <c r="AC715" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="716" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>27</v>
+      </c>
+      <c r="C716" t="s">
+        <v>60</v>
+      </c>
+      <c r="G716" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I716" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J716">
+        <v>13</v>
+      </c>
+      <c r="K716" t="s">
+        <v>61</v>
+      </c>
+      <c r="T716" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y716" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z716" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-H11</v>
+      </c>
+      <c r="AC716" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="717" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>28</v>
+      </c>
+      <c r="C717" t="s">
+        <v>60</v>
+      </c>
+      <c r="G717" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I717" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J717">
+        <v>13</v>
+      </c>
+      <c r="K717" t="s">
+        <v>61</v>
+      </c>
+      <c r="T717" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y717" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z717" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-D3</v>
+      </c>
+      <c r="AC717" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="718" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>29</v>
+      </c>
+      <c r="C718" t="s">
+        <v>60</v>
+      </c>
+      <c r="G718" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I718" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J718">
+        <v>13</v>
+      </c>
+      <c r="K718" t="s">
+        <v>61</v>
+      </c>
+      <c r="T718" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y718" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z718" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-B12</v>
+      </c>
+      <c r="AC718" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="719" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>30</v>
+      </c>
+      <c r="C719" t="s">
+        <v>60</v>
+      </c>
+      <c r="G719" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I719" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J719">
+        <v>13</v>
+      </c>
+      <c r="K719" t="s">
+        <v>61</v>
+      </c>
+      <c r="T719" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y719" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z719" t="str">
+        <f t="shared" si="6"/>
+        <v>A12SO-E9</v>
+      </c>
+      <c r="AC719" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C61F2F-4D52-488E-BE4F-6D24DB6E23EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF8CBD2-C6D2-4BA2-A608-7D3AE2AAC030}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -1708,94 +1708,94 @@
     <t>2018-08-28</t>
   </si>
   <si>
-    <t>A12-1</t>
-  </si>
-  <si>
-    <t>A12-2</t>
-  </si>
-  <si>
-    <t>A12-3</t>
-  </si>
-  <si>
-    <t>A12-4</t>
-  </si>
-  <si>
-    <t>A12-5</t>
-  </si>
-  <si>
-    <t>A12-6</t>
-  </si>
-  <si>
-    <t>A12-7</t>
-  </si>
-  <si>
-    <t>A12-8</t>
-  </si>
-  <si>
-    <t>A12-9</t>
-  </si>
-  <si>
-    <t>A12-10</t>
-  </si>
-  <si>
-    <t>A12-11</t>
-  </si>
-  <si>
-    <t>A12-12</t>
-  </si>
-  <si>
-    <t>A12-13</t>
-  </si>
-  <si>
-    <t>A12-14</t>
-  </si>
-  <si>
-    <t>A12-15</t>
-  </si>
-  <si>
-    <t>A12-16</t>
-  </si>
-  <si>
-    <t>A12-17</t>
-  </si>
-  <si>
-    <t>A12-18</t>
-  </si>
-  <si>
-    <t>A12-19</t>
-  </si>
-  <si>
-    <t>A12-20</t>
-  </si>
-  <si>
-    <t>A12-21</t>
-  </si>
-  <si>
-    <t>A12-22</t>
-  </si>
-  <si>
-    <t>A12-23</t>
-  </si>
-  <si>
-    <t>A12-24</t>
-  </si>
-  <si>
-    <t>A12-25</t>
-  </si>
-  <si>
-    <t>A12-26</t>
-  </si>
-  <si>
-    <t>A12-27</t>
-  </si>
-  <si>
-    <t>A12-28</t>
-  </si>
-  <si>
-    <t>A12-29</t>
-  </si>
-  <si>
-    <t>A12-30</t>
+    <t>A13-1</t>
+  </si>
+  <si>
+    <t>A13-2</t>
+  </si>
+  <si>
+    <t>A13-3</t>
+  </si>
+  <si>
+    <t>A13-4</t>
+  </si>
+  <si>
+    <t>A13-5</t>
+  </si>
+  <si>
+    <t>A13-6</t>
+  </si>
+  <si>
+    <t>A13-7</t>
+  </si>
+  <si>
+    <t>A13-8</t>
+  </si>
+  <si>
+    <t>A13-9</t>
+  </si>
+  <si>
+    <t>A13-10</t>
+  </si>
+  <si>
+    <t>A13-11</t>
+  </si>
+  <si>
+    <t>A13-12</t>
+  </si>
+  <si>
+    <t>A13-13</t>
+  </si>
+  <si>
+    <t>A13-14</t>
+  </si>
+  <si>
+    <t>A13-15</t>
+  </si>
+  <si>
+    <t>A13-16</t>
+  </si>
+  <si>
+    <t>A13-17</t>
+  </si>
+  <si>
+    <t>A13-18</t>
+  </si>
+  <si>
+    <t>A13-19</t>
+  </si>
+  <si>
+    <t>A13-20</t>
+  </si>
+  <si>
+    <t>A13-21</t>
+  </si>
+  <si>
+    <t>A13-22</t>
+  </si>
+  <si>
+    <t>A13-23</t>
+  </si>
+  <si>
+    <t>A13-24</t>
+  </si>
+  <si>
+    <t>A13-25</t>
+  </si>
+  <si>
+    <t>A13-26</t>
+  </si>
+  <si>
+    <t>A13-27</t>
+  </si>
+  <si>
+    <t>A13-28</t>
+  </si>
+  <si>
+    <t>A13-29</t>
+  </si>
+  <si>
+    <t>A13-30</t>
   </si>
 </sst>
 </file>
@@ -8513,9 +8513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS719"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC660" sqref="AC660:AC719"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD710" sqref="AD710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -32941,8 +32941,8 @@
         <v>86</v>
       </c>
       <c r="Z660" t="str">
-        <f>"A12"&amp;Y660&amp;"-"&amp;AC660</f>
-        <v>A12RT-G6</v>
+        <f>"A13"&amp;Y660&amp;"-"&amp;AC660</f>
+        <v>A13RT-G6</v>
       </c>
       <c r="AC660" t="s">
         <v>236</v>
@@ -32974,8 +32974,8 @@
         <v>86</v>
       </c>
       <c r="Z661" t="str">
-        <f t="shared" ref="Z661:Z719" si="6">"A12"&amp;Y661&amp;"-"&amp;AC661</f>
-        <v>A12RT-G10</v>
+        <f t="shared" ref="Z661:Z719" si="6">"A13"&amp;Y661&amp;"-"&amp;AC661</f>
+        <v>A13RT-G10</v>
       </c>
       <c r="AC661" t="s">
         <v>396</v>
@@ -33008,7 +33008,7 @@
       </c>
       <c r="Z662" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-A11</v>
+        <v>A13RT-A11</v>
       </c>
       <c r="AC662" t="s">
         <v>238</v>
@@ -33041,7 +33041,7 @@
       </c>
       <c r="Z663" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-B11</v>
+        <v>A13RT-B11</v>
       </c>
       <c r="AC663" t="s">
         <v>130</v>
@@ -33074,7 +33074,7 @@
       </c>
       <c r="Z664" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-F12</v>
+        <v>A13RT-F12</v>
       </c>
       <c r="AC664" t="s">
         <v>122</v>
@@ -33107,7 +33107,7 @@
       </c>
       <c r="Z665" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-H7</v>
+        <v>A13RT-H7</v>
       </c>
       <c r="AC665" t="s">
         <v>380</v>
@@ -33140,7 +33140,7 @@
       </c>
       <c r="Z666" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-D9</v>
+        <v>A13RT-D9</v>
       </c>
       <c r="AC666" t="s">
         <v>152</v>
@@ -33173,7 +33173,7 @@
       </c>
       <c r="Z667" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-F6</v>
+        <v>A13RT-F6</v>
       </c>
       <c r="AC667" t="s">
         <v>385</v>
@@ -33206,7 +33206,7 @@
       </c>
       <c r="Z668" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-E5</v>
+        <v>A13RT-E5</v>
       </c>
       <c r="AC668" t="s">
         <v>399</v>
@@ -33239,7 +33239,7 @@
       </c>
       <c r="Z669" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-D2</v>
+        <v>A13RT-D2</v>
       </c>
       <c r="AC669" t="s">
         <v>173</v>
@@ -33272,7 +33272,7 @@
       </c>
       <c r="Z670" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-F10</v>
+        <v>A13RT-F10</v>
       </c>
       <c r="AC670" t="s">
         <v>383</v>
@@ -33305,7 +33305,7 @@
       </c>
       <c r="Z671" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-C12</v>
+        <v>A13RT-C12</v>
       </c>
       <c r="AC671" t="s">
         <v>397</v>
@@ -33338,7 +33338,7 @@
       </c>
       <c r="Z672" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-A8</v>
+        <v>A13RT-A8</v>
       </c>
       <c r="AC672" t="s">
         <v>167</v>
@@ -33371,7 +33371,7 @@
       </c>
       <c r="Z673" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-D6</v>
+        <v>A13RT-D6</v>
       </c>
       <c r="AC673" t="s">
         <v>161</v>
@@ -33404,7 +33404,7 @@
       </c>
       <c r="Z674" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-C4</v>
+        <v>A13RT-C4</v>
       </c>
       <c r="AC674" t="s">
         <v>162</v>
@@ -33437,7 +33437,7 @@
       </c>
       <c r="Z675" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-H1</v>
+        <v>A13RT-H1</v>
       </c>
       <c r="AC675" t="s">
         <v>240</v>
@@ -33470,7 +33470,7 @@
       </c>
       <c r="Z676" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-A9</v>
+        <v>A13RT-A9</v>
       </c>
       <c r="AC676" t="s">
         <v>134</v>
@@ -33503,7 +33503,7 @@
       </c>
       <c r="Z677" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-E10</v>
+        <v>A13RT-E10</v>
       </c>
       <c r="AC677" t="s">
         <v>249</v>
@@ -33536,7 +33536,7 @@
       </c>
       <c r="Z678" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-G3</v>
+        <v>A13RT-G3</v>
       </c>
       <c r="AC678" t="s">
         <v>140</v>
@@ -33569,7 +33569,7 @@
       </c>
       <c r="Z679" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-H9</v>
+        <v>A13RT-H9</v>
       </c>
       <c r="AC679" t="s">
         <v>381</v>
@@ -33602,7 +33602,7 @@
       </c>
       <c r="Z680" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-B5</v>
+        <v>A13RT-B5</v>
       </c>
       <c r="AC680" t="s">
         <v>164</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="Z681" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-E12</v>
+        <v>A13RT-E12</v>
       </c>
       <c r="AC681" t="s">
         <v>176</v>
@@ -33668,7 +33668,7 @@
       </c>
       <c r="Z682" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-A4</v>
+        <v>A13RT-A4</v>
       </c>
       <c r="AC682" t="s">
         <v>253</v>
@@ -33701,7 +33701,7 @@
       </c>
       <c r="Z683" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-A2</v>
+        <v>A13RT-A2</v>
       </c>
       <c r="AC683" t="s">
         <v>121</v>
@@ -33734,7 +33734,7 @@
       </c>
       <c r="Z684" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-H4</v>
+        <v>A13RT-H4</v>
       </c>
       <c r="AC684" t="s">
         <v>141</v>
@@ -33767,7 +33767,7 @@
       </c>
       <c r="Z685" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-B3</v>
+        <v>A13RT-B3</v>
       </c>
       <c r="AC685" t="s">
         <v>243</v>
@@ -33800,7 +33800,7 @@
       </c>
       <c r="Z686" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-C11</v>
+        <v>A13RT-C11</v>
       </c>
       <c r="AC686" t="s">
         <v>145</v>
@@ -33833,7 +33833,7 @@
       </c>
       <c r="Z687" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-G5</v>
+        <v>A13RT-G5</v>
       </c>
       <c r="AC687" t="s">
         <v>431</v>
@@ -33866,7 +33866,7 @@
       </c>
       <c r="Z688" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-G11</v>
+        <v>A13RT-G11</v>
       </c>
       <c r="AC688" t="s">
         <v>250</v>
@@ -33899,7 +33899,7 @@
       </c>
       <c r="Z689" t="str">
         <f t="shared" si="6"/>
-        <v>A12RT-H6</v>
+        <v>A13RT-H6</v>
       </c>
       <c r="AC689" t="s">
         <v>144</v>
@@ -33932,7 +33932,7 @@
       </c>
       <c r="Z690" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-A6</v>
+        <v>A13SO-A6</v>
       </c>
       <c r="AC690" t="s">
         <v>245</v>
@@ -33965,7 +33965,7 @@
       </c>
       <c r="Z691" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-F2</v>
+        <v>A13SO-F2</v>
       </c>
       <c r="AC691" t="s">
         <v>464</v>
@@ -33998,7 +33998,7 @@
       </c>
       <c r="Z692" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-D12</v>
+        <v>A13SO-D12</v>
       </c>
       <c r="AC692" t="s">
         <v>163</v>
@@ -34031,7 +34031,7 @@
       </c>
       <c r="Z693" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-E4</v>
+        <v>A13SO-E4</v>
       </c>
       <c r="AC693" t="s">
         <v>398</v>
@@ -34064,7 +34064,7 @@
       </c>
       <c r="Z694" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-E1</v>
+        <v>A13SO-E1</v>
       </c>
       <c r="AC694" t="s">
         <v>138</v>
@@ -34097,7 +34097,7 @@
       </c>
       <c r="Z695" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-E6</v>
+        <v>A13SO-E6</v>
       </c>
       <c r="AC695" t="s">
         <v>157</v>
@@ -34130,7 +34130,7 @@
       </c>
       <c r="Z696" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-F9</v>
+        <v>A13SO-F9</v>
       </c>
       <c r="AC696" t="s">
         <v>241</v>
@@ -34163,7 +34163,7 @@
       </c>
       <c r="Z697" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-F3</v>
+        <v>A13SO-F3</v>
       </c>
       <c r="AC697" t="s">
         <v>242</v>
@@ -34196,7 +34196,7 @@
       </c>
       <c r="Z698" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-A1</v>
+        <v>A13SO-A1</v>
       </c>
       <c r="AC698" t="s">
         <v>248</v>
@@ -34229,7 +34229,7 @@
       </c>
       <c r="Z699" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-C7</v>
+        <v>A13SO-C7</v>
       </c>
       <c r="AC699" t="s">
         <v>136</v>
@@ -34262,7 +34262,7 @@
       </c>
       <c r="Z700" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-D4</v>
+        <v>A13SO-D4</v>
       </c>
       <c r="AC700" t="s">
         <v>237</v>
@@ -34295,7 +34295,7 @@
       </c>
       <c r="Z701" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-F11</v>
+        <v>A13SO-F11</v>
       </c>
       <c r="AC701" t="s">
         <v>159</v>
@@ -34328,7 +34328,7 @@
       </c>
       <c r="Z702" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-D8</v>
+        <v>A13SO-D8</v>
       </c>
       <c r="AC702" t="s">
         <v>171</v>
@@ -34361,7 +34361,7 @@
       </c>
       <c r="Z703" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-A7</v>
+        <v>A13SO-A7</v>
       </c>
       <c r="AC703" t="s">
         <v>165</v>
@@ -34394,7 +34394,7 @@
       </c>
       <c r="Z704" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-G9</v>
+        <v>A13SO-G9</v>
       </c>
       <c r="AC704" t="s">
         <v>160</v>
@@ -34427,7 +34427,7 @@
       </c>
       <c r="Z705" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-B6</v>
+        <v>A13SO-B6</v>
       </c>
       <c r="AC705" t="s">
         <v>131</v>
@@ -34460,7 +34460,7 @@
       </c>
       <c r="Z706" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-H10</v>
+        <v>A13SO-H10</v>
       </c>
       <c r="AC706" t="s">
         <v>175</v>
@@ -34493,7 +34493,7 @@
       </c>
       <c r="Z707" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-C1</v>
+        <v>A13SO-C1</v>
       </c>
       <c r="AC707" t="s">
         <v>147</v>
@@ -34526,7 +34526,7 @@
       </c>
       <c r="Z708" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-D5</v>
+        <v>A13SO-D5</v>
       </c>
       <c r="AC708" t="s">
         <v>252</v>
@@ -34559,7 +34559,7 @@
       </c>
       <c r="Z709" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-E2</v>
+        <v>A13SO-E2</v>
       </c>
       <c r="AC709" t="s">
         <v>179</v>
@@ -34592,7 +34592,7 @@
       </c>
       <c r="Z710" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-G4</v>
+        <v>A13SO-G4</v>
       </c>
       <c r="AC710" t="s">
         <v>244</v>
@@ -34625,7 +34625,7 @@
       </c>
       <c r="Z711" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-D1</v>
+        <v>A13SO-D1</v>
       </c>
       <c r="AC711" t="s">
         <v>382</v>
@@ -34658,7 +34658,7 @@
       </c>
       <c r="Z712" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-C5</v>
+        <v>A13SO-C5</v>
       </c>
       <c r="AC712" t="s">
         <v>124</v>
@@ -34691,7 +34691,7 @@
       </c>
       <c r="Z713" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-A5</v>
+        <v>A13SO-A5</v>
       </c>
       <c r="AC713" t="s">
         <v>247</v>
@@ -34724,7 +34724,7 @@
       </c>
       <c r="Z714" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-E8</v>
+        <v>A13SO-E8</v>
       </c>
       <c r="AC714" t="s">
         <v>386</v>
@@ -34757,7 +34757,7 @@
       </c>
       <c r="Z715" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-B10</v>
+        <v>A13SO-B10</v>
       </c>
       <c r="AC715" t="s">
         <v>155</v>
@@ -34790,7 +34790,7 @@
       </c>
       <c r="Z716" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-H11</v>
+        <v>A13SO-H11</v>
       </c>
       <c r="AC716" t="s">
         <v>142</v>
@@ -34823,7 +34823,7 @@
       </c>
       <c r="Z717" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-D3</v>
+        <v>A13SO-D3</v>
       </c>
       <c r="AC717" t="s">
         <v>156</v>
@@ -34856,7 +34856,7 @@
       </c>
       <c r="Z718" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-B12</v>
+        <v>A13SO-B12</v>
       </c>
       <c r="AC718" t="s">
         <v>133</v>
@@ -34889,7 +34889,7 @@
       </c>
       <c r="Z719" t="str">
         <f t="shared" si="6"/>
-        <v>A12SO-E9</v>
+        <v>A13SO-E9</v>
       </c>
       <c r="AC719" t="s">
         <v>168</v>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF8CBD2-C6D2-4BA2-A608-7D3AE2AAC030}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C0783-02F4-412B-9EBA-1666D050C200}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -22,17 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7169" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7171" uniqueCount="588">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -2246,9 +2241,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85:XFD85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6697,7 +6692,9 @@
       <c r="D76" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F76" s="1" t="s">
         <v>68</v>
       </c>
@@ -7250,7 +7247,9 @@
       <c r="D85" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="F85" s="1" t="s">
         <v>69</v>
       </c>
@@ -8513,8 +8512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS719"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AD710" sqref="AD710"/>
     </sheetView>
   </sheetViews>
@@ -34906,7 +34905,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C0783-02F4-412B-9EBA-1666D050C200}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BC8A68-F721-4634-9716-ACD5D74C158A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1935" windowWidth="48495" windowHeight="26115" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -22,12 +22,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7171" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7207" uniqueCount="588">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -2242,8 +2247,8 @@
   <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD28"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -34904,8 +34909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD836908-61FC-4C6A-BB55-EB17A2B99FDD}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -34913,6 +34918,7 @@
     <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35298,14 +35304,17 @@
         <v>43338</v>
       </c>
       <c r="G13">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="H13">
         <v>60</v>
+      </c>
+      <c r="I13">
+        <v>45</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -35313,7 +35322,7 @@
         <v>58</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>61</v>
@@ -35328,127 +35337,280 @@
         <v>43338</v>
       </c>
       <c r="G14">
+        <v>64</v>
+      </c>
+      <c r="I14">
+        <v>45</v>
+      </c>
+      <c r="J14">
+        <f>SUM(G14:I14)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="11">
+        <v>12</v>
+      </c>
+      <c r="F15" s="12">
+        <v>43339</v>
+      </c>
+      <c r="G15">
+        <v>150</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>65</v>
+      </c>
+      <c r="J15">
+        <f>SUM(G15:I15)</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="11">
+        <v>12</v>
+      </c>
+      <c r="F16" s="12">
+        <v>43339</v>
+      </c>
+      <c r="G16">
+        <v>57</v>
+      </c>
+      <c r="I16">
+        <v>65</v>
+      </c>
+      <c r="J16">
+        <f>SUM(G16:I16)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17" s="10">
+        <v>43340</v>
+      </c>
+      <c r="G17">
+        <v>150</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="J17">
+        <f>SUM(G17:I17)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="F18" s="10">
+        <v>43340</v>
+      </c>
+      <c r="G18">
+        <v>67</v>
+      </c>
+      <c r="J18">
+        <f>SUM(G18:I18)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="11">
+        <v>14</v>
+      </c>
+      <c r="F19" s="12">
+        <v>43341</v>
+      </c>
+      <c r="H19">
+        <v>60</v>
+      </c>
+      <c r="J19">
+        <f>SUM(G19:I19)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="11">
+        <v>14</v>
+      </c>
+      <c r="F20" s="12">
+        <v>43341</v>
+      </c>
+      <c r="J20">
+        <f>SUM(G20:I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21" s="10">
+        <v>43342</v>
+      </c>
+      <c r="J21">
+        <f>SUM(G21:I21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22" s="10">
+        <v>43342</v>
+      </c>
+      <c r="J22">
+        <f>SUM(G22:I22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="11">
         <v>16</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
+      <c r="F23" s="12">
+        <v>43343</v>
+      </c>
+      <c r="J23">
+        <f>SUM(G23:I23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="11">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="16">
-        <v>11</v>
-      </c>
-      <c r="F15" s="18">
-        <v>43338</v>
-      </c>
-      <c r="G15">
-        <v>64</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="12">
+        <v>43343</v>
+      </c>
       <c r="J24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J30">
-        <f t="shared" si="0"/>
+        <f>SUM(G24:I24)</f>
         <v>0</v>
       </c>
     </row>
@@ -35458,15 +35620,15 @@
       </c>
       <c r="G31">
         <f>SUM(G2:G30)</f>
-        <v>1543</v>
+        <v>1967</v>
       </c>
       <c r="I31">
         <f>SUM(I2:I30)</f>
-        <v>495</v>
+        <v>715</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>2038</v>
+        <v>2682</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC89807-E3EB-49FA-AFD3-CAA99F437194}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5769D5C2-DB89-4701-8515-543CB32A874B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" activeTab="2" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -21,11 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2756,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:AC306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R129" sqref="R129"/>
     </sheetView>
   </sheetViews>
@@ -49325,8 +49320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD836908-61FC-4C6A-BB55-EB17A2B99FDD}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49902,12 +49897,18 @@
       <c r="F19" s="12">
         <v>43341</v>
       </c>
+      <c r="G19">
+        <v>204</v>
+      </c>
       <c r="H19">
         <v>60</v>
+      </c>
+      <c r="I19">
+        <v>45</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -49929,9 +49930,15 @@
       <c r="F20" s="12">
         <v>43341</v>
       </c>
+      <c r="G20">
+        <v>57</v>
+      </c>
+      <c r="I20">
+        <v>45</v>
+      </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -49953,9 +49960,18 @@
       <c r="F21" s="10">
         <v>43342</v>
       </c>
+      <c r="G21">
+        <v>185</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <v>45</v>
+      </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -49977,9 +49993,15 @@
       <c r="F22" s="10">
         <v>43342</v>
       </c>
+      <c r="G22">
+        <v>45</v>
+      </c>
+      <c r="I22">
+        <v>45</v>
+      </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -50036,15 +50058,19 @@
       </c>
       <c r="G31">
         <f>SUM(G2:G30)</f>
-        <v>1967</v>
+        <v>2458</v>
+      </c>
+      <c r="H31">
+        <f>SUM(H2:H30)</f>
+        <v>300</v>
       </c>
       <c r="I31">
         <f>SUM(I2:I30)</f>
-        <v>715</v>
+        <v>895</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>2682</v>
+        <v>3653</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5769D5C2-DB89-4701-8515-543CB32A874B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C25339-F922-4D1E-B5C2-8B3219533138}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" activeTab="2" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -49321,7 +49321,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -50023,9 +50023,12 @@
       <c r="F23" s="12">
         <v>43343</v>
       </c>
+      <c r="H23">
+        <v>34</v>
+      </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -50047,9 +50050,12 @@
       <c r="F24" s="12">
         <v>43343</v>
       </c>
+      <c r="H24">
+        <v>32</v>
+      </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -50062,7 +50068,7 @@
       </c>
       <c r="H31">
         <f>SUM(H2:H30)</f>
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="I31">
         <f>SUM(I2:I30)</f>
@@ -50070,7 +50076,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>3653</v>
+        <v>3719</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C25339-F922-4D1E-B5C2-8B3219533138}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FABDF4-E874-4213-A974-5D93F5D57D44}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" activeTab="2" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9818" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9842" uniqueCount="716">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -2172,6 +2172,9 @@
   </si>
   <si>
     <t>2018-10-02</t>
+  </si>
+  <si>
+    <t>MSU F+W, cli</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2435,6 +2438,9 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2751,9 +2757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:AC306"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R129" sqref="R129"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49318,14 +49324,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD836908-61FC-4C6A-BB55-EB17A2B99FDD}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
@@ -49754,7 +49761,7 @@
         <v>45</v>
       </c>
       <c r="J14">
-        <f t="shared" ref="J14:J24" si="1">SUM(G14:I14)</f>
+        <f t="shared" ref="J14:J28" si="1">SUM(G14:I14)</f>
         <v>109</v>
       </c>
     </row>
@@ -50058,25 +50065,160 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25">
+        <v>102</v>
+      </c>
+      <c r="I25">
+        <v>64</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26">
+        <v>26</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>715</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="62"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="64"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>228</v>
       </c>
-      <c r="G31">
+      <c r="G34">
         <f>SUM(G2:G30)</f>
-        <v>2458</v>
-      </c>
-      <c r="H31">
+        <v>2560</v>
+      </c>
+      <c r="H34">
         <f>SUM(H2:H30)</f>
-        <v>366</v>
-      </c>
-      <c r="I31">
+        <v>398</v>
+      </c>
+      <c r="I34">
         <f>SUM(I2:I30)</f>
-        <v>895</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>3719</v>
+        <v>985</v>
+      </c>
+      <c r="J34">
+        <f>SUM(G34:I34)</f>
+        <v>3943</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FABDF4-E874-4213-A974-5D93F5D57D44}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53823D1-57C2-4E86-8CCA-2BBF9E26B758}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" activeTab="2" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9842" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9876" uniqueCount="719">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -2175,6 +2175,15 @@
   </si>
   <si>
     <t>MSU F+W, cli</t>
+  </si>
+  <si>
+    <t>Crab apple</t>
+  </si>
+  <si>
+    <t>Crab apples at RT</t>
+  </si>
+  <si>
+    <t>Leonard 2</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +2370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2440,7 +2449,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2758,8 +2766,8 @@
   <dimension ref="A1:AC306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:F41"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49324,10 +49332,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD836908-61FC-4C6A-BB55-EB17A2B99FDD}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -49338,9 +49346,10 @@
     <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -49365,14 +49374,17 @@
       <c r="H1" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="J1" t="s">
         <v>226</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -49394,15 +49406,15 @@
       <c r="G2">
         <v>123</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>45</v>
       </c>
-      <c r="J2">
-        <f>SUM(G2:I2)</f>
+      <c r="K2">
+        <f>SUM(G2:J2)</f>
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -49424,15 +49436,15 @@
       <c r="G3">
         <v>64</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>45</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J31" si="0">SUM(G3:I3)</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="0">SUM(G3:J3)</f>
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -49454,15 +49466,15 @@
       <c r="G4">
         <v>208</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>45</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -49484,15 +49496,15 @@
       <c r="G5">
         <v>69</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>45</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>58</v>
       </c>
@@ -49514,15 +49526,15 @@
       <c r="G6">
         <v>200</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>45</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>58</v>
       </c>
@@ -49544,15 +49556,15 @@
       <c r="G7">
         <v>78</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>45</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -49574,15 +49586,15 @@
       <c r="G8">
         <v>207</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>45</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -49604,15 +49616,15 @@
       <c r="G9">
         <v>76</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>45</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -49634,15 +49646,15 @@
       <c r="G10">
         <v>200</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>45</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
@@ -49664,15 +49676,15 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>45</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
@@ -49694,15 +49706,15 @@
       <c r="G12">
         <v>60</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>45</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>58</v>
       </c>
@@ -49727,15 +49739,15 @@
       <c r="H13">
         <v>60</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>45</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>58</v>
       </c>
@@ -49757,15 +49769,15 @@
       <c r="G14">
         <v>64</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>45</v>
       </c>
-      <c r="J14">
-        <f t="shared" ref="J14:J28" si="1">SUM(G14:I14)</f>
+      <c r="K14">
+        <f t="shared" ref="K14:K28" si="1">SUM(G14:J14)</f>
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -49790,15 +49802,15 @@
       <c r="H15">
         <v>60</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>65</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
@@ -49820,15 +49832,15 @@
       <c r="G16">
         <v>57</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>65</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -49853,12 +49865,12 @@
       <c r="H17">
         <v>60</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -49880,12 +49892,12 @@
       <c r="G18">
         <v>67</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>58</v>
       </c>
@@ -49910,15 +49922,15 @@
       <c r="H19">
         <v>60</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>45</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
@@ -49940,15 +49952,15 @@
       <c r="G20">
         <v>57</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>45</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -49973,15 +49985,15 @@
       <c r="H21">
         <v>60</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>45</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -50003,15 +50015,15 @@
       <c r="G22">
         <v>45</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>45</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>58</v>
       </c>
@@ -50033,12 +50045,12 @@
       <c r="H23">
         <v>34</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>58</v>
       </c>
@@ -50060,12 +50072,12 @@
       <c r="H24">
         <v>32</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
         <v>58</v>
       </c>
@@ -50087,15 +50099,15 @@
       <c r="G25">
         <v>102</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>64</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
         <v>58</v>
       </c>
@@ -50114,15 +50126,15 @@
       <c r="F26" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>26</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
         <v>58</v>
       </c>
@@ -50144,12 +50156,12 @@
       <c r="H27">
         <v>30</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
         <v>195</v>
       </c>
@@ -50171,53 +50183,152 @@
       <c r="H28">
         <v>2</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
-      <c r="B29" s="42"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>716</v>
+      </c>
       <c r="C29" s="63"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="42"/>
+      <c r="D29" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>88</v>
+      </c>
       <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="F30" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>715</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="42" t="s">
+        <v>718</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>716</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>228</v>
       </c>
-      <c r="G34">
+      <c r="G41">
         <f>SUM(G2:G30)</f>
         <v>2560</v>
       </c>
-      <c r="H34">
+      <c r="H41">
         <f>SUM(H2:H30)</f>
         <v>398</v>
       </c>
-      <c r="I34">
-        <f>SUM(I2:I30)</f>
+      <c r="J41">
+        <f>SUM(J2:J30)</f>
         <v>985</v>
       </c>
-      <c r="J34">
-        <f>SUM(G34:I34)</f>
+      <c r="K41">
+        <f>SUM(G41:J41)</f>
         <v>3943</v>
       </c>
     </row>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53823D1-57C2-4E86-8CCA-2BBF9E26B758}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B6284F-7588-4A22-9F9C-2F7AD44DA929}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" activeTab="2" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9876" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9877" uniqueCount="720">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -2184,6 +2189,9 @@
   </si>
   <si>
     <t>Leonard 2</t>
+  </si>
+  <si>
+    <t>wasp</t>
   </si>
 </sst>
 </file>
@@ -2370,7 +2378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2449,6 +2457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2766,8 +2775,8 @@
   <dimension ref="A1:AC306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12077,9 +12086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS1079"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A998" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1091" sqref="E1091"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12088,6 +12097,10 @@
     <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1"/>
     <col min="20" max="20" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
@@ -13133,7 +13146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -13169,7 +13182,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -13204,8 +13217,20 @@
       <c r="AC34" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD34" t="s">
+        <v>719</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>2</v>
+      </c>
+      <c r="AG34" s="64">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -13241,7 +13266,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -13277,7 +13302,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
@@ -13313,7 +13338,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -13349,7 +13374,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -13385,7 +13410,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -13421,7 +13446,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10</v>
       </c>
@@ -13457,7 +13482,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
@@ -13493,7 +13518,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -13529,7 +13554,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13</v>
       </c>
@@ -13565,7 +13590,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>14</v>
       </c>
@@ -13601,7 +13626,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15</v>
       </c>
@@ -13637,7 +13662,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
@@ -13673,7 +13698,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>17</v>
       </c>
@@ -49334,7 +49359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD836908-61FC-4C6A-BB55-EB17A2B99FDD}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B6284F-7588-4A22-9F9C-2F7AD44DA929}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33B9B85-1FD3-4331-8EA7-19B9B1EE6DFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9877" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9997" uniqueCount="694">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -1981,96 +1981,6 @@
     <t>A15-30</t>
   </si>
   <si>
-    <t>A16-1</t>
-  </si>
-  <si>
-    <t>A16-2</t>
-  </si>
-  <si>
-    <t>A16-3</t>
-  </si>
-  <si>
-    <t>A16-4</t>
-  </si>
-  <si>
-    <t>A16-5</t>
-  </si>
-  <si>
-    <t>A16-6</t>
-  </si>
-  <si>
-    <t>A16-7</t>
-  </si>
-  <si>
-    <t>A16-8</t>
-  </si>
-  <si>
-    <t>A16-9</t>
-  </si>
-  <si>
-    <t>A16-10</t>
-  </si>
-  <si>
-    <t>A16-11</t>
-  </si>
-  <si>
-    <t>A16-12</t>
-  </si>
-  <si>
-    <t>A16-13</t>
-  </si>
-  <si>
-    <t>A16-14</t>
-  </si>
-  <si>
-    <t>A16-15</t>
-  </si>
-  <si>
-    <t>A16-16</t>
-  </si>
-  <si>
-    <t>A16-17</t>
-  </si>
-  <si>
-    <t>A16-18</t>
-  </si>
-  <si>
-    <t>A16-19</t>
-  </si>
-  <si>
-    <t>A16-20</t>
-  </si>
-  <si>
-    <t>A16-21</t>
-  </si>
-  <si>
-    <t>A16-22</t>
-  </si>
-  <si>
-    <t>A16-23</t>
-  </si>
-  <si>
-    <t>A16-24</t>
-  </si>
-  <si>
-    <t>A16-25</t>
-  </si>
-  <si>
-    <t>A16-26</t>
-  </si>
-  <si>
-    <t>A16-27</t>
-  </si>
-  <si>
-    <t>A16-28</t>
-  </si>
-  <si>
-    <t>A16-29</t>
-  </si>
-  <si>
-    <t>A16-30</t>
-  </si>
-  <si>
     <t>A17-1</t>
   </si>
   <si>
@@ -2192,6 +2102,18 @@
   </si>
   <si>
     <t>wasp</t>
+  </si>
+  <si>
+    <t>15:36</t>
+  </si>
+  <si>
+    <t>15:28</t>
+  </si>
+  <si>
+    <t>15:27</t>
+  </si>
+  <si>
+    <t>15:17</t>
   </si>
 </sst>
 </file>
@@ -2776,7 +2698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
+      <selection pane="bottomLeft" activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8892,7 +8814,7 @@
         <v>545</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
@@ -8939,7 +8861,7 @@
         <v>545</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.25">
@@ -8986,7 +8908,7 @@
         <v>545</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
@@ -9030,10 +8952,10 @@
         <v>221</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.25">
@@ -9077,10 +8999,10 @@
         <v>221</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="R107" s="1" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.25">
@@ -9124,10 +9046,10 @@
         <v>221</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="R108" s="1" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
@@ -9171,10 +9093,10 @@
         <v>221</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
@@ -9218,10 +9140,10 @@
         <v>221</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
@@ -9265,10 +9187,10 @@
         <v>221</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="R111" s="1" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
@@ -9312,10 +9234,10 @@
         <v>221</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -9362,10 +9284,10 @@
         <v>543</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="R113" s="1" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -9412,10 +9334,10 @@
         <v>543</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -9462,10 +9384,10 @@
         <v>543</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="R115" s="1" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
@@ -9473,7 +9395,7 @@
         <v>195</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>61</v>
@@ -9512,10 +9434,10 @@
         <v>543</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="R116" s="1" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -9562,10 +9484,10 @@
         <v>543</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
     </row>
     <row r="118" spans="1:18" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -9612,10 +9534,10 @@
         <v>543</v>
       </c>
       <c r="Q118" s="60" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="R118" s="60" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -9662,10 +9584,10 @@
         <v>544</v>
       </c>
       <c r="Q119" s="60" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -9712,10 +9634,10 @@
         <v>544</v>
       </c>
       <c r="Q120" s="60" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="R120" s="1" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -9762,10 +9684,10 @@
         <v>544</v>
       </c>
       <c r="Q121" s="60" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="R121" s="1" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -9773,7 +9695,7 @@
         <v>195</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>61</v>
@@ -9812,10 +9734,10 @@
         <v>544</v>
       </c>
       <c r="Q122" s="60" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="R122" s="1" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
     </row>
     <row r="123" spans="1:18" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -9862,10 +9784,10 @@
         <v>544</v>
       </c>
       <c r="Q123" s="60" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="R123" s="1" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -9912,10 +9834,10 @@
         <v>545</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="R124" s="1" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -9962,10 +9884,10 @@
         <v>545</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="R125" s="1" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -10012,10 +9934,10 @@
         <v>545</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="R126" s="1" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -10023,7 +9945,7 @@
         <v>195</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>61</v>
@@ -10062,10 +9984,10 @@
         <v>545</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="R127" s="1" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -10112,10 +10034,10 @@
         <v>545</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="R128" s="1" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
     </row>
     <row r="129" spans="10:18" x14ac:dyDescent="0.25">
@@ -12084,11 +12006,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
-  <dimension ref="A1:AS1079"/>
+  <dimension ref="A1:AS1083"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z34" sqref="Z34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A885" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A900" sqref="A900:XFD989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13218,7 +13140,7 @@
         <v>123</v>
       </c>
       <c r="AD34" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
       <c r="AE34">
         <v>1</v>
@@ -42231,10 +42153,10 @@
       </c>
       <c r="Z840" t="str">
         <f>"A15"&amp;Y840&amp;"-"&amp;AC840</f>
-        <v>A15RT-F5</v>
+        <v>A15RT-A1</v>
       </c>
       <c r="AC840" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="841" spans="1:29" x14ac:dyDescent="0.25">
@@ -42264,10 +42186,10 @@
       </c>
       <c r="Z841" t="str">
         <f t="shared" ref="Z841:Z899" si="8">"A15"&amp;Y841&amp;"-"&amp;AC841</f>
-        <v>A15RT-G7</v>
+        <v>A15RT-A2</v>
       </c>
       <c r="AC841" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="842" spans="1:29" x14ac:dyDescent="0.25">
@@ -42297,10 +42219,10 @@
       </c>
       <c r="Z842" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-B4</v>
+        <v>A15RT-A3</v>
       </c>
       <c r="AC842" t="s">
-        <v>125</v>
+        <v>246</v>
       </c>
     </row>
     <row r="843" spans="1:29" x14ac:dyDescent="0.25">
@@ -42330,10 +42252,10 @@
       </c>
       <c r="Z843" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-B6</v>
+        <v>A15RT-A4</v>
       </c>
       <c r="AC843" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
     </row>
     <row r="844" spans="1:29" x14ac:dyDescent="0.25">
@@ -42363,10 +42285,10 @@
       </c>
       <c r="Z844" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-F12</v>
+        <v>A15RT-A5</v>
       </c>
       <c r="AC844" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
     </row>
     <row r="845" spans="1:29" x14ac:dyDescent="0.25">
@@ -42396,10 +42318,10 @@
       </c>
       <c r="Z845" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-F10</v>
+        <v>A15RT-A6</v>
       </c>
       <c r="AC845" t="s">
-        <v>383</v>
+        <v>245</v>
       </c>
     </row>
     <row r="846" spans="1:29" x14ac:dyDescent="0.25">
@@ -42429,10 +42351,10 @@
       </c>
       <c r="Z846" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-E10</v>
+        <v>A15RT-A7</v>
       </c>
       <c r="AC846" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
     </row>
     <row r="847" spans="1:29" x14ac:dyDescent="0.25">
@@ -42462,10 +42384,10 @@
       </c>
       <c r="Z847" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-F4</v>
+        <v>A15RT-A8</v>
       </c>
       <c r="AC847" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="848" spans="1:29" x14ac:dyDescent="0.25">
@@ -42495,10 +42417,10 @@
       </c>
       <c r="Z848" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-G3</v>
+        <v>A15RT-A9</v>
       </c>
       <c r="AC848" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="849" spans="1:29" x14ac:dyDescent="0.25">
@@ -42528,10 +42450,10 @@
       </c>
       <c r="Z849" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-B9</v>
+        <v>A15RT-A10</v>
       </c>
       <c r="AC849" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="850" spans="1:29" x14ac:dyDescent="0.25">
@@ -42561,10 +42483,10 @@
       </c>
       <c r="Z850" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-C1</v>
+        <v>A15RT-A11</v>
       </c>
       <c r="AC850" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
     </row>
     <row r="851" spans="1:29" x14ac:dyDescent="0.25">
@@ -42594,10 +42516,10 @@
       </c>
       <c r="Z851" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-G10</v>
+        <v>A15RT-A12</v>
       </c>
       <c r="AC851" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
     </row>
     <row r="852" spans="1:29" x14ac:dyDescent="0.25">
@@ -42627,10 +42549,10 @@
       </c>
       <c r="Z852" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-E1</v>
+        <v>A15RT-B1</v>
       </c>
       <c r="AC852" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
     <row r="853" spans="1:29" x14ac:dyDescent="0.25">
@@ -42660,10 +42582,10 @@
       </c>
       <c r="Z853" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-E4</v>
+        <v>A15RT-B2</v>
       </c>
       <c r="AC853" t="s">
-        <v>398</v>
+        <v>143</v>
       </c>
     </row>
     <row r="854" spans="1:29" x14ac:dyDescent="0.25">
@@ -42693,10 +42615,10 @@
       </c>
       <c r="Z854" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-H3</v>
+        <v>A15RT-B3</v>
       </c>
       <c r="AC854" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
     </row>
     <row r="855" spans="1:29" x14ac:dyDescent="0.25">
@@ -42726,10 +42648,10 @@
       </c>
       <c r="Z855" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-B1</v>
+        <v>A15RT-G1</v>
       </c>
       <c r="AC855" t="s">
-        <v>170</v>
+        <v>384</v>
       </c>
     </row>
     <row r="856" spans="1:29" x14ac:dyDescent="0.25">
@@ -42759,10 +42681,10 @@
       </c>
       <c r="Z856" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-E11</v>
+        <v>A15RT-G2</v>
       </c>
       <c r="AC856" t="s">
-        <v>432</v>
+        <v>128</v>
       </c>
     </row>
     <row r="857" spans="1:29" x14ac:dyDescent="0.25">
@@ -42792,10 +42714,10 @@
       </c>
       <c r="Z857" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-E3</v>
+        <v>A15RT-G3</v>
       </c>
       <c r="AC857" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="858" spans="1:29" x14ac:dyDescent="0.25">
@@ -42825,10 +42747,10 @@
       </c>
       <c r="Z858" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-B10</v>
+        <v>A15RT-G4</v>
       </c>
       <c r="AC858" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
     </row>
     <row r="859" spans="1:29" x14ac:dyDescent="0.25">
@@ -42858,10 +42780,10 @@
       </c>
       <c r="Z859" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-D6</v>
+        <v>A15RT-G5</v>
       </c>
       <c r="AC859" t="s">
-        <v>161</v>
+        <v>431</v>
       </c>
     </row>
     <row r="860" spans="1:29" x14ac:dyDescent="0.25">
@@ -42891,10 +42813,10 @@
       </c>
       <c r="Z860" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-H2</v>
+        <v>A15RT-G6</v>
       </c>
       <c r="AC860" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
     </row>
     <row r="861" spans="1:29" x14ac:dyDescent="0.25">
@@ -42924,10 +42846,10 @@
       </c>
       <c r="Z861" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-E9</v>
+        <v>A15RT-G7</v>
       </c>
       <c r="AC861" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
     </row>
     <row r="862" spans="1:29" x14ac:dyDescent="0.25">
@@ -42957,10 +42879,10 @@
       </c>
       <c r="Z862" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-G1</v>
+        <v>A15RT-G8</v>
       </c>
       <c r="AC862" t="s">
-        <v>384</v>
+        <v>149</v>
       </c>
     </row>
     <row r="863" spans="1:29" x14ac:dyDescent="0.25">
@@ -42990,10 +42912,10 @@
       </c>
       <c r="Z863" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-H8</v>
+        <v>A15RT-G9</v>
       </c>
       <c r="AC863" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="864" spans="1:29" x14ac:dyDescent="0.25">
@@ -43023,10 +42945,10 @@
       </c>
       <c r="Z864" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-G6</v>
+        <v>A15RT-G10</v>
       </c>
       <c r="AC864" t="s">
-        <v>236</v>
+        <v>396</v>
       </c>
     </row>
     <row r="865" spans="1:29" x14ac:dyDescent="0.25">
@@ -43056,10 +42978,10 @@
       </c>
       <c r="Z865" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-E6</v>
+        <v>A15RT-G11</v>
       </c>
       <c r="AC865" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
     </row>
     <row r="866" spans="1:29" x14ac:dyDescent="0.25">
@@ -43089,10 +43011,10 @@
       </c>
       <c r="Z866" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-H10</v>
+        <v>A15RT-G12</v>
       </c>
       <c r="AC866" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="867" spans="1:29" x14ac:dyDescent="0.25">
@@ -43122,10 +43044,10 @@
       </c>
       <c r="Z867" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-C2</v>
+        <v>A15RT-H1</v>
       </c>
       <c r="AC867" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="868" spans="1:29" x14ac:dyDescent="0.25">
@@ -43155,10 +43077,10 @@
       </c>
       <c r="Z868" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-D7</v>
+        <v>A15RT-H2</v>
       </c>
       <c r="AC868" t="s">
-        <v>379</v>
+        <v>123</v>
       </c>
     </row>
     <row r="869" spans="1:29" x14ac:dyDescent="0.25">
@@ -43188,10 +43110,10 @@
       </c>
       <c r="Z869" t="str">
         <f t="shared" si="8"/>
-        <v>A15RT-E5</v>
+        <v>A15RT-H3</v>
       </c>
       <c r="AC869" t="s">
-        <v>399</v>
+        <v>166</v>
       </c>
     </row>
     <row r="870" spans="1:29" x14ac:dyDescent="0.25">
@@ -43221,10 +43143,10 @@
       </c>
       <c r="Z870" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-D10</v>
+        <v>A15SO-A1</v>
       </c>
       <c r="AC870" t="s">
-        <v>465</v>
+        <v>248</v>
       </c>
     </row>
     <row r="871" spans="1:29" x14ac:dyDescent="0.25">
@@ -43287,10 +43209,10 @@
       </c>
       <c r="Z872" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-F2</v>
+        <v>A15SO-A3</v>
       </c>
       <c r="AC872" t="s">
-        <v>464</v>
+        <v>246</v>
       </c>
     </row>
     <row r="873" spans="1:29" x14ac:dyDescent="0.25">
@@ -43320,10 +43242,10 @@
       </c>
       <c r="Z873" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-C12</v>
+        <v>A15SO-A4</v>
       </c>
       <c r="AC873" t="s">
-        <v>397</v>
+        <v>253</v>
       </c>
     </row>
     <row r="874" spans="1:29" x14ac:dyDescent="0.25">
@@ -43353,10 +43275,10 @@
       </c>
       <c r="Z874" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-E2</v>
+        <v>A15SO-A5</v>
       </c>
       <c r="AC874" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
     </row>
     <row r="875" spans="1:29" x14ac:dyDescent="0.25">
@@ -43386,10 +43308,10 @@
       </c>
       <c r="Z875" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-F6</v>
+        <v>A15SO-A6</v>
       </c>
       <c r="AC875" t="s">
-        <v>385</v>
+        <v>245</v>
       </c>
     </row>
     <row r="876" spans="1:29" x14ac:dyDescent="0.25">
@@ -43419,10 +43341,10 @@
       </c>
       <c r="Z876" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-G8</v>
+        <v>A15SO-A7</v>
       </c>
       <c r="AC876" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="877" spans="1:29" x14ac:dyDescent="0.25">
@@ -43452,10 +43374,10 @@
       </c>
       <c r="Z877" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-C8</v>
+        <v>A15SO-A8</v>
       </c>
       <c r="AC877" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
     </row>
     <row r="878" spans="1:29" x14ac:dyDescent="0.25">
@@ -43485,10 +43407,10 @@
       </c>
       <c r="Z878" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-D2</v>
+        <v>A15SO-A9</v>
       </c>
       <c r="AC878" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="879" spans="1:29" x14ac:dyDescent="0.25">
@@ -43518,10 +43440,10 @@
       </c>
       <c r="Z879" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-A4</v>
+        <v>A15SO-A10</v>
       </c>
       <c r="AC879" t="s">
-        <v>253</v>
+        <v>139</v>
       </c>
     </row>
     <row r="880" spans="1:29" x14ac:dyDescent="0.25">
@@ -43551,10 +43473,10 @@
       </c>
       <c r="Z880" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-E8</v>
+        <v>A15SO-A11</v>
       </c>
       <c r="AC880" t="s">
-        <v>386</v>
+        <v>238</v>
       </c>
     </row>
     <row r="881" spans="1:29" x14ac:dyDescent="0.25">
@@ -43584,10 +43506,10 @@
       </c>
       <c r="Z881" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-C6</v>
+        <v>A15SO-A12</v>
       </c>
       <c r="AC881" t="s">
-        <v>169</v>
+        <v>378</v>
       </c>
     </row>
     <row r="882" spans="1:29" x14ac:dyDescent="0.25">
@@ -43617,10 +43539,10 @@
       </c>
       <c r="Z882" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-D3</v>
+        <v>A15SO-B1</v>
       </c>
       <c r="AC882" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="883" spans="1:29" x14ac:dyDescent="0.25">
@@ -43650,10 +43572,10 @@
       </c>
       <c r="Z883" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-E7</v>
+        <v>A15SO-B2</v>
       </c>
       <c r="AC883" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="884" spans="1:29" x14ac:dyDescent="0.25">
@@ -43683,10 +43605,10 @@
       </c>
       <c r="Z884" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-H7</v>
+        <v>A15SO-B3</v>
       </c>
       <c r="AC884" t="s">
-        <v>380</v>
+        <v>243</v>
       </c>
     </row>
     <row r="885" spans="1:29" x14ac:dyDescent="0.25">
@@ -43716,10 +43638,10 @@
       </c>
       <c r="Z885" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-A8</v>
+        <v>A15SO-G1</v>
       </c>
       <c r="AC885" t="s">
-        <v>167</v>
+        <v>384</v>
       </c>
     </row>
     <row r="886" spans="1:29" x14ac:dyDescent="0.25">
@@ -43749,10 +43671,10 @@
       </c>
       <c r="Z886" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-B2</v>
+        <v>A15SO-G2</v>
       </c>
       <c r="AC886" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="887" spans="1:29" x14ac:dyDescent="0.25">
@@ -43782,10 +43704,10 @@
       </c>
       <c r="Z887" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-G11</v>
+        <v>A15SO-G3</v>
       </c>
       <c r="AC887" t="s">
-        <v>250</v>
+        <v>140</v>
       </c>
     </row>
     <row r="888" spans="1:29" x14ac:dyDescent="0.25">
@@ -43815,10 +43737,10 @@
       </c>
       <c r="Z888" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-F3</v>
+        <v>A15SO-G4</v>
       </c>
       <c r="AC888" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="889" spans="1:29" x14ac:dyDescent="0.25">
@@ -43848,10 +43770,10 @@
       </c>
       <c r="Z889" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-G12</v>
+        <v>A15SO-G5</v>
       </c>
       <c r="AC889" t="s">
-        <v>148</v>
+        <v>431</v>
       </c>
     </row>
     <row r="890" spans="1:29" x14ac:dyDescent="0.25">
@@ -43881,10 +43803,10 @@
       </c>
       <c r="Z890" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-B12</v>
+        <v>A15SO-G6</v>
       </c>
       <c r="AC890" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
     </row>
     <row r="891" spans="1:29" x14ac:dyDescent="0.25">
@@ -43914,10 +43836,10 @@
       </c>
       <c r="Z891" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-G4</v>
+        <v>A15SO-G7</v>
       </c>
       <c r="AC891" t="s">
-        <v>244</v>
+        <v>137</v>
       </c>
     </row>
     <row r="892" spans="1:29" x14ac:dyDescent="0.25">
@@ -43947,10 +43869,10 @@
       </c>
       <c r="Z892" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-F7</v>
+        <v>A15SO-G8</v>
       </c>
       <c r="AC892" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="893" spans="1:29" x14ac:dyDescent="0.25">
@@ -43980,10 +43902,10 @@
       </c>
       <c r="Z893" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-C5</v>
+        <v>A15SO-G9</v>
       </c>
       <c r="AC893" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="894" spans="1:29" x14ac:dyDescent="0.25">
@@ -44013,10 +43935,10 @@
       </c>
       <c r="Z894" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-F9</v>
+        <v>A15SO-G10</v>
       </c>
       <c r="AC894" t="s">
-        <v>241</v>
+        <v>396</v>
       </c>
     </row>
     <row r="895" spans="1:29" x14ac:dyDescent="0.25">
@@ -44046,10 +43968,10 @@
       </c>
       <c r="Z895" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-E12</v>
+        <v>A15SO-G11</v>
       </c>
       <c r="AC895" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
     </row>
     <row r="896" spans="1:29" x14ac:dyDescent="0.25">
@@ -44079,10 +44001,10 @@
       </c>
       <c r="Z896" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-A1</v>
+        <v>A15SO-G12</v>
       </c>
       <c r="AC896" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
     </row>
     <row r="897" spans="1:29" x14ac:dyDescent="0.25">
@@ -44112,10 +44034,10 @@
       </c>
       <c r="Z897" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-H5</v>
+        <v>A15SO-H1</v>
       </c>
       <c r="AC897" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
     </row>
     <row r="898" spans="1:29" x14ac:dyDescent="0.25">
@@ -44145,10 +44067,10 @@
       </c>
       <c r="Z898" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-F1</v>
+        <v>A15SO-H2</v>
       </c>
       <c r="AC898" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
     </row>
     <row r="899" spans="1:29" x14ac:dyDescent="0.25">
@@ -44178,35 +44100,32 @@
       </c>
       <c r="Z899" t="str">
         <f t="shared" si="8"/>
-        <v>A15SO-B5</v>
+        <v>A15SO-H3</v>
       </c>
       <c r="AC899" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="900" spans="1:29" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A900" s="57">
         <v>1</v>
       </c>
-      <c r="C900" s="57" t="s">
-        <v>59</v>
-      </c>
       <c r="E900" s="58"/>
-      <c r="G900" s="58" t="s">
+      <c r="G900" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H900" s="58"/>
       <c r="I900" s="58" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J900" s="57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K900" s="57" t="s">
         <v>61</v>
       </c>
       <c r="T900" s="58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y900" s="57" t="s">
         <v>85</v>
@@ -44219,23 +44138,20 @@
       <c r="A901">
         <v>2</v>
       </c>
-      <c r="C901" t="s">
-        <v>59</v>
-      </c>
       <c r="G901" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I901" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J901">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K901" t="s">
         <v>61</v>
       </c>
       <c r="T901" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y901" t="s">
         <v>85</v>
@@ -44248,23 +44164,20 @@
       <c r="A902">
         <v>3</v>
       </c>
-      <c r="C902" t="s">
-        <v>59</v>
-      </c>
       <c r="G902" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I902" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J902">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K902" t="s">
         <v>61</v>
       </c>
       <c r="T902" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y902" t="s">
         <v>85</v>
@@ -44277,23 +44190,20 @@
       <c r="A903">
         <v>4</v>
       </c>
-      <c r="C903" t="s">
-        <v>59</v>
-      </c>
       <c r="G903" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I903" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J903">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K903" t="s">
         <v>61</v>
       </c>
       <c r="T903" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y903" t="s">
         <v>85</v>
@@ -44306,23 +44216,20 @@
       <c r="A904">
         <v>5</v>
       </c>
-      <c r="C904" t="s">
-        <v>59</v>
-      </c>
       <c r="G904" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I904" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J904">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K904" t="s">
         <v>61</v>
       </c>
       <c r="T904" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y904" t="s">
         <v>85</v>
@@ -44335,23 +44242,20 @@
       <c r="A905">
         <v>6</v>
       </c>
-      <c r="C905" t="s">
-        <v>59</v>
-      </c>
       <c r="G905" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I905" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J905">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K905" t="s">
         <v>61</v>
       </c>
       <c r="T905" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y905" t="s">
         <v>85</v>
@@ -44364,23 +44268,20 @@
       <c r="A906">
         <v>7</v>
       </c>
-      <c r="C906" t="s">
-        <v>59</v>
-      </c>
       <c r="G906" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I906" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J906">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K906" t="s">
         <v>61</v>
       </c>
       <c r="T906" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y906" t="s">
         <v>85</v>
@@ -44393,23 +44294,20 @@
       <c r="A907">
         <v>8</v>
       </c>
-      <c r="C907" t="s">
-        <v>59</v>
-      </c>
       <c r="G907" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I907" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J907">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K907" t="s">
         <v>61</v>
       </c>
       <c r="T907" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y907" t="s">
         <v>85</v>
@@ -44422,23 +44320,20 @@
       <c r="A908">
         <v>9</v>
       </c>
-      <c r="C908" t="s">
-        <v>59</v>
-      </c>
       <c r="G908" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I908" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J908">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K908" t="s">
         <v>61</v>
       </c>
       <c r="T908" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y908" t="s">
         <v>85</v>
@@ -44451,23 +44346,20 @@
       <c r="A909">
         <v>10</v>
       </c>
-      <c r="C909" t="s">
-        <v>59</v>
-      </c>
       <c r="G909" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I909" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J909">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K909" t="s">
         <v>61</v>
       </c>
       <c r="T909" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y909" t="s">
         <v>85</v>
@@ -44480,23 +44372,20 @@
       <c r="A910">
         <v>11</v>
       </c>
-      <c r="C910" t="s">
-        <v>59</v>
-      </c>
       <c r="G910" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I910" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J910">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K910" t="s">
         <v>61</v>
       </c>
       <c r="T910" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y910" t="s">
         <v>85</v>
@@ -44509,23 +44398,20 @@
       <c r="A911">
         <v>12</v>
       </c>
-      <c r="C911" t="s">
-        <v>59</v>
-      </c>
       <c r="G911" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I911" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J911">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K911" t="s">
         <v>61</v>
       </c>
       <c r="T911" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y911" t="s">
         <v>85</v>
@@ -44538,23 +44424,20 @@
       <c r="A912">
         <v>13</v>
       </c>
-      <c r="C912" t="s">
-        <v>59</v>
-      </c>
       <c r="G912" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I912" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J912">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K912" t="s">
         <v>61</v>
       </c>
       <c r="T912" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y912" t="s">
         <v>85</v>
@@ -44567,23 +44450,20 @@
       <c r="A913">
         <v>14</v>
       </c>
-      <c r="C913" t="s">
-        <v>59</v>
-      </c>
       <c r="G913" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I913" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J913">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K913" t="s">
         <v>61</v>
       </c>
       <c r="T913" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y913" t="s">
         <v>85</v>
@@ -44596,23 +44476,20 @@
       <c r="A914">
         <v>15</v>
       </c>
-      <c r="C914" t="s">
-        <v>59</v>
-      </c>
       <c r="G914" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I914" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J914">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K914" t="s">
         <v>61</v>
       </c>
       <c r="T914" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y914" t="s">
         <v>85</v>
@@ -44625,23 +44502,20 @@
       <c r="A915">
         <v>16</v>
       </c>
-      <c r="C915" t="s">
-        <v>60</v>
-      </c>
       <c r="G915" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I915" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J915">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K915" t="s">
         <v>61</v>
       </c>
       <c r="T915" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y915" t="s">
         <v>85</v>
@@ -44654,23 +44528,20 @@
       <c r="A916">
         <v>17</v>
       </c>
-      <c r="C916" t="s">
-        <v>60</v>
-      </c>
       <c r="G916" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I916" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J916">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K916" t="s">
         <v>61</v>
       </c>
       <c r="T916" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y916" t="s">
         <v>85</v>
@@ -44683,23 +44554,20 @@
       <c r="A917">
         <v>18</v>
       </c>
-      <c r="C917" t="s">
-        <v>60</v>
-      </c>
       <c r="G917" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I917" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J917">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K917" t="s">
         <v>61</v>
       </c>
       <c r="T917" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y917" t="s">
         <v>85</v>
@@ -44712,23 +44580,20 @@
       <c r="A918">
         <v>19</v>
       </c>
-      <c r="C918" t="s">
-        <v>60</v>
-      </c>
       <c r="G918" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I918" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J918">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K918" t="s">
         <v>61</v>
       </c>
       <c r="T918" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y918" t="s">
         <v>85</v>
@@ -44741,23 +44606,20 @@
       <c r="A919">
         <v>20</v>
       </c>
-      <c r="C919" t="s">
-        <v>60</v>
-      </c>
       <c r="G919" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I919" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J919">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K919" t="s">
         <v>61</v>
       </c>
       <c r="T919" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y919" t="s">
         <v>85</v>
@@ -44770,23 +44632,20 @@
       <c r="A920">
         <v>21</v>
       </c>
-      <c r="C920" t="s">
-        <v>60</v>
-      </c>
       <c r="G920" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I920" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J920">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K920" t="s">
         <v>61</v>
       </c>
       <c r="T920" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y920" t="s">
         <v>85</v>
@@ -44799,23 +44658,20 @@
       <c r="A921">
         <v>22</v>
       </c>
-      <c r="C921" t="s">
-        <v>60</v>
-      </c>
       <c r="G921" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I921" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J921">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K921" t="s">
         <v>61</v>
       </c>
       <c r="T921" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y921" t="s">
         <v>85</v>
@@ -44828,23 +44684,20 @@
       <c r="A922">
         <v>23</v>
       </c>
-      <c r="C922" t="s">
-        <v>60</v>
-      </c>
       <c r="G922" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I922" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J922">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K922" t="s">
         <v>61</v>
       </c>
       <c r="T922" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y922" t="s">
         <v>85</v>
@@ -44857,23 +44710,20 @@
       <c r="A923">
         <v>24</v>
       </c>
-      <c r="C923" t="s">
-        <v>60</v>
-      </c>
       <c r="G923" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I923" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J923">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K923" t="s">
         <v>61</v>
       </c>
       <c r="T923" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y923" t="s">
         <v>85</v>
@@ -44886,23 +44736,20 @@
       <c r="A924">
         <v>25</v>
       </c>
-      <c r="C924" t="s">
-        <v>60</v>
-      </c>
       <c r="G924" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I924" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J924">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K924" t="s">
         <v>61</v>
       </c>
       <c r="T924" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y924" t="s">
         <v>85</v>
@@ -44915,23 +44762,20 @@
       <c r="A925">
         <v>26</v>
       </c>
-      <c r="C925" t="s">
-        <v>60</v>
-      </c>
       <c r="G925" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I925" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J925">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K925" t="s">
         <v>61</v>
       </c>
       <c r="T925" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y925" t="s">
         <v>85</v>
@@ -44944,23 +44788,20 @@
       <c r="A926">
         <v>27</v>
       </c>
-      <c r="C926" t="s">
-        <v>60</v>
-      </c>
       <c r="G926" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I926" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J926">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K926" t="s">
         <v>61</v>
       </c>
       <c r="T926" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y926" t="s">
         <v>85</v>
@@ -44973,23 +44814,20 @@
       <c r="A927">
         <v>28</v>
       </c>
-      <c r="C927" t="s">
-        <v>60</v>
-      </c>
       <c r="G927" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I927" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J927">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K927" t="s">
         <v>61</v>
       </c>
       <c r="T927" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y927" t="s">
         <v>85</v>
@@ -45002,23 +44840,20 @@
       <c r="A928">
         <v>29</v>
       </c>
-      <c r="C928" t="s">
-        <v>60</v>
-      </c>
       <c r="G928" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I928" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J928">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K928" t="s">
         <v>61</v>
       </c>
       <c r="T928" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y928" t="s">
         <v>85</v>
@@ -45031,23 +44866,20 @@
       <c r="A929">
         <v>30</v>
       </c>
-      <c r="C929" t="s">
-        <v>60</v>
-      </c>
       <c r="G929" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I929" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J929">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K929" t="s">
         <v>61</v>
       </c>
       <c r="T929" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y929" t="s">
         <v>85</v>
@@ -45060,129 +44892,117 @@
       <c r="A930">
         <v>1</v>
       </c>
-      <c r="C930" t="s">
-        <v>59</v>
-      </c>
       <c r="G930" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I930" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J930">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K930" t="s">
         <v>61</v>
       </c>
       <c r="T930" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y930" t="s">
         <v>86</v>
       </c>
       <c r="Z930" t="str">
-        <f>"A16"&amp;Y930&amp;"-"&amp;AC930</f>
-        <v>A16RT-D8</v>
+        <f>"A17"&amp;Y930&amp;"-"&amp;AC930</f>
+        <v>A17RT-A7</v>
       </c>
       <c r="AC930" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="931" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>2</v>
       </c>
-      <c r="C931" t="s">
-        <v>59</v>
-      </c>
       <c r="G931" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I931" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J931">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K931" t="s">
         <v>61</v>
       </c>
       <c r="T931" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y931" t="s">
         <v>86</v>
       </c>
       <c r="Z931" t="str">
-        <f t="shared" ref="Z931:Z989" si="9">"A16"&amp;Y931&amp;"-"&amp;AC931</f>
-        <v>A16RT-D10</v>
+        <f t="shared" ref="Z931:Z989" si="9">"A17"&amp;Y931&amp;"-"&amp;AC931</f>
+        <v>A17RT-F7</v>
       </c>
       <c r="AC931" t="s">
-        <v>465</v>
+        <v>172</v>
       </c>
     </row>
     <row r="932" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>3</v>
       </c>
-      <c r="C932" t="s">
-        <v>59</v>
-      </c>
       <c r="G932" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I932" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J932">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K932" t="s">
         <v>61</v>
       </c>
       <c r="T932" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y932" t="s">
         <v>86</v>
       </c>
       <c r="Z932" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-B7</v>
+        <v>A17RT-E4</v>
       </c>
       <c r="AC932" t="s">
-        <v>178</v>
+        <v>398</v>
       </c>
     </row>
     <row r="933" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>4</v>
       </c>
-      <c r="C933" t="s">
-        <v>59</v>
-      </c>
       <c r="G933" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I933" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J933">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K933" t="s">
         <v>61</v>
       </c>
       <c r="T933" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y933" t="s">
         <v>86</v>
       </c>
       <c r="Z933" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-D12</v>
+        <v>A17RT-D12</v>
       </c>
       <c r="AC933" t="s">
         <v>163</v>
@@ -45192,4161 +45012,4682 @@
       <c r="A934">
         <v>5</v>
       </c>
-      <c r="C934" t="s">
-        <v>59</v>
-      </c>
       <c r="G934" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I934" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J934">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K934" t="s">
         <v>61</v>
       </c>
       <c r="T934" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y934" t="s">
         <v>86</v>
       </c>
       <c r="Z934" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-B10</v>
+        <v>A17RT-F4</v>
       </c>
       <c r="AC934" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="935" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>6</v>
       </c>
-      <c r="C935" t="s">
-        <v>59</v>
-      </c>
       <c r="G935" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I935" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J935">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K935" t="s">
         <v>61</v>
       </c>
       <c r="T935" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y935" t="s">
         <v>86</v>
       </c>
       <c r="Z935" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-A12</v>
+        <v>A17RT-G9</v>
       </c>
       <c r="AC935" t="s">
-        <v>378</v>
+        <v>160</v>
       </c>
     </row>
     <row r="936" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>7</v>
       </c>
-      <c r="C936" t="s">
-        <v>59</v>
-      </c>
       <c r="G936" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I936" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J936">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K936" t="s">
         <v>61</v>
       </c>
       <c r="T936" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y936" t="s">
         <v>86</v>
       </c>
       <c r="Z936" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-E1</v>
+        <v>A17RT-D10</v>
       </c>
       <c r="AC936" t="s">
-        <v>138</v>
+        <v>465</v>
       </c>
     </row>
     <row r="937" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>8</v>
       </c>
-      <c r="C937" t="s">
-        <v>59</v>
-      </c>
       <c r="G937" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I937" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J937">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K937" t="s">
         <v>61</v>
       </c>
       <c r="T937" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y937" t="s">
         <v>86</v>
       </c>
       <c r="Z937" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-G3</v>
+        <v>A17RT-H4</v>
       </c>
       <c r="AC937" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="938" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>9</v>
       </c>
-      <c r="C938" t="s">
-        <v>59</v>
-      </c>
       <c r="G938" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I938" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J938">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K938" t="s">
         <v>61</v>
       </c>
       <c r="T938" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y938" t="s">
         <v>86</v>
       </c>
       <c r="Z938" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-C8</v>
+        <v>A17RT-A1</v>
       </c>
       <c r="AC938" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="939" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>10</v>
       </c>
-      <c r="C939" t="s">
-        <v>59</v>
-      </c>
       <c r="G939" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I939" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J939">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K939" t="s">
         <v>61</v>
       </c>
       <c r="T939" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y939" t="s">
         <v>86</v>
       </c>
       <c r="Z939" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-G5</v>
+        <v>A17RT-B4</v>
       </c>
       <c r="AC939" t="s">
-        <v>431</v>
+        <v>125</v>
       </c>
     </row>
     <row r="940" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>11</v>
       </c>
-      <c r="C940" t="s">
-        <v>59</v>
-      </c>
       <c r="G940" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I940" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J940">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K940" t="s">
         <v>61</v>
       </c>
       <c r="T940" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y940" t="s">
         <v>86</v>
       </c>
       <c r="Z940" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-D5</v>
+        <v>A17RT-C2</v>
       </c>
       <c r="AC940" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
     </row>
     <row r="941" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>12</v>
       </c>
-      <c r="C941" t="s">
-        <v>59</v>
-      </c>
       <c r="G941" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I941" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J941">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K941" t="s">
         <v>61</v>
       </c>
       <c r="T941" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y941" t="s">
         <v>86</v>
       </c>
       <c r="Z941" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-E3</v>
+        <v>A17RT-G4</v>
       </c>
       <c r="AC941" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
     </row>
     <row r="942" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>13</v>
       </c>
-      <c r="C942" t="s">
-        <v>59</v>
-      </c>
       <c r="G942" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I942" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J942">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K942" t="s">
         <v>61</v>
       </c>
       <c r="T942" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y942" t="s">
         <v>86</v>
       </c>
       <c r="Z942" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-D11</v>
+        <v>A17RT-C9</v>
       </c>
       <c r="AC942" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
     </row>
     <row r="943" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>14</v>
       </c>
-      <c r="C943" t="s">
-        <v>59</v>
-      </c>
       <c r="G943" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I943" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J943">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K943" t="s">
         <v>61</v>
       </c>
       <c r="T943" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y943" t="s">
         <v>86</v>
       </c>
       <c r="Z943" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-A6</v>
+        <v>A17RT-G7</v>
       </c>
       <c r="AC943" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
     </row>
     <row r="944" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>15</v>
       </c>
-      <c r="C944" t="s">
-        <v>59</v>
-      </c>
       <c r="G944" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I944" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J944">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K944" t="s">
         <v>61</v>
       </c>
       <c r="T944" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y944" t="s">
         <v>86</v>
       </c>
       <c r="Z944" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-G1</v>
+        <v>A17RT-A5</v>
       </c>
       <c r="AC944" t="s">
-        <v>384</v>
+        <v>247</v>
       </c>
     </row>
     <row r="945" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>16</v>
       </c>
-      <c r="C945" t="s">
-        <v>60</v>
-      </c>
       <c r="G945" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I945" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J945">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K945" t="s">
         <v>61</v>
       </c>
       <c r="T945" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y945" t="s">
         <v>86</v>
       </c>
       <c r="Z945" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-G12</v>
+        <v>A17RT-F11</v>
       </c>
       <c r="AC945" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="946" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>17</v>
       </c>
-      <c r="C946" t="s">
-        <v>60</v>
-      </c>
       <c r="G946" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I946" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J946">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K946" t="s">
         <v>61</v>
       </c>
       <c r="T946" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y946" t="s">
         <v>86</v>
       </c>
       <c r="Z946" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-C6</v>
+        <v>A17RT-C3</v>
       </c>
       <c r="AC946" t="s">
-        <v>169</v>
+        <v>395</v>
       </c>
     </row>
     <row r="947" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>18</v>
       </c>
-      <c r="C947" t="s">
-        <v>60</v>
-      </c>
       <c r="G947" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I947" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J947">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K947" t="s">
         <v>61</v>
       </c>
       <c r="T947" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y947" t="s">
         <v>86</v>
       </c>
       <c r="Z947" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-H10</v>
+        <v>A17RT-F2</v>
       </c>
       <c r="AC947" t="s">
-        <v>175</v>
+        <v>464</v>
       </c>
     </row>
     <row r="948" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>19</v>
       </c>
-      <c r="C948" t="s">
-        <v>60</v>
-      </c>
       <c r="G948" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I948" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J948">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K948" t="s">
         <v>61</v>
       </c>
       <c r="T948" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y948" t="s">
         <v>86</v>
       </c>
       <c r="Z948" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-E10</v>
+        <v>A17RT-A11</v>
       </c>
       <c r="AC948" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="949" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>20</v>
       </c>
-      <c r="C949" t="s">
-        <v>60</v>
-      </c>
       <c r="G949" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I949" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J949">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K949" t="s">
         <v>61</v>
       </c>
       <c r="T949" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y949" t="s">
         <v>86</v>
       </c>
       <c r="Z949" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-G9</v>
+        <v>A17RT-F1</v>
       </c>
       <c r="AC949" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="950" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>21</v>
       </c>
-      <c r="C950" t="s">
-        <v>60</v>
-      </c>
       <c r="G950" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I950" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J950">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K950" t="s">
         <v>61</v>
       </c>
       <c r="T950" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y950" t="s">
         <v>86</v>
       </c>
       <c r="Z950" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-B2</v>
+        <v>A17RT-E9</v>
       </c>
       <c r="AC950" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="951" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>22</v>
       </c>
-      <c r="C951" t="s">
-        <v>60</v>
-      </c>
       <c r="G951" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I951" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J951">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K951" t="s">
         <v>61</v>
       </c>
       <c r="T951" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y951" t="s">
         <v>86</v>
       </c>
       <c r="Z951" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-H2</v>
+        <v>A17RT-C6</v>
       </c>
       <c r="AC951" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
     </row>
     <row r="952" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>23</v>
       </c>
-      <c r="C952" t="s">
-        <v>60</v>
-      </c>
       <c r="G952" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I952" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J952">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K952" t="s">
         <v>61</v>
       </c>
       <c r="T952" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y952" t="s">
         <v>86</v>
       </c>
       <c r="Z952" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-B8</v>
+        <v>A17RT-H2</v>
       </c>
       <c r="AC952" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
     </row>
     <row r="953" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>24</v>
       </c>
-      <c r="C953" t="s">
-        <v>60</v>
-      </c>
       <c r="G953" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I953" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J953">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K953" t="s">
         <v>61</v>
       </c>
       <c r="T953" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y953" t="s">
         <v>86</v>
       </c>
       <c r="Z953" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-B1</v>
+        <v>A17RT-C7</v>
       </c>
       <c r="AC953" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="954" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>25</v>
       </c>
-      <c r="C954" t="s">
-        <v>60</v>
-      </c>
       <c r="G954" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I954" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J954">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K954" t="s">
         <v>61</v>
       </c>
       <c r="T954" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y954" t="s">
         <v>86</v>
       </c>
       <c r="Z954" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-C9</v>
+        <v>A17RT-B12</v>
       </c>
       <c r="AC954" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="955" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>26</v>
       </c>
-      <c r="C955" t="s">
-        <v>60</v>
-      </c>
       <c r="G955" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I955" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J955">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K955" t="s">
         <v>61</v>
       </c>
       <c r="T955" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y955" t="s">
         <v>86</v>
       </c>
       <c r="Z955" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-A4</v>
+        <v>A17RT-D9</v>
       </c>
       <c r="AC955" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
     </row>
     <row r="956" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>27</v>
       </c>
-      <c r="C956" t="s">
-        <v>60</v>
-      </c>
       <c r="G956" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I956" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J956">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K956" t="s">
         <v>61</v>
       </c>
       <c r="T956" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y956" t="s">
         <v>86</v>
       </c>
       <c r="Z956" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-B5</v>
+        <v>A17RT-D5</v>
       </c>
       <c r="AC956" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
     </row>
     <row r="957" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>28</v>
       </c>
-      <c r="C957" t="s">
-        <v>60</v>
-      </c>
       <c r="G957" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I957" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J957">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K957" t="s">
         <v>61</v>
       </c>
       <c r="T957" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y957" t="s">
         <v>86</v>
       </c>
       <c r="Z957" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-C11</v>
+        <v>A17RT-C4</v>
       </c>
       <c r="AC957" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="958" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>29</v>
       </c>
-      <c r="C958" t="s">
-        <v>60</v>
-      </c>
       <c r="G958" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I958" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J958">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K958" t="s">
         <v>61</v>
       </c>
       <c r="T958" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y958" t="s">
         <v>86</v>
       </c>
       <c r="Z958" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-C7</v>
+        <v>A17RT-A12</v>
       </c>
       <c r="AC958" t="s">
-        <v>136</v>
+        <v>378</v>
       </c>
     </row>
     <row r="959" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>30</v>
       </c>
-      <c r="C959" t="s">
-        <v>60</v>
-      </c>
       <c r="G959" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I959" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J959">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K959" t="s">
         <v>61</v>
       </c>
       <c r="T959" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y959" t="s">
         <v>86</v>
       </c>
       <c r="Z959" t="str">
         <f t="shared" si="9"/>
-        <v>A16RT-G2</v>
+        <v>A17RT-D3</v>
       </c>
       <c r="AC959" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="960" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>1</v>
       </c>
-      <c r="C960" t="s">
-        <v>60</v>
-      </c>
       <c r="G960" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I960" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J960">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K960" t="s">
         <v>61</v>
       </c>
       <c r="T960" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y960" t="s">
         <v>87</v>
       </c>
       <c r="Z960" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-A1</v>
+        <v>A17SO-D8</v>
       </c>
       <c r="AC960" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
     </row>
     <row r="961" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>2</v>
       </c>
-      <c r="C961" t="s">
-        <v>60</v>
-      </c>
       <c r="G961" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I961" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J961">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K961" t="s">
         <v>61</v>
       </c>
       <c r="T961" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y961" t="s">
         <v>87</v>
       </c>
       <c r="Z961" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-F7</v>
+        <v>A17SO-A6</v>
       </c>
       <c r="AC961" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
     </row>
     <row r="962" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>3</v>
       </c>
-      <c r="C962" t="s">
-        <v>60</v>
-      </c>
       <c r="G962" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I962" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J962">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K962" t="s">
         <v>61</v>
       </c>
       <c r="T962" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y962" t="s">
         <v>87</v>
       </c>
       <c r="Z962" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-F6</v>
+        <v>A17SO-B2</v>
       </c>
       <c r="AC962" t="s">
-        <v>385</v>
+        <v>143</v>
       </c>
     </row>
     <row r="963" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>4</v>
       </c>
-      <c r="C963" t="s">
-        <v>60</v>
-      </c>
       <c r="G963" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I963" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J963">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K963" t="s">
         <v>61</v>
       </c>
       <c r="T963" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y963" t="s">
         <v>87</v>
       </c>
       <c r="Z963" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-D1</v>
+        <v>A17SO-H5</v>
       </c>
       <c r="AC963" t="s">
-        <v>382</v>
+        <v>146</v>
       </c>
     </row>
     <row r="964" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>5</v>
       </c>
-      <c r="C964" t="s">
-        <v>60</v>
-      </c>
       <c r="G964" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I964" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J964">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K964" t="s">
         <v>61</v>
       </c>
       <c r="T964" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y964" t="s">
         <v>87</v>
       </c>
       <c r="Z964" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-E12</v>
+        <v>A17SO-F6</v>
       </c>
       <c r="AC964" t="s">
-        <v>176</v>
+        <v>385</v>
       </c>
     </row>
     <row r="965" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>6</v>
       </c>
-      <c r="C965" t="s">
-        <v>60</v>
-      </c>
       <c r="G965" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I965" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J965">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K965" t="s">
         <v>61</v>
       </c>
       <c r="T965" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y965" t="s">
         <v>87</v>
       </c>
       <c r="Z965" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-D9</v>
+        <v>A17SO-B7</v>
       </c>
       <c r="AC965" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="966" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>7</v>
       </c>
-      <c r="C966" t="s">
-        <v>60</v>
-      </c>
       <c r="G966" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I966" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J966">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K966" t="s">
         <v>61</v>
       </c>
       <c r="T966" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y966" t="s">
         <v>87</v>
       </c>
       <c r="Z966" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-A10</v>
+        <v>A17SO-B10</v>
       </c>
       <c r="AC966" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="967" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>8</v>
       </c>
-      <c r="C967" t="s">
-        <v>60</v>
-      </c>
       <c r="G967" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I967" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J967">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K967" t="s">
         <v>61</v>
       </c>
       <c r="T967" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y967" t="s">
         <v>87</v>
       </c>
       <c r="Z967" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-H1</v>
+        <v>A17SO-F9</v>
       </c>
       <c r="AC967" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="968" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>9</v>
       </c>
-      <c r="C968" t="s">
-        <v>60</v>
-      </c>
       <c r="G968" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I968" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J968">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K968" t="s">
         <v>61</v>
       </c>
       <c r="T968" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y968" t="s">
         <v>87</v>
       </c>
       <c r="Z968" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-D3</v>
+        <v>A17SO-B6</v>
       </c>
       <c r="AC968" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="969" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>10</v>
       </c>
-      <c r="C969" t="s">
-        <v>60</v>
-      </c>
       <c r="G969" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I969" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J969">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K969" t="s">
         <v>61</v>
       </c>
       <c r="T969" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y969" t="s">
         <v>87</v>
       </c>
       <c r="Z969" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-H5</v>
+        <v>A17SO-H3</v>
       </c>
       <c r="AC969" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="970" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>11</v>
       </c>
-      <c r="C970" t="s">
-        <v>60</v>
-      </c>
       <c r="G970" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I970" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J970">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K970" t="s">
         <v>61</v>
       </c>
       <c r="T970" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y970" t="s">
         <v>87</v>
       </c>
       <c r="Z970" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-F11</v>
+        <v>A17SO-H9</v>
       </c>
       <c r="AC970" t="s">
-        <v>159</v>
+        <v>381</v>
       </c>
     </row>
     <row r="971" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>12</v>
       </c>
-      <c r="C971" t="s">
-        <v>60</v>
-      </c>
       <c r="G971" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I971" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J971">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K971" t="s">
         <v>61</v>
       </c>
       <c r="T971" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y971" t="s">
         <v>87</v>
       </c>
       <c r="Z971" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-G7</v>
+        <v>A17SO-E10</v>
       </c>
       <c r="AC971" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
     </row>
     <row r="972" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>13</v>
       </c>
-      <c r="C972" t="s">
-        <v>60</v>
-      </c>
       <c r="G972" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J972">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K972" t="s">
         <v>61</v>
       </c>
       <c r="T972" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y972" t="s">
         <v>87</v>
       </c>
       <c r="Z972" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-D2</v>
+        <v>A17SO-H7</v>
       </c>
       <c r="AC972" t="s">
-        <v>173</v>
+        <v>380</v>
       </c>
     </row>
     <row r="973" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>14</v>
       </c>
-      <c r="C973" t="s">
-        <v>60</v>
-      </c>
       <c r="G973" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I973" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J973">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K973" t="s">
         <v>61</v>
       </c>
       <c r="T973" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y973" t="s">
         <v>87</v>
       </c>
       <c r="Z973" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-B12</v>
+        <v>A17SO-G2</v>
       </c>
       <c r="AC973" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="974" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>15</v>
       </c>
-      <c r="C974" t="s">
-        <v>60</v>
-      </c>
       <c r="G974" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I974" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J974">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K974" t="s">
         <v>61</v>
       </c>
       <c r="T974" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y974" t="s">
         <v>87</v>
       </c>
       <c r="Z974" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-F5</v>
+        <v>A17SO-F8</v>
       </c>
       <c r="AC974" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
     </row>
     <row r="975" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>16</v>
       </c>
-      <c r="C975" t="s">
-        <v>59</v>
-      </c>
       <c r="G975" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I975" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J975">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K975" t="s">
         <v>61</v>
       </c>
       <c r="T975" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y975" t="s">
         <v>87</v>
       </c>
       <c r="Z975" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-H11</v>
+        <v>A17SO-B9</v>
       </c>
       <c r="AC975" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="976" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>17</v>
       </c>
-      <c r="C976" t="s">
-        <v>59</v>
-      </c>
       <c r="G976" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I976" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J976">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K976" t="s">
         <v>61</v>
       </c>
       <c r="T976" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y976" t="s">
         <v>87</v>
       </c>
       <c r="Z976" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-H9</v>
+        <v>A17SO-C11</v>
       </c>
       <c r="AC976" t="s">
-        <v>381</v>
+        <v>145</v>
       </c>
     </row>
     <row r="977" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>18</v>
       </c>
-      <c r="C977" t="s">
-        <v>59</v>
-      </c>
       <c r="G977" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I977" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J977">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K977" t="s">
         <v>61</v>
       </c>
       <c r="T977" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y977" t="s">
         <v>87</v>
       </c>
       <c r="Z977" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-H3</v>
+        <v>A17SO-E7</v>
       </c>
       <c r="AC977" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
     </row>
     <row r="978" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>19</v>
       </c>
-      <c r="C978" t="s">
-        <v>59</v>
-      </c>
       <c r="G978" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I978" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J978">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K978" t="s">
         <v>61</v>
       </c>
       <c r="T978" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y978" t="s">
         <v>87</v>
       </c>
       <c r="Z978" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-E4</v>
+        <v>A17SO-F12</v>
       </c>
       <c r="AC978" t="s">
-        <v>398</v>
+        <v>122</v>
       </c>
     </row>
     <row r="979" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>20</v>
       </c>
-      <c r="C979" t="s">
-        <v>59</v>
-      </c>
       <c r="G979" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I979" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J979">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K979" t="s">
         <v>61</v>
       </c>
       <c r="T979" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y979" t="s">
         <v>87</v>
       </c>
       <c r="Z979" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-D4</v>
+        <v>A17SO-E5</v>
       </c>
       <c r="AC979" t="s">
-        <v>237</v>
+        <v>399</v>
       </c>
     </row>
     <row r="980" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>21</v>
       </c>
-      <c r="C980" t="s">
-        <v>59</v>
-      </c>
       <c r="G980" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I980" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J980">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K980" t="s">
         <v>61</v>
       </c>
       <c r="T980" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y980" t="s">
         <v>87</v>
       </c>
       <c r="Z980" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-F9</v>
+        <v>A17SO-D1</v>
       </c>
       <c r="AC980" t="s">
-        <v>241</v>
+        <v>382</v>
       </c>
     </row>
     <row r="981" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>22</v>
       </c>
-      <c r="C981" t="s">
-        <v>59</v>
-      </c>
       <c r="G981" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I981" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J981">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K981" t="s">
         <v>61</v>
       </c>
       <c r="T981" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y981" t="s">
         <v>87</v>
       </c>
       <c r="Z981" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-C1</v>
+        <v>A17SO-C12</v>
       </c>
       <c r="AC981" t="s">
-        <v>147</v>
+        <v>397</v>
       </c>
     </row>
     <row r="982" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>23</v>
       </c>
-      <c r="C982" t="s">
-        <v>59</v>
-      </c>
       <c r="G982" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I982" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J982">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K982" t="s">
         <v>61</v>
       </c>
       <c r="T982" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y982" t="s">
         <v>87</v>
       </c>
       <c r="Z982" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-C2</v>
+        <v>A17SO-G5</v>
       </c>
       <c r="AC982" t="s">
-        <v>150</v>
+        <v>431</v>
       </c>
     </row>
     <row r="983" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>24</v>
       </c>
-      <c r="C983" t="s">
-        <v>59</v>
-      </c>
       <c r="G983" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I983" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J983">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K983" t="s">
         <v>61</v>
       </c>
       <c r="T983" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y983" t="s">
         <v>87</v>
       </c>
       <c r="Z983" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-F8</v>
+        <v>A17SO-D6</v>
       </c>
       <c r="AC983" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="984" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>25</v>
       </c>
-      <c r="C984" t="s">
-        <v>59</v>
-      </c>
       <c r="G984" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I984" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J984">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K984" t="s">
         <v>61</v>
       </c>
       <c r="T984" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y984" t="s">
         <v>87</v>
       </c>
       <c r="Z984" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-H8</v>
+        <v>A17SO-E12</v>
       </c>
       <c r="AC984" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="985" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>26</v>
       </c>
-      <c r="C985" t="s">
-        <v>59</v>
-      </c>
       <c r="G985" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I985" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J985">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K985" t="s">
         <v>61</v>
       </c>
       <c r="T985" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y985" t="s">
         <v>87</v>
       </c>
       <c r="Z985" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-E11</v>
+        <v>A17SO-A10</v>
       </c>
       <c r="AC985" t="s">
-        <v>432</v>
+        <v>139</v>
       </c>
     </row>
     <row r="986" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>27</v>
       </c>
-      <c r="C986" t="s">
-        <v>59</v>
-      </c>
       <c r="G986" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I986" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J986">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K986" t="s">
         <v>61</v>
       </c>
       <c r="T986" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y986" t="s">
         <v>87</v>
       </c>
       <c r="Z986" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-G11</v>
+        <v>A17SO-G6</v>
       </c>
       <c r="AC986" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="987" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>28</v>
       </c>
-      <c r="C987" t="s">
-        <v>59</v>
-      </c>
       <c r="G987" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I987" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J987">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K987" t="s">
         <v>61</v>
       </c>
       <c r="T987" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y987" t="s">
         <v>87</v>
       </c>
       <c r="Z987" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-C10</v>
+        <v>A17SO-A4</v>
       </c>
       <c r="AC987" t="s">
-        <v>127</v>
+        <v>253</v>
       </c>
     </row>
     <row r="988" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>29</v>
       </c>
-      <c r="C988" t="s">
-        <v>59</v>
-      </c>
       <c r="G988" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I988" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J988">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K988" t="s">
         <v>61</v>
       </c>
       <c r="T988" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y988" t="s">
         <v>87</v>
       </c>
       <c r="Z988" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-C4</v>
+        <v>A17SO-G8</v>
       </c>
       <c r="AC988" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="989" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>30</v>
       </c>
-      <c r="C989" t="s">
-        <v>59</v>
-      </c>
       <c r="G989" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I989" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="J989">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K989" t="s">
         <v>61</v>
       </c>
       <c r="T989" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y989" t="s">
         <v>87</v>
       </c>
       <c r="Z989" t="str">
         <f t="shared" si="9"/>
-        <v>A16SO-E9</v>
+        <v>A17SO-B5</v>
       </c>
       <c r="AC989" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="990" spans="1:29" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A990" s="57">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="990" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A990">
         <v>1</v>
       </c>
-      <c r="E990" s="58"/>
-      <c r="G990" s="58"/>
-      <c r="H990" s="58"/>
-      <c r="I990" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="J990" s="57">
-        <v>17</v>
-      </c>
-      <c r="K990" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="T990" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y990" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z990" s="57" t="s">
-        <v>679</v>
+      <c r="B990" t="s">
+        <v>231</v>
+      </c>
+      <c r="C990" t="s">
+        <v>60</v>
+      </c>
+      <c r="D990">
+        <v>4.0659999999999998</v>
+      </c>
+      <c r="E990" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G990" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H990" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I990" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J990">
+        <v>9</v>
+      </c>
+      <c r="K990" t="s">
+        <v>61</v>
+      </c>
+      <c r="T990" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="991" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>2</v>
       </c>
+      <c r="B991" t="s">
+        <v>231</v>
+      </c>
+      <c r="C991" t="s">
+        <v>59</v>
+      </c>
+      <c r="D991">
+        <v>5.9909999999999997</v>
+      </c>
+      <c r="G991" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H991" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I991" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J991">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K991" t="s">
         <v>61</v>
       </c>
       <c r="T991" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y991" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z991" t="s">
-        <v>680</v>
+        <v>213</v>
       </c>
     </row>
     <row r="992" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>3</v>
       </c>
+      <c r="B992" t="s">
+        <v>231</v>
+      </c>
+      <c r="C992" t="s">
+        <v>59</v>
+      </c>
+      <c r="D992">
+        <v>6.5979999999999999</v>
+      </c>
+      <c r="G992" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H992" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I992" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J992">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K992" t="s">
         <v>61</v>
       </c>
       <c r="T992" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y992" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z992" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="993" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="993" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>4</v>
       </c>
+      <c r="B993" t="s">
+        <v>231</v>
+      </c>
+      <c r="C993" t="s">
+        <v>59</v>
+      </c>
+      <c r="D993">
+        <v>2.601</v>
+      </c>
+      <c r="G993" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H993" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I993" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J993">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K993" t="s">
         <v>61</v>
       </c>
       <c r="T993" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y993" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z993" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="994" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="994" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>5</v>
       </c>
+      <c r="B994" t="s">
+        <v>231</v>
+      </c>
+      <c r="C994" t="s">
+        <v>60</v>
+      </c>
+      <c r="D994">
+        <v>6.3449999999999998</v>
+      </c>
+      <c r="G994" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H994" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I994" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J994">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K994" t="s">
         <v>61</v>
       </c>
       <c r="T994" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y994" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z994" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="995" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="995" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>6</v>
       </c>
+      <c r="B995" t="s">
+        <v>231</v>
+      </c>
+      <c r="C995" t="s">
+        <v>59</v>
+      </c>
+      <c r="D995">
+        <v>8.7720000000000002</v>
+      </c>
+      <c r="G995" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H995" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I995" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J995">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K995" t="s">
         <v>61</v>
       </c>
       <c r="T995" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y995" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z995" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="996" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="996" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>7</v>
       </c>
+      <c r="B996" t="s">
+        <v>231</v>
+      </c>
+      <c r="C996" t="s">
+        <v>59</v>
+      </c>
+      <c r="D996">
+        <v>10.304</v>
+      </c>
+      <c r="G996" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H996" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I996" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J996">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K996" t="s">
         <v>61</v>
       </c>
       <c r="T996" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y996" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z996" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="997" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="997" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>8</v>
       </c>
+      <c r="B997" t="s">
+        <v>231</v>
+      </c>
+      <c r="C997" t="s">
+        <v>59</v>
+      </c>
+      <c r="D997">
+        <v>8.7769999999999992</v>
+      </c>
+      <c r="G997" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H997" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I997" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J997">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K997" t="s">
         <v>61</v>
       </c>
       <c r="T997" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y997" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z997" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="998" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="998" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>9</v>
       </c>
+      <c r="B998" t="s">
+        <v>231</v>
+      </c>
+      <c r="C998" t="s">
+        <v>59</v>
+      </c>
+      <c r="D998">
+        <v>5.1520000000000001</v>
+      </c>
+      <c r="G998" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H998" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I998" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J998">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K998" t="s">
         <v>61</v>
       </c>
       <c r="T998" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y998" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z998" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="999" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="999" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>10</v>
       </c>
+      <c r="B999" t="s">
+        <v>231</v>
+      </c>
+      <c r="C999" t="s">
+        <v>60</v>
+      </c>
+      <c r="D999">
+        <v>3.1989999999999998</v>
+      </c>
+      <c r="G999" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H999" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I999" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J999">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K999" t="s">
         <v>61</v>
       </c>
       <c r="T999" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y999" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z999" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>11</v>
       </c>
+      <c r="B1000" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1000">
+        <v>7.6760000000000002</v>
+      </c>
+      <c r="G1000" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1000" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1000" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1000">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1000" t="s">
         <v>61</v>
       </c>
       <c r="T1000" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1000" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1000" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>12</v>
       </c>
+      <c r="B1001" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1001">
+        <v>4.6929999999999996</v>
+      </c>
+      <c r="G1001" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1001" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1001" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1001">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1001" t="s">
         <v>61</v>
       </c>
       <c r="T1001" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1001" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1001" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1002">
         <v>13</v>
       </c>
+      <c r="B1002" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1002">
+        <v>8.2270000000000003</v>
+      </c>
+      <c r="G1002" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1002" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1002" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1002">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1002" t="s">
         <v>61</v>
       </c>
       <c r="T1002" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1002" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1002" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>14</v>
       </c>
+      <c r="B1003" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1003">
+        <v>6.5209999999999999</v>
+      </c>
+      <c r="G1003" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1003" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1003" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1003">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1003" t="s">
         <v>61</v>
       </c>
       <c r="T1003" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1003" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1003" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1004">
         <v>15</v>
       </c>
+      <c r="B1004" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1004">
+        <v>6.4059999999999997</v>
+      </c>
+      <c r="G1004" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1004" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1004" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1004">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1004" t="s">
         <v>61</v>
       </c>
       <c r="T1004" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1004" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1004" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1005">
         <v>16</v>
       </c>
+      <c r="B1005" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1005">
+        <v>6.9939999999999998</v>
+      </c>
+      <c r="G1005" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1005" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1005" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1005">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1005" t="s">
         <v>61</v>
       </c>
       <c r="T1005" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1005" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1005" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1006">
         <v>17</v>
       </c>
+      <c r="B1006" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1006">
+        <v>7.6529999999999996</v>
+      </c>
+      <c r="G1006" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1006" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1006" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1006">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1006" t="s">
         <v>61</v>
       </c>
       <c r="T1006" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1006" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1006" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1007">
         <v>18</v>
       </c>
+      <c r="B1007" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1007">
+        <v>6.0330000000000004</v>
+      </c>
+      <c r="G1007" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1007" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1007" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1007">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1007" t="s">
         <v>61</v>
       </c>
       <c r="T1007" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1007" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1007" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:26" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1008">
         <v>19</v>
       </c>
+      <c r="B1008" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1008">
+        <v>6.9660000000000002</v>
+      </c>
+      <c r="G1008" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1008" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1008" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1008">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1008" t="s">
         <v>61</v>
       </c>
       <c r="T1008" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1008" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1008" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1009">
         <v>20</v>
       </c>
+      <c r="B1009" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1009">
+        <v>5.3920000000000003</v>
+      </c>
+      <c r="G1009" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1009" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1009" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1009">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1009" t="s">
         <v>61</v>
       </c>
       <c r="T1009" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1009" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1009" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1010">
         <v>21</v>
       </c>
+      <c r="B1010" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1010">
+        <v>7.508</v>
+      </c>
+      <c r="G1010" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1010" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1010" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1010">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1010" t="s">
         <v>61</v>
       </c>
       <c r="T1010" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1010" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1010" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1011">
         <v>22</v>
       </c>
+      <c r="B1011" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1011">
+        <v>6.6390000000000002</v>
+      </c>
+      <c r="G1011" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1011" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1011" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1011">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1011" t="s">
         <v>61</v>
       </c>
       <c r="T1011" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1011" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1011" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1012">
         <v>23</v>
       </c>
+      <c r="B1012" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1012">
+        <v>4.4279999999999999</v>
+      </c>
+      <c r="G1012" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1012" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1012" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1012">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1012" t="s">
         <v>61</v>
       </c>
       <c r="T1012" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1012" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1012" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1013">
         <v>24</v>
       </c>
+      <c r="B1013" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1013">
+        <v>7.234</v>
+      </c>
+      <c r="G1013" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1013" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1013" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1013">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1013" t="s">
         <v>61</v>
       </c>
       <c r="T1013" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1013" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1013" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1014">
         <v>25</v>
       </c>
+      <c r="B1014" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1014">
+        <v>8.0739999999999998</v>
+      </c>
+      <c r="G1014" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1014" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1014" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1014">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K1014" t="s">
         <v>61</v>
       </c>
       <c r="T1014" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1014" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1014" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1015">
         <v>26</v>
       </c>
+      <c r="B1015" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1015">
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="G1015" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1015" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1015" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1015">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1015" t="s">
         <v>61</v>
       </c>
       <c r="T1015" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1015" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1015" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1016">
         <v>27</v>
       </c>
+      <c r="B1016" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1016">
+        <v>6.327</v>
+      </c>
+      <c r="G1016" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1016" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1016" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1016">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1016" t="s">
         <v>61</v>
       </c>
       <c r="T1016" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1016" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1016" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1017">
         <v>28</v>
       </c>
+      <c r="B1017" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1017">
+        <v>3.657</v>
+      </c>
+      <c r="G1017" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1017" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1017" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1017">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1017" t="s">
         <v>61</v>
       </c>
       <c r="T1017" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1017" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1017" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1018">
         <v>29</v>
       </c>
+      <c r="B1018" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1018">
+        <v>7.2</v>
+      </c>
+      <c r="G1018" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1018" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1018" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1018">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1018" t="s">
         <v>61</v>
       </c>
       <c r="T1018" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1018" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1018" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1019">
         <v>30</v>
       </c>
+      <c r="B1019" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1019">
+        <v>7.31</v>
+      </c>
+      <c r="G1019" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1019" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I1019" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1019">
+        <v>24</v>
+      </c>
+      <c r="K1019" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1019" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1020">
+        <v>31</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1020">
+        <v>6.8049999999999997</v>
+      </c>
+      <c r="G1020" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1020" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1020" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1020">
+        <v>9</v>
+      </c>
+      <c r="K1020" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1020" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1021">
+        <v>32</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1021">
+        <v>8.7680000000000007</v>
+      </c>
+      <c r="G1021" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1021" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1021" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1021">
+        <v>9</v>
+      </c>
+      <c r="K1021" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1021" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1022">
+        <v>33</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1022">
+        <v>7.1929999999999996</v>
+      </c>
+      <c r="G1022" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1022" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1022" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1022">
+        <v>9</v>
+      </c>
+      <c r="K1022" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1022" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1023">
+        <v>34</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1023">
+        <v>6.52</v>
+      </c>
+      <c r="G1023" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1023" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1023" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1023">
+        <v>9</v>
+      </c>
+      <c r="K1023" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1023" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1024">
+        <v>35</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1024">
+        <v>4.0270000000000001</v>
+      </c>
+      <c r="G1024" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1024" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1024" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1024">
+        <v>24</v>
+      </c>
+      <c r="K1024" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1024" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1025">
+        <v>36</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1025">
+        <v>6.3929999999999998</v>
+      </c>
+      <c r="G1025" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1025" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1025" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1025">
+        <v>9</v>
+      </c>
+      <c r="K1025" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1025" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1026">
+        <v>37</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1026">
+        <v>9.2230000000000008</v>
+      </c>
+      <c r="G1026" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1026" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1026" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1026">
+        <v>9</v>
+      </c>
+      <c r="K1026" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1026" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1027">
+        <v>38</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1027">
+        <v>6.4249999999999998</v>
+      </c>
+      <c r="G1027" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1027" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1027" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1027">
+        <v>9</v>
+      </c>
+      <c r="K1027" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1027" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1028">
+        <v>39</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1028">
+        <v>5.0919999999999996</v>
+      </c>
+      <c r="G1028" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1028" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1028" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1028">
+        <v>9</v>
+      </c>
+      <c r="K1028" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1028" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1029">
+        <v>40</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1029">
+        <v>6.17</v>
+      </c>
+      <c r="G1029" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1029" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1029" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1029">
+        <v>9</v>
+      </c>
+      <c r="K1029" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1029" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1030">
+        <v>41</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1030">
+        <v>4.91</v>
+      </c>
+      <c r="G1030" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1030" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1030" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1030">
+        <v>9</v>
+      </c>
+      <c r="K1030" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1030" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1031">
+        <v>42</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1031">
+        <v>4.8140000000000001</v>
+      </c>
+      <c r="G1031" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1031" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1031" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1031">
+        <v>9</v>
+      </c>
+      <c r="K1031" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1031" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1032">
+        <v>43</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1032">
+        <v>9.5340000000000007</v>
+      </c>
+      <c r="G1032" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1032" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1032" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1032">
+        <v>9</v>
+      </c>
+      <c r="K1032" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1032" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1033">
+        <v>44</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1033">
+        <v>4.7480000000000002</v>
+      </c>
+      <c r="G1033" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1033" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1033" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1033">
+        <v>9</v>
+      </c>
+      <c r="K1033" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1033" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1034">
+        <v>45</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1034">
+        <v>2.9969999999999999</v>
+      </c>
+      <c r="G1034" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1034" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1034" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1034">
+        <v>9</v>
+      </c>
+      <c r="K1034" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1034" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1035">
+        <v>46</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1035" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1035" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1035" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1035">
+        <v>9</v>
+      </c>
+      <c r="K1035" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1035" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1036">
+        <v>47</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1036" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1036" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1036" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1036" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1036">
+        <v>9</v>
+      </c>
+      <c r="K1036" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1036" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1037">
+        <v>1</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1037">
+        <v>4.0119999999999996</v>
+      </c>
+      <c r="E1037" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G1037" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1037" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1037" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1037">
+        <v>9</v>
+      </c>
+      <c r="K1037" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1037" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1038">
+        <v>2</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1038">
+        <v>9.7859999999999996</v>
+      </c>
+      <c r="G1038" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1038" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1038" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1038">
+        <v>9</v>
+      </c>
+      <c r="K1038" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1038" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1039">
+        <v>3</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1039">
+        <v>4.7990000000000004</v>
+      </c>
+      <c r="G1039" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1039" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1039" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1039">
+        <v>9</v>
+      </c>
+      <c r="K1039" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1039" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1040">
+        <v>4</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1040">
+        <v>6.883</v>
+      </c>
+      <c r="G1040" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1040" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1040" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1040">
+        <v>9</v>
+      </c>
+      <c r="K1040" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1040" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1041">
+        <v>5</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1041">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="G1041" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1041" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1041" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1041">
+        <v>9</v>
+      </c>
+      <c r="K1041" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1041" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1042">
+        <v>6</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1042">
+        <v>9.8849999999999998</v>
+      </c>
+      <c r="G1042" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1042" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1042" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1042">
+        <v>24</v>
+      </c>
+      <c r="K1042" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1042" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1043">
+        <v>7</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1043">
+        <v>8.6050000000000004</v>
+      </c>
+      <c r="G1043" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1043" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1043" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1043">
+        <v>9</v>
+      </c>
+      <c r="K1043" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1043" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1044">
+        <v>8</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1044">
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="G1044" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1044" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1044" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1044">
+        <v>9</v>
+      </c>
+      <c r="K1044" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1044" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1045">
+        <v>9</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1045">
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="G1045" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1045" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1045" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1045">
+        <v>9</v>
+      </c>
+      <c r="K1045" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1045" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1046">
+        <v>10</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1046">
+        <v>6.5350000000000001</v>
+      </c>
+      <c r="G1046" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1046" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1046" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1046">
+        <v>9</v>
+      </c>
+      <c r="K1046" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1046" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1047">
+        <v>11</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1047">
+        <v>7.577</v>
+      </c>
+      <c r="G1047" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1047" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1047" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1047">
+        <v>9</v>
+      </c>
+      <c r="K1047" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1047" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1048">
+        <v>12</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1048">
+        <v>5.9790000000000001</v>
+      </c>
+      <c r="G1048" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1048" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1048" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1048">
+        <v>9</v>
+      </c>
+      <c r="K1048" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1048" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1049">
+        <v>13</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1049">
+        <v>7.5549999999999997</v>
+      </c>
+      <c r="G1049" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1049" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1049" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1049">
+        <v>9</v>
+      </c>
+      <c r="K1049" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1049" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1050">
+        <v>14</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1050">
+        <v>3.7370000000000001</v>
+      </c>
+      <c r="G1050" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1050" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1050" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1050">
+        <v>9</v>
+      </c>
+      <c r="K1050" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1050" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1051">
+        <v>15</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1051">
+        <v>5.43</v>
+      </c>
+      <c r="G1051" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1051" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1051" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1051">
+        <v>9</v>
+      </c>
+      <c r="K1051" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1051" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1052">
+        <v>16</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1052">
+        <v>7.8209999999999997</v>
+      </c>
+      <c r="G1052" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1052" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1052" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1052">
+        <v>9</v>
+      </c>
+      <c r="K1052" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1052" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1053">
         <v>17</v>
       </c>
-      <c r="K1019" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1019" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1019" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z1019" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1020">
-        <v>1</v>
-      </c>
-      <c r="I1020" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1020">
-        <v>17</v>
-      </c>
-      <c r="K1020" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1020" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1020" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1020" t="str">
-        <f>"A17"&amp;Y1020&amp;"-"&amp;AC1020</f>
-        <v>A17RT-A7</v>
-      </c>
-      <c r="AC1020" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1021">
-        <v>2</v>
-      </c>
-      <c r="I1021" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1021">
-        <v>17</v>
-      </c>
-      <c r="K1021" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1021" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1021" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1021" t="str">
-        <f t="shared" ref="Z1021:Z1079" si="10">"A17"&amp;Y1021&amp;"-"&amp;AC1021</f>
-        <v>A17RT-F7</v>
-      </c>
-      <c r="AC1021" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1022">
-        <v>3</v>
-      </c>
-      <c r="I1022" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1022">
-        <v>17</v>
-      </c>
-      <c r="K1022" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1022" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1022" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1022" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-E4</v>
-      </c>
-      <c r="AC1022" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1023">
-        <v>4</v>
-      </c>
-      <c r="I1023" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1023">
-        <v>17</v>
-      </c>
-      <c r="K1023" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1023" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1023" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1023" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-D12</v>
-      </c>
-      <c r="AC1023" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1024">
-        <v>5</v>
-      </c>
-      <c r="I1024" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1024">
-        <v>17</v>
-      </c>
-      <c r="K1024" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1024" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1024" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1024" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-F4</v>
-      </c>
-      <c r="AC1024" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1025">
-        <v>6</v>
-      </c>
-      <c r="I1025" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1025">
-        <v>17</v>
-      </c>
-      <c r="K1025" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1025" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1025" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1025" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-G9</v>
-      </c>
-      <c r="AC1025" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1026">
-        <v>7</v>
-      </c>
-      <c r="I1026" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1026">
-        <v>17</v>
-      </c>
-      <c r="K1026" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1026" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1026" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1026" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-D10</v>
-      </c>
-      <c r="AC1026" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1027">
-        <v>8</v>
-      </c>
-      <c r="I1027" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1027">
-        <v>17</v>
-      </c>
-      <c r="K1027" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1027" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1027" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1027" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-H4</v>
-      </c>
-      <c r="AC1027" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1028">
+      <c r="B1053" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1053">
+        <v>8.6989999999999998</v>
+      </c>
+      <c r="G1053" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1053" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1053" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1053">
         <v>9</v>
       </c>
-      <c r="I1028" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1028">
-        <v>17</v>
-      </c>
-      <c r="K1028" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1028" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1028" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1028" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-A1</v>
-      </c>
-      <c r="AC1028" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1029">
-        <v>10</v>
-      </c>
-      <c r="I1029" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1029">
-        <v>17</v>
-      </c>
-      <c r="K1029" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1029" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1029" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1029" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-B4</v>
-      </c>
-      <c r="AC1029" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1030">
-        <v>11</v>
-      </c>
-      <c r="I1030" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1030">
-        <v>17</v>
-      </c>
-      <c r="K1030" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1030" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1030" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1030" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-C2</v>
-      </c>
-      <c r="AC1030" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1031">
-        <v>12</v>
-      </c>
-      <c r="I1031" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1031">
-        <v>17</v>
-      </c>
-      <c r="K1031" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1031" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1031" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1031" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-G4</v>
-      </c>
-      <c r="AC1031" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1032">
-        <v>13</v>
-      </c>
-      <c r="I1032" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1032">
-        <v>17</v>
-      </c>
-      <c r="K1032" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1032" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1032" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1032" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-C9</v>
-      </c>
-      <c r="AC1032" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1033">
-        <v>14</v>
-      </c>
-      <c r="I1033" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1033">
-        <v>17</v>
-      </c>
-      <c r="K1033" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1033" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1033" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1033" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-G7</v>
-      </c>
-      <c r="AC1033" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1034">
-        <v>15</v>
-      </c>
-      <c r="I1034" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1034">
-        <v>17</v>
-      </c>
-      <c r="K1034" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1034" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1034" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1034" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-A5</v>
-      </c>
-      <c r="AC1034" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1035">
-        <v>16</v>
-      </c>
-      <c r="I1035" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1035">
-        <v>17</v>
-      </c>
-      <c r="K1035" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1035" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1035" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1035" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-F11</v>
-      </c>
-      <c r="AC1035" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1036">
-        <v>17</v>
-      </c>
-      <c r="I1036" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1036">
-        <v>17</v>
-      </c>
-      <c r="K1036" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1036" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1036" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1036" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-C3</v>
-      </c>
-      <c r="AC1036" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1037">
+      <c r="K1053" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1053" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1054">
         <v>18</v>
       </c>
-      <c r="I1037" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1037">
-        <v>17</v>
-      </c>
-      <c r="K1037" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1037" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1037" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1037" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-F2</v>
-      </c>
-      <c r="AC1037" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1038">
+      <c r="B1054" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1054">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="G1054" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1054" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1054" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1054">
+        <v>24</v>
+      </c>
+      <c r="K1054" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1054" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1055">
         <v>19</v>
       </c>
-      <c r="I1038" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1038">
-        <v>17</v>
-      </c>
-      <c r="K1038" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1038" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1038" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1038" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-A11</v>
-      </c>
-      <c r="AC1038" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1039">
+      <c r="B1055" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1055">
+        <v>6.359</v>
+      </c>
+      <c r="G1055" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1055" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1055" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1055">
+        <v>9</v>
+      </c>
+      <c r="K1055" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1055" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1056">
         <v>20</v>
       </c>
-      <c r="I1039" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1039">
-        <v>17</v>
-      </c>
-      <c r="K1039" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1039" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1039" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1039" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-F1</v>
-      </c>
-      <c r="AC1039" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1040">
+      <c r="B1056" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1056">
+        <v>10.448</v>
+      </c>
+      <c r="G1056" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1056" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1056" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1056">
+        <v>9</v>
+      </c>
+      <c r="K1056" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1056" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1057">
         <v>21</v>
       </c>
-      <c r="I1040" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1040">
-        <v>17</v>
-      </c>
-      <c r="K1040" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1040" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1040" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1040" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-E9</v>
-      </c>
-      <c r="AC1040" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1041">
+      <c r="B1057" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1057">
+        <v>5.2949999999999999</v>
+      </c>
+      <c r="G1057" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1057" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1057" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1057">
+        <v>9</v>
+      </c>
+      <c r="K1057" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1057" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1058">
         <v>22</v>
       </c>
-      <c r="I1041" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1041">
-        <v>17</v>
-      </c>
-      <c r="K1041" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1041" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1041" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1041" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-C6</v>
-      </c>
-      <c r="AC1041" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1042">
+      <c r="B1058" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1058">
+        <v>6.46</v>
+      </c>
+      <c r="G1058" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1058" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1058" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1058">
+        <v>9</v>
+      </c>
+      <c r="K1058" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1058" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1059">
         <v>23</v>
       </c>
-      <c r="I1042" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1042">
-        <v>17</v>
-      </c>
-      <c r="K1042" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1042" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1042" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1042" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-H2</v>
-      </c>
-      <c r="AC1042" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1043">
+      <c r="B1059" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1059">
+        <v>7.2240000000000002</v>
+      </c>
+      <c r="G1059" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1059" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1059" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1059">
+        <v>9</v>
+      </c>
+      <c r="K1059" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1059" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1060">
         <v>24</v>
       </c>
-      <c r="I1043" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1043">
-        <v>17</v>
-      </c>
-      <c r="K1043" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1043" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1043" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1043" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-C7</v>
-      </c>
-      <c r="AC1043" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1044">
+      <c r="B1060" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1060">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G1060" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1060" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1060" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1060">
+        <v>9</v>
+      </c>
+      <c r="K1060" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1060" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1061">
         <v>25</v>
       </c>
-      <c r="I1044" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1044">
-        <v>17</v>
-      </c>
-      <c r="K1044" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1044" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1044" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1044" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-B12</v>
-      </c>
-      <c r="AC1044" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1045">
+      <c r="B1061" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1061">
+        <v>5.1150000000000002</v>
+      </c>
+      <c r="G1061" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1061" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1061" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1061">
+        <v>9</v>
+      </c>
+      <c r="K1061" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1061" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1062">
         <v>26</v>
       </c>
-      <c r="I1045" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1045">
-        <v>17</v>
-      </c>
-      <c r="K1045" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1045" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1045" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1045" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-D9</v>
-      </c>
-      <c r="AC1045" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1046">
+      <c r="B1062" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1062">
+        <v>7.0380000000000003</v>
+      </c>
+      <c r="G1062" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1062" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1062" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1062">
+        <v>9</v>
+      </c>
+      <c r="K1062" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1062" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1063">
         <v>27</v>
       </c>
-      <c r="I1046" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1046">
-        <v>17</v>
-      </c>
-      <c r="K1046" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1046" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1046" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1046" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-D5</v>
-      </c>
-      <c r="AC1046" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1047">
+      <c r="B1063" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1063">
+        <v>8.1880000000000006</v>
+      </c>
+      <c r="G1063" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1063" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1063" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1063">
+        <v>9</v>
+      </c>
+      <c r="K1063" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1063" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1064">
         <v>28</v>
       </c>
-      <c r="I1047" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1047">
-        <v>17</v>
-      </c>
-      <c r="K1047" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1047" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1047" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1047" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-C4</v>
-      </c>
-      <c r="AC1047" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1048">
+      <c r="B1064" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1064">
+        <v>5.7409999999999997</v>
+      </c>
+      <c r="G1064" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1064" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1064" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1064">
+        <v>9</v>
+      </c>
+      <c r="K1064" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1064" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1065">
         <v>29</v>
       </c>
-      <c r="I1048" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1048">
-        <v>17</v>
-      </c>
-      <c r="K1048" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1048" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1048" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1048" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-A12</v>
-      </c>
-      <c r="AC1048" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1049">
+      <c r="B1065" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1065">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G1065" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1065" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1065" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1065">
+        <v>9</v>
+      </c>
+      <c r="K1065" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1065" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1066">
         <v>30</v>
       </c>
-      <c r="I1049" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1049">
-        <v>17</v>
-      </c>
-      <c r="K1049" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1049" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1049" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1049" t="str">
-        <f t="shared" si="10"/>
-        <v>A17RT-D3</v>
-      </c>
-      <c r="AC1049" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1050">
-        <v>1</v>
-      </c>
-      <c r="I1050" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1050">
-        <v>17</v>
-      </c>
-      <c r="K1050" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1050" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1050" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1050" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-D8</v>
-      </c>
-      <c r="AC1050" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1051">
-        <v>2</v>
-      </c>
-      <c r="I1051" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1051">
-        <v>17</v>
-      </c>
-      <c r="K1051" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1051" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1051" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1051" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-A6</v>
-      </c>
-      <c r="AC1051" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1052">
-        <v>3</v>
-      </c>
-      <c r="I1052" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1052">
-        <v>17</v>
-      </c>
-      <c r="K1052" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1052" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1052" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1052" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-B2</v>
-      </c>
-      <c r="AC1052" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1053">
-        <v>4</v>
-      </c>
-      <c r="I1053" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1053">
-        <v>17</v>
-      </c>
-      <c r="K1053" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1053" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1053" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1053" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-H5</v>
-      </c>
-      <c r="AC1053" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1054">
-        <v>5</v>
-      </c>
-      <c r="I1054" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1054">
-        <v>17</v>
-      </c>
-      <c r="K1054" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1054" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1054" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1054" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-F6</v>
-      </c>
-      <c r="AC1054" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1055">
-        <v>6</v>
-      </c>
-      <c r="I1055" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1055">
-        <v>17</v>
-      </c>
-      <c r="K1055" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1055" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1055" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1055" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-B7</v>
-      </c>
-      <c r="AC1055" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1056">
-        <v>7</v>
-      </c>
-      <c r="I1056" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1056">
-        <v>17</v>
-      </c>
-      <c r="K1056" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1056" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1056" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1056" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-B10</v>
-      </c>
-      <c r="AC1056" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1057">
-        <v>8</v>
-      </c>
-      <c r="I1057" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1057">
-        <v>17</v>
-      </c>
-      <c r="K1057" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1057" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1057" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1057" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-F9</v>
-      </c>
-      <c r="AC1057" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1058">
+      <c r="B1066" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1066">
+        <v>7.0209999999999999</v>
+      </c>
+      <c r="G1066" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1066" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1066" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1066">
+        <v>24</v>
+      </c>
+      <c r="K1066" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1066" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1067">
+        <v>31</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1067">
+        <v>4.74</v>
+      </c>
+      <c r="G1067" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1067" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1067" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1067">
         <v>9</v>
       </c>
-      <c r="I1058" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1058">
-        <v>17</v>
-      </c>
-      <c r="K1058" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1058" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1058" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1058" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-B6</v>
-      </c>
-      <c r="AC1058" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1059">
-        <v>10</v>
-      </c>
-      <c r="I1059" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1059">
-        <v>17</v>
-      </c>
-      <c r="K1059" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1059" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1059" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1059" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-H3</v>
-      </c>
-      <c r="AC1059" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1060">
-        <v>11</v>
-      </c>
-      <c r="I1060" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1060">
-        <v>17</v>
-      </c>
-      <c r="K1060" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1060" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1060" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1060" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-H9</v>
-      </c>
-      <c r="AC1060" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1061">
-        <v>12</v>
-      </c>
-      <c r="I1061" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1061">
-        <v>17</v>
-      </c>
-      <c r="K1061" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1061" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1061" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1061" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-E10</v>
-      </c>
-      <c r="AC1061" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1062">
-        <v>13</v>
-      </c>
-      <c r="I1062" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1062">
-        <v>17</v>
-      </c>
-      <c r="K1062" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1062" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1062" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1062" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-H7</v>
-      </c>
-      <c r="AC1062" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1063">
-        <v>14</v>
-      </c>
-      <c r="I1063" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1063">
-        <v>17</v>
-      </c>
-      <c r="K1063" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1063" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1063" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1063" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-G2</v>
-      </c>
-      <c r="AC1063" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1064">
-        <v>15</v>
-      </c>
-      <c r="I1064" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1064">
-        <v>17</v>
-      </c>
-      <c r="K1064" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1064" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1064" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1064" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-F8</v>
-      </c>
-      <c r="AC1064" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1065">
-        <v>16</v>
-      </c>
-      <c r="I1065" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1065">
-        <v>17</v>
-      </c>
-      <c r="K1065" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1065" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1065" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1065" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-B9</v>
-      </c>
-      <c r="AC1065" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1066">
-        <v>17</v>
-      </c>
-      <c r="I1066" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1066">
-        <v>17</v>
-      </c>
-      <c r="K1066" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1066" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1066" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1066" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-C11</v>
-      </c>
-      <c r="AC1066" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1067">
-        <v>18</v>
-      </c>
-      <c r="I1067" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1067">
-        <v>17</v>
-      </c>
       <c r="K1067" t="s">
         <v>61</v>
       </c>
       <c r="T1067" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1067" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1067" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-E7</v>
-      </c>
-      <c r="AC1067" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1068">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1068">
+        <v>6.1539999999999999</v>
+      </c>
+      <c r="G1068" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1068" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I1068" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1068">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1068" t="s">
         <v>61</v>
       </c>
       <c r="T1068" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1068" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1068" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-F12</v>
-      </c>
-      <c r="AC1068" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1069">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1069">
+        <v>6.4470000000000001</v>
+      </c>
+      <c r="G1069" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1069" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I1069" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1069">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1069" t="s">
         <v>61</v>
       </c>
       <c r="T1069" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1069" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1069" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-E5</v>
-      </c>
-      <c r="AC1069" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1070">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1070">
+        <v>7.282</v>
+      </c>
+      <c r="G1070" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1070" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I1070" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1070">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1070" t="s">
         <v>61</v>
       </c>
       <c r="T1070" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1070" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1070" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-D1</v>
-      </c>
-      <c r="AC1070" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1071">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1071">
+        <v>8.0280000000000005</v>
+      </c>
+      <c r="G1071" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1071" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I1071" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1071">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1071" t="s">
         <v>61</v>
       </c>
       <c r="T1071" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1071" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1071" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-C12</v>
-      </c>
-      <c r="AC1071" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1072">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1072">
+        <v>7.7969999999999997</v>
+      </c>
+      <c r="G1072" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1072" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I1072" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1072">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1072" t="s">
         <v>61</v>
       </c>
       <c r="T1072" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1072" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1072" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-G5</v>
-      </c>
-      <c r="AC1072" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1073">
+        <v>37</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1073">
+        <v>5.9619999999999997</v>
+      </c>
+      <c r="G1073" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1073" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1073" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1073">
+        <v>9</v>
+      </c>
+      <c r="K1073" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1073" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1074">
+        <v>38</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1074">
+        <v>7.1429999999999998</v>
+      </c>
+      <c r="G1074" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1074" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1074" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1074">
         <v>24</v>
       </c>
-      <c r="I1073" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1073">
-        <v>17</v>
-      </c>
-      <c r="K1073" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1073" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1073" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1073" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-D6</v>
-      </c>
-      <c r="AC1073" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1074">
-        <v>25</v>
-      </c>
-      <c r="I1074" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1074">
-        <v>17</v>
-      </c>
       <c r="K1074" t="s">
         <v>61</v>
       </c>
       <c r="T1074" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1074" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1074" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-E12</v>
-      </c>
-      <c r="AC1074" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1075">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1075">
+        <v>6.2110000000000003</v>
+      </c>
+      <c r="G1075" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1075" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I1075" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1075">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1075" t="s">
         <v>61</v>
       </c>
       <c r="T1075" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1075" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1075" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-A10</v>
-      </c>
-      <c r="AC1075" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1076">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1076">
+        <v>5.4619999999999997</v>
+      </c>
+      <c r="G1076" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1076" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I1076" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1076">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1076" t="s">
         <v>61</v>
       </c>
       <c r="T1076" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1076" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1076" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-G6</v>
-      </c>
-      <c r="AC1076" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1077">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1077">
+        <v>7.1849999999999996</v>
+      </c>
+      <c r="G1077" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1077" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I1077" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1077">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1077" t="s">
         <v>61</v>
       </c>
       <c r="T1077" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1077" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1077" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-A4</v>
-      </c>
-      <c r="AC1077" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1078">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1078">
+        <v>8.4139999999999997</v>
+      </c>
+      <c r="G1078" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1078" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I1078" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1078">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1078" t="s">
         <v>61</v>
       </c>
       <c r="T1078" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1078" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1078" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-G8</v>
-      </c>
-      <c r="AC1078" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:29" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1079">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1079">
+        <v>8.2550000000000008</v>
+      </c>
+      <c r="G1079" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1079" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="I1079" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="J1079">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K1079" t="s">
         <v>61</v>
       </c>
       <c r="T1079" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1079" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1079" t="str">
-        <f t="shared" si="10"/>
-        <v>A17SO-B5</v>
-      </c>
-      <c r="AC1079" t="s">
-        <v>164</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1080">
+        <v>44</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1080">
+        <v>9.6750000000000007</v>
+      </c>
+      <c r="G1080" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1080" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1080" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1080">
+        <v>9</v>
+      </c>
+      <c r="K1080" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1080" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1081">
+        <v>45</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1081">
+        <v>7.0149999999999997</v>
+      </c>
+      <c r="G1081" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1081" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1081" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1081">
+        <v>9</v>
+      </c>
+      <c r="K1081" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1081" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1082">
+        <v>46</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1082" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1082" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1082" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1082">
+        <v>9</v>
+      </c>
+      <c r="K1082" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1083">
+        <v>47</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1083" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G1083" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1083" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1083" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1083">
+        <v>9</v>
+      </c>
+      <c r="K1083" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -49400,7 +49741,7 @@
         <v>541</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="J1" t="s">
         <v>226</v>
@@ -50191,7 +50532,7 @@
         <v>195</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>61</v>
@@ -50218,7 +50559,7 @@
         <v>195</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="C29" s="63"/>
       <c r="D29" s="42" t="s">
@@ -50293,7 +50634,7 @@
         <v>195</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>61</v>
@@ -50308,7 +50649,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>61</v>
@@ -50325,7 +50666,7 @@
         <v>195</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="C35" s="63"/>
       <c r="D35" s="42" t="s">

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33B9B85-1FD3-4331-8EA7-19B9B1EE6DFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4076C75A-040A-4120-BD91-3722920AB626}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9997" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10244" uniqueCount="704">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -2114,6 +2114,36 @@
   </si>
   <si>
     <t>15:17</t>
+  </si>
+  <si>
+    <t>A20-1</t>
+  </si>
+  <si>
+    <t>A20-2</t>
+  </si>
+  <si>
+    <t>A20-3</t>
+  </si>
+  <si>
+    <t>A20-4</t>
+  </si>
+  <si>
+    <t>A2-5-1</t>
+  </si>
+  <si>
+    <t>A2-5-2</t>
+  </si>
+  <si>
+    <t>A2-5-3</t>
+  </si>
+  <si>
+    <t>A2-5-4</t>
+  </si>
+  <si>
+    <t>A2-5-5</t>
+  </si>
+  <si>
+    <t>A2-5-6</t>
   </si>
 </sst>
 </file>
@@ -2697,8 +2727,8 @@
   <dimension ref="A1:AC306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O103" sqref="O103"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106:XFD112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6298,7 +6328,7 @@
         <v>188</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>67</v>
@@ -6365,7 +6395,7 @@
         <v>188</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>67</v>
@@ -6432,7 +6462,7 @@
         <v>188</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="F65" s="14" t="s">
         <v>67</v>
@@ -12006,11 +12036,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
-  <dimension ref="A1:AS1083"/>
+  <dimension ref="A1:AS1118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A885" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A900" sqref="A900:XFD989"/>
+      <pane ySplit="1" topLeftCell="A981" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J996" sqref="J996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -46719,6 +46749,15 @@
       <c r="K990" t="s">
         <v>61</v>
       </c>
+      <c r="L990">
+        <v>7000</v>
+      </c>
+      <c r="M990" s="20">
+        <v>0.38622685185185185</v>
+      </c>
+      <c r="N990">
+        <v>0.1599476</v>
+      </c>
       <c r="T990" s="1" t="s">
         <v>213</v>
       </c>
@@ -46751,6 +46790,15 @@
       <c r="K991" t="s">
         <v>61</v>
       </c>
+      <c r="L991">
+        <v>7000</v>
+      </c>
+      <c r="M991" s="20">
+        <v>0.38715277777777773</v>
+      </c>
+      <c r="N991">
+        <v>0.45276509999999998</v>
+      </c>
       <c r="T991" s="1" t="s">
         <v>213</v>
       </c>
@@ -46783,6 +46831,15 @@
       <c r="K992" t="s">
         <v>61</v>
       </c>
+      <c r="L992">
+        <v>7000</v>
+      </c>
+      <c r="M992" s="20">
+        <v>0.3880439814814815</v>
+      </c>
+      <c r="N992" s="21">
+        <v>4.0381090000000001E-2</v>
+      </c>
       <c r="T992" s="1" t="s">
         <v>213</v>
       </c>
@@ -46815,6 +46872,15 @@
       <c r="K993" t="s">
         <v>61</v>
       </c>
+      <c r="L993">
+        <v>7000</v>
+      </c>
+      <c r="M993" s="20">
+        <v>0.38880787037037035</v>
+      </c>
+      <c r="N993">
+        <v>0.35760560000000002</v>
+      </c>
       <c r="T993" s="1" t="s">
         <v>213</v>
       </c>
@@ -46847,6 +46913,15 @@
       <c r="K994" t="s">
         <v>61</v>
       </c>
+      <c r="L994">
+        <v>7000</v>
+      </c>
+      <c r="M994" s="20">
+        <v>0.38966435185185189</v>
+      </c>
+      <c r="N994" s="21">
+        <v>6.4647609999999994E-2</v>
+      </c>
       <c r="T994" s="1" t="s">
         <v>213</v>
       </c>
@@ -46879,6 +46954,15 @@
       <c r="K995" t="s">
         <v>61</v>
       </c>
+      <c r="L995">
+        <v>7000</v>
+      </c>
+      <c r="M995" s="20">
+        <v>0.39041666666666663</v>
+      </c>
+      <c r="N995">
+        <v>0.1237704</v>
+      </c>
       <c r="T995" s="1" t="s">
         <v>213</v>
       </c>
@@ -46911,6 +46995,15 @@
       <c r="K996" t="s">
         <v>61</v>
       </c>
+      <c r="L996">
+        <v>7000</v>
+      </c>
+      <c r="M996" s="20">
+        <v>0.39143518518518516</v>
+      </c>
+      <c r="N996" s="21">
+        <v>6.7688979999999996E-2</v>
+      </c>
       <c r="T996" s="1" t="s">
         <v>213</v>
       </c>
@@ -46943,6 +47036,15 @@
       <c r="K997" t="s">
         <v>61</v>
       </c>
+      <c r="L997">
+        <v>7000</v>
+      </c>
+      <c r="M997" s="20">
+        <v>0.39217592592592593</v>
+      </c>
+      <c r="N997" s="21">
+        <v>6.9644049999999999E-2</v>
+      </c>
       <c r="T997" s="1" t="s">
         <v>213</v>
       </c>
@@ -46975,6 +47077,15 @@
       <c r="K998" t="s">
         <v>61</v>
       </c>
+      <c r="L998">
+        <v>7000</v>
+      </c>
+      <c r="M998" s="20">
+        <v>0.39293981481481483</v>
+      </c>
+      <c r="N998">
+        <v>0.37370199999999998</v>
+      </c>
       <c r="T998" s="1" t="s">
         <v>213</v>
       </c>
@@ -47007,6 +47118,15 @@
       <c r="K999" t="s">
         <v>61</v>
       </c>
+      <c r="L999">
+        <v>7000</v>
+      </c>
+      <c r="M999" s="20">
+        <v>0.39376157407407408</v>
+      </c>
+      <c r="N999">
+        <v>0.39185619999999999</v>
+      </c>
       <c r="T999" s="1" t="s">
         <v>213</v>
       </c>
@@ -47039,6 +47159,15 @@
       <c r="K1000" t="s">
         <v>61</v>
       </c>
+      <c r="L1000">
+        <v>7000</v>
+      </c>
+      <c r="M1000" s="20">
+        <v>0.39461805555555557</v>
+      </c>
+      <c r="N1000">
+        <v>0.1216961</v>
+      </c>
       <c r="T1000" s="1" t="s">
         <v>213</v>
       </c>
@@ -47071,6 +47200,15 @@
       <c r="K1001" t="s">
         <v>61</v>
       </c>
+      <c r="L1001">
+        <v>7000</v>
+      </c>
+      <c r="M1001" s="20">
+        <v>0.395474537037037</v>
+      </c>
+      <c r="N1001" s="21">
+        <v>5.6496449999999997E-2</v>
+      </c>
       <c r="T1001" s="1" t="s">
         <v>213</v>
       </c>
@@ -47103,6 +47241,15 @@
       <c r="K1002" t="s">
         <v>61</v>
       </c>
+      <c r="L1002">
+        <v>7000</v>
+      </c>
+      <c r="M1002" s="20">
+        <v>0.39643518518518522</v>
+      </c>
+      <c r="N1002" s="21">
+        <v>5.0329440000000003E-2</v>
+      </c>
       <c r="T1002" s="1" t="s">
         <v>213</v>
       </c>
@@ -47135,6 +47282,15 @@
       <c r="K1003" t="s">
         <v>61</v>
       </c>
+      <c r="L1003">
+        <v>7000</v>
+      </c>
+      <c r="M1003" s="20">
+        <v>0.39717592592592593</v>
+      </c>
+      <c r="N1003" s="21">
+        <v>7.7695219999999995E-2</v>
+      </c>
       <c r="T1003" s="1" t="s">
         <v>213</v>
       </c>
@@ -47167,6 +47323,15 @@
       <c r="K1004" t="s">
         <v>61</v>
       </c>
+      <c r="L1004">
+        <v>7000</v>
+      </c>
+      <c r="M1004" s="20">
+        <v>0.39806712962962965</v>
+      </c>
+      <c r="N1004" s="21">
+        <v>8.1830490000000006E-2</v>
+      </c>
       <c r="T1004" s="1" t="s">
         <v>213</v>
       </c>
@@ -47199,6 +47364,15 @@
       <c r="K1005" t="s">
         <v>61</v>
       </c>
+      <c r="L1005">
+        <v>7000</v>
+      </c>
+      <c r="M1005" s="20">
+        <v>0.39872685185185186</v>
+      </c>
+      <c r="N1005" s="21">
+        <v>7.4962589999999996E-2</v>
+      </c>
       <c r="T1005" s="1" t="s">
         <v>213</v>
       </c>
@@ -47231,6 +47405,15 @@
       <c r="K1006" t="s">
         <v>61</v>
       </c>
+      <c r="L1006">
+        <v>7000</v>
+      </c>
+      <c r="M1006" s="20">
+        <v>0.39951388888888889</v>
+      </c>
+      <c r="N1006" s="21">
+        <v>6.2480430000000003E-2</v>
+      </c>
       <c r="T1006" s="1" t="s">
         <v>213</v>
       </c>
@@ -47263,6 +47446,15 @@
       <c r="K1007" t="s">
         <v>61</v>
       </c>
+      <c r="L1007">
+        <v>7000</v>
+      </c>
+      <c r="M1007" s="20">
+        <v>0.40034722222222219</v>
+      </c>
+      <c r="N1007" s="21">
+        <v>5.5404040000000002E-2</v>
+      </c>
       <c r="T1007" s="1" t="s">
         <v>213</v>
       </c>
@@ -47295,6 +47487,15 @@
       <c r="K1008" t="s">
         <v>61</v>
       </c>
+      <c r="L1008">
+        <v>7000</v>
+      </c>
+      <c r="M1008" s="20">
+        <v>0.40111111111111114</v>
+      </c>
+      <c r="N1008" s="21">
+        <v>4.8383839999999997E-2</v>
+      </c>
       <c r="T1008" s="1" t="s">
         <v>213</v>
       </c>
@@ -47327,6 +47528,15 @@
       <c r="K1009" t="s">
         <v>61</v>
       </c>
+      <c r="L1009">
+        <v>7000</v>
+      </c>
+      <c r="M1009" s="20">
+        <v>0.40180555555555553</v>
+      </c>
+      <c r="N1009">
+        <v>0.48377959999999998</v>
+      </c>
       <c r="T1009" s="1" t="s">
         <v>213</v>
       </c>
@@ -47359,6 +47569,15 @@
       <c r="K1010" t="s">
         <v>61</v>
       </c>
+      <c r="L1010">
+        <v>7000</v>
+      </c>
+      <c r="M1010" s="20">
+        <v>0.40263888888888894</v>
+      </c>
+      <c r="N1010" s="21">
+        <v>5.4492539999999999E-2</v>
+      </c>
       <c r="T1010" s="1" t="s">
         <v>213</v>
       </c>
@@ -47391,6 +47610,15 @@
       <c r="K1011" t="s">
         <v>61</v>
       </c>
+      <c r="L1011">
+        <v>7000</v>
+      </c>
+      <c r="M1011" s="20">
+        <v>0.40342592592592591</v>
+      </c>
+      <c r="N1011" s="21">
+        <v>7.0734630000000007E-2</v>
+      </c>
       <c r="T1011" s="1" t="s">
         <v>213</v>
       </c>
@@ -47423,6 +47651,15 @@
       <c r="K1012" t="s">
         <v>61</v>
       </c>
+      <c r="L1012">
+        <v>7000</v>
+      </c>
+      <c r="M1012" s="20">
+        <v>0.40421296296296294</v>
+      </c>
+      <c r="N1012">
+        <v>0.32921420000000001</v>
+      </c>
       <c r="T1012" s="1" t="s">
         <v>213</v>
       </c>
@@ -47455,6 +47692,15 @@
       <c r="K1013" t="s">
         <v>61</v>
       </c>
+      <c r="L1013">
+        <v>7000</v>
+      </c>
+      <c r="M1013" s="20">
+        <v>0.40501157407407407</v>
+      </c>
+      <c r="N1013" s="21">
+        <v>9.3297779999999997E-2</v>
+      </c>
       <c r="T1013" s="1" t="s">
         <v>213</v>
       </c>
@@ -47487,6 +47733,15 @@
       <c r="K1014" t="s">
         <v>61</v>
       </c>
+      <c r="L1014">
+        <v>7000</v>
+      </c>
+      <c r="M1014" s="20">
+        <v>0.40596064814814814</v>
+      </c>
+      <c r="N1014" s="21">
+        <v>5.9871340000000002E-2</v>
+      </c>
       <c r="T1014" s="1" t="s">
         <v>213</v>
       </c>
@@ -47519,6 +47774,15 @@
       <c r="K1015" t="s">
         <v>61</v>
       </c>
+      <c r="L1015">
+        <v>7000</v>
+      </c>
+      <c r="M1015" s="20">
+        <v>0.40673611111111113</v>
+      </c>
+      <c r="N1015" s="21">
+        <v>9.1106820000000005E-2</v>
+      </c>
       <c r="T1015" s="1" t="s">
         <v>213</v>
       </c>
@@ -47551,6 +47815,15 @@
       <c r="K1016" t="s">
         <v>61</v>
       </c>
+      <c r="L1016">
+        <v>7000</v>
+      </c>
+      <c r="M1016" s="20">
+        <v>0.40747685185185184</v>
+      </c>
+      <c r="N1016" s="21">
+        <v>7.4969049999999995E-2</v>
+      </c>
       <c r="T1016" s="1" t="s">
         <v>213</v>
       </c>
@@ -47583,6 +47856,15 @@
       <c r="K1017" t="s">
         <v>61</v>
       </c>
+      <c r="L1017">
+        <v>7000</v>
+      </c>
+      <c r="M1017" s="20">
+        <v>0.40841435185185188</v>
+      </c>
+      <c r="N1017">
+        <v>0.2690111</v>
+      </c>
       <c r="T1017" s="1" t="s">
         <v>213</v>
       </c>
@@ -47615,6 +47897,15 @@
       <c r="K1018" t="s">
         <v>61</v>
       </c>
+      <c r="L1018">
+        <v>7000</v>
+      </c>
+      <c r="M1018" s="20">
+        <v>0.40920138888888885</v>
+      </c>
+      <c r="N1018" s="21">
+        <v>7.4936610000000001E-2</v>
+      </c>
       <c r="T1018" s="1" t="s">
         <v>213</v>
       </c>
@@ -47647,6 +47938,15 @@
       <c r="K1019" t="s">
         <v>61</v>
       </c>
+      <c r="L1019">
+        <v>7000</v>
+      </c>
+      <c r="M1019" s="20">
+        <v>0.40993055555555552</v>
+      </c>
+      <c r="N1019" s="21">
+        <v>9.009578E-2</v>
+      </c>
       <c r="T1019" s="1" t="s">
         <v>213</v>
       </c>
@@ -47679,6 +47979,15 @@
       <c r="K1020" t="s">
         <v>61</v>
       </c>
+      <c r="L1020">
+        <v>7000</v>
+      </c>
+      <c r="M1020" s="20">
+        <v>0.41104166666666669</v>
+      </c>
+      <c r="N1020" s="21">
+        <v>7.5274859999999999E-2</v>
+      </c>
       <c r="T1020" s="1" t="s">
         <v>213</v>
       </c>
@@ -47711,6 +48020,15 @@
       <c r="K1021" t="s">
         <v>61</v>
       </c>
+      <c r="L1021">
+        <v>7000</v>
+      </c>
+      <c r="M1021" s="20">
+        <v>0.41177083333333336</v>
+      </c>
+      <c r="N1021" s="21">
+        <v>8.6463960000000006E-2</v>
+      </c>
       <c r="T1021" s="1" t="s">
         <v>213</v>
       </c>
@@ -47743,6 +48061,15 @@
       <c r="K1022" t="s">
         <v>61</v>
       </c>
+      <c r="L1022">
+        <v>7000</v>
+      </c>
+      <c r="M1022" s="20">
+        <v>0.41273148148148148</v>
+      </c>
+      <c r="N1022" s="21">
+        <v>7.8758170000000002E-2</v>
+      </c>
       <c r="T1022" s="1" t="s">
         <v>213</v>
       </c>
@@ -47775,6 +48102,15 @@
       <c r="K1023" t="s">
         <v>61</v>
       </c>
+      <c r="L1023">
+        <v>7000</v>
+      </c>
+      <c r="M1023" s="20">
+        <v>0.41363425925925923</v>
+      </c>
+      <c r="N1023" s="21">
+        <v>9.1868320000000003E-2</v>
+      </c>
       <c r="T1023" s="1" t="s">
         <v>213</v>
       </c>
@@ -47807,6 +48143,15 @@
       <c r="K1024" t="s">
         <v>61</v>
       </c>
+      <c r="L1024">
+        <v>7000</v>
+      </c>
+      <c r="M1024" s="20">
+        <v>0.41439814814814818</v>
+      </c>
+      <c r="N1024">
+        <v>0.30310769999999998</v>
+      </c>
       <c r="T1024" s="1" t="s">
         <v>213</v>
       </c>
@@ -47839,6 +48184,15 @@
       <c r="K1025" t="s">
         <v>61</v>
       </c>
+      <c r="L1025">
+        <v>7000</v>
+      </c>
+      <c r="M1025" s="20">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="N1025" s="21">
+        <v>6.4114069999999995E-2</v>
+      </c>
       <c r="T1025" s="1" t="s">
         <v>213</v>
       </c>
@@ -47871,6 +48225,15 @@
       <c r="K1026" t="s">
         <v>61</v>
       </c>
+      <c r="L1026">
+        <v>7000</v>
+      </c>
+      <c r="M1026" s="20">
+        <v>0.41600694444444447</v>
+      </c>
+      <c r="N1026">
+        <v>0.1605722</v>
+      </c>
       <c r="T1026" s="1" t="s">
         <v>213</v>
       </c>
@@ -47903,6 +48266,15 @@
       <c r="K1027" t="s">
         <v>61</v>
       </c>
+      <c r="L1027">
+        <v>7000</v>
+      </c>
+      <c r="M1027" s="20">
+        <v>0.41677083333333331</v>
+      </c>
+      <c r="N1027">
+        <v>0.52054400000000001</v>
+      </c>
       <c r="T1027" s="1" t="s">
         <v>213</v>
       </c>
@@ -47935,6 +48307,15 @@
       <c r="K1028" t="s">
         <v>61</v>
       </c>
+      <c r="L1028">
+        <v>7000</v>
+      </c>
+      <c r="M1028" s="20">
+        <v>0.41783564814814816</v>
+      </c>
+      <c r="N1028" s="21">
+        <v>7.247344E-2</v>
+      </c>
       <c r="T1028" s="1" t="s">
         <v>213</v>
       </c>
@@ -47967,6 +48348,15 @@
       <c r="K1029" t="s">
         <v>61</v>
       </c>
+      <c r="L1029">
+        <v>7000</v>
+      </c>
+      <c r="M1029" s="20">
+        <v>0.41862268518518514</v>
+      </c>
+      <c r="N1029">
+        <v>0.43283549999999998</v>
+      </c>
       <c r="T1029" s="1" t="s">
         <v>213</v>
       </c>
@@ -47999,6 +48389,15 @@
       <c r="K1030" t="s">
         <v>61</v>
       </c>
+      <c r="L1030">
+        <v>7000</v>
+      </c>
+      <c r="M1030" s="20">
+        <v>0.41934027777777777</v>
+      </c>
+      <c r="N1030">
+        <v>0.5201945</v>
+      </c>
       <c r="T1030" s="1" t="s">
         <v>213</v>
       </c>
@@ -48031,6 +48430,15 @@
       <c r="K1031" t="s">
         <v>61</v>
       </c>
+      <c r="L1031">
+        <v>7000</v>
+      </c>
+      <c r="M1031" s="20">
+        <v>0.42026620370370371</v>
+      </c>
+      <c r="N1031" s="21">
+        <v>6.5045919999999993E-2</v>
+      </c>
       <c r="T1031" s="1" t="s">
         <v>213</v>
       </c>
@@ -48063,6 +48471,15 @@
       <c r="K1032" t="s">
         <v>61</v>
       </c>
+      <c r="L1032">
+        <v>7000</v>
+      </c>
+      <c r="M1032" s="20">
+        <v>0.42106481481481484</v>
+      </c>
+      <c r="N1032" s="21">
+        <v>5.0732770000000003E-2</v>
+      </c>
       <c r="T1032" s="1" t="s">
         <v>213</v>
       </c>
@@ -48095,6 +48512,15 @@
       <c r="K1033" t="s">
         <v>61</v>
       </c>
+      <c r="L1033">
+        <v>7000</v>
+      </c>
+      <c r="M1033" s="20">
+        <v>0.42192129629629632</v>
+      </c>
+      <c r="N1033" s="21">
+        <v>4.7503950000000003E-2</v>
+      </c>
       <c r="T1033" s="1" t="s">
         <v>213</v>
       </c>
@@ -48127,6 +48553,15 @@
       <c r="K1034" t="s">
         <v>61</v>
       </c>
+      <c r="L1034">
+        <v>7000</v>
+      </c>
+      <c r="M1034" s="20">
+        <v>0.4227083333333333</v>
+      </c>
+      <c r="N1034">
+        <v>0.13220019999999999</v>
+      </c>
       <c r="T1034" s="1" t="s">
         <v>213</v>
       </c>
@@ -48156,6 +48591,15 @@
       <c r="K1035" t="s">
         <v>61</v>
       </c>
+      <c r="L1035">
+        <v>7000</v>
+      </c>
+      <c r="M1035" s="20">
+        <v>0.42347222222222225</v>
+      </c>
+      <c r="N1035" s="21">
+        <v>9.6734969999999997E-3</v>
+      </c>
       <c r="T1035" s="1" t="s">
         <v>213</v>
       </c>
@@ -48188,6 +48632,15 @@
       <c r="K1036" t="s">
         <v>61</v>
       </c>
+      <c r="L1036">
+        <v>7000</v>
+      </c>
+      <c r="M1036" s="20">
+        <v>0.42451388888888886</v>
+      </c>
+      <c r="N1036" s="21">
+        <v>9.6405880000000003E-3</v>
+      </c>
       <c r="T1036" s="1" t="s">
         <v>213</v>
       </c>
@@ -48223,6 +48676,15 @@
       <c r="K1037" t="s">
         <v>61</v>
       </c>
+      <c r="L1037">
+        <v>6262</v>
+      </c>
+      <c r="M1037" s="20">
+        <v>0.38622685185185185</v>
+      </c>
+      <c r="N1037">
+        <v>0.53582229999999997</v>
+      </c>
       <c r="T1037" s="1" t="s">
         <v>213</v>
       </c>
@@ -48255,6 +48717,15 @@
       <c r="K1038" t="s">
         <v>61</v>
       </c>
+      <c r="L1038">
+        <v>6262</v>
+      </c>
+      <c r="M1038" s="20">
+        <v>0.38715277777777773</v>
+      </c>
+      <c r="N1038">
+        <v>0.1563206</v>
+      </c>
       <c r="T1038" s="1" t="s">
         <v>213</v>
       </c>
@@ -48287,6 +48758,15 @@
       <c r="K1039" t="s">
         <v>61</v>
       </c>
+      <c r="L1039">
+        <v>6262</v>
+      </c>
+      <c r="M1039" s="20">
+        <v>0.3880439814814815</v>
+      </c>
+      <c r="N1039">
+        <v>0.1032771</v>
+      </c>
       <c r="T1039" s="1" t="s">
         <v>213</v>
       </c>
@@ -48319,6 +48799,15 @@
       <c r="K1040" t="s">
         <v>61</v>
       </c>
+      <c r="L1040">
+        <v>6262</v>
+      </c>
+      <c r="M1040" s="20">
+        <v>0.38880787037037035</v>
+      </c>
+      <c r="N1040">
+        <v>0.12387380000000001</v>
+      </c>
       <c r="T1040" s="1" t="s">
         <v>213</v>
       </c>
@@ -48351,6 +48840,15 @@
       <c r="K1041" t="s">
         <v>61</v>
       </c>
+      <c r="L1041">
+        <v>6262</v>
+      </c>
+      <c r="M1041" s="20">
+        <v>0.38966435185185189</v>
+      </c>
+      <c r="N1041">
+        <v>0.17735790000000001</v>
+      </c>
       <c r="T1041" s="1" t="s">
         <v>213</v>
       </c>
@@ -48383,6 +48881,15 @@
       <c r="K1042" t="s">
         <v>61</v>
       </c>
+      <c r="L1042">
+        <v>6262</v>
+      </c>
+      <c r="M1042" s="20">
+        <v>0.39041666666666663</v>
+      </c>
+      <c r="N1042">
+        <v>1.2198629999999999</v>
+      </c>
       <c r="T1042" s="1" t="s">
         <v>213</v>
       </c>
@@ -48415,6 +48922,15 @@
       <c r="K1043" t="s">
         <v>61</v>
       </c>
+      <c r="L1043">
+        <v>6262</v>
+      </c>
+      <c r="M1043" s="20">
+        <v>0.39143518518518516</v>
+      </c>
+      <c r="N1043">
+        <v>0.1508727</v>
+      </c>
       <c r="T1043" s="1" t="s">
         <v>213</v>
       </c>
@@ -48447,6 +48963,15 @@
       <c r="K1044" t="s">
         <v>61</v>
       </c>
+      <c r="L1044">
+        <v>6262</v>
+      </c>
+      <c r="M1044" s="20">
+        <v>0.39217592592592593</v>
+      </c>
+      <c r="N1044" s="21">
+        <v>7.9226580000000005E-2</v>
+      </c>
       <c r="T1044" s="1" t="s">
         <v>213</v>
       </c>
@@ -48479,6 +49004,15 @@
       <c r="K1045" t="s">
         <v>61</v>
       </c>
+      <c r="L1045">
+        <v>6262</v>
+      </c>
+      <c r="M1045" s="20">
+        <v>0.39293981481481483</v>
+      </c>
+      <c r="N1045" s="21">
+        <v>7.9388280000000006E-2</v>
+      </c>
       <c r="T1045" s="1" t="s">
         <v>213</v>
       </c>
@@ -48511,6 +49045,15 @@
       <c r="K1046" t="s">
         <v>61</v>
       </c>
+      <c r="L1046">
+        <v>6262</v>
+      </c>
+      <c r="M1046" s="20">
+        <v>0.39376157407407408</v>
+      </c>
+      <c r="N1046">
+        <v>0.14393410000000001</v>
+      </c>
       <c r="T1046" s="1" t="s">
         <v>213</v>
       </c>
@@ -48543,6 +49086,15 @@
       <c r="K1047" t="s">
         <v>61</v>
       </c>
+      <c r="L1047">
+        <v>6262</v>
+      </c>
+      <c r="M1047" s="20">
+        <v>0.39461805555555557</v>
+      </c>
+      <c r="N1047">
+        <v>0.117183</v>
+      </c>
       <c r="T1047" s="1" t="s">
         <v>213</v>
       </c>
@@ -48575,6 +49127,15 @@
       <c r="K1048" t="s">
         <v>61</v>
       </c>
+      <c r="L1048">
+        <v>6262</v>
+      </c>
+      <c r="M1048" s="20">
+        <v>0.395474537037037</v>
+      </c>
+      <c r="N1048">
+        <v>0.82421829999999996</v>
+      </c>
       <c r="T1048" s="1" t="s">
         <v>213</v>
       </c>
@@ -48607,6 +49168,15 @@
       <c r="K1049" t="s">
         <v>61</v>
       </c>
+      <c r="L1049">
+        <v>6262</v>
+      </c>
+      <c r="M1049" s="20">
+        <v>0.39643518518518522</v>
+      </c>
+      <c r="N1049">
+        <v>0.1126433</v>
+      </c>
       <c r="T1049" s="1" t="s">
         <v>213</v>
       </c>
@@ -48639,6 +49209,15 @@
       <c r="K1050" t="s">
         <v>61</v>
       </c>
+      <c r="L1050">
+        <v>6262</v>
+      </c>
+      <c r="M1050" s="20">
+        <v>0.39717592592592593</v>
+      </c>
+      <c r="N1050">
+        <v>0.66805639999999999</v>
+      </c>
       <c r="T1050" s="1" t="s">
         <v>213</v>
       </c>
@@ -48671,6 +49250,15 @@
       <c r="K1051" t="s">
         <v>61</v>
       </c>
+      <c r="L1051">
+        <v>6262</v>
+      </c>
+      <c r="M1051" s="20">
+        <v>0.39806712962962965</v>
+      </c>
+      <c r="N1051" s="21">
+        <v>6.4429570000000005E-2</v>
+      </c>
       <c r="T1051" s="1" t="s">
         <v>213</v>
       </c>
@@ -48703,6 +49291,15 @@
       <c r="K1052" t="s">
         <v>61</v>
       </c>
+      <c r="L1052">
+        <v>6262</v>
+      </c>
+      <c r="M1052" s="20">
+        <v>0.39872685185185186</v>
+      </c>
+      <c r="N1052">
+        <v>7.8821500000000003E-2</v>
+      </c>
       <c r="T1052" s="1" t="s">
         <v>213</v>
       </c>
@@ -48735,6 +49332,15 @@
       <c r="K1053" t="s">
         <v>61</v>
       </c>
+      <c r="L1053">
+        <v>6262</v>
+      </c>
+      <c r="M1053" s="20">
+        <v>0.39951388888888889</v>
+      </c>
+      <c r="N1053">
+        <v>8.7887499999999993E-2</v>
+      </c>
       <c r="T1053" s="1" t="s">
         <v>213</v>
       </c>
@@ -48767,6 +49373,15 @@
       <c r="K1054" t="s">
         <v>61</v>
       </c>
+      <c r="L1054">
+        <v>6262</v>
+      </c>
+      <c r="M1054" s="20">
+        <v>0.40034722222222219</v>
+      </c>
+      <c r="N1054" s="21">
+        <v>9.0903639999999994E-2</v>
+      </c>
       <c r="T1054" s="1" t="s">
         <v>213</v>
       </c>
@@ -48799,6 +49414,15 @@
       <c r="K1055" t="s">
         <v>61</v>
       </c>
+      <c r="L1055">
+        <v>6262</v>
+      </c>
+      <c r="M1055" s="20">
+        <v>0.40111111111111114</v>
+      </c>
+      <c r="N1055" s="21">
+        <v>5.9986780000000003E-2</v>
+      </c>
       <c r="T1055" s="1" t="s">
         <v>213</v>
       </c>
@@ -48831,6 +49455,15 @@
       <c r="K1056" t="s">
         <v>61</v>
       </c>
+      <c r="L1056">
+        <v>6262</v>
+      </c>
+      <c r="M1056" s="20">
+        <v>0.40180555555555553</v>
+      </c>
+      <c r="N1056">
+        <v>0.1607354</v>
+      </c>
       <c r="T1056" s="1" t="s">
         <v>213</v>
       </c>
@@ -48863,6 +49496,15 @@
       <c r="K1057" t="s">
         <v>61</v>
       </c>
+      <c r="L1057">
+        <v>6262</v>
+      </c>
+      <c r="M1057" s="20">
+        <v>0.40263888888888894</v>
+      </c>
+      <c r="N1057">
+        <v>0.1230528</v>
+      </c>
       <c r="T1057" s="1" t="s">
         <v>213</v>
       </c>
@@ -48895,6 +49537,15 @@
       <c r="K1058" t="s">
         <v>61</v>
       </c>
+      <c r="L1058">
+        <v>6262</v>
+      </c>
+      <c r="M1058" s="20">
+        <v>0.40342592592592591</v>
+      </c>
+      <c r="N1058">
+        <v>0.12855800000000001</v>
+      </c>
       <c r="T1058" s="1" t="s">
         <v>213</v>
       </c>
@@ -48927,6 +49578,15 @@
       <c r="K1059" t="s">
         <v>61</v>
       </c>
+      <c r="L1059">
+        <v>6262</v>
+      </c>
+      <c r="M1059" s="20">
+        <v>0.40421296296296294</v>
+      </c>
+      <c r="N1059" s="21">
+        <v>7.2165549999999995E-2</v>
+      </c>
       <c r="T1059" s="1" t="s">
         <v>213</v>
       </c>
@@ -48959,6 +49619,15 @@
       <c r="K1060" t="s">
         <v>61</v>
       </c>
+      <c r="L1060">
+        <v>6262</v>
+      </c>
+      <c r="M1060" s="20">
+        <v>0.40501157407407407</v>
+      </c>
+      <c r="N1060">
+        <v>0.79508699999999999</v>
+      </c>
       <c r="T1060" s="1" t="s">
         <v>213</v>
       </c>
@@ -48991,6 +49660,15 @@
       <c r="K1061" t="s">
         <v>61</v>
       </c>
+      <c r="L1061">
+        <v>6262</v>
+      </c>
+      <c r="M1061" s="20">
+        <v>0.40596064814814814</v>
+      </c>
+      <c r="N1061">
+        <v>0.1354204</v>
+      </c>
       <c r="T1061" s="1" t="s">
         <v>213</v>
       </c>
@@ -49023,6 +49701,15 @@
       <c r="K1062" t="s">
         <v>61</v>
       </c>
+      <c r="L1062">
+        <v>6262</v>
+      </c>
+      <c r="M1062" s="20">
+        <v>0.40673611111111113</v>
+      </c>
+      <c r="N1062" s="21">
+        <v>8.4525180000000005E-2</v>
+      </c>
       <c r="T1062" s="1" t="s">
         <v>213</v>
       </c>
@@ -49055,6 +49742,15 @@
       <c r="K1063" t="s">
         <v>61</v>
       </c>
+      <c r="L1063">
+        <v>6262</v>
+      </c>
+      <c r="M1063" s="20">
+        <v>0.40747685185185184</v>
+      </c>
+      <c r="N1063">
+        <v>1.0307489999999999</v>
+      </c>
       <c r="T1063" s="1" t="s">
         <v>213</v>
       </c>
@@ -49087,6 +49783,15 @@
       <c r="K1064" t="s">
         <v>61</v>
       </c>
+      <c r="L1064">
+        <v>6262</v>
+      </c>
+      <c r="M1064" s="20">
+        <v>0.40841435185185188</v>
+      </c>
+      <c r="N1064" s="21">
+        <v>9.0086669999999994E-2</v>
+      </c>
       <c r="T1064" s="1" t="s">
         <v>213</v>
       </c>
@@ -49119,6 +49824,15 @@
       <c r="K1065" t="s">
         <v>61</v>
       </c>
+      <c r="L1065">
+        <v>6262</v>
+      </c>
+      <c r="M1065" s="20">
+        <v>0.40920138888888885</v>
+      </c>
+      <c r="N1065">
+        <v>0.101032</v>
+      </c>
       <c r="T1065" s="1" t="s">
         <v>213</v>
       </c>
@@ -49151,6 +49865,15 @@
       <c r="K1066" t="s">
         <v>61</v>
       </c>
+      <c r="L1066">
+        <v>6262</v>
+      </c>
+      <c r="M1066" s="20">
+        <v>0.40993055555555552</v>
+      </c>
+      <c r="N1066">
+        <v>1.315436</v>
+      </c>
       <c r="T1066" s="1" t="s">
         <v>213</v>
       </c>
@@ -49183,6 +49906,15 @@
       <c r="K1067" t="s">
         <v>61</v>
       </c>
+      <c r="L1067">
+        <v>6262</v>
+      </c>
+      <c r="M1067" s="20">
+        <v>0.41104166666666669</v>
+      </c>
+      <c r="N1067" s="21">
+        <v>6.2707470000000001E-2</v>
+      </c>
       <c r="T1067" s="1" t="s">
         <v>213</v>
       </c>
@@ -49215,6 +49947,15 @@
       <c r="K1068" t="s">
         <v>61</v>
       </c>
+      <c r="L1068">
+        <v>6262</v>
+      </c>
+      <c r="M1068" s="20">
+        <v>0.41177083333333336</v>
+      </c>
+      <c r="N1068">
+        <v>0.86417460000000001</v>
+      </c>
       <c r="T1068" s="1" t="s">
         <v>213</v>
       </c>
@@ -49247,6 +49988,15 @@
       <c r="K1069" t="s">
         <v>61</v>
       </c>
+      <c r="L1069">
+        <v>6262</v>
+      </c>
+      <c r="M1069" s="20">
+        <v>0.41273148148148148</v>
+      </c>
+      <c r="N1069" s="21">
+        <v>8.6048449999999999E-2</v>
+      </c>
       <c r="T1069" s="1" t="s">
         <v>213</v>
       </c>
@@ -49279,6 +50029,15 @@
       <c r="K1070" t="s">
         <v>61</v>
       </c>
+      <c r="L1070">
+        <v>6262</v>
+      </c>
+      <c r="M1070" s="20">
+        <v>0.41363425925925923</v>
+      </c>
+      <c r="N1070">
+        <v>0.1086746</v>
+      </c>
       <c r="T1070" s="1" t="s">
         <v>213</v>
       </c>
@@ -49311,6 +50070,15 @@
       <c r="K1071" t="s">
         <v>61</v>
       </c>
+      <c r="L1071">
+        <v>6262</v>
+      </c>
+      <c r="M1071" s="20">
+        <v>0.41439814814814818</v>
+      </c>
+      <c r="N1071" s="21">
+        <v>9.0717629999999994E-2</v>
+      </c>
       <c r="T1071" s="1" t="s">
         <v>213</v>
       </c>
@@ -49343,11 +50111,20 @@
       <c r="K1072" t="s">
         <v>61</v>
       </c>
+      <c r="L1072">
+        <v>6262</v>
+      </c>
+      <c r="M1072" s="20">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="N1072" s="21">
+        <v>8.322562E-2</v>
+      </c>
       <c r="T1072" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="1073" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1073">
         <v>37</v>
       </c>
@@ -49375,11 +50152,20 @@
       <c r="K1073" t="s">
         <v>61</v>
       </c>
+      <c r="L1073">
+        <v>6262</v>
+      </c>
+      <c r="M1073" s="20">
+        <v>0.41600694444444447</v>
+      </c>
+      <c r="N1073">
+        <v>0.1316833</v>
+      </c>
       <c r="T1073" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="1074" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1074">
         <v>38</v>
       </c>
@@ -49407,11 +50193,20 @@
       <c r="K1074" t="s">
         <v>61</v>
       </c>
+      <c r="L1074">
+        <v>6262</v>
+      </c>
+      <c r="M1074" s="20">
+        <v>0.41677083333333331</v>
+      </c>
+      <c r="N1074">
+        <v>1.022467</v>
+      </c>
       <c r="T1074" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="1075" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1075">
         <v>39</v>
       </c>
@@ -49439,11 +50234,20 @@
       <c r="K1075" t="s">
         <v>61</v>
       </c>
+      <c r="L1075">
+        <v>6262</v>
+      </c>
+      <c r="M1075" s="20">
+        <v>0.41783564814814816</v>
+      </c>
+      <c r="N1075">
+        <v>0.10568180000000001</v>
+      </c>
       <c r="T1075" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="1076" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1076">
         <v>40</v>
       </c>
@@ -49471,11 +50275,20 @@
       <c r="K1076" t="s">
         <v>61</v>
       </c>
+      <c r="L1076">
+        <v>6262</v>
+      </c>
+      <c r="M1076" s="20">
+        <v>0.41862268518518514</v>
+      </c>
+      <c r="N1076" s="21">
+        <v>5.720592E-2</v>
+      </c>
       <c r="T1076" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="1077" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1077">
         <v>41</v>
       </c>
@@ -49503,11 +50316,20 @@
       <c r="K1077" t="s">
         <v>61</v>
       </c>
+      <c r="L1077">
+        <v>6262</v>
+      </c>
+      <c r="M1077" s="20">
+        <v>0.41934027777777777</v>
+      </c>
+      <c r="N1077">
+        <v>0.80207340000000005</v>
+      </c>
       <c r="T1077" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="1078" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1078">
         <v>42</v>
       </c>
@@ -49535,11 +50357,20 @@
       <c r="K1078" t="s">
         <v>61</v>
       </c>
+      <c r="L1078">
+        <v>6262</v>
+      </c>
+      <c r="M1078" s="20">
+        <v>0.42026620370370371</v>
+      </c>
+      <c r="N1078">
+        <v>0.17547650000000001</v>
+      </c>
       <c r="T1078" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="1079" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1079">
         <v>43</v>
       </c>
@@ -49567,11 +50398,20 @@
       <c r="K1079" t="s">
         <v>61</v>
       </c>
+      <c r="L1079">
+        <v>6262</v>
+      </c>
+      <c r="M1079" s="20">
+        <v>0.42106481481481484</v>
+      </c>
+      <c r="N1079">
+        <v>0.17211609999999999</v>
+      </c>
       <c r="T1079" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="1080" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1080">
         <v>44</v>
       </c>
@@ -49599,11 +50439,20 @@
       <c r="K1080" t="s">
         <v>61</v>
       </c>
+      <c r="L1080">
+        <v>6262</v>
+      </c>
+      <c r="M1080" s="20">
+        <v>0.42192129629629632</v>
+      </c>
+      <c r="N1080">
+        <v>0.1636775</v>
+      </c>
       <c r="T1080" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="1081" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1081">
         <v>45</v>
       </c>
@@ -49631,11 +50480,20 @@
       <c r="K1081" t="s">
         <v>61</v>
       </c>
+      <c r="L1081">
+        <v>6262</v>
+      </c>
+      <c r="M1081" s="20">
+        <v>0.4227083333333333</v>
+      </c>
+      <c r="N1081" s="21">
+        <v>7.8189869999999995E-2</v>
+      </c>
       <c r="T1081" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="1082" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1082">
         <v>46</v>
       </c>
@@ -49660,8 +50518,20 @@
       <c r="K1082" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="1083" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L1082">
+        <v>6262</v>
+      </c>
+      <c r="M1082" s="20">
+        <v>0.42347222222222225</v>
+      </c>
+      <c r="N1082" s="21">
+        <v>1.467134E-2</v>
+      </c>
+      <c r="T1082" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1083">
         <v>47</v>
       </c>
@@ -49688,6 +50558,1133 @@
       </c>
       <c r="K1083" t="s">
         <v>61</v>
+      </c>
+      <c r="L1083">
+        <v>6262</v>
+      </c>
+      <c r="M1083" s="20">
+        <v>0.42451388888888886</v>
+      </c>
+      <c r="N1083" s="21">
+        <v>1.234064E-2</v>
+      </c>
+      <c r="T1083" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1084">
+        <v>1</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1084" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1084" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1084">
+        <v>20</v>
+      </c>
+      <c r="K1084" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1084" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1084" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1084" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1085">
+        <v>2</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1085" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1085" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1085">
+        <v>20</v>
+      </c>
+      <c r="K1085" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1085" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1085" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1085" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1086">
+        <v>3</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1086" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1086" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1086">
+        <v>20</v>
+      </c>
+      <c r="K1086" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1086" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1086" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1086" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1087">
+        <v>4</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1087" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1087" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1087">
+        <v>20</v>
+      </c>
+      <c r="K1087" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1087" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1087" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1087" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1088">
+        <v>1</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1088" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1088" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1088">
+        <v>20</v>
+      </c>
+      <c r="K1088" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1088" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1088" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1088" t="str">
+        <f>"A20"&amp;Y1088&amp;"-"&amp;AC1088</f>
+        <v>A20RT-A1</v>
+      </c>
+      <c r="AC1088" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1089">
+        <v>2</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1089" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1089" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1089">
+        <v>20</v>
+      </c>
+      <c r="K1089" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1089" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1089" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1089" t="str">
+        <f t="shared" ref="Z1089:Z1097" si="10">"A20"&amp;Y1089&amp;"-"&amp;AC1089</f>
+        <v>A20RT-A2</v>
+      </c>
+      <c r="AC1089" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1090">
+        <v>3</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1090" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1090" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1090">
+        <v>20</v>
+      </c>
+      <c r="K1090" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1090" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1090" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1090" t="str">
+        <f t="shared" si="10"/>
+        <v>A20RT-A3</v>
+      </c>
+      <c r="AC1090" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1091">
+        <v>4</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1091" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1091" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1091">
+        <v>20</v>
+      </c>
+      <c r="K1091" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1091" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1091" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1091" t="str">
+        <f t="shared" si="10"/>
+        <v>A20RT-A4</v>
+      </c>
+      <c r="AC1091" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1092">
+        <v>1</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1092" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1092" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1092">
+        <v>20</v>
+      </c>
+      <c r="K1092" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1092" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1092" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1092" t="str">
+        <f t="shared" si="10"/>
+        <v>A20SO-A1</v>
+      </c>
+      <c r="AC1092" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1093">
+        <v>2</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1093" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1093" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1093">
+        <v>20</v>
+      </c>
+      <c r="K1093" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1093" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1093" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1093" t="str">
+        <f t="shared" si="10"/>
+        <v>A20SO-A2</v>
+      </c>
+      <c r="AC1093" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1094">
+        <v>3</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1094" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1094" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1094">
+        <v>20</v>
+      </c>
+      <c r="K1094" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1094" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1094" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1094" t="str">
+        <f t="shared" si="10"/>
+        <v>A20SO-A3</v>
+      </c>
+      <c r="AC1094" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1095">
+        <v>4</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1095" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1095" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1095">
+        <v>20</v>
+      </c>
+      <c r="K1095" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1095" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1095" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1095" t="str">
+        <f t="shared" si="10"/>
+        <v>A20SO-A4</v>
+      </c>
+      <c r="AC1095" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1096">
+        <v>5</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1096" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1096" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1096">
+        <v>5</v>
+      </c>
+      <c r="K1096" t="s">
+        <v>203</v>
+      </c>
+      <c r="T1096" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1096" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1096" t="str">
+        <f t="shared" si="10"/>
+        <v>A20RT-A5</v>
+      </c>
+      <c r="AC1096" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1097">
+        <v>5</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1097" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1097" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1097">
+        <v>5</v>
+      </c>
+      <c r="K1097" t="s">
+        <v>203</v>
+      </c>
+      <c r="T1097" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1097" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1097" t="str">
+        <f t="shared" si="10"/>
+        <v>A20SO-A5</v>
+      </c>
+      <c r="AC1097" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1098">
+        <v>5</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1098" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1098" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1098">
+        <v>5</v>
+      </c>
+      <c r="K1098" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1098" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1098" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1098" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1099">
+        <v>6</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1099" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1099" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1099">
+        <v>5</v>
+      </c>
+      <c r="K1099" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1099" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1099" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1099" t="str">
+        <f>"A2-5"&amp;Y1099&amp;"-"&amp;AC1099</f>
+        <v>A2-5RT-A6</v>
+      </c>
+      <c r="AC1099" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1100">
+        <v>6</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1100" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1100" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1100">
+        <v>5</v>
+      </c>
+      <c r="K1100" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1100" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1100" t="str">
+        <f>"A2-5"&amp;Y1100&amp;"-"&amp;AC1100</f>
+        <v>A2-5SO-A6</v>
+      </c>
+      <c r="AC1100" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1101">
+        <v>6</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1101" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1101">
+        <v>5</v>
+      </c>
+      <c r="K1101" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1101" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1101" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1101" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1102">
+        <v>7</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1102" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1102" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1102">
+        <v>5</v>
+      </c>
+      <c r="K1102" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1102" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1102" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1102" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1103">
+        <v>8</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1103" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1103" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1103">
+        <v>5</v>
+      </c>
+      <c r="K1103" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1103" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1103" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1103" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1104">
+        <v>9</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1104" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1104" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1104">
+        <v>5</v>
+      </c>
+      <c r="K1104" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1104" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1104" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1104" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1105">
+        <v>7</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1105" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1105">
+        <v>5</v>
+      </c>
+      <c r="K1105" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1105" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1105" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z1105" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1106">
+        <v>7</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1106" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1106" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1106">
+        <v>5</v>
+      </c>
+      <c r="K1106" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1106" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1106" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1106" t="str">
+        <f>"A2-5"&amp;Y1106&amp;"-"&amp;AC1106</f>
+        <v>A2-5RT-A7</v>
+      </c>
+      <c r="AC1106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1107">
+        <v>8</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1107" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1107">
+        <v>5</v>
+      </c>
+      <c r="K1107" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1107" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1107" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1107" t="str">
+        <f t="shared" ref="Z1107:Z1118" si="11">"A2-5"&amp;Y1107&amp;"-"&amp;AC1107</f>
+        <v>A2-5RT-A8</v>
+      </c>
+      <c r="AC1107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1108">
+        <v>9</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1108" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1108" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1108">
+        <v>5</v>
+      </c>
+      <c r="K1108" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1108" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1108" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1108" t="str">
+        <f t="shared" si="11"/>
+        <v>A2-5RT-A9</v>
+      </c>
+      <c r="AC1108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1109">
+        <v>10</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1109" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1109" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1109">
+        <v>5</v>
+      </c>
+      <c r="K1109" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1109" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1109" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1109" t="str">
+        <f t="shared" si="11"/>
+        <v>A2-5RT-A10</v>
+      </c>
+      <c r="AC1109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1110">
+        <v>11</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1110" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1110" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1110">
+        <v>5</v>
+      </c>
+      <c r="K1110" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1110" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1110" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1110" t="str">
+        <f t="shared" si="11"/>
+        <v>A2-5RT-A11</v>
+      </c>
+      <c r="AC1110" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1111">
+        <v>12</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1111" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1111" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1111">
+        <v>5</v>
+      </c>
+      <c r="K1111" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1111" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1111" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1111" t="str">
+        <f t="shared" si="11"/>
+        <v>A2-5RT-A12</v>
+      </c>
+      <c r="AC1111" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1112">
+        <v>8</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1112" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1112" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1112">
+        <v>5</v>
+      </c>
+      <c r="K1112" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1112" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1112" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1112" t="str">
+        <f t="shared" si="11"/>
+        <v>A2-5SO-A7</v>
+      </c>
+      <c r="AC1112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1113">
+        <v>9</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1113" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1113" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1113">
+        <v>5</v>
+      </c>
+      <c r="K1113" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1113" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1113" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1113" t="str">
+        <f t="shared" si="11"/>
+        <v>A2-5SO-A8</v>
+      </c>
+      <c r="AC1113" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1114">
+        <v>10</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1114" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1114" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1114">
+        <v>5</v>
+      </c>
+      <c r="K1114" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1114" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1114" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1114" t="str">
+        <f t="shared" si="11"/>
+        <v>A2-5SO-A9</v>
+      </c>
+      <c r="AC1114" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1115">
+        <v>11</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1115" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1115" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1115">
+        <v>5</v>
+      </c>
+      <c r="K1115" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1115" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1115" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1115" t="str">
+        <f t="shared" si="11"/>
+        <v>A2-5SO-A10</v>
+      </c>
+      <c r="AC1115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1116">
+        <v>12</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1116" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1116">
+        <v>5</v>
+      </c>
+      <c r="K1116" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1116" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1116" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1116" t="str">
+        <f t="shared" si="11"/>
+        <v>A2-5SO-A11</v>
+      </c>
+      <c r="AC1116" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1117">
+        <v>13</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1117" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1117" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1117">
+        <v>5</v>
+      </c>
+      <c r="K1117" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1117" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1117" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1117" t="str">
+        <f t="shared" si="11"/>
+        <v>A2-5SO-A12</v>
+      </c>
+      <c r="AC1117" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1118">
+        <v>14</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1118" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1118" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1118">
+        <v>5</v>
+      </c>
+      <c r="K1118" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1118" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1118" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1118" t="str">
+        <f t="shared" si="11"/>
+        <v>A2-5SO-B1</v>
+      </c>
+      <c r="AC1118" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4076C75A-040A-4120-BD91-3722920AB626}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FDAF47-20A0-4530-BC32-8EA9AEB8D1BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10244" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10687" uniqueCount="709">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -2144,6 +2144,21 @@
   </si>
   <si>
     <t>A2-5-6</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>14:45</t>
+  </si>
+  <si>
+    <t>14:37</t>
+  </si>
+  <si>
+    <t>14:36</t>
+  </si>
+  <si>
+    <t>14:25</t>
   </si>
 </sst>
 </file>
@@ -12036,11 +12051,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
-  <dimension ref="A1:AS1118"/>
+  <dimension ref="A1:AS1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A981" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J996" sqref="J996"/>
+      <pane ySplit="1" topLeftCell="A1062" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1206" sqref="M1206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -51685,6 +51700,2291 @@
       </c>
       <c r="AC1118" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1119">
+        <v>1</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1119">
+        <v>6.4470000000000001</v>
+      </c>
+      <c r="E1119" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G1119" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1119" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1119">
+        <v>10</v>
+      </c>
+      <c r="K1119" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1120">
+        <v>2</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1120">
+        <v>4.375</v>
+      </c>
+      <c r="G1120" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1120" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1120">
+        <v>10</v>
+      </c>
+      <c r="K1120" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1121">
+        <v>3</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1121">
+        <v>6.56</v>
+      </c>
+      <c r="G1121" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1121" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1121">
+        <v>10</v>
+      </c>
+      <c r="K1121" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1122">
+        <v>4</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1122">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="G1122" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1122" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1122">
+        <v>10</v>
+      </c>
+      <c r="K1122" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1123">
+        <v>5</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1123">
+        <v>7.077</v>
+      </c>
+      <c r="G1123" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1123" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1123">
+        <v>10</v>
+      </c>
+      <c r="K1123" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1124">
+        <v>6</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1124">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="G1124" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1124" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1124">
+        <v>10</v>
+      </c>
+      <c r="K1124" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1125">
+        <v>7</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1125">
+        <v>4.1820000000000004</v>
+      </c>
+      <c r="G1125" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1125" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1125">
+        <v>10</v>
+      </c>
+      <c r="K1125" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1126">
+        <v>8</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1126">
+        <v>5.44</v>
+      </c>
+      <c r="G1126" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1126" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1126">
+        <v>10</v>
+      </c>
+      <c r="K1126" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1127">
+        <v>9</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1127">
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="G1127" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1127" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1127">
+        <v>10</v>
+      </c>
+      <c r="K1127" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1128">
+        <v>10</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1128">
+        <v>6.1029999999999998</v>
+      </c>
+      <c r="G1128" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1128" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1128">
+        <v>10</v>
+      </c>
+      <c r="K1128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1129">
+        <v>11</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1129">
+        <v>6.8970000000000002</v>
+      </c>
+      <c r="G1129" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1129" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1129">
+        <v>10</v>
+      </c>
+      <c r="K1129" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1130">
+        <v>12</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1130">
+        <v>3.6070000000000002</v>
+      </c>
+      <c r="G1130" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1130" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1130">
+        <v>10</v>
+      </c>
+      <c r="K1130" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1131">
+        <v>13</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1131">
+        <v>7.3780000000000001</v>
+      </c>
+      <c r="G1131" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1131" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1131">
+        <v>10</v>
+      </c>
+      <c r="K1131" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1132">
+        <v>14</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1132">
+        <v>8.093</v>
+      </c>
+      <c r="G1132" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1132" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1132">
+        <v>10</v>
+      </c>
+      <c r="K1132" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1133">
+        <v>15</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1133">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="G1133" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1133" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1133">
+        <v>10</v>
+      </c>
+      <c r="K1133" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1134">
+        <v>16</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1134">
+        <v>3.4780000000000002</v>
+      </c>
+      <c r="G1134" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1134" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1134">
+        <v>10</v>
+      </c>
+      <c r="K1134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1135">
+        <v>17</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1135">
+        <v>5.1360000000000001</v>
+      </c>
+      <c r="G1135" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1135" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1135">
+        <v>10</v>
+      </c>
+      <c r="K1135" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1136">
+        <v>18</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1136">
+        <v>4.4279999999999999</v>
+      </c>
+      <c r="G1136" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1136" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1136">
+        <v>10</v>
+      </c>
+      <c r="K1136" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1137">
+        <v>19</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1137">
+        <v>4.2709999999999999</v>
+      </c>
+      <c r="G1137" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1137" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1137">
+        <v>10</v>
+      </c>
+      <c r="K1137" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1138">
+        <v>20</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1138">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="G1138" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1138" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1138">
+        <v>10</v>
+      </c>
+      <c r="K1138" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1139">
+        <v>21</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1139">
+        <v>6.3109999999999999</v>
+      </c>
+      <c r="G1139" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1139" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1139">
+        <v>10</v>
+      </c>
+      <c r="K1139" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1140">
+        <v>22</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1140">
+        <v>4.5469999999999997</v>
+      </c>
+      <c r="G1140" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1140" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1140">
+        <v>10</v>
+      </c>
+      <c r="K1140" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1141">
+        <v>23</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1141">
+        <v>4.3170000000000002</v>
+      </c>
+      <c r="G1141" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1141" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1141">
+        <v>10</v>
+      </c>
+      <c r="K1141" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1142">
+        <v>24</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1142">
+        <v>6.5590000000000002</v>
+      </c>
+      <c r="G1142" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1142" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1142">
+        <v>10</v>
+      </c>
+      <c r="K1142" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1143">
+        <v>25</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1143">
+        <v>4.633</v>
+      </c>
+      <c r="G1143" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1143" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1143">
+        <v>10</v>
+      </c>
+      <c r="K1143" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1144">
+        <v>26</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1144">
+        <v>4.915</v>
+      </c>
+      <c r="G1144" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1144" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1144">
+        <v>10</v>
+      </c>
+      <c r="K1144" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1145">
+        <v>27</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1145">
+        <v>6.5410000000000004</v>
+      </c>
+      <c r="G1145" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1145" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1145">
+        <v>10</v>
+      </c>
+      <c r="K1145" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1146">
+        <v>28</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1146">
+        <v>2.3140000000000001</v>
+      </c>
+      <c r="G1146" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1146" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1146">
+        <v>10</v>
+      </c>
+      <c r="K1146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1147">
+        <v>29</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1147">
+        <v>3.2989999999999999</v>
+      </c>
+      <c r="G1147" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1147" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1147">
+        <v>10</v>
+      </c>
+      <c r="K1147" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1148">
+        <v>30</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1148">
+        <v>4.5869999999999997</v>
+      </c>
+      <c r="G1148" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1148" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1148">
+        <v>10</v>
+      </c>
+      <c r="K1148" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1149">
+        <v>31</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1149">
+        <v>3.984</v>
+      </c>
+      <c r="G1149" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1149" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1149">
+        <v>10</v>
+      </c>
+      <c r="K1149" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1150">
+        <v>32</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1150">
+        <v>5.3410000000000002</v>
+      </c>
+      <c r="G1150" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1150" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1150">
+        <v>10</v>
+      </c>
+      <c r="K1150" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1151">
+        <v>33</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1151">
+        <v>2.52</v>
+      </c>
+      <c r="G1151" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1151" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1151">
+        <v>10</v>
+      </c>
+      <c r="K1151" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1152">
+        <v>34</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1152">
+        <v>5.5590000000000002</v>
+      </c>
+      <c r="G1152" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1152" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1152">
+        <v>10</v>
+      </c>
+      <c r="K1152" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1153">
+        <v>35</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1153">
+        <v>4.34</v>
+      </c>
+      <c r="G1153" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1153" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1153">
+        <v>10</v>
+      </c>
+      <c r="K1153" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1154">
+        <v>36</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1154">
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="G1154" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1154" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1154">
+        <v>10</v>
+      </c>
+      <c r="K1154" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1155">
+        <v>37</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1155">
+        <v>4.5209999999999999</v>
+      </c>
+      <c r="G1155" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1155" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1155">
+        <v>10</v>
+      </c>
+      <c r="K1155" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1156">
+        <v>38</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1156">
+        <v>2.6160000000000001</v>
+      </c>
+      <c r="G1156" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1156" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1156">
+        <v>10</v>
+      </c>
+      <c r="K1156" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1157">
+        <v>39</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1157">
+        <v>5.0830000000000002</v>
+      </c>
+      <c r="G1157" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1157" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1157">
+        <v>10</v>
+      </c>
+      <c r="K1157" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1158">
+        <v>46</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>704</v>
+      </c>
+      <c r="G1158" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1158" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1158">
+        <v>10</v>
+      </c>
+      <c r="K1158" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1159">
+        <v>47</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>704</v>
+      </c>
+      <c r="E1159" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G1159" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1159" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1159">
+        <v>10</v>
+      </c>
+      <c r="K1159" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1160">
+        <v>1</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1160">
+        <v>6.1239999999999997</v>
+      </c>
+      <c r="E1160" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G1160" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1160" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1160">
+        <v>10</v>
+      </c>
+      <c r="K1160" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1161">
+        <v>2</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1161">
+        <v>8.3450000000000006</v>
+      </c>
+      <c r="G1161" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1161" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1161">
+        <v>10</v>
+      </c>
+      <c r="K1161" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1162">
+        <v>3</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1162">
+        <v>6.5529999999999999</v>
+      </c>
+      <c r="G1162" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1162" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1162">
+        <v>10</v>
+      </c>
+      <c r="K1162" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1163">
+        <v>4</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1163">
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="G1163" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1163" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1163">
+        <v>25</v>
+      </c>
+      <c r="K1163" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1164">
+        <v>5</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1164">
+        <v>4.2279999999999998</v>
+      </c>
+      <c r="G1164" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1164" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1164">
+        <v>10</v>
+      </c>
+      <c r="K1164" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1165">
+        <v>6</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1165">
+        <v>7.64</v>
+      </c>
+      <c r="G1165" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1165" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1165">
+        <v>10</v>
+      </c>
+      <c r="K1165" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1166">
+        <v>7</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1166">
+        <v>8.8940000000000001</v>
+      </c>
+      <c r="G1166" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1166" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1166">
+        <v>10</v>
+      </c>
+      <c r="K1166" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1167">
+        <v>8</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1167">
+        <v>7.1079999999999997</v>
+      </c>
+      <c r="G1167" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1167" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1167">
+        <v>10</v>
+      </c>
+      <c r="K1167" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1168">
+        <v>9</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1168">
+        <v>7.2130000000000001</v>
+      </c>
+      <c r="G1168" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1168" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1168">
+        <v>10</v>
+      </c>
+      <c r="K1168" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1169">
+        <v>10</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1169">
+        <v>8.82</v>
+      </c>
+      <c r="G1169" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1169" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1169">
+        <v>10</v>
+      </c>
+      <c r="K1169" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1170">
+        <v>11</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1170">
+        <v>6.8890000000000002</v>
+      </c>
+      <c r="G1170" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1170" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1170">
+        <v>10</v>
+      </c>
+      <c r="K1170" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1171">
+        <v>12</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1171">
+        <v>10.754</v>
+      </c>
+      <c r="G1171" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1171" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1171">
+        <v>10</v>
+      </c>
+      <c r="K1171" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1172">
+        <v>13</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1172">
+        <v>9.2189999999999994</v>
+      </c>
+      <c r="G1172" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1172" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1172">
+        <v>10</v>
+      </c>
+      <c r="K1172" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1173">
+        <v>14</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1173">
+        <v>9.3559999999999999</v>
+      </c>
+      <c r="G1173" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1173" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1173">
+        <v>10</v>
+      </c>
+      <c r="K1173" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1174">
+        <v>15</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1174">
+        <v>6.0519999999999996</v>
+      </c>
+      <c r="G1174" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1174" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1174">
+        <v>10</v>
+      </c>
+      <c r="K1174" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1175">
+        <v>16</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1175">
+        <v>8.5690000000000008</v>
+      </c>
+      <c r="G1175" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1175" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1175">
+        <v>10</v>
+      </c>
+      <c r="K1175" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1176">
+        <v>17</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1176">
+        <v>8.5559999999999992</v>
+      </c>
+      <c r="G1176" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1176" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1176">
+        <v>10</v>
+      </c>
+      <c r="K1176" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1177">
+        <v>18</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1177">
+        <v>5.0149999999999997</v>
+      </c>
+      <c r="G1177" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1177" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1177">
+        <v>25</v>
+      </c>
+      <c r="K1177" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1178">
+        <v>19</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1178">
+        <v>4.9059999999999997</v>
+      </c>
+      <c r="G1178" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1178" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1178">
+        <v>10</v>
+      </c>
+      <c r="K1178" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1179">
+        <v>20</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1179">
+        <v>7.444</v>
+      </c>
+      <c r="G1179" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1179" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1179">
+        <v>10</v>
+      </c>
+      <c r="K1179" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1180">
+        <v>21</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1180">
+        <v>5.8129999999999997</v>
+      </c>
+      <c r="G1180" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1180" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1180">
+        <v>10</v>
+      </c>
+      <c r="K1180" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1181">
+        <v>22</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1181">
+        <v>2.7360000000000002</v>
+      </c>
+      <c r="G1181" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1181" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1181">
+        <v>10</v>
+      </c>
+      <c r="K1181" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1182">
+        <v>23</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1182">
+        <v>5.6470000000000002</v>
+      </c>
+      <c r="G1182" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1182" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1182">
+        <v>10</v>
+      </c>
+      <c r="K1182" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1183">
+        <v>24</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1183">
+        <v>6.9020000000000001</v>
+      </c>
+      <c r="G1183" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1183" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1183">
+        <v>10</v>
+      </c>
+      <c r="K1183" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1184">
+        <v>25</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1184">
+        <v>4.9969999999999999</v>
+      </c>
+      <c r="G1184" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1184" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1184">
+        <v>10</v>
+      </c>
+      <c r="K1184" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1185">
+        <v>26</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1185">
+        <v>3.8620000000000001</v>
+      </c>
+      <c r="G1185" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1185" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1185">
+        <v>10</v>
+      </c>
+      <c r="K1185" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1186">
+        <v>27</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1186">
+        <v>7.4770000000000003</v>
+      </c>
+      <c r="G1186" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1186" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1186">
+        <v>10</v>
+      </c>
+      <c r="K1186" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1187">
+        <v>28</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1187">
+        <v>7.1159999999999997</v>
+      </c>
+      <c r="G1187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1187" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1187">
+        <v>10</v>
+      </c>
+      <c r="K1187" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1188">
+        <v>29</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1188">
+        <v>7.492</v>
+      </c>
+      <c r="G1188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1188" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1188">
+        <v>10</v>
+      </c>
+      <c r="K1188" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1189">
+        <v>30</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1189">
+        <v>6.4539999999999997</v>
+      </c>
+      <c r="G1189" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1189" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1189">
+        <v>10</v>
+      </c>
+      <c r="K1189" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1190">
+        <v>31</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1190">
+        <v>7</v>
+      </c>
+      <c r="G1190" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1190" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1190">
+        <v>10</v>
+      </c>
+      <c r="K1190" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1191">
+        <v>32</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1191">
+        <v>6.8929999999999998</v>
+      </c>
+      <c r="G1191" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1191" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1191">
+        <v>10</v>
+      </c>
+      <c r="K1191" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1192">
+        <v>33</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1192">
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="G1192" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1192" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1192">
+        <v>10</v>
+      </c>
+      <c r="K1192" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1193">
+        <v>34</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1193">
+        <v>4.7149999999999999</v>
+      </c>
+      <c r="G1193" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1193" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1193">
+        <v>10</v>
+      </c>
+      <c r="K1193" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1194">
+        <v>35</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1194">
+        <v>5.8330000000000002</v>
+      </c>
+      <c r="G1194" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1194" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1194">
+        <v>10</v>
+      </c>
+      <c r="K1194" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1195">
+        <v>36</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1195">
+        <v>6.71</v>
+      </c>
+      <c r="G1195" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1195" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1195">
+        <v>10</v>
+      </c>
+      <c r="K1195" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1196">
+        <v>37</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1196">
+        <v>2.6339999999999999</v>
+      </c>
+      <c r="G1196" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1196" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1196">
+        <v>10</v>
+      </c>
+      <c r="K1196" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1197">
+        <v>38</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1197">
+        <v>8.7520000000000007</v>
+      </c>
+      <c r="G1197" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1197" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1197">
+        <v>10</v>
+      </c>
+      <c r="K1197" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1198">
+        <v>39</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1198">
+        <v>8.0559999999999992</v>
+      </c>
+      <c r="G1198" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1198" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1198">
+        <v>10</v>
+      </c>
+      <c r="K1198" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1199">
+        <v>40</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1199">
+        <v>6.5819999999999999</v>
+      </c>
+      <c r="G1199" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1199" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1199">
+        <v>10</v>
+      </c>
+      <c r="K1199" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1200">
+        <v>41</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1200">
+        <v>6.742</v>
+      </c>
+      <c r="G1200" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1200" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1200">
+        <v>10</v>
+      </c>
+      <c r="K1200" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1201">
+        <v>42</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1201">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="G1201" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1201" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1201">
+        <v>10</v>
+      </c>
+      <c r="K1201" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1202">
+        <v>43</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1202">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="G1202" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1202" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1202">
+        <v>10</v>
+      </c>
+      <c r="K1202" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1203">
+        <v>44</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1203">
+        <v>6.6740000000000004</v>
+      </c>
+      <c r="G1203" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1203" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1203">
+        <v>10</v>
+      </c>
+      <c r="K1203" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1204">
+        <v>45</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1204">
+        <v>7.2270000000000003</v>
+      </c>
+      <c r="G1204" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1204" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1204">
+        <v>10</v>
+      </c>
+      <c r="K1204" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1205">
+        <v>46</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>704</v>
+      </c>
+      <c r="G1205" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1205" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1205">
+        <v>10</v>
+      </c>
+      <c r="K1205" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1206">
+        <v>47</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>704</v>
+      </c>
+      <c r="E1206" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G1206" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1206" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1206">
+        <v>10</v>
+      </c>
+      <c r="K1206" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FDAF47-20A0-4530-BC32-8EA9AEB8D1BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF58E124-D929-4122-9770-AC07ABF22219}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" activeTab="1" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" activeTab="2" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -22,17 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10687" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10761" uniqueCount="715">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -1657,9 +1652,6 @@
     <t>Hinal_save</t>
   </si>
   <si>
-    <t>Hinal_non_diapause</t>
-  </si>
-  <si>
     <t>Day9_weights_date</t>
   </si>
   <si>
@@ -2159,6 +2151,27 @@
   </si>
   <si>
     <t>14:25</t>
+  </si>
+  <si>
+    <t>Ferris road2</t>
+  </si>
+  <si>
+    <t>Hinal 20day respirationRT</t>
+  </si>
+  <si>
+    <t>Hinal_non_diapauseRT</t>
+  </si>
+  <si>
+    <t>OG1</t>
+  </si>
+  <si>
+    <t>OG3</t>
+  </si>
+  <si>
+    <t>MSUF&amp;W</t>
+  </si>
+  <si>
+    <t>Crab apples</t>
   </si>
 </sst>
 </file>
@@ -2742,8 +2755,8 @@
   <dimension ref="A1:AC306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106:XFD112"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2788,7 +2801,7 @@
         <v>496</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>52</v>
@@ -7117,7 +7130,7 @@
         <v>221</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
@@ -7155,7 +7168,7 @@
         <v>189</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J75" s="27" t="s">
         <v>75</v>
@@ -7180,7 +7193,7 @@
         <v>221</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
@@ -7218,7 +7231,7 @@
         <v>189</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J76" s="27" t="s">
         <v>75</v>
@@ -7243,7 +7256,7 @@
         <v>221</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
@@ -7306,7 +7319,7 @@
         <v>221</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
@@ -7369,7 +7382,7 @@
         <v>221</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
@@ -7432,7 +7445,7 @@
         <v>221</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
@@ -7495,7 +7508,7 @@
         <v>221</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
@@ -7558,7 +7571,7 @@
         <v>221</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
@@ -7618,10 +7631,10 @@
         <v>198</v>
       </c>
       <c r="Q82" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="R82" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="R82" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
@@ -7659,7 +7672,7 @@
         <v>189</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J83" s="27" t="s">
         <v>76</v>
@@ -7681,10 +7694,10 @@
         <v>198</v>
       </c>
       <c r="Q83" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="R83" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
@@ -7744,10 +7757,10 @@
         <v>198</v>
       </c>
       <c r="Q84" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="R84" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
@@ -7785,7 +7798,7 @@
         <v>189</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J85" s="27" t="s">
         <v>76</v>
@@ -7807,10 +7820,10 @@
         <v>198</v>
       </c>
       <c r="Q85" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="R85" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="R85" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
@@ -7870,10 +7883,10 @@
         <v>198</v>
       </c>
       <c r="Q86" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="R86" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
@@ -7911,7 +7924,7 @@
         <v>189</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J87" s="27" t="s">
         <v>76</v>
@@ -7933,10 +7946,10 @@
         <v>198</v>
       </c>
       <c r="Q87" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="R87" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
@@ -7996,10 +8009,10 @@
         <v>198</v>
       </c>
       <c r="Q88" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="R88" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
@@ -8059,10 +8072,10 @@
         <v>198</v>
       </c>
       <c r="Q89" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="R89" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="R89" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
@@ -8090,7 +8103,7 @@
         <v>88</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>70</v>
@@ -8122,10 +8135,10 @@
         <v>194</v>
       </c>
       <c r="Q90" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R90" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
@@ -8153,7 +8166,7 @@
         <v>88</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>70</v>
@@ -8163,7 +8176,7 @@
         <v>189</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J91" s="14" t="s">
         <v>77</v>
@@ -8185,10 +8198,10 @@
         <v>194</v>
       </c>
       <c r="Q91" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R91" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="R91" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
@@ -8248,10 +8261,10 @@
         <v>194</v>
       </c>
       <c r="Q92" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R92" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
@@ -8289,7 +8302,7 @@
         <v>189</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J93" s="14" t="s">
         <v>77</v>
@@ -8311,10 +8324,10 @@
         <v>194</v>
       </c>
       <c r="Q93" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R93" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
@@ -8352,7 +8365,7 @@
         <v>189</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J94" s="14" t="s">
         <v>77</v>
@@ -8374,10 +8387,10 @@
         <v>194</v>
       </c>
       <c r="Q94" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R94" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
@@ -8415,7 +8428,7 @@
         <v>189</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J95" s="14" t="s">
         <v>77</v>
@@ -8437,10 +8450,10 @@
         <v>194</v>
       </c>
       <c r="Q95" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R95" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
@@ -8500,10 +8513,10 @@
         <v>194</v>
       </c>
       <c r="Q96" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R96" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
@@ -8563,10 +8576,10 @@
         <v>194</v>
       </c>
       <c r="Q97" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="R97" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="R97" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
@@ -8594,7 +8607,7 @@
         <v>88</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>71</v>
@@ -8641,7 +8654,7 @@
         <v>88</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>71</v>
@@ -8856,10 +8869,10 @@
         <v>213</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
@@ -8903,10 +8916,10 @@
         <v>213</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.25">
@@ -8950,10 +8963,10 @@
         <v>213</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
@@ -8997,10 +9010,10 @@
         <v>221</v>
       </c>
       <c r="Q106" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="R106" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.25">
@@ -9044,10 +9057,10 @@
         <v>221</v>
       </c>
       <c r="Q107" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="R107" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="R107" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.25">
@@ -9091,10 +9104,10 @@
         <v>221</v>
       </c>
       <c r="Q108" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="R108" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
@@ -9138,10 +9151,10 @@
         <v>221</v>
       </c>
       <c r="Q109" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="R109" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="R109" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
@@ -9185,10 +9198,10 @@
         <v>221</v>
       </c>
       <c r="Q110" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="R110" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
@@ -9232,10 +9245,10 @@
         <v>221</v>
       </c>
       <c r="Q111" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="R111" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="R111" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
@@ -9279,10 +9292,10 @@
         <v>221</v>
       </c>
       <c r="Q112" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="R112" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="R112" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -9326,13 +9339,13 @@
         <v>221</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R113" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -9376,13 +9389,13 @@
         <v>221</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -9426,13 +9439,13 @@
         <v>221</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R115" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
@@ -9440,7 +9453,7 @@
         <v>195</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>61</v>
@@ -9476,13 +9489,13 @@
         <v>221</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R116" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -9526,13 +9539,13 @@
         <v>221</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="118" spans="1:18" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -9576,13 +9589,13 @@
         <v>221</v>
       </c>
       <c r="P118" s="60" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q118" s="60" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R118" s="60" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -9623,16 +9636,16 @@
         <v>194</v>
       </c>
       <c r="O119" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P119" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="P119" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="Q119" s="60" t="s">
+        <v>681</v>
+      </c>
+      <c r="R119" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="R119" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -9673,16 +9686,16 @@
         <v>194</v>
       </c>
       <c r="O120" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P120" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="P120" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="Q120" s="60" t="s">
+        <v>681</v>
+      </c>
+      <c r="R120" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="R120" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -9723,16 +9736,16 @@
         <v>194</v>
       </c>
       <c r="O121" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P121" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="P121" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="Q121" s="60" t="s">
+        <v>681</v>
+      </c>
+      <c r="R121" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="R121" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -9740,7 +9753,7 @@
         <v>195</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>61</v>
@@ -9773,16 +9786,16 @@
         <v>194</v>
       </c>
       <c r="O122" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P122" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="P122" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="Q122" s="60" t="s">
+        <v>681</v>
+      </c>
+      <c r="R122" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="R122" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="123" spans="1:18" s="61" customFormat="1" x14ac:dyDescent="0.25">
@@ -9823,16 +9836,16 @@
         <v>194</v>
       </c>
       <c r="O123" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="P123" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="P123" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="Q123" s="60" t="s">
+        <v>681</v>
+      </c>
+      <c r="R123" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="R123" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -9873,16 +9886,16 @@
         <v>213</v>
       </c>
       <c r="O124" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="P124" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="P124" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="Q124" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="R124" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="R124" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -9923,16 +9936,16 @@
         <v>213</v>
       </c>
       <c r="O125" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="P125" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="P125" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="Q125" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="R125" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="R125" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -9973,16 +9986,16 @@
         <v>213</v>
       </c>
       <c r="O126" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="P126" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="P126" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="Q126" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="R126" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="R126" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -9990,7 +10003,7 @@
         <v>195</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>61</v>
@@ -10023,16 +10036,16 @@
         <v>213</v>
       </c>
       <c r="O127" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="P127" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="P127" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="Q127" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="R127" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="R127" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -10073,16 +10086,16 @@
         <v>213</v>
       </c>
       <c r="O128" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="P128" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="P128" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="Q128" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="R128" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="R128" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="129" spans="10:18" x14ac:dyDescent="0.25">
@@ -12053,7 +12066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92725FB9-1A17-2546-9DFA-6C0D39437891}">
   <dimension ref="A1:AS1206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1062" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1206" sqref="M1206"/>
     </sheetView>
@@ -13185,7 +13198,7 @@
         <v>123</v>
       </c>
       <c r="AD34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AE34">
         <v>1</v>
@@ -25719,7 +25732,7 @@
         <v>377</v>
       </c>
       <c r="Z320" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AC320" t="s">
         <v>382</v>
@@ -35612,7 +35625,7 @@
         <v>88</v>
       </c>
       <c r="I630" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J630">
         <v>13</v>
@@ -35627,7 +35640,7 @@
         <v>85</v>
       </c>
       <c r="Z630" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="631" spans="1:29" x14ac:dyDescent="0.25">
@@ -35641,7 +35654,7 @@
         <v>88</v>
       </c>
       <c r="I631" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J631">
         <v>13</v>
@@ -35656,7 +35669,7 @@
         <v>85</v>
       </c>
       <c r="Z631" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="632" spans="1:29" x14ac:dyDescent="0.25">
@@ -35670,7 +35683,7 @@
         <v>88</v>
       </c>
       <c r="I632" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J632">
         <v>13</v>
@@ -35685,7 +35698,7 @@
         <v>85</v>
       </c>
       <c r="Z632" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="633" spans="1:29" x14ac:dyDescent="0.25">
@@ -35699,7 +35712,7 @@
         <v>88</v>
       </c>
       <c r="I633" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J633">
         <v>13</v>
@@ -35714,7 +35727,7 @@
         <v>85</v>
       </c>
       <c r="Z633" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="634" spans="1:29" x14ac:dyDescent="0.25">
@@ -35728,7 +35741,7 @@
         <v>88</v>
       </c>
       <c r="I634" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J634">
         <v>13</v>
@@ -35743,7 +35756,7 @@
         <v>85</v>
       </c>
       <c r="Z634" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="635" spans="1:29" x14ac:dyDescent="0.25">
@@ -35757,7 +35770,7 @@
         <v>88</v>
       </c>
       <c r="I635" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J635">
         <v>13</v>
@@ -35772,7 +35785,7 @@
         <v>85</v>
       </c>
       <c r="Z635" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="636" spans="1:29" x14ac:dyDescent="0.25">
@@ -35786,7 +35799,7 @@
         <v>88</v>
       </c>
       <c r="I636" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J636">
         <v>13</v>
@@ -35801,7 +35814,7 @@
         <v>85</v>
       </c>
       <c r="Z636" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="637" spans="1:29" x14ac:dyDescent="0.25">
@@ -35815,7 +35828,7 @@
         <v>88</v>
       </c>
       <c r="I637" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J637">
         <v>13</v>
@@ -35830,7 +35843,7 @@
         <v>85</v>
       </c>
       <c r="Z637" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="638" spans="1:29" x14ac:dyDescent="0.25">
@@ -35844,7 +35857,7 @@
         <v>88</v>
       </c>
       <c r="I638" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J638">
         <v>13</v>
@@ -35859,7 +35872,7 @@
         <v>85</v>
       </c>
       <c r="Z638" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="639" spans="1:29" x14ac:dyDescent="0.25">
@@ -35873,7 +35886,7 @@
         <v>88</v>
       </c>
       <c r="I639" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J639">
         <v>13</v>
@@ -35888,7 +35901,7 @@
         <v>85</v>
       </c>
       <c r="Z639" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="640" spans="1:29" x14ac:dyDescent="0.25">
@@ -35902,7 +35915,7 @@
         <v>88</v>
       </c>
       <c r="I640" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J640">
         <v>13</v>
@@ -35917,7 +35930,7 @@
         <v>85</v>
       </c>
       <c r="Z640" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="641" spans="1:26" x14ac:dyDescent="0.25">
@@ -35931,7 +35944,7 @@
         <v>88</v>
       </c>
       <c r="I641" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J641">
         <v>13</v>
@@ -35946,7 +35959,7 @@
         <v>85</v>
       </c>
       <c r="Z641" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="642" spans="1:26" x14ac:dyDescent="0.25">
@@ -35960,7 +35973,7 @@
         <v>88</v>
       </c>
       <c r="I642" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J642">
         <v>13</v>
@@ -35975,7 +35988,7 @@
         <v>85</v>
       </c>
       <c r="Z642" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="643" spans="1:26" x14ac:dyDescent="0.25">
@@ -35989,7 +36002,7 @@
         <v>88</v>
       </c>
       <c r="I643" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J643">
         <v>13</v>
@@ -36004,7 +36017,7 @@
         <v>85</v>
       </c>
       <c r="Z643" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="644" spans="1:26" x14ac:dyDescent="0.25">
@@ -36018,7 +36031,7 @@
         <v>88</v>
       </c>
       <c r="I644" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J644">
         <v>13</v>
@@ -36033,7 +36046,7 @@
         <v>85</v>
       </c>
       <c r="Z644" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="645" spans="1:26" x14ac:dyDescent="0.25">
@@ -36047,7 +36060,7 @@
         <v>88</v>
       </c>
       <c r="I645" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J645">
         <v>13</v>
@@ -36062,7 +36075,7 @@
         <v>85</v>
       </c>
       <c r="Z645" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="646" spans="1:26" x14ac:dyDescent="0.25">
@@ -36076,7 +36089,7 @@
         <v>88</v>
       </c>
       <c r="I646" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J646">
         <v>13</v>
@@ -36091,7 +36104,7 @@
         <v>85</v>
       </c>
       <c r="Z646" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="647" spans="1:26" x14ac:dyDescent="0.25">
@@ -36105,7 +36118,7 @@
         <v>88</v>
       </c>
       <c r="I647" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J647">
         <v>13</v>
@@ -36120,7 +36133,7 @@
         <v>85</v>
       </c>
       <c r="Z647" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="648" spans="1:26" x14ac:dyDescent="0.25">
@@ -36134,7 +36147,7 @@
         <v>88</v>
       </c>
       <c r="I648" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J648">
         <v>13</v>
@@ -36149,7 +36162,7 @@
         <v>85</v>
       </c>
       <c r="Z648" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="649" spans="1:26" x14ac:dyDescent="0.25">
@@ -36163,7 +36176,7 @@
         <v>88</v>
       </c>
       <c r="I649" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J649">
         <v>13</v>
@@ -36178,7 +36191,7 @@
         <v>85</v>
       </c>
       <c r="Z649" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="650" spans="1:26" x14ac:dyDescent="0.25">
@@ -36192,7 +36205,7 @@
         <v>88</v>
       </c>
       <c r="I650" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J650">
         <v>13</v>
@@ -36207,7 +36220,7 @@
         <v>85</v>
       </c>
       <c r="Z650" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="651" spans="1:26" x14ac:dyDescent="0.25">
@@ -36221,7 +36234,7 @@
         <v>88</v>
       </c>
       <c r="I651" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J651">
         <v>13</v>
@@ -36236,7 +36249,7 @@
         <v>85</v>
       </c>
       <c r="Z651" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="652" spans="1:26" x14ac:dyDescent="0.25">
@@ -36250,7 +36263,7 @@
         <v>88</v>
       </c>
       <c r="I652" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J652">
         <v>13</v>
@@ -36265,7 +36278,7 @@
         <v>85</v>
       </c>
       <c r="Z652" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="653" spans="1:26" x14ac:dyDescent="0.25">
@@ -36279,7 +36292,7 @@
         <v>88</v>
       </c>
       <c r="I653" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J653">
         <v>13</v>
@@ -36294,7 +36307,7 @@
         <v>85</v>
       </c>
       <c r="Z653" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="654" spans="1:26" x14ac:dyDescent="0.25">
@@ -36308,7 +36321,7 @@
         <v>88</v>
       </c>
       <c r="I654" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J654">
         <v>13</v>
@@ -36323,7 +36336,7 @@
         <v>85</v>
       </c>
       <c r="Z654" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="655" spans="1:26" x14ac:dyDescent="0.25">
@@ -36337,7 +36350,7 @@
         <v>88</v>
       </c>
       <c r="I655" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J655">
         <v>13</v>
@@ -36352,7 +36365,7 @@
         <v>85</v>
       </c>
       <c r="Z655" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="656" spans="1:26" x14ac:dyDescent="0.25">
@@ -36366,7 +36379,7 @@
         <v>88</v>
       </c>
       <c r="I656" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J656">
         <v>13</v>
@@ -36381,7 +36394,7 @@
         <v>85</v>
       </c>
       <c r="Z656" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="657" spans="1:29" x14ac:dyDescent="0.25">
@@ -36395,7 +36408,7 @@
         <v>88</v>
       </c>
       <c r="I657" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J657">
         <v>13</v>
@@ -36410,7 +36423,7 @@
         <v>85</v>
       </c>
       <c r="Z657" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="658" spans="1:29" x14ac:dyDescent="0.25">
@@ -36424,7 +36437,7 @@
         <v>88</v>
       </c>
       <c r="I658" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J658">
         <v>13</v>
@@ -36439,7 +36452,7 @@
         <v>85</v>
       </c>
       <c r="Z658" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="659" spans="1:29" x14ac:dyDescent="0.25">
@@ -36453,7 +36466,7 @@
         <v>88</v>
       </c>
       <c r="I659" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J659">
         <v>13</v>
@@ -36468,7 +36481,7 @@
         <v>85</v>
       </c>
       <c r="Z659" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="660" spans="1:29" x14ac:dyDescent="0.25">
@@ -36482,7 +36495,7 @@
         <v>88</v>
       </c>
       <c r="I660" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J660">
         <v>13</v>
@@ -36515,7 +36528,7 @@
         <v>88</v>
       </c>
       <c r="I661" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J661">
         <v>13</v>
@@ -36548,7 +36561,7 @@
         <v>88</v>
       </c>
       <c r="I662" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J662">
         <v>13</v>
@@ -36581,7 +36594,7 @@
         <v>88</v>
       </c>
       <c r="I663" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J663">
         <v>13</v>
@@ -36614,7 +36627,7 @@
         <v>88</v>
       </c>
       <c r="I664" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J664">
         <v>13</v>
@@ -36647,7 +36660,7 @@
         <v>88</v>
       </c>
       <c r="I665" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J665">
         <v>13</v>
@@ -36680,7 +36693,7 @@
         <v>88</v>
       </c>
       <c r="I666" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J666">
         <v>13</v>
@@ -36713,7 +36726,7 @@
         <v>88</v>
       </c>
       <c r="I667" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J667">
         <v>13</v>
@@ -36746,7 +36759,7 @@
         <v>88</v>
       </c>
       <c r="I668" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J668">
         <v>13</v>
@@ -36779,7 +36792,7 @@
         <v>88</v>
       </c>
       <c r="I669" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J669">
         <v>13</v>
@@ -36812,7 +36825,7 @@
         <v>88</v>
       </c>
       <c r="I670" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J670">
         <v>13</v>
@@ -36845,7 +36858,7 @@
         <v>88</v>
       </c>
       <c r="I671" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J671">
         <v>13</v>
@@ -36878,7 +36891,7 @@
         <v>88</v>
       </c>
       <c r="I672" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J672">
         <v>13</v>
@@ -36911,7 +36924,7 @@
         <v>88</v>
       </c>
       <c r="I673" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J673">
         <v>13</v>
@@ -36944,7 +36957,7 @@
         <v>88</v>
       </c>
       <c r="I674" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J674">
         <v>13</v>
@@ -36977,7 +36990,7 @@
         <v>88</v>
       </c>
       <c r="I675" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J675">
         <v>13</v>
@@ -37010,7 +37023,7 @@
         <v>88</v>
       </c>
       <c r="I676" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J676">
         <v>13</v>
@@ -37043,7 +37056,7 @@
         <v>88</v>
       </c>
       <c r="I677" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J677">
         <v>13</v>
@@ -37076,7 +37089,7 @@
         <v>88</v>
       </c>
       <c r="I678" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J678">
         <v>13</v>
@@ -37109,7 +37122,7 @@
         <v>88</v>
       </c>
       <c r="I679" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J679">
         <v>13</v>
@@ -37142,7 +37155,7 @@
         <v>88</v>
       </c>
       <c r="I680" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J680">
         <v>13</v>
@@ -37175,7 +37188,7 @@
         <v>88</v>
       </c>
       <c r="I681" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J681">
         <v>13</v>
@@ -37208,7 +37221,7 @@
         <v>88</v>
       </c>
       <c r="I682" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J682">
         <v>13</v>
@@ -37241,7 +37254,7 @@
         <v>88</v>
       </c>
       <c r="I683" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J683">
         <v>13</v>
@@ -37274,7 +37287,7 @@
         <v>88</v>
       </c>
       <c r="I684" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J684">
         <v>13</v>
@@ -37307,7 +37320,7 @@
         <v>88</v>
       </c>
       <c r="I685" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J685">
         <v>13</v>
@@ -37340,7 +37353,7 @@
         <v>88</v>
       </c>
       <c r="I686" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J686">
         <v>13</v>
@@ -37373,7 +37386,7 @@
         <v>88</v>
       </c>
       <c r="I687" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J687">
         <v>13</v>
@@ -37406,7 +37419,7 @@
         <v>88</v>
       </c>
       <c r="I688" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J688">
         <v>13</v>
@@ -37439,7 +37452,7 @@
         <v>88</v>
       </c>
       <c r="I689" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J689">
         <v>13</v>
@@ -37472,7 +37485,7 @@
         <v>88</v>
       </c>
       <c r="I690" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J690">
         <v>13</v>
@@ -37505,7 +37518,7 @@
         <v>88</v>
       </c>
       <c r="I691" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J691">
         <v>13</v>
@@ -37538,7 +37551,7 @@
         <v>88</v>
       </c>
       <c r="I692" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J692">
         <v>13</v>
@@ -37571,7 +37584,7 @@
         <v>88</v>
       </c>
       <c r="I693" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J693">
         <v>13</v>
@@ -37604,7 +37617,7 @@
         <v>88</v>
       </c>
       <c r="I694" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J694">
         <v>13</v>
@@ -37637,7 +37650,7 @@
         <v>88</v>
       </c>
       <c r="I695" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J695">
         <v>13</v>
@@ -37670,7 +37683,7 @@
         <v>88</v>
       </c>
       <c r="I696" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J696">
         <v>13</v>
@@ -37703,7 +37716,7 @@
         <v>88</v>
       </c>
       <c r="I697" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J697">
         <v>13</v>
@@ -37736,7 +37749,7 @@
         <v>88</v>
       </c>
       <c r="I698" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J698">
         <v>13</v>
@@ -37769,7 +37782,7 @@
         <v>88</v>
       </c>
       <c r="I699" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J699">
         <v>13</v>
@@ -37802,7 +37815,7 @@
         <v>88</v>
       </c>
       <c r="I700" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J700">
         <v>13</v>
@@ -37835,7 +37848,7 @@
         <v>88</v>
       </c>
       <c r="I701" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J701">
         <v>13</v>
@@ -37868,7 +37881,7 @@
         <v>88</v>
       </c>
       <c r="I702" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J702">
         <v>13</v>
@@ -37901,7 +37914,7 @@
         <v>88</v>
       </c>
       <c r="I703" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J703">
         <v>13</v>
@@ -37934,7 +37947,7 @@
         <v>88</v>
       </c>
       <c r="I704" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J704">
         <v>13</v>
@@ -37967,7 +37980,7 @@
         <v>88</v>
       </c>
       <c r="I705" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J705">
         <v>13</v>
@@ -38000,7 +38013,7 @@
         <v>88</v>
       </c>
       <c r="I706" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J706">
         <v>13</v>
@@ -38033,7 +38046,7 @@
         <v>88</v>
       </c>
       <c r="I707" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J707">
         <v>13</v>
@@ -38066,7 +38079,7 @@
         <v>88</v>
       </c>
       <c r="I708" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J708">
         <v>13</v>
@@ -38099,7 +38112,7 @@
         <v>88</v>
       </c>
       <c r="I709" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J709">
         <v>13</v>
@@ -38132,7 +38145,7 @@
         <v>88</v>
       </c>
       <c r="I710" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J710">
         <v>13</v>
@@ -38165,7 +38178,7 @@
         <v>88</v>
       </c>
       <c r="I711" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J711">
         <v>13</v>
@@ -38198,7 +38211,7 @@
         <v>88</v>
       </c>
       <c r="I712" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J712">
         <v>13</v>
@@ -38231,7 +38244,7 @@
         <v>88</v>
       </c>
       <c r="I713" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J713">
         <v>13</v>
@@ -38264,7 +38277,7 @@
         <v>88</v>
       </c>
       <c r="I714" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J714">
         <v>13</v>
@@ -38297,7 +38310,7 @@
         <v>88</v>
       </c>
       <c r="I715" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J715">
         <v>13</v>
@@ -38330,7 +38343,7 @@
         <v>88</v>
       </c>
       <c r="I716" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J716">
         <v>13</v>
@@ -38363,7 +38376,7 @@
         <v>88</v>
       </c>
       <c r="I717" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J717">
         <v>13</v>
@@ -38396,7 +38409,7 @@
         <v>88</v>
       </c>
       <c r="I718" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J718">
         <v>13</v>
@@ -38429,7 +38442,7 @@
         <v>88</v>
       </c>
       <c r="I719" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J719">
         <v>13</v>
@@ -38477,7 +38490,7 @@
         <v>85</v>
       </c>
       <c r="Z720" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="721" spans="1:26" x14ac:dyDescent="0.25">
@@ -38506,7 +38519,7 @@
         <v>85</v>
       </c>
       <c r="Z721" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="722" spans="1:26" x14ac:dyDescent="0.25">
@@ -38535,7 +38548,7 @@
         <v>85</v>
       </c>
       <c r="Z722" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="723" spans="1:26" x14ac:dyDescent="0.25">
@@ -38564,7 +38577,7 @@
         <v>85</v>
       </c>
       <c r="Z723" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="724" spans="1:26" x14ac:dyDescent="0.25">
@@ -38593,7 +38606,7 @@
         <v>85</v>
       </c>
       <c r="Z724" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="725" spans="1:26" x14ac:dyDescent="0.25">
@@ -38622,7 +38635,7 @@
         <v>85</v>
       </c>
       <c r="Z725" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="726" spans="1:26" x14ac:dyDescent="0.25">
@@ -38651,7 +38664,7 @@
         <v>85</v>
       </c>
       <c r="Z726" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="727" spans="1:26" x14ac:dyDescent="0.25">
@@ -38680,7 +38693,7 @@
         <v>85</v>
       </c>
       <c r="Z727" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="728" spans="1:26" x14ac:dyDescent="0.25">
@@ -38709,7 +38722,7 @@
         <v>85</v>
       </c>
       <c r="Z728" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="729" spans="1:26" x14ac:dyDescent="0.25">
@@ -38738,7 +38751,7 @@
         <v>85</v>
       </c>
       <c r="Z729" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="730" spans="1:26" x14ac:dyDescent="0.25">
@@ -38767,7 +38780,7 @@
         <v>85</v>
       </c>
       <c r="Z730" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="731" spans="1:26" x14ac:dyDescent="0.25">
@@ -38796,7 +38809,7 @@
         <v>85</v>
       </c>
       <c r="Z731" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="732" spans="1:26" x14ac:dyDescent="0.25">
@@ -38825,7 +38838,7 @@
         <v>85</v>
       </c>
       <c r="Z732" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="733" spans="1:26" x14ac:dyDescent="0.25">
@@ -38854,7 +38867,7 @@
         <v>85</v>
       </c>
       <c r="Z733" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="734" spans="1:26" x14ac:dyDescent="0.25">
@@ -38883,7 +38896,7 @@
         <v>85</v>
       </c>
       <c r="Z734" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="735" spans="1:26" x14ac:dyDescent="0.25">
@@ -38912,7 +38925,7 @@
         <v>85</v>
       </c>
       <c r="Z735" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="736" spans="1:26" x14ac:dyDescent="0.25">
@@ -38941,7 +38954,7 @@
         <v>85</v>
       </c>
       <c r="Z736" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="737" spans="1:29" x14ac:dyDescent="0.25">
@@ -38970,7 +38983,7 @@
         <v>85</v>
       </c>
       <c r="Z737" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="738" spans="1:29" x14ac:dyDescent="0.25">
@@ -38999,7 +39012,7 @@
         <v>85</v>
       </c>
       <c r="Z738" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="739" spans="1:29" x14ac:dyDescent="0.25">
@@ -39028,7 +39041,7 @@
         <v>85</v>
       </c>
       <c r="Z739" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="740" spans="1:29" x14ac:dyDescent="0.25">
@@ -39057,7 +39070,7 @@
         <v>85</v>
       </c>
       <c r="Z740" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="741" spans="1:29" x14ac:dyDescent="0.25">
@@ -39086,7 +39099,7 @@
         <v>85</v>
       </c>
       <c r="Z741" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="742" spans="1:29" x14ac:dyDescent="0.25">
@@ -39115,7 +39128,7 @@
         <v>85</v>
       </c>
       <c r="Z742" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="743" spans="1:29" x14ac:dyDescent="0.25">
@@ -39144,7 +39157,7 @@
         <v>85</v>
       </c>
       <c r="Z743" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="744" spans="1:29" x14ac:dyDescent="0.25">
@@ -39173,7 +39186,7 @@
         <v>85</v>
       </c>
       <c r="Z744" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="745" spans="1:29" x14ac:dyDescent="0.25">
@@ -39202,7 +39215,7 @@
         <v>85</v>
       </c>
       <c r="Z745" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="746" spans="1:29" x14ac:dyDescent="0.25">
@@ -39231,7 +39244,7 @@
         <v>85</v>
       </c>
       <c r="Z746" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="747" spans="1:29" x14ac:dyDescent="0.25">
@@ -39260,7 +39273,7 @@
         <v>85</v>
       </c>
       <c r="Z747" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="748" spans="1:29" x14ac:dyDescent="0.25">
@@ -39289,7 +39302,7 @@
         <v>85</v>
       </c>
       <c r="Z748" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="749" spans="1:29" x14ac:dyDescent="0.25">
@@ -39318,7 +39331,7 @@
         <v>85</v>
       </c>
       <c r="Z749" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="750" spans="1:29" x14ac:dyDescent="0.25">
@@ -41312,7 +41325,7 @@
         <v>88</v>
       </c>
       <c r="I810" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J810">
         <v>15</v>
@@ -41327,7 +41340,7 @@
         <v>85</v>
       </c>
       <c r="Z810" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="811" spans="1:29" x14ac:dyDescent="0.25">
@@ -41341,7 +41354,7 @@
         <v>88</v>
       </c>
       <c r="I811" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J811">
         <v>15</v>
@@ -41356,7 +41369,7 @@
         <v>85</v>
       </c>
       <c r="Z811" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="812" spans="1:29" x14ac:dyDescent="0.25">
@@ -41370,7 +41383,7 @@
         <v>88</v>
       </c>
       <c r="I812" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J812">
         <v>15</v>
@@ -41385,7 +41398,7 @@
         <v>85</v>
       </c>
       <c r="Z812" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="813" spans="1:29" x14ac:dyDescent="0.25">
@@ -41399,7 +41412,7 @@
         <v>88</v>
       </c>
       <c r="I813" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J813">
         <v>15</v>
@@ -41414,7 +41427,7 @@
         <v>85</v>
       </c>
       <c r="Z813" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="814" spans="1:29" x14ac:dyDescent="0.25">
@@ -41428,7 +41441,7 @@
         <v>88</v>
       </c>
       <c r="I814" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J814">
         <v>15</v>
@@ -41443,7 +41456,7 @@
         <v>85</v>
       </c>
       <c r="Z814" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="815" spans="1:29" x14ac:dyDescent="0.25">
@@ -41457,7 +41470,7 @@
         <v>88</v>
       </c>
       <c r="I815" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J815">
         <v>15</v>
@@ -41472,7 +41485,7 @@
         <v>85</v>
       </c>
       <c r="Z815" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="816" spans="1:29" x14ac:dyDescent="0.25">
@@ -41486,7 +41499,7 @@
         <v>88</v>
       </c>
       <c r="I816" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J816">
         <v>15</v>
@@ -41501,7 +41514,7 @@
         <v>85</v>
       </c>
       <c r="Z816" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="817" spans="1:26" x14ac:dyDescent="0.25">
@@ -41515,7 +41528,7 @@
         <v>88</v>
       </c>
       <c r="I817" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J817">
         <v>15</v>
@@ -41530,7 +41543,7 @@
         <v>85</v>
       </c>
       <c r="Z817" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="818" spans="1:26" x14ac:dyDescent="0.25">
@@ -41544,7 +41557,7 @@
         <v>88</v>
       </c>
       <c r="I818" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J818">
         <v>15</v>
@@ -41559,7 +41572,7 @@
         <v>85</v>
       </c>
       <c r="Z818" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="819" spans="1:26" x14ac:dyDescent="0.25">
@@ -41573,7 +41586,7 @@
         <v>88</v>
       </c>
       <c r="I819" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J819">
         <v>15</v>
@@ -41588,7 +41601,7 @@
         <v>85</v>
       </c>
       <c r="Z819" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="820" spans="1:26" x14ac:dyDescent="0.25">
@@ -41602,7 +41615,7 @@
         <v>88</v>
       </c>
       <c r="I820" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J820">
         <v>15</v>
@@ -41617,7 +41630,7 @@
         <v>85</v>
       </c>
       <c r="Z820" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="821" spans="1:26" x14ac:dyDescent="0.25">
@@ -41631,7 +41644,7 @@
         <v>88</v>
       </c>
       <c r="I821" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J821">
         <v>15</v>
@@ -41646,7 +41659,7 @@
         <v>85</v>
       </c>
       <c r="Z821" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="822" spans="1:26" x14ac:dyDescent="0.25">
@@ -41660,7 +41673,7 @@
         <v>88</v>
       </c>
       <c r="I822" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J822">
         <v>15</v>
@@ -41675,7 +41688,7 @@
         <v>85</v>
       </c>
       <c r="Z822" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="823" spans="1:26" x14ac:dyDescent="0.25">
@@ -41689,7 +41702,7 @@
         <v>88</v>
       </c>
       <c r="I823" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J823">
         <v>15</v>
@@ -41704,7 +41717,7 @@
         <v>85</v>
       </c>
       <c r="Z823" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="824" spans="1:26" x14ac:dyDescent="0.25">
@@ -41718,7 +41731,7 @@
         <v>88</v>
       </c>
       <c r="I824" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J824">
         <v>15</v>
@@ -41733,7 +41746,7 @@
         <v>85</v>
       </c>
       <c r="Z824" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="825" spans="1:26" x14ac:dyDescent="0.25">
@@ -41747,7 +41760,7 @@
         <v>88</v>
       </c>
       <c r="I825" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J825">
         <v>15</v>
@@ -41762,7 +41775,7 @@
         <v>85</v>
       </c>
       <c r="Z825" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="826" spans="1:26" x14ac:dyDescent="0.25">
@@ -41776,7 +41789,7 @@
         <v>88</v>
       </c>
       <c r="I826" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J826">
         <v>15</v>
@@ -41791,7 +41804,7 @@
         <v>85</v>
       </c>
       <c r="Z826" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="827" spans="1:26" x14ac:dyDescent="0.25">
@@ -41805,7 +41818,7 @@
         <v>88</v>
       </c>
       <c r="I827" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J827">
         <v>15</v>
@@ -41820,7 +41833,7 @@
         <v>85</v>
       </c>
       <c r="Z827" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="828" spans="1:26" x14ac:dyDescent="0.25">
@@ -41834,7 +41847,7 @@
         <v>88</v>
       </c>
       <c r="I828" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J828">
         <v>15</v>
@@ -41849,7 +41862,7 @@
         <v>85</v>
       </c>
       <c r="Z828" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="829" spans="1:26" x14ac:dyDescent="0.25">
@@ -41863,7 +41876,7 @@
         <v>88</v>
       </c>
       <c r="I829" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J829">
         <v>15</v>
@@ -41878,7 +41891,7 @@
         <v>85</v>
       </c>
       <c r="Z829" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="830" spans="1:26" x14ac:dyDescent="0.25">
@@ -41892,7 +41905,7 @@
         <v>88</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J830">
         <v>15</v>
@@ -41907,7 +41920,7 @@
         <v>85</v>
       </c>
       <c r="Z830" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="831" spans="1:26" x14ac:dyDescent="0.25">
@@ -41921,7 +41934,7 @@
         <v>88</v>
       </c>
       <c r="I831" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J831">
         <v>15</v>
@@ -41936,7 +41949,7 @@
         <v>85</v>
       </c>
       <c r="Z831" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="832" spans="1:26" x14ac:dyDescent="0.25">
@@ -41950,7 +41963,7 @@
         <v>88</v>
       </c>
       <c r="I832" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J832">
         <v>15</v>
@@ -41965,7 +41978,7 @@
         <v>85</v>
       </c>
       <c r="Z832" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="833" spans="1:29" x14ac:dyDescent="0.25">
@@ -41979,7 +41992,7 @@
         <v>88</v>
       </c>
       <c r="I833" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J833">
         <v>15</v>
@@ -41994,7 +42007,7 @@
         <v>85</v>
       </c>
       <c r="Z833" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="834" spans="1:29" x14ac:dyDescent="0.25">
@@ -42008,7 +42021,7 @@
         <v>88</v>
       </c>
       <c r="I834" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J834">
         <v>15</v>
@@ -42023,7 +42036,7 @@
         <v>85</v>
       </c>
       <c r="Z834" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="835" spans="1:29" x14ac:dyDescent="0.25">
@@ -42037,7 +42050,7 @@
         <v>88</v>
       </c>
       <c r="I835" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J835">
         <v>15</v>
@@ -42052,7 +42065,7 @@
         <v>85</v>
       </c>
       <c r="Z835" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="836" spans="1:29" x14ac:dyDescent="0.25">
@@ -42066,7 +42079,7 @@
         <v>88</v>
       </c>
       <c r="I836" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J836">
         <v>15</v>
@@ -42081,7 +42094,7 @@
         <v>85</v>
       </c>
       <c r="Z836" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="837" spans="1:29" x14ac:dyDescent="0.25">
@@ -42095,7 +42108,7 @@
         <v>88</v>
       </c>
       <c r="I837" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J837">
         <v>15</v>
@@ -42110,7 +42123,7 @@
         <v>85</v>
       </c>
       <c r="Z837" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="838" spans="1:29" x14ac:dyDescent="0.25">
@@ -42124,7 +42137,7 @@
         <v>88</v>
       </c>
       <c r="I838" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J838">
         <v>15</v>
@@ -42139,7 +42152,7 @@
         <v>85</v>
       </c>
       <c r="Z838" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="839" spans="1:29" x14ac:dyDescent="0.25">
@@ -42153,7 +42166,7 @@
         <v>88</v>
       </c>
       <c r="I839" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J839">
         <v>15</v>
@@ -42168,7 +42181,7 @@
         <v>85</v>
       </c>
       <c r="Z839" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="840" spans="1:29" x14ac:dyDescent="0.25">
@@ -42182,7 +42195,7 @@
         <v>88</v>
       </c>
       <c r="I840" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J840">
         <v>15</v>
@@ -42215,7 +42228,7 @@
         <v>88</v>
       </c>
       <c r="I841" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J841">
         <v>15</v>
@@ -42248,7 +42261,7 @@
         <v>88</v>
       </c>
       <c r="I842" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J842">
         <v>15</v>
@@ -42281,7 +42294,7 @@
         <v>88</v>
       </c>
       <c r="I843" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J843">
         <v>15</v>
@@ -42314,7 +42327,7 @@
         <v>88</v>
       </c>
       <c r="I844" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J844">
         <v>15</v>
@@ -42347,7 +42360,7 @@
         <v>88</v>
       </c>
       <c r="I845" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J845">
         <v>15</v>
@@ -42380,7 +42393,7 @@
         <v>88</v>
       </c>
       <c r="I846" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J846">
         <v>15</v>
@@ -42413,7 +42426,7 @@
         <v>88</v>
       </c>
       <c r="I847" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J847">
         <v>15</v>
@@ -42446,7 +42459,7 @@
         <v>88</v>
       </c>
       <c r="I848" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J848">
         <v>15</v>
@@ -42479,7 +42492,7 @@
         <v>88</v>
       </c>
       <c r="I849" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J849">
         <v>15</v>
@@ -42512,7 +42525,7 @@
         <v>88</v>
       </c>
       <c r="I850" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J850">
         <v>15</v>
@@ -42545,7 +42558,7 @@
         <v>88</v>
       </c>
       <c r="I851" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J851">
         <v>15</v>
@@ -42578,7 +42591,7 @@
         <v>88</v>
       </c>
       <c r="I852" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J852">
         <v>15</v>
@@ -42611,7 +42624,7 @@
         <v>88</v>
       </c>
       <c r="I853" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J853">
         <v>15</v>
@@ -42644,7 +42657,7 @@
         <v>88</v>
       </c>
       <c r="I854" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J854">
         <v>15</v>
@@ -42677,7 +42690,7 @@
         <v>88</v>
       </c>
       <c r="I855" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J855">
         <v>15</v>
@@ -42710,7 +42723,7 @@
         <v>88</v>
       </c>
       <c r="I856" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J856">
         <v>15</v>
@@ -42743,7 +42756,7 @@
         <v>88</v>
       </c>
       <c r="I857" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J857">
         <v>15</v>
@@ -42776,7 +42789,7 @@
         <v>88</v>
       </c>
       <c r="I858" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J858">
         <v>15</v>
@@ -42809,7 +42822,7 @@
         <v>88</v>
       </c>
       <c r="I859" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J859">
         <v>15</v>
@@ -42842,7 +42855,7 @@
         <v>88</v>
       </c>
       <c r="I860" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J860">
         <v>15</v>
@@ -42875,7 +42888,7 @@
         <v>88</v>
       </c>
       <c r="I861" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J861">
         <v>15</v>
@@ -42908,7 +42921,7 @@
         <v>88</v>
       </c>
       <c r="I862" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J862">
         <v>15</v>
@@ -42941,7 +42954,7 @@
         <v>88</v>
       </c>
       <c r="I863" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J863">
         <v>15</v>
@@ -42974,7 +42987,7 @@
         <v>88</v>
       </c>
       <c r="I864" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J864">
         <v>15</v>
@@ -43007,7 +43020,7 @@
         <v>88</v>
       </c>
       <c r="I865" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J865">
         <v>15</v>
@@ -43040,7 +43053,7 @@
         <v>88</v>
       </c>
       <c r="I866" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J866">
         <v>15</v>
@@ -43073,7 +43086,7 @@
         <v>88</v>
       </c>
       <c r="I867" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J867">
         <v>15</v>
@@ -43106,7 +43119,7 @@
         <v>88</v>
       </c>
       <c r="I868" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J868">
         <v>15</v>
@@ -43139,7 +43152,7 @@
         <v>88</v>
       </c>
       <c r="I869" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J869">
         <v>15</v>
@@ -43172,7 +43185,7 @@
         <v>88</v>
       </c>
       <c r="I870" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J870">
         <v>15</v>
@@ -43205,7 +43218,7 @@
         <v>88</v>
       </c>
       <c r="I871" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J871">
         <v>15</v>
@@ -43238,7 +43251,7 @@
         <v>88</v>
       </c>
       <c r="I872" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J872">
         <v>15</v>
@@ -43271,7 +43284,7 @@
         <v>88</v>
       </c>
       <c r="I873" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J873">
         <v>15</v>
@@ -43304,7 +43317,7 @@
         <v>88</v>
       </c>
       <c r="I874" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J874">
         <v>15</v>
@@ -43337,7 +43350,7 @@
         <v>88</v>
       </c>
       <c r="I875" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J875">
         <v>15</v>
@@ -43370,7 +43383,7 @@
         <v>88</v>
       </c>
       <c r="I876" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J876">
         <v>15</v>
@@ -43403,7 +43416,7 @@
         <v>88</v>
       </c>
       <c r="I877" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J877">
         <v>15</v>
@@ -43436,7 +43449,7 @@
         <v>88</v>
       </c>
       <c r="I878" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J878">
         <v>15</v>
@@ -43469,7 +43482,7 @@
         <v>88</v>
       </c>
       <c r="I879" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J879">
         <v>15</v>
@@ -43502,7 +43515,7 @@
         <v>88</v>
       </c>
       <c r="I880" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J880">
         <v>15</v>
@@ -43535,7 +43548,7 @@
         <v>88</v>
       </c>
       <c r="I881" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J881">
         <v>15</v>
@@ -43568,7 +43581,7 @@
         <v>88</v>
       </c>
       <c r="I882" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J882">
         <v>15</v>
@@ -43601,7 +43614,7 @@
         <v>88</v>
       </c>
       <c r="I883" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J883">
         <v>15</v>
@@ -43634,7 +43647,7 @@
         <v>88</v>
       </c>
       <c r="I884" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J884">
         <v>15</v>
@@ -43667,7 +43680,7 @@
         <v>88</v>
       </c>
       <c r="I885" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J885">
         <v>15</v>
@@ -43700,7 +43713,7 @@
         <v>88</v>
       </c>
       <c r="I886" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J886">
         <v>15</v>
@@ -43733,7 +43746,7 @@
         <v>88</v>
       </c>
       <c r="I887" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J887">
         <v>15</v>
@@ -43766,7 +43779,7 @@
         <v>88</v>
       </c>
       <c r="I888" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J888">
         <v>15</v>
@@ -43799,7 +43812,7 @@
         <v>88</v>
       </c>
       <c r="I889" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J889">
         <v>15</v>
@@ -43832,7 +43845,7 @@
         <v>88</v>
       </c>
       <c r="I890" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J890">
         <v>15</v>
@@ -43865,7 +43878,7 @@
         <v>88</v>
       </c>
       <c r="I891" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J891">
         <v>15</v>
@@ -43898,7 +43911,7 @@
         <v>88</v>
       </c>
       <c r="I892" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J892">
         <v>15</v>
@@ -43931,7 +43944,7 @@
         <v>88</v>
       </c>
       <c r="I893" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J893">
         <v>15</v>
@@ -43964,7 +43977,7 @@
         <v>88</v>
       </c>
       <c r="I894" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J894">
         <v>15</v>
@@ -43997,7 +44010,7 @@
         <v>88</v>
       </c>
       <c r="I895" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J895">
         <v>15</v>
@@ -44030,7 +44043,7 @@
         <v>88</v>
       </c>
       <c r="I896" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J896">
         <v>15</v>
@@ -44063,7 +44076,7 @@
         <v>88</v>
       </c>
       <c r="I897" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J897">
         <v>15</v>
@@ -44096,7 +44109,7 @@
         <v>88</v>
       </c>
       <c r="I898" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J898">
         <v>15</v>
@@ -44129,7 +44142,7 @@
         <v>88</v>
       </c>
       <c r="I899" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J899">
         <v>15</v>
@@ -44176,7 +44189,7 @@
         <v>85</v>
       </c>
       <c r="Z900" s="57" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="901" spans="1:29" x14ac:dyDescent="0.25">
@@ -44202,7 +44215,7 @@
         <v>85</v>
       </c>
       <c r="Z901" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="902" spans="1:29" x14ac:dyDescent="0.25">
@@ -44228,7 +44241,7 @@
         <v>85</v>
       </c>
       <c r="Z902" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="903" spans="1:29" x14ac:dyDescent="0.25">
@@ -44254,7 +44267,7 @@
         <v>85</v>
       </c>
       <c r="Z903" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="904" spans="1:29" x14ac:dyDescent="0.25">
@@ -44280,7 +44293,7 @@
         <v>85</v>
       </c>
       <c r="Z904" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="905" spans="1:29" x14ac:dyDescent="0.25">
@@ -44306,7 +44319,7 @@
         <v>85</v>
       </c>
       <c r="Z905" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="906" spans="1:29" x14ac:dyDescent="0.25">
@@ -44332,7 +44345,7 @@
         <v>85</v>
       </c>
       <c r="Z906" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="907" spans="1:29" x14ac:dyDescent="0.25">
@@ -44358,7 +44371,7 @@
         <v>85</v>
       </c>
       <c r="Z907" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="908" spans="1:29" x14ac:dyDescent="0.25">
@@ -44384,7 +44397,7 @@
         <v>85</v>
       </c>
       <c r="Z908" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="909" spans="1:29" x14ac:dyDescent="0.25">
@@ -44410,7 +44423,7 @@
         <v>85</v>
       </c>
       <c r="Z909" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="910" spans="1:29" x14ac:dyDescent="0.25">
@@ -44436,7 +44449,7 @@
         <v>85</v>
       </c>
       <c r="Z910" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="911" spans="1:29" x14ac:dyDescent="0.25">
@@ -44462,7 +44475,7 @@
         <v>85</v>
       </c>
       <c r="Z911" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="912" spans="1:29" x14ac:dyDescent="0.25">
@@ -44488,7 +44501,7 @@
         <v>85</v>
       </c>
       <c r="Z912" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="913" spans="1:26" x14ac:dyDescent="0.25">
@@ -44514,7 +44527,7 @@
         <v>85</v>
       </c>
       <c r="Z913" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="914" spans="1:26" x14ac:dyDescent="0.25">
@@ -44540,7 +44553,7 @@
         <v>85</v>
       </c>
       <c r="Z914" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="915" spans="1:26" x14ac:dyDescent="0.25">
@@ -44566,7 +44579,7 @@
         <v>85</v>
       </c>
       <c r="Z915" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="916" spans="1:26" x14ac:dyDescent="0.25">
@@ -44592,7 +44605,7 @@
         <v>85</v>
       </c>
       <c r="Z916" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="917" spans="1:26" x14ac:dyDescent="0.25">
@@ -44618,7 +44631,7 @@
         <v>85</v>
       </c>
       <c r="Z917" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="918" spans="1:26" x14ac:dyDescent="0.25">
@@ -44644,7 +44657,7 @@
         <v>85</v>
       </c>
       <c r="Z918" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="919" spans="1:26" x14ac:dyDescent="0.25">
@@ -44670,7 +44683,7 @@
         <v>85</v>
       </c>
       <c r="Z919" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="920" spans="1:26" x14ac:dyDescent="0.25">
@@ -44696,7 +44709,7 @@
         <v>85</v>
       </c>
       <c r="Z920" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="921" spans="1:26" x14ac:dyDescent="0.25">
@@ -44722,7 +44735,7 @@
         <v>85</v>
       </c>
       <c r="Z921" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="922" spans="1:26" x14ac:dyDescent="0.25">
@@ -44748,7 +44761,7 @@
         <v>85</v>
       </c>
       <c r="Z922" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="923" spans="1:26" x14ac:dyDescent="0.25">
@@ -44774,7 +44787,7 @@
         <v>85</v>
       </c>
       <c r="Z923" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="924" spans="1:26" x14ac:dyDescent="0.25">
@@ -44800,7 +44813,7 @@
         <v>85</v>
       </c>
       <c r="Z924" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="925" spans="1:26" x14ac:dyDescent="0.25">
@@ -44826,7 +44839,7 @@
         <v>85</v>
       </c>
       <c r="Z925" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="926" spans="1:26" x14ac:dyDescent="0.25">
@@ -44852,7 +44865,7 @@
         <v>85</v>
       </c>
       <c r="Z926" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="927" spans="1:26" x14ac:dyDescent="0.25">
@@ -44878,7 +44891,7 @@
         <v>85</v>
       </c>
       <c r="Z927" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="928" spans="1:26" x14ac:dyDescent="0.25">
@@ -44904,7 +44917,7 @@
         <v>85</v>
       </c>
       <c r="Z928" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="929" spans="1:29" x14ac:dyDescent="0.25">
@@ -44930,7 +44943,7 @@
         <v>85</v>
       </c>
       <c r="Z929" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="930" spans="1:29" x14ac:dyDescent="0.25">
@@ -46747,7 +46760,7 @@
         <v>4.0659999999999998</v>
       </c>
       <c r="E990" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G990" s="1" t="s">
         <v>188</v>
@@ -48630,7 +48643,7 @@
         <v>232</v>
       </c>
       <c r="E1036" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G1036" s="1" t="s">
         <v>188</v>
@@ -48674,7 +48687,7 @@
         <v>4.0119999999999996</v>
       </c>
       <c r="E1037" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G1037" s="1" t="s">
         <v>188</v>
@@ -50557,7 +50570,7 @@
         <v>232</v>
       </c>
       <c r="E1083" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G1083" s="1" t="s">
         <v>188</v>
@@ -50613,7 +50626,7 @@
         <v>85</v>
       </c>
       <c r="Z1084" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="1085" spans="1:29" x14ac:dyDescent="0.25">
@@ -50642,7 +50655,7 @@
         <v>85</v>
       </c>
       <c r="Z1085" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1086" spans="1:29" x14ac:dyDescent="0.25">
@@ -50671,7 +50684,7 @@
         <v>85</v>
       </c>
       <c r="Z1086" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="1087" spans="1:29" x14ac:dyDescent="0.25">
@@ -50700,7 +50713,7 @@
         <v>85</v>
       </c>
       <c r="Z1087" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="1088" spans="1:29" x14ac:dyDescent="0.25">
@@ -51059,7 +51072,7 @@
         <v>85</v>
       </c>
       <c r="Z1098" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="1099" spans="1:29" x14ac:dyDescent="0.25">
@@ -51154,7 +51167,7 @@
         <v>85</v>
       </c>
       <c r="Z1101" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="1102" spans="1:29" x14ac:dyDescent="0.25">
@@ -51183,7 +51196,7 @@
         <v>85</v>
       </c>
       <c r="Z1102" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="1103" spans="1:29" x14ac:dyDescent="0.25">
@@ -51212,7 +51225,7 @@
         <v>85</v>
       </c>
       <c r="Z1103" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1104" spans="1:29" x14ac:dyDescent="0.25">
@@ -51241,7 +51254,7 @@
         <v>85</v>
       </c>
       <c r="Z1104" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="1105" spans="1:29" x14ac:dyDescent="0.25">
@@ -51270,7 +51283,7 @@
         <v>85</v>
       </c>
       <c r="Z1105" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="1106" spans="1:29" x14ac:dyDescent="0.25">
@@ -51716,7 +51729,7 @@
         <v>6.4470000000000001</v>
       </c>
       <c r="E1119" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G1119" s="1" t="s">
         <v>188</v>
@@ -52724,7 +52737,7 @@
         <v>90</v>
       </c>
       <c r="C1158" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G1158" s="1" t="s">
         <v>188</v>
@@ -52747,10 +52760,10 @@
         <v>90</v>
       </c>
       <c r="C1159" t="s">
+        <v>703</v>
+      </c>
+      <c r="E1159" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="E1159" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G1159" s="1" t="s">
         <v>188</v>
@@ -52779,7 +52792,7 @@
         <v>6.1239999999999997</v>
       </c>
       <c r="E1160" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G1160" s="1" t="s">
         <v>188</v>
@@ -53946,7 +53959,7 @@
         <v>387</v>
       </c>
       <c r="C1205" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G1205" s="1" t="s">
         <v>188</v>
@@ -53969,10 +53982,10 @@
         <v>387</v>
       </c>
       <c r="C1206" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E1206" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G1206" s="1" t="s">
         <v>188</v>
@@ -53995,24 +54008,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD836908-61FC-4C6A-BB55-EB17A2B99FDD}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -54035,10 +54051,10 @@
         <v>540</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>541</v>
+        <v>710</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="J1" t="s">
         <v>226</v>
@@ -54046,8 +54062,11 @@
       <c r="K1" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -54077,7 +54096,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -54103,11 +54122,11 @@
         <v>45</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K13" si="0">SUM(G3:J3)</f>
+        <f>SUM(G3:J3)</f>
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -54133,11 +54152,11 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f>SUM(G4:J4)</f>
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -54163,11 +54182,11 @@
         <v>45</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f>SUM(G5:J5)</f>
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>58</v>
       </c>
@@ -54193,11 +54212,11 @@
         <v>45</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f>SUM(G6:J6)</f>
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>58</v>
       </c>
@@ -54223,11 +54242,11 @@
         <v>45</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f>SUM(G7:J7)</f>
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -54253,11 +54272,11 @@
         <v>45</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f>SUM(G8:J8)</f>
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -54283,11 +54302,11 @@
         <v>45</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f>SUM(G9:J9)</f>
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
@@ -54313,11 +54332,11 @@
         <v>45</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f>SUM(G10:J10)</f>
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
@@ -54343,11 +54362,11 @@
         <v>45</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f>SUM(G11:J11)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
@@ -54373,11 +54392,11 @@
         <v>45</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f>SUM(G12:J12)</f>
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>58</v>
       </c>
@@ -54406,11 +54425,11 @@
         <v>45</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f>SUM(G13:J13)</f>
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>58</v>
       </c>
@@ -54436,11 +54455,11 @@
         <v>45</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K28" si="1">SUM(G14:J14)</f>
+        <f>SUM(G14:J14)</f>
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -54469,11 +54488,11 @@
         <v>65</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f>SUM(G15:J15)</f>
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>58</v>
       </c>
@@ -54499,11 +54518,11 @@
         <v>65</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f>SUM(G16:J16)</f>
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -54529,11 +54548,11 @@
         <v>60</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f>SUM(G17:J17)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -54556,11 +54575,11 @@
         <v>67</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f>SUM(G18:J18)</f>
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>58</v>
       </c>
@@ -54589,11 +54608,11 @@
         <v>45</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f>SUM(G19:J19)</f>
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
@@ -54619,11 +54638,11 @@
         <v>45</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f>SUM(G20:J20)</f>
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -54652,11 +54671,11 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f>SUM(G21:J21)</f>
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -54682,11 +54701,11 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f>SUM(G22:J22)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>58</v>
       </c>
@@ -54709,11 +54728,11 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f>SUM(G23:J23)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>58</v>
       </c>
@@ -54736,11 +54755,11 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f>SUM(G24:J24)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="62" t="s">
         <v>58</v>
       </c>
@@ -54766,11 +54785,11 @@
         <v>64</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f>SUM(G25:J25)</f>
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
         <v>58</v>
       </c>
@@ -54793,11 +54812,11 @@
         <v>26</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f>SUM(G26:J26)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="62" t="s">
         <v>58</v>
       </c>
@@ -54820,16 +54839,16 @@
         <v>30</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f>SUM(G27:J27)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="62" t="s">
         <v>195</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>61</v>
@@ -54847,18 +54866,20 @@
         <v>2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
+        <f>SUM(G28:J28)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="62" t="s">
         <v>195</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>686</v>
-      </c>
-      <c r="C29" s="63"/>
+        <v>685</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>59</v>
+      </c>
       <c r="D29" s="42" t="s">
         <v>188</v>
       </c>
@@ -54868,29 +54889,32 @@
       <c r="F29" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="I29">
+      <c r="M29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="62" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="62" t="s">
         <v>58</v>
       </c>
@@ -54907,15 +54931,18 @@
       <c r="F31" s="42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="62" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="63" t="s">
+        <v>684</v>
+      </c>
+      <c r="C32" s="42" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="42" t="s">
@@ -54925,13 +54952,16 @@
       <c r="F32" s="42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="62" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>61</v>
@@ -54939,60 +54969,368 @@
       <c r="D33" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="42"/>
       <c r="F33" s="42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="62" t="s">
+        <v>195</v>
+      </c>
       <c r="B34" s="42" t="s">
-        <v>688</v>
+        <v>202</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>61</v>
+        <v>685</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>188</v>
       </c>
+      <c r="E34" s="42"/>
       <c r="F34" s="42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="62" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>686</v>
-      </c>
-      <c r="C35" s="63"/>
+        <v>59</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>61</v>
+      </c>
       <c r="D35" s="42" t="s">
         <v>188</v>
       </c>
       <c r="E35" s="42"/>
       <c r="F35" s="42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>684</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>708</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>685</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>711</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>712</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>687</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>713</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" t="s">
+        <v>714</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>228</v>
       </c>
-      <c r="G41">
+      <c r="G52">
         <f>SUM(G2:G30)</f>
         <v>2560</v>
       </c>
-      <c r="H41">
-        <f>SUM(H2:H30)</f>
-        <v>398</v>
-      </c>
-      <c r="J41">
-        <f>SUM(J2:J30)</f>
-        <v>985</v>
-      </c>
-      <c r="K41">
-        <f>SUM(G41:J41)</f>
-        <v>3943</v>
+      <c r="H52">
+        <f>SUM(H2:H49)</f>
+        <v>533</v>
+      </c>
+      <c r="I52">
+        <f>SUM(I2:I49)</f>
+        <v>106</v>
+      </c>
+      <c r="J52">
+        <f>SUM(J2:J51)</f>
+        <v>1022</v>
+      </c>
+      <c r="K52">
+        <f>SUM(G52:J52)</f>
+        <v>4221</v>
+      </c>
+      <c r="M52">
+        <f>SUM(M29:M51)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF58E124-D929-4122-9770-AC07ABF22219}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8AC8D8-EBC7-4582-9FF9-8E89C385AA0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" activeTab="2" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
+    <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Maggot_Collections" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10761" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10911" uniqueCount="715">
   <si>
     <t>Ind_ID</t>
   </si>
@@ -2358,7 +2358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2438,6 +2438,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2754,9 +2756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3F78F5-4EA8-6A42-B216-41A8EC7A5E8D}">
   <dimension ref="A1:AC306"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K153" sqref="K153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9849,36 +9851,36 @@
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="57">
         <v>12</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="57">
         <v>1</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H124" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="57">
         <v>1</v>
       </c>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
+      <c r="J124" s="58"/>
+      <c r="K124" s="58"/>
+      <c r="L124" s="58"/>
       <c r="M124" s="1" t="s">
         <v>194</v>
       </c>
@@ -9899,36 +9901,36 @@
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="B125" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D125" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="37">
         <v>13</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="37">
         <v>1</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H125" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="37">
         <v>239</v>
       </c>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
+      <c r="J125" s="38"/>
+      <c r="K125" s="38"/>
+      <c r="L125" s="38"/>
       <c r="M125" s="1" t="s">
         <v>194</v>
       </c>
@@ -9949,36 +9951,36 @@
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="C126" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D126" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="37">
         <v>13</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="37">
         <v>1</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H126" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="37">
         <v>3</v>
       </c>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
+      <c r="J126" s="38"/>
+      <c r="K126" s="38"/>
+      <c r="L126" s="38"/>
       <c r="M126" s="1" t="s">
         <v>194</v>
       </c>
@@ -9999,36 +10001,36 @@
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
+      <c r="A127" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="66" t="s">
         <v>680</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="C127" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="37">
         <v>13</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="37">
         <v>1</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H127" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="37">
         <v>18</v>
       </c>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
+      <c r="J127" s="38"/>
+      <c r="K127" s="38"/>
+      <c r="L127" s="38"/>
       <c r="M127" s="1" t="s">
         <v>194</v>
       </c>
@@ -10049,36 +10051,36 @@
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="C128" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D128" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="61">
         <v>13</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="61">
         <v>1</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="H128" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="61">
         <v>11</v>
       </c>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
+      <c r="J128" s="60"/>
+      <c r="K128" s="60"/>
+      <c r="L128" s="60"/>
       <c r="M128" s="1" t="s">
         <v>194</v>
       </c>
@@ -10098,7 +10100,34 @@
         <v>683</v>
       </c>
     </row>
-    <row r="129" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E129">
+        <v>27</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -10109,7 +10138,34 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
     </row>
-    <row r="130" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E130">
+        <v>12</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I130">
+        <v>267</v>
+      </c>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -10120,7 +10176,34 @@
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
     </row>
-    <row r="131" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E131">
+        <v>12</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I131">
+        <v>9</v>
+      </c>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -10131,7 +10214,34 @@
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
     </row>
-    <row r="132" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E132">
+        <v>12</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I132">
+        <v>17</v>
+      </c>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -10142,7 +10252,34 @@
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
     </row>
-    <row r="133" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B133" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C133" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D133" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E133" s="61">
+        <v>12</v>
+      </c>
+      <c r="F133" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G133" s="61">
+        <v>1</v>
+      </c>
+      <c r="H133" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I133" s="61">
+        <v>4</v>
+      </c>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -10153,7 +10290,34 @@
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
     </row>
-    <row r="134" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E134">
+        <v>12</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I134" s="63">
+        <v>205</v>
+      </c>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -10164,7 +10328,34 @@
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
     </row>
-    <row r="135" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A135" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E135">
+        <v>12</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I135">
+        <v>7</v>
+      </c>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -10175,7 +10366,34 @@
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
     </row>
-    <row r="136" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E136">
+        <v>12</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I136">
+        <v>16</v>
+      </c>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -10186,7 +10404,34 @@
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
     </row>
-    <row r="137" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A137" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B137" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C137" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D137" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E137" s="61">
+        <v>12</v>
+      </c>
+      <c r="F137" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G137" s="61">
+        <v>1</v>
+      </c>
+      <c r="H137" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I137" s="61">
+        <v>3</v>
+      </c>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -10197,7 +10442,34 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
     </row>
-    <row r="138" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E138">
+        <v>12</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I138" s="63">
+        <v>195</v>
+      </c>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -10208,7 +10480,34 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
     </row>
-    <row r="139" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A139" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E139">
+        <v>12</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I139">
+        <v>3</v>
+      </c>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -10219,7 +10518,34 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
     </row>
-    <row r="140" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E140">
+        <v>12</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I140">
+        <v>18</v>
+      </c>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -10230,7 +10556,34 @@
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
     </row>
-    <row r="141" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B141" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C141" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D141" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E141" s="61">
+        <v>12</v>
+      </c>
+      <c r="F141" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="G141" s="61">
+        <v>1</v>
+      </c>
+      <c r="H141" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I141">
+        <v>7</v>
+      </c>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -10241,7 +10594,34 @@
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
     </row>
-    <row r="142" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A142" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E142">
+        <v>12</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I142">
+        <v>146</v>
+      </c>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -10252,7 +10632,34 @@
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
     </row>
-    <row r="143" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E143">
+        <v>12</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I143">
+        <v>12</v>
+      </c>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -10263,7 +10670,34 @@
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
     </row>
-    <row r="144" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A144" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B144" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C144" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D144" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E144" s="61">
+        <v>12</v>
+      </c>
+      <c r="F144" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G144" s="61">
+        <v>1</v>
+      </c>
+      <c r="H144" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I144">
+        <v>6</v>
+      </c>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -10274,7 +10708,34 @@
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
     </row>
-    <row r="145" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E145">
+        <v>12</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I145">
+        <v>175</v>
+      </c>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -10285,7 +10746,34 @@
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
     </row>
-    <row r="146" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A146" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E146">
+        <v>12</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I146">
+        <v>14</v>
+      </c>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -10296,7 +10784,34 @@
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
     </row>
-    <row r="147" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A147" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B147" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C147" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D147" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147" s="61">
+        <v>12</v>
+      </c>
+      <c r="F147" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G147" s="61">
+        <v>1</v>
+      </c>
+      <c r="H147" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -10307,7 +10822,34 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
     </row>
-    <row r="148" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A148" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E148">
+        <v>12</v>
+      </c>
+      <c r="F148" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I148">
+        <v>128</v>
+      </c>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -10318,7 +10860,34 @@
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
     </row>
-    <row r="149" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E149">
+        <v>12</v>
+      </c>
+      <c r="F149" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I149">
+        <v>11</v>
+      </c>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -10329,7 +10898,34 @@
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
     </row>
-    <row r="150" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A150" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B150" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C150" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D150" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E150" s="61">
+        <v>12</v>
+      </c>
+      <c r="F150" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G150" s="61">
+        <v>1</v>
+      </c>
+      <c r="H150" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -10340,7 +10936,34 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
     </row>
-    <row r="151" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A151" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E151">
+        <v>12</v>
+      </c>
+      <c r="F151" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I151">
+        <v>100</v>
+      </c>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
@@ -10351,7 +10974,34 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
     </row>
-    <row r="152" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152">
+        <v>12</v>
+      </c>
+      <c r="F152" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I152">
+        <v>7</v>
+      </c>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -10362,7 +11012,34 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
     </row>
-    <row r="153" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A153" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B153" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="C153" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D153" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E153" s="61">
+        <v>12</v>
+      </c>
+      <c r="F153" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G153" s="61">
+        <v>1</v>
+      </c>
+      <c r="H153" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -10373,7 +11050,7 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
     </row>
-    <row r="154" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -10384,7 +11061,7 @@
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
     </row>
-    <row r="155" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -10395,7 +11072,7 @@
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
     </row>
-    <row r="156" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -10406,7 +11083,7 @@
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
     </row>
-    <row r="157" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -10417,7 +11094,7 @@
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
     </row>
-    <row r="158" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -10428,7 +11105,7 @@
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
     </row>
-    <row r="159" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -10439,7 +11116,7 @@
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
     </row>
-    <row r="160" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
@@ -54010,8 +54687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD836908-61FC-4C6A-BB55-EB17A2B99FDD}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -54092,7 +54769,7 @@
         <v>45</v>
       </c>
       <c r="K2">
-        <f>SUM(G2:J2)</f>
+        <f t="shared" ref="K2:K28" si="0">SUM(G2:J2)</f>
         <v>168</v>
       </c>
     </row>
@@ -54122,7 +54799,7 @@
         <v>45</v>
       </c>
       <c r="K3">
-        <f>SUM(G3:J3)</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
     </row>
@@ -54152,7 +54829,7 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <f>SUM(G4:J4)</f>
+        <f t="shared" si="0"/>
         <v>253</v>
       </c>
     </row>
@@ -54182,7 +54859,7 @@
         <v>45</v>
       </c>
       <c r="K5">
-        <f>SUM(G5:J5)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
     </row>
@@ -54212,7 +54889,7 @@
         <v>45</v>
       </c>
       <c r="K6">
-        <f>SUM(G6:J6)</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
     </row>
@@ -54242,7 +54919,7 @@
         <v>45</v>
       </c>
       <c r="K7">
-        <f>SUM(G7:J7)</f>
+        <f t="shared" si="0"/>
         <v>123</v>
       </c>
     </row>
@@ -54272,7 +54949,7 @@
         <v>45</v>
       </c>
       <c r="K8">
-        <f>SUM(G8:J8)</f>
+        <f t="shared" si="0"/>
         <v>252</v>
       </c>
     </row>
@@ -54302,7 +54979,7 @@
         <v>45</v>
       </c>
       <c r="K9">
-        <f>SUM(G9:J9)</f>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
     </row>
@@ -54332,7 +55009,7 @@
         <v>45</v>
       </c>
       <c r="K10">
-        <f>SUM(G10:J10)</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
     </row>
@@ -54362,7 +55039,7 @@
         <v>45</v>
       </c>
       <c r="K11">
-        <f>SUM(G11:J11)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -54392,7 +55069,7 @@
         <v>45</v>
       </c>
       <c r="K12">
-        <f>SUM(G12:J12)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
@@ -54425,7 +55102,7 @@
         <v>45</v>
       </c>
       <c r="K13">
-        <f>SUM(G13:J13)</f>
+        <f t="shared" si="0"/>
         <v>299</v>
       </c>
     </row>
@@ -54455,7 +55132,7 @@
         <v>45</v>
       </c>
       <c r="K14">
-        <f>SUM(G14:J14)</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
     </row>
@@ -54488,7 +55165,7 @@
         <v>65</v>
       </c>
       <c r="K15">
-        <f>SUM(G15:J15)</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
     </row>
@@ -54518,7 +55195,7 @@
         <v>65</v>
       </c>
       <c r="K16">
-        <f>SUM(G16:J16)</f>
+        <f t="shared" si="0"/>
         <v>122</v>
       </c>
     </row>
@@ -54548,7 +55225,7 @@
         <v>60</v>
       </c>
       <c r="K17">
-        <f>SUM(G17:J17)</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
     </row>
@@ -54575,7 +55252,7 @@
         <v>67</v>
       </c>
       <c r="K18">
-        <f>SUM(G18:J18)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
@@ -54608,7 +55285,7 @@
         <v>45</v>
       </c>
       <c r="K19">
-        <f>SUM(G19:J19)</f>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
     </row>
@@ -54638,7 +55315,7 @@
         <v>45</v>
       </c>
       <c r="K20">
-        <f>SUM(G20:J20)</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
@@ -54671,7 +55348,7 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <f>SUM(G21:J21)</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
     </row>
@@ -54701,7 +55378,7 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <f>SUM(G22:J22)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
@@ -54728,7 +55405,7 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <f>SUM(G23:J23)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
@@ -54755,7 +55432,7 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <f>SUM(G24:J24)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -54785,7 +55462,7 @@
         <v>64</v>
       </c>
       <c r="K25">
-        <f>SUM(G25:J25)</f>
+        <f t="shared" si="0"/>
         <v>166</v>
       </c>
     </row>
@@ -54812,7 +55489,7 @@
         <v>26</v>
       </c>
       <c r="K26">
-        <f>SUM(G26:J26)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -54839,7 +55516,7 @@
         <v>30</v>
       </c>
       <c r="K27">
-        <f>SUM(G27:J27)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -54866,7 +55543,7 @@
         <v>2</v>
       </c>
       <c r="K28">
-        <f>SUM(G28:J28)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>

--- a/Data/2018-08-14_master_datac_2018_collection_year.xlsx
+++ b/Data/2018-08-14_master_datac_2018_collection_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8AC8D8-EBC7-4582-9FF9-8E89C385AA0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C41CF-86DB-43B9-866D-CB674BDAE40B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53055" yWindow="465" windowWidth="36360" windowHeight="21135" xr2:uid="{C7477166-8A7C-B04A-9643-C277FEDCDAAB}"/>
   </bookViews>
@@ -2182,7 +2182,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2193,6 +2193,14 @@
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2358,7 +2366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2440,6 +2448,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" f